--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD23F6DF-BF72-4301-B0C0-D1B8263A8036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355ADA51-4DA2-4E23-869C-197E5806548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1110">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -3729,14 +3729,32 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Site1</t>
+    <t>Lac Leman</t>
+  </si>
+  <si>
+    <t>Lac Annecy</t>
+  </si>
+  <si>
+    <t>45.874348</t>
+  </si>
+  <si>
+    <t>6.162231</t>
+  </si>
+  <si>
+    <t>Lac Bourget</t>
+  </si>
+  <si>
+    <t>45.697888</t>
+  </si>
+  <si>
+    <t>5.870755</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4163,51 +4181,51 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -4231,7 +4249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4253,15 +4271,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="L190" sqref="L190"/>
+      <selection pane="bottomLeft" activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="10" bestFit="1" customWidth="1"/>
@@ -4284,7 +4302,7 @@
     <col min="19" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -4340,7 +4358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="72.5" hidden="1">
+    <row r="2" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -4394,7 +4412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="58" hidden="1">
+    <row r="3" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="174" hidden="1">
+    <row r="4" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -4494,7 +4512,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="87" hidden="1">
+    <row r="5" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4548,7 +4566,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="145" hidden="1">
+    <row r="6" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -4598,7 +4616,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="116" hidden="1">
+    <row r="7" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -4650,7 +4668,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="159.5" hidden="1">
+    <row r="8" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="87" hidden="1">
+    <row r="9" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -4758,7 +4776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="116" hidden="1">
+    <row r="10" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -4810,7 +4828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="72.5" hidden="1">
+    <row r="11" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="101.5" hidden="1">
+    <row r="12" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -4914,7 +4932,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="188.5" hidden="1">
+    <row r="13" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -4966,7 +4984,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="174" hidden="1">
+    <row r="14" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="101.5" hidden="1">
+    <row r="15" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -5066,7 +5084,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="87" hidden="1">
+    <row r="16" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -5118,7 +5136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="101.5" hidden="1">
+    <row r="17" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -5170,7 +5188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="58" hidden="1">
+    <row r="18" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -5222,7 +5240,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="87" hidden="1">
+    <row r="19" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="87" hidden="1">
+    <row r="20" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -5322,7 +5340,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="116" hidden="1">
+    <row r="21" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -5374,7 +5392,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="174" hidden="1">
+    <row r="22" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -5426,7 +5444,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="116" hidden="1">
+    <row r="23" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -5480,7 +5498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="72.5" hidden="1">
+    <row r="24" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
@@ -5534,7 +5552,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="58" hidden="1">
+    <row r="25" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -5584,7 +5602,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="159.5" hidden="1">
+    <row r="26" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="101.5" hidden="1">
+    <row r="27" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -5692,7 +5710,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="116" hidden="1">
+    <row r="28" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -5744,7 +5762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="58" hidden="1">
+    <row r="29" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -5794,7 +5812,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="87" hidden="1">
+    <row r="30" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -5844,7 +5862,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="72.5" hidden="1">
+    <row r="31" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -5894,7 +5912,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="72.5" hidden="1">
+    <row r="32" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -5944,7 +5962,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="101.5" hidden="1">
+    <row r="33" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -5996,7 +6014,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="159.5" hidden="1">
+    <row r="34" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6048,7 +6066,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="130.5" hidden="1">
+    <row r="35" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="130.5" hidden="1">
+    <row r="36" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -6156,7 +6174,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="217.5" hidden="1">
+    <row r="37" spans="1:18" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -6208,7 +6226,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="101.5" hidden="1">
+    <row r="38" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -6258,7 +6276,7 @@
       </c>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="145" hidden="1">
+    <row r="39" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -6310,7 +6328,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="116" hidden="1">
+    <row r="40" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -6362,7 +6380,7 @@
       </c>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="246.5" hidden="1">
+    <row r="41" spans="1:18" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -6416,7 +6434,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="249.5" hidden="1" customHeight="1">
+    <row r="42" spans="1:18" ht="249.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6484,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="58" hidden="1">
+    <row r="43" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -6516,7 +6534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="275.5" hidden="1" customHeight="1">
+    <row r="44" spans="1:18" ht="275.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -6564,7 +6582,7 @@
       </c>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="116" hidden="1">
+    <row r="45" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -6616,7 +6634,7 @@
       </c>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="87" hidden="1">
+    <row r="46" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="116" hidden="1">
+    <row r="47" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="72.5" hidden="1">
+    <row r="48" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -6776,7 +6794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="145" hidden="1">
+    <row r="49" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -6830,7 +6848,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="188.5" hidden="1">
+    <row r="50" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -6882,7 +6900,7 @@
       </c>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="101.5" hidden="1">
+    <row r="51" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -6934,7 +6952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="58" hidden="1">
+    <row r="52" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -6986,7 +7004,7 @@
       </c>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="1:18" ht="188.5" hidden="1">
+    <row r="53" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -7040,7 +7058,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="87" hidden="1">
+    <row r="54" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -7092,7 +7110,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="116" hidden="1">
+    <row r="55" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="116" hidden="1">
+    <row r="56" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="101.5" hidden="1">
+    <row r="57" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -7252,7 +7270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="159.5" hidden="1">
+    <row r="58" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
@@ -7306,7 +7324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="116">
+    <row r="59" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>32</v>
       </c>
@@ -7356,7 +7374,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="72.5" hidden="1">
+    <row r="60" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -7396,7 +7414,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18" ht="72.5">
+    <row r="61" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="87">
+    <row r="62" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -7498,7 +7516,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="304.5">
+    <row r="63" spans="1:18" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
@@ -7548,7 +7566,7 @@
       </c>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" ht="101.5">
+    <row r="64" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
@@ -7598,7 +7616,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="87">
+    <row r="65" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
@@ -7648,7 +7666,7 @@
       </c>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="1:18" ht="130.5">
+    <row r="66" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
@@ -7700,7 +7718,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="130.5">
+    <row r="67" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -7754,7 +7772,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="130.5">
+    <row r="68" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>32</v>
       </c>
@@ -7808,7 +7826,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="145">
+    <row r="69" spans="1:18" ht="145" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
@@ -7862,7 +7880,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="87">
+    <row r="70" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
@@ -7916,7 +7934,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="130.5">
+    <row r="71" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
@@ -7970,7 +7988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="101.5">
+    <row r="72" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>32</v>
       </c>
@@ -8024,7 +8042,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="116">
+    <row r="73" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="72.5">
+    <row r="74" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
@@ -8130,7 +8148,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="72.5" hidden="1">
+    <row r="75" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -8178,7 +8196,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="1:18" ht="130.5" hidden="1">
+    <row r="76" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -8228,7 +8246,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="58" hidden="1">
+    <row r="77" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>32</v>
       </c>
@@ -8280,7 +8298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="174" hidden="1">
+    <row r="78" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
@@ -8328,7 +8346,7 @@
       </c>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="1:18" ht="116" hidden="1">
+    <row r="79" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -8380,7 +8398,7 @@
       </c>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="1:18" ht="145" hidden="1">
+    <row r="80" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>32</v>
       </c>
@@ -8434,7 +8452,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="188.5" hidden="1">
+    <row r="81" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>32</v>
       </c>
@@ -8486,7 +8504,7 @@
       </c>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="1:18" ht="72.5" hidden="1">
+    <row r="82" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -8536,7 +8554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="304.5" hidden="1">
+    <row r="83" spans="1:18" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>32</v>
       </c>
@@ -8586,7 +8604,7 @@
       </c>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="1:18" ht="87" hidden="1">
+    <row r="84" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
@@ -8640,7 +8658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="87" hidden="1">
+    <row r="85" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
@@ -8690,7 +8708,7 @@
       </c>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="1:18" ht="87" hidden="1">
+    <row r="86" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -8742,7 +8760,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="130.5" hidden="1">
+    <row r="87" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -8796,7 +8814,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="188.5" hidden="1">
+    <row r="88" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -8848,7 +8866,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="87" hidden="1">
+    <row r="89" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>32</v>
       </c>
@@ -8902,7 +8920,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="116" hidden="1">
+    <row r="90" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
@@ -8954,7 +8972,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="101.5" hidden="1">
+    <row r="91" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
@@ -9004,7 +9022,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="72.5">
+    <row r="92" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>32</v>
       </c>
@@ -9048,7 +9066,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" ht="101.5" hidden="1">
+    <row r="93" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="203" hidden="1">
+    <row r="94" spans="1:18" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>32</v>
       </c>
@@ -9152,7 +9170,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="116" hidden="1">
+    <row r="95" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -9204,7 +9222,7 @@
       </c>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="1:18" ht="87" hidden="1">
+    <row r="96" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>32</v>
       </c>
@@ -9256,7 +9274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="174" hidden="1">
+    <row r="97" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
@@ -9310,7 +9328,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="72.5" hidden="1">
+    <row r="98" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>32</v>
       </c>
@@ -9362,7 +9380,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="58" hidden="1">
+    <row r="99" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9412,7 +9430,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="87" hidden="1">
+    <row r="100" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
@@ -9466,7 +9484,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="72.5" hidden="1">
+    <row r="101" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>32</v>
       </c>
@@ -9516,7 +9534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="130.5" hidden="1">
+    <row r="102" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
@@ -9568,7 +9586,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="87" hidden="1">
+    <row r="103" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
@@ -9620,7 +9638,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="159.5" hidden="1">
+    <row r="104" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
@@ -9670,7 +9688,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="116" hidden="1">
+    <row r="105" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>32</v>
       </c>
@@ -9722,7 +9740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="101.5" hidden="1">
+    <row r="106" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>32</v>
       </c>
@@ -9774,7 +9792,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="72.5" hidden="1">
+    <row r="107" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="145" hidden="1">
+    <row r="108" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>32</v>
       </c>
@@ -9878,7 +9896,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="188.5" hidden="1">
+    <row r="109" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
@@ -9930,7 +9948,7 @@
       </c>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="1:18" ht="116" hidden="1">
+    <row r="110" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>32</v>
       </c>
@@ -9982,7 +10000,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="174" hidden="1">
+    <row r="111" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
@@ -10034,7 +10052,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="116" hidden="1">
+    <row r="112" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>32</v>
       </c>
@@ -10088,7 +10106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="145" hidden="1">
+    <row r="113" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
@@ -10142,7 +10160,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="145" hidden="1">
+    <row r="114" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
@@ -10192,7 +10210,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
-    <row r="115" spans="1:18" ht="116" hidden="1">
+    <row r="115" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
@@ -10244,7 +10262,7 @@
       </c>
       <c r="R115" s="6"/>
     </row>
-    <row r="116" spans="1:18" ht="145" hidden="1">
+    <row r="116" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -10296,7 +10314,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="188.5" hidden="1">
+    <row r="117" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>32</v>
       </c>
@@ -10350,7 +10368,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="130.5" hidden="1">
+    <row r="118" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -10404,7 +10422,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="116" hidden="1">
+    <row r="119" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>32</v>
       </c>
@@ -10456,7 +10474,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="159.5" hidden="1">
+    <row r="120" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>32</v>
       </c>
@@ -10510,7 +10528,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="72.5" hidden="1">
+    <row r="121" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
@@ -10556,7 +10574,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
     </row>
-    <row r="122" spans="1:18" ht="58" hidden="1">
+    <row r="122" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>32</v>
       </c>
@@ -10608,7 +10626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="145" hidden="1">
+    <row r="123" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>32</v>
       </c>
@@ -10662,7 +10680,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="29" hidden="1">
+    <row r="124" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>32</v>
       </c>
@@ -10712,7 +10730,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="87" hidden="1">
+    <row r="125" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
@@ -10758,7 +10776,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" ht="101.5" hidden="1">
+    <row r="126" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="58" hidden="1">
+    <row r="127" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
@@ -10860,7 +10878,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="58" hidden="1">
+    <row r="128" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>32</v>
       </c>
@@ -10912,7 +10930,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="72.5">
+    <row r="129" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>32</v>
       </c>
@@ -10954,7 +10972,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="1:18" ht="87" hidden="1">
+    <row r="130" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -11004,7 +11022,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="58" hidden="1">
+    <row r="131" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>32</v>
       </c>
@@ -11056,7 +11074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="145" hidden="1">
+    <row r="132" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>32</v>
       </c>
@@ -11108,7 +11126,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="87" hidden="1">
+    <row r="133" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
@@ -11160,7 +11178,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="188.5" hidden="1">
+    <row r="134" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -11212,7 +11230,7 @@
       </c>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="1:18" ht="72.5" hidden="1">
+    <row r="135" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -11264,7 +11282,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="174" hidden="1">
+    <row r="136" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -11314,7 +11332,7 @@
       </c>
       <c r="R136" s="6"/>
     </row>
-    <row r="137" spans="1:18" ht="58" hidden="1">
+    <row r="137" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -11362,7 +11380,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="72.5" hidden="1">
+    <row r="138" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -11414,7 +11432,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="43.5" hidden="1">
+    <row r="139" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -11462,7 +11480,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="72.5" hidden="1">
+    <row r="140" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -11502,7 +11520,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
     </row>
-    <row r="141" spans="1:18" ht="145" hidden="1">
+    <row r="141" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -11552,7 +11570,7 @@
       </c>
       <c r="R141" s="6"/>
     </row>
-    <row r="142" spans="1:18" ht="58" hidden="1">
+    <row r="142" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -11602,7 +11620,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="130.5" hidden="1">
+    <row r="143" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -11654,7 +11672,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="87" hidden="1">
+    <row r="144" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -11706,7 +11724,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="58" hidden="1">
+    <row r="145" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -11756,7 +11774,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="130.5" hidden="1">
+    <row r="146" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
@@ -11808,7 +11826,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="58" hidden="1">
+    <row r="147" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>32</v>
       </c>
@@ -11856,7 +11874,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="116" hidden="1">
+    <row r="148" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
@@ -11910,7 +11928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="72.5" hidden="1">
+    <row r="149" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>32</v>
       </c>
@@ -11958,7 +11976,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="87" hidden="1">
+    <row r="150" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>32</v>
       </c>
@@ -12010,7 +12028,7 @@
       </c>
       <c r="R150" s="6"/>
     </row>
-    <row r="151" spans="1:18" ht="87" hidden="1">
+    <row r="151" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -12062,7 +12080,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="72.5" hidden="1">
+    <row r="152" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>32</v>
       </c>
@@ -12112,7 +12130,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="72.5" hidden="1">
+    <row r="153" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -12162,7 +12180,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="72.5" hidden="1">
+    <row r="154" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -12216,7 +12234,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="58" hidden="1">
+    <row r="155" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -12264,7 +12282,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="87" hidden="1">
+    <row r="156" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>32</v>
       </c>
@@ -12316,7 +12334,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="87" hidden="1">
+    <row r="157" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -12368,7 +12386,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="174" hidden="1">
+    <row r="158" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>32</v>
       </c>
@@ -12420,7 +12438,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="116" hidden="1">
+    <row r="159" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>32</v>
       </c>
@@ -12470,7 +12488,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="101.5" hidden="1">
+    <row r="160" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>32</v>
       </c>
@@ -12522,7 +12540,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="145" hidden="1">
+    <row r="161" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
@@ -12576,7 +12594,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="159.5" hidden="1">
+    <row r="162" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>32</v>
       </c>
@@ -12628,7 +12646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="188.5" hidden="1">
+    <row r="163" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
@@ -12680,7 +12698,7 @@
       </c>
       <c r="R163" s="6"/>
     </row>
-    <row r="164" spans="1:18" ht="130.5" hidden="1">
+    <row r="164" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>32</v>
       </c>
@@ -12734,7 +12752,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="29" hidden="1">
+    <row r="165" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>32</v>
       </c>
@@ -12772,7 +12790,7 @@
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
     </row>
-    <row r="166" spans="1:18" ht="116" hidden="1">
+    <row r="166" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
@@ -12822,7 +12840,7 @@
       </c>
       <c r="R166" s="6"/>
     </row>
-    <row r="167" spans="1:18" ht="145" hidden="1">
+    <row r="167" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>32</v>
       </c>
@@ -12874,7 +12892,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="43.5" hidden="1">
+    <row r="168" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>32</v>
       </c>
@@ -12912,7 +12930,7 @@
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
     </row>
-    <row r="169" spans="1:18" ht="116" hidden="1">
+    <row r="169" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
@@ -12966,7 +12984,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="101.5" hidden="1">
+    <row r="170" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>32</v>
       </c>
@@ -13020,7 +13038,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="87" hidden="1">
+    <row r="171" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>32</v>
       </c>
@@ -13072,7 +13090,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="87" hidden="1">
+    <row r="172" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
@@ -13126,7 +13144,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="72.5" hidden="1">
+    <row r="173" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
@@ -13176,7 +13194,7 @@
       </c>
       <c r="R173" s="6"/>
     </row>
-    <row r="174" spans="1:18" ht="87" hidden="1">
+    <row r="174" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
@@ -13230,7 +13248,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="72.5" hidden="1">
+    <row r="175" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
@@ -13272,7 +13290,7 @@
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
     </row>
-    <row r="176" spans="1:18" ht="130.5" hidden="1">
+    <row r="176" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
@@ -13314,7 +13332,7 @@
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
     </row>
-    <row r="177" spans="1:18" ht="159.5" hidden="1">
+    <row r="177" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
@@ -13356,7 +13374,7 @@
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
     </row>
-    <row r="178" spans="1:18" ht="72.5" hidden="1">
+    <row r="178" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
@@ -13398,7 +13416,7 @@
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
     </row>
-    <row r="179" spans="1:18" ht="43.5" hidden="1">
+    <row r="179" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>32</v>
       </c>
@@ -13440,7 +13458,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
     </row>
-    <row r="180" spans="1:18" ht="58" hidden="1">
+    <row r="180" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>32</v>
       </c>
@@ -13482,7 +13500,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
     </row>
-    <row r="181" spans="1:18" ht="72.5" hidden="1">
+    <row r="181" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
@@ -13524,7 +13542,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
     </row>
-    <row r="182" spans="1:18" ht="58" hidden="1">
+    <row r="182" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
@@ -13566,7 +13584,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
     </row>
-    <row r="183" spans="1:18" ht="116" hidden="1">
+    <row r="183" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
@@ -13608,7 +13626,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
     </row>
-    <row r="184" spans="1:18" ht="87" hidden="1">
+    <row r="184" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
@@ -13650,7 +13668,7 @@
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
     </row>
-    <row r="185" spans="1:18" ht="58" hidden="1">
+    <row r="185" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
@@ -13692,7 +13710,7 @@
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
     </row>
-    <row r="186" spans="1:18" ht="87" hidden="1">
+    <row r="186" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>32</v>
       </c>
@@ -13736,7 +13754,7 @@
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
@@ -13761,6 +13779,58 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A189" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R186" xr:uid="{00000000-0009-0000-0000-000001000000}">

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355ADA51-4DA2-4E23-869C-197E5806548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BD686-EA38-4FBB-8247-F5FED924E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$R$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$R$244</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1229">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -2368,12 +2368,6 @@
     <t>CIRAD-tutelle (UPR 114)</t>
   </si>
   <si>
-    <t>43.6455428</t>
-  </si>
-  <si>
-    <t>3.8702231</t>
-  </si>
-  <si>
     <t>dirbiowooeb@cirad.fr</t>
   </si>
   <si>
@@ -2601,12 +2595,6 @@
 M. Bruno TISSEYRE (Directeur adjoint)</t>
   </si>
   <si>
-    <t>48.0646777</t>
-  </si>
-  <si>
-    <t>7.3355242</t>
-  </si>
-  <si>
     <t>LBE</t>
   </si>
   <si>
@@ -3331,12 +3319,6 @@
     <t>5.712397</t>
   </si>
   <si>
-    <t>49.25</t>
-  </si>
-  <si>
-    <t>4.03333</t>
-  </si>
-  <si>
     <t>43.684167</t>
   </si>
   <si>
@@ -3402,12 +3384,6 @@
     <t>6.139934539794922</t>
   </si>
   <si>
-    <t>48.74661636352539</t>
-  </si>
-  <si>
-    <t>6.34599494934082</t>
-  </si>
-  <si>
     <t>45.77894592285156</t>
   </si>
   <si>
@@ -3578,12 +3554,6 @@
 33175 Gradignan</t>
   </si>
   <si>
-    <t>44.7935</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
     <t>3275 Route de Cézanne 13182 Aix-en-Provence</t>
   </si>
   <si>
@@ -3597,12 +3567,6 @@
 54280 Champenoux</t>
   </si>
   <si>
-    <t>48.7450728</t>
-  </si>
-  <si>
-    <t>6.3492186</t>
-  </si>
-  <si>
     <t>43.917101</t>
   </si>
   <si>
@@ -3748,13 +3712,406 @@
   </si>
   <si>
     <t>5.870755</t>
+  </si>
+  <si>
+    <t>Lac Aiguebelette</t>
+  </si>
+  <si>
+    <t>45.550361</t>
+  </si>
+  <si>
+    <t>5.797729</t>
+  </si>
+  <si>
+    <t>Lac de Chavolet</t>
+  </si>
+  <si>
+    <t>45.825026</t>
+  </si>
+  <si>
+    <t>5.696429</t>
+  </si>
+  <si>
+    <t>Lac Pavin</t>
+  </si>
+  <si>
+    <t>45.29</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>Lac de Carcans Hourtin</t>
+  </si>
+  <si>
+    <t>45.131361</t>
+  </si>
+  <si>
+    <t>-1.116441</t>
+  </si>
+  <si>
+    <t>Lac de Lacanau</t>
+  </si>
+  <si>
+    <t>44.971974</t>
+  </si>
+  <si>
+    <t>-1.117543</t>
+  </si>
+  <si>
+    <t>Lac de Cazaux Sanguinet</t>
+  </si>
+  <si>
+    <t>44.448041</t>
+  </si>
+  <si>
+    <t>-1.158596</t>
+  </si>
+  <si>
+    <t>Lac de Parentis Biscarosse</t>
+  </si>
+  <si>
+    <t>44.349011</t>
+  </si>
+  <si>
+    <t>-1.170053</t>
+  </si>
+  <si>
+    <t>Retenue de Serre Ponçon</t>
+  </si>
+  <si>
+    <t>44.480838</t>
+  </si>
+  <si>
+    <t>6.28972</t>
+  </si>
+  <si>
+    <t>Etang de Birieux</t>
+  </si>
+  <si>
+    <t>45.952717</t>
+  </si>
+  <si>
+    <t>5.024213</t>
+  </si>
+  <si>
+    <t>47.134471</t>
+  </si>
+  <si>
+    <t>5.845706</t>
+  </si>
+  <si>
+    <t>Reservoir de Charmes</t>
+  </si>
+  <si>
+    <t>47.910509</t>
+  </si>
+  <si>
+    <t>5.381445</t>
+  </si>
+  <si>
+    <t>Bernadouze</t>
+  </si>
+  <si>
+    <t>42.80258</t>
+  </si>
+  <si>
+    <t>1.4238</t>
+  </si>
+  <si>
+    <t>Frasnes</t>
+  </si>
+  <si>
+    <t>46.8404</t>
+  </si>
+  <si>
+    <t>6.1785</t>
+  </si>
+  <si>
+    <t>La Guette</t>
+  </si>
+  <si>
+    <t>47.32169</t>
+  </si>
+  <si>
+    <t>2.28047</t>
+  </si>
+  <si>
+    <t>Gravière Oselle</t>
+  </si>
+  <si>
+    <t>Puechabon</t>
+  </si>
+  <si>
+    <t>Font Blanche</t>
+  </si>
+  <si>
+    <t>Bilos</t>
+  </si>
+  <si>
+    <t>Barbeau</t>
+  </si>
+  <si>
+    <t>Hesse</t>
+  </si>
+  <si>
+    <t>O3HP</t>
+  </si>
+  <si>
+    <t>Montiers</t>
+  </si>
+  <si>
+    <t>Itatinga</t>
+  </si>
+  <si>
+    <t>43.7413</t>
+  </si>
+  <si>
+    <t>43.2408</t>
+  </si>
+  <si>
+    <t>44.4937</t>
+  </si>
+  <si>
+    <t>48.6741</t>
+  </si>
+  <si>
+    <t>43.9378</t>
+  </si>
+  <si>
+    <t>48.4764</t>
+  </si>
+  <si>
+    <t>48.5317</t>
+  </si>
+  <si>
+    <t>-48.6333</t>
+  </si>
+  <si>
+    <t>-23.03333</t>
+  </si>
+  <si>
+    <t>3.5957</t>
+  </si>
+  <si>
+    <t>5.6787</t>
+  </si>
+  <si>
+    <t>-0.9561</t>
+  </si>
+  <si>
+    <t>2.7801</t>
+  </si>
+  <si>
+    <t>5.7178</t>
+  </si>
+  <si>
+    <t>7.0647</t>
+  </si>
+  <si>
+    <t>5.2689</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Battambang</t>
+  </si>
+  <si>
+    <t>Bos khnor</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>-17.8567035</t>
+  </si>
+  <si>
+    <t>31.0601584</t>
+  </si>
+  <si>
+    <t>12.1586188</t>
+  </si>
+  <si>
+    <t>105.3309759</t>
+  </si>
+  <si>
+    <t>12.9256791</t>
+  </si>
+  <si>
+    <t>103.2317136</t>
+  </si>
+  <si>
+    <t>21.3169625</t>
+  </si>
+  <si>
+    <t>106.437985</t>
+  </si>
+  <si>
+    <t>43.6112422</t>
+  </si>
+  <si>
+    <t>3.8767337</t>
+  </si>
+  <si>
+    <t>43.6044622</t>
+  </si>
+  <si>
+    <t>1.4442469</t>
+  </si>
+  <si>
+    <t>47.3215806</t>
+  </si>
+  <si>
+    <t>5.0414701</t>
+  </si>
+  <si>
+    <t>49.9666304</t>
+  </si>
+  <si>
+    <t>3.2873583</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Ho Chi Min</t>
+  </si>
+  <si>
+    <t>Nouvelle Caledonie</t>
+  </si>
+  <si>
+    <t>Estrees Mons</t>
+  </si>
+  <si>
+    <t>-21.3019905</t>
+  </si>
+  <si>
+    <t>165.4880773</t>
+  </si>
+  <si>
+    <t>10.7763897</t>
+  </si>
+  <si>
+    <t>106.7011391</t>
+  </si>
+  <si>
+    <t>-22.9110137</t>
+  </si>
+  <si>
+    <t>-43.2093727</t>
+  </si>
+  <si>
+    <t>-4.7493933</t>
+  </si>
+  <si>
+    <t>-52.8973006</t>
+  </si>
+  <si>
+    <t>4.0039882</t>
+  </si>
+  <si>
+    <t>-52.999998</t>
+  </si>
+  <si>
+    <t>16.2528827</t>
+  </si>
+  <si>
+    <t>-61.5686855</t>
+  </si>
+  <si>
+    <t>Lusignan</t>
+  </si>
+  <si>
+    <t>Theix</t>
+  </si>
+  <si>
+    <t>Laqueille</t>
+  </si>
+  <si>
+    <t>Breuil</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Feucherolles</t>
+  </si>
+  <si>
+    <t>La Bouzule</t>
+  </si>
+  <si>
+    <t>48.8725969</t>
+  </si>
+  <si>
+    <t>1.9723953</t>
+  </si>
+  <si>
+    <t>Breteniere</t>
+  </si>
+  <si>
+    <t>47.2403931</t>
+  </si>
+  <si>
+    <t>5.1144328</t>
+  </si>
+  <si>
+    <t>46.4351549</t>
+  </si>
+  <si>
+    <t>0.1223765</t>
+  </si>
+  <si>
+    <t>47.6350664</t>
+  </si>
+  <si>
+    <t>-2.6474422</t>
+  </si>
+  <si>
+    <t>44.3182351</t>
+  </si>
+  <si>
+    <t>0.1062737</t>
+  </si>
+  <si>
+    <t>48.7381866</t>
+  </si>
+  <si>
+    <t>6.3182816</t>
+  </si>
+  <si>
+    <t>49.7373109</t>
+  </si>
+  <si>
+    <t>2.9552861</t>
+  </si>
+  <si>
+    <t>44.841225</t>
+  </si>
+  <si>
+    <t>-0.5800364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3853,7 +4210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3876,12 +4233,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3945,6 +4341,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4181,51 +4589,51 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="43.5">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4233,7 +4641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="58">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4241,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="29">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -4249,7 +4657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="43.5">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4257,7 +4665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4271,15 +4679,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="I192" sqref="I192"/>
+      <selection pane="bottomLeft" activeCell="N255" sqref="N255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="10" bestFit="1" customWidth="1"/>
@@ -4302,7 +4710,7 @@
     <col min="19" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="11" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -4313,7 +4721,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>19</v>
@@ -4322,7 +4730,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>21</v>
@@ -4358,7 +4766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="72.5" hidden="1">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -4369,7 +4777,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>35</v>
@@ -4412,7 +4820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="58" hidden="1">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -4423,7 +4831,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
@@ -4462,7 +4870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="174" hidden="1">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -4473,7 +4881,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>35</v>
@@ -4512,7 +4920,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="87" hidden="1">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -4523,7 +4931,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
@@ -4566,7 +4974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="145" hidden="1">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -4577,7 +4985,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>35</v>
@@ -4616,7 +5024,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="116" hidden="1">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -4627,7 +5035,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -4652,10 +5060,10 @@
         <v>518</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>89</v>
@@ -4668,7 +5076,7 @@
       </c>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="159.5" hidden="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -4679,7 +5087,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -4704,10 +5112,10 @@
         <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>96</v>
@@ -4722,7 +5130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="87" hidden="1">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>35</v>
@@ -4776,7 +5184,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="116" hidden="1">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -4787,7 +5195,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>35</v>
@@ -4812,10 +5220,10 @@
         <v>113</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>114</v>
@@ -4828,7 +5236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="72.5">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -4839,7 +5247,7 @@
         <v>116</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>35</v>
@@ -4864,10 +5272,10 @@
         <v>120</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>976</v>
+        <v>697</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>977</v>
+        <v>698</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>121</v>
@@ -4882,7 +5290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="101.5" hidden="1">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -4893,7 +5301,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>35</v>
@@ -4916,10 +5324,10 @@
         <v>128</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6" t="s">
@@ -4932,7 +5340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="188.5" hidden="1">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -4940,10 +5348,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>35</v>
@@ -4959,7 +5367,7 @@
         <v>131</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>132</v>
@@ -4968,10 +5376,10 @@
         <v>620</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>133</v>
@@ -4984,7 +5392,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="174" hidden="1">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -4995,7 +5403,7 @@
         <v>136</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>35</v>
@@ -5020,10 +5428,10 @@
         <v>141</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
@@ -5036,7 +5444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="101.5" hidden="1">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -5047,7 +5455,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>35</v>
@@ -5070,10 +5478,10 @@
         <v>148</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6" t="s">
@@ -5084,7 +5492,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="87" hidden="1">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -5092,10 +5500,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>35</v>
@@ -5120,10 +5528,10 @@
         <v>154</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>155</v>
@@ -5136,7 +5544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="101.5" hidden="1">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -5147,7 +5555,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>35</v>
@@ -5172,10 +5580,10 @@
         <v>161</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6" t="s">
@@ -5188,7 +5596,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="58" hidden="1">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -5199,7 +5607,7 @@
         <v>163</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>35</v>
@@ -5224,10 +5632,10 @@
         <v>620</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>168</v>
@@ -5240,7 +5648,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="87" hidden="1">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -5251,7 +5659,7 @@
         <v>171</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>35</v>
@@ -5276,10 +5684,10 @@
         <v>175</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>176</v>
@@ -5292,7 +5700,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="87" hidden="1">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -5303,7 +5711,7 @@
         <v>179</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>35</v>
@@ -5325,13 +5733,13 @@
         <v>182</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6" t="s">
@@ -5340,7 +5748,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="116" hidden="1">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -5351,7 +5759,7 @@
         <v>183</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>35</v>
@@ -5376,10 +5784,10 @@
         <v>621</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>187</v>
@@ -5392,7 +5800,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="174" hidden="1">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -5403,7 +5811,7 @@
         <v>189</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>35</v>
@@ -5444,7 +5852,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="116" hidden="1">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -5455,7 +5863,7 @@
         <v>196</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>35</v>
@@ -5480,10 +5888,10 @@
         <v>620</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>200</v>
@@ -5498,7 +5906,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="72.5" hidden="1">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
@@ -5506,10 +5914,10 @@
         <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>35</v>
@@ -5525,7 +5933,7 @@
         <v>202</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>204</v>
@@ -5552,7 +5960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="58" hidden="1">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -5563,7 +5971,7 @@
         <v>209</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>35</v>
@@ -5602,7 +6010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="159.5" hidden="1">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -5613,7 +6021,7 @@
         <v>217</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>35</v>
@@ -5635,13 +6043,13 @@
         <v>220</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>223</v>
@@ -5656,7 +6064,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="101.5" hidden="1">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -5667,7 +6075,7 @@
         <v>226</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>35</v>
@@ -5710,7 +6118,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="116" hidden="1">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -5721,7 +6129,7 @@
         <v>235</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>35</v>
@@ -5762,7 +6170,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="58" hidden="1">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -5773,7 +6181,7 @@
         <v>245</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>35</v>
@@ -5798,10 +6206,10 @@
         <v>249</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6" t="s">
@@ -5812,7 +6220,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="87" hidden="1">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -5823,7 +6231,7 @@
         <v>251</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>35</v>
@@ -5862,7 +6270,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="72.5" hidden="1">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -5873,7 +6281,7 @@
         <v>257</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>35</v>
@@ -5898,10 +6306,10 @@
         <v>261</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6" t="s">
@@ -5912,7 +6320,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="72.5" hidden="1">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -5923,7 +6331,7 @@
         <v>263</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>35</v>
@@ -5948,10 +6356,10 @@
         <v>267</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6" t="s">
@@ -5962,7 +6370,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="101.5" hidden="1">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -5973,7 +6381,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>271</v>
@@ -6014,7 +6422,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="159.5" hidden="1">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6025,7 +6433,7 @@
         <v>280</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>271</v>
@@ -6066,7 +6474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="130.5" hidden="1">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -6077,7 +6485,7 @@
         <v>290</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>271</v>
@@ -6120,7 +6528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="130.5" hidden="1">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -6131,7 +6539,7 @@
         <v>301</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>271</v>
@@ -6174,7 +6582,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="217.5" hidden="1">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6593,7 @@
         <v>312</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>271</v>
@@ -6226,7 +6634,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="101.5" hidden="1">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6645,7 @@
         <v>321</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>271</v>
@@ -6276,7 +6684,7 @@
       </c>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="145" hidden="1">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -6287,7 +6695,7 @@
         <v>331</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>271</v>
@@ -6312,10 +6720,10 @@
         <v>335</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>336</v>
@@ -6328,7 +6736,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="116" hidden="1">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -6339,7 +6747,7 @@
         <v>338</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>271</v>
@@ -6380,7 +6788,7 @@
       </c>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="246.5" hidden="1">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -6391,7 +6799,7 @@
         <v>348</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>271</v>
@@ -6434,7 +6842,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="249.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="249.5" hidden="1" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -6445,7 +6853,7 @@
         <v>361</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>362</v>
@@ -6484,7 +6892,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="58" hidden="1">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -6495,7 +6903,7 @@
         <v>48</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>362</v>
@@ -6534,7 +6942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="275.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="275.5" hidden="1" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -6545,7 +6953,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>362</v>
@@ -6582,7 +6990,7 @@
       </c>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="116" hidden="1">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -6593,7 +7001,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>362</v>
@@ -6618,10 +7026,10 @@
         <v>518</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>89</v>
@@ -6634,7 +7042,7 @@
       </c>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="87" hidden="1">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -6645,7 +7053,7 @@
         <v>100</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>362</v>
@@ -6688,7 +7096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="116" hidden="1">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -6699,7 +7107,7 @@
         <v>109</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>362</v>
@@ -6724,10 +7132,10 @@
         <v>113</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>114</v>
@@ -6740,7 +7148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="72.5">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -6751,7 +7159,7 @@
         <v>116</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>362</v>
@@ -6776,10 +7184,10 @@
         <v>120</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>121</v>
@@ -6794,7 +7202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="145" hidden="1">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -6805,7 +7213,7 @@
         <v>372</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>362</v>
@@ -6830,10 +7238,10 @@
         <v>376</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>377</v>
@@ -6848,7 +7256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="188.5" hidden="1">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -6856,10 +7264,10 @@
         <v>360</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>362</v>
@@ -6875,7 +7283,7 @@
         <v>131</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>132</v>
@@ -6884,10 +7292,10 @@
         <v>620</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O50" s="6" t="s">
         <v>133</v>
@@ -6900,7 +7308,7 @@
       </c>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="101.5" hidden="1">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +7319,7 @@
         <v>157</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>362</v>
@@ -6936,10 +7344,10 @@
         <v>161</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6" t="s">
@@ -6952,7 +7360,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="58" hidden="1">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -6963,7 +7371,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>362</v>
@@ -6988,10 +7396,10 @@
         <v>620</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>168</v>
@@ -7004,7 +7412,7 @@
       </c>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="188.5" hidden="1">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -7015,7 +7423,7 @@
         <v>381</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>362</v>
@@ -7040,10 +7448,10 @@
         <v>385</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>386</v>
@@ -7058,7 +7466,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="87" hidden="1">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -7069,7 +7477,7 @@
         <v>171</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>362</v>
@@ -7094,10 +7502,10 @@
         <v>175</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>176</v>
@@ -7110,7 +7518,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="116" hidden="1">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -7121,7 +7529,7 @@
         <v>183</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>362</v>
@@ -7146,10 +7554,10 @@
         <v>621</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>187</v>
@@ -7162,7 +7570,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="116" hidden="1">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -7173,7 +7581,7 @@
         <v>196</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>362</v>
@@ -7198,10 +7606,10 @@
         <v>620</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>200</v>
@@ -7216,7 +7624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="101.5" hidden="1">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -7227,7 +7635,7 @@
         <v>226</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>362</v>
@@ -7252,10 +7660,10 @@
         <v>230</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>999</v>
+        <v>53</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>1000</v>
+        <v>54</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>231</v>
@@ -7270,7 +7678,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="159.5" hidden="1">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
@@ -7281,7 +7689,7 @@
         <v>389</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>390</v>
@@ -7324,7 +7732,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="116" hidden="1">
       <c r="A59" s="6" t="s">
         <v>32</v>
       </c>
@@ -7335,7 +7743,7 @@
         <v>401</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
@@ -7358,10 +7766,10 @@
         <v>405</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6" t="s">
@@ -7374,7 +7782,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="72.5" hidden="1">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -7385,7 +7793,7 @@
         <v>409</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>410</v>
@@ -7401,20 +7809,20 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="72.5" hidden="1">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -7425,7 +7833,7 @@
         <v>414</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>415</v>
@@ -7464,7 +7872,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="87" hidden="1">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -7475,7 +7883,7 @@
         <v>423</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>415</v>
@@ -7516,7 +7924,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="304.5" hidden="1">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
@@ -7527,7 +7935,7 @@
         <v>432</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>433</v>
@@ -7566,7 +7974,7 @@
       </c>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="101.5" hidden="1">
       <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
@@ -7577,7 +7985,7 @@
         <v>443</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>444</v>
@@ -7602,10 +8010,10 @@
         <v>413</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6" t="s">
@@ -7616,7 +8024,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="87" hidden="1">
       <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
@@ -7627,7 +8035,7 @@
         <v>449</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>410</v>
@@ -7666,7 +8074,7 @@
       </c>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="130.5" hidden="1">
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
@@ -7677,7 +8085,7 @@
         <v>457</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>415</v>
@@ -7697,13 +8105,13 @@
         <v>460</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>461</v>
@@ -7718,7 +8126,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="130.5" hidden="1">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -7729,7 +8137,7 @@
         <v>463</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>444</v>
@@ -7772,7 +8180,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="130.5" hidden="1">
       <c r="A68" s="6" t="s">
         <v>32</v>
       </c>
@@ -7783,7 +8191,7 @@
         <v>471</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>415</v>
@@ -7805,13 +8213,13 @@
         <v>475</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>476</v>
@@ -7826,7 +8234,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="145" hidden="1">
       <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
@@ -7837,7 +8245,7 @@
         <v>480</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>415</v>
@@ -7859,13 +8267,13 @@
         <v>484</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>485</v>
@@ -7880,7 +8288,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="87" hidden="1">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
@@ -7891,7 +8299,7 @@
         <v>488</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>415</v>
@@ -7913,13 +8321,13 @@
         <v>491</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>492</v>
@@ -7934,7 +8342,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="130.5" hidden="1">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
@@ -7945,7 +8353,7 @@
         <v>290</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>415</v>
@@ -7988,7 +8396,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="101.5" hidden="1">
       <c r="A72" s="6" t="s">
         <v>32</v>
       </c>
@@ -7999,7 +8407,7 @@
         <v>494</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>415</v>
@@ -8021,13 +8429,13 @@
         <v>497</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>498</v>
@@ -8042,7 +8450,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="116" hidden="1">
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
@@ -8053,7 +8461,7 @@
         <v>196</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>415</v>
@@ -8078,10 +8486,10 @@
         <v>626</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>200</v>
@@ -8096,7 +8504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="72.5" hidden="1">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
@@ -8107,7 +8515,7 @@
         <v>502</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>415</v>
@@ -8129,13 +8537,13 @@
         <v>506</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6" t="s">
@@ -8148,7 +8556,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="72.5" hidden="1">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -8159,7 +8567,7 @@
         <v>509</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>444</v>
@@ -8181,7 +8589,7 @@
         <v>512</v>
       </c>
       <c r="L75" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>513</v>
@@ -8196,7 +8604,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="130.5" hidden="1">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -8207,7 +8615,7 @@
         <v>361</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>444</v>
@@ -8246,7 +8654,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="58" hidden="1">
       <c r="A77" s="6" t="s">
         <v>32</v>
       </c>
@@ -8257,7 +8665,7 @@
         <v>34</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>444</v>
@@ -8298,7 +8706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="174" hidden="1">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
@@ -8309,7 +8717,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>444</v>
@@ -8346,7 +8754,7 @@
       </c>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="116" hidden="1">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -8357,7 +8765,7 @@
         <v>85</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>444</v>
@@ -8382,10 +8790,10 @@
         <v>518</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O79" s="6" t="s">
         <v>89</v>
@@ -8398,7 +8806,7 @@
       </c>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="145" hidden="1">
       <c r="A80" s="6" t="s">
         <v>32</v>
       </c>
@@ -8409,7 +8817,7 @@
         <v>521</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>444</v>
@@ -8452,7 +8860,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="188.5" hidden="1">
       <c r="A81" s="6" t="s">
         <v>32</v>
       </c>
@@ -8460,10 +8868,10 @@
         <v>508</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>444</v>
@@ -8479,7 +8887,7 @@
         <v>131</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>132</v>
@@ -8488,10 +8896,10 @@
         <v>620</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>133</v>
@@ -8504,7 +8912,7 @@
       </c>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="72.5" hidden="1">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -8515,7 +8923,7 @@
         <v>414</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>410</v>
@@ -8554,7 +8962,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="304.5" hidden="1">
       <c r="A83" s="6" t="s">
         <v>32</v>
       </c>
@@ -8565,7 +8973,7 @@
         <v>432</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>410</v>
@@ -8604,7 +9012,7 @@
       </c>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="87" hidden="1">
       <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
@@ -8615,7 +9023,7 @@
         <v>100</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>410</v>
@@ -8658,7 +9066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="87" hidden="1">
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
@@ -8669,7 +9077,7 @@
         <v>449</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>410</v>
@@ -8708,7 +9116,7 @@
       </c>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="87" hidden="1">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -8719,7 +9127,7 @@
         <v>529</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>410</v>
@@ -8741,13 +9149,13 @@
         <v>532</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>533</v>
@@ -8760,7 +9168,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="130.5" hidden="1">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -8771,7 +9179,7 @@
         <v>471</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>410</v>
@@ -8793,13 +9201,13 @@
         <v>475</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>476</v>
@@ -8814,7 +9222,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="188.5" hidden="1">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -8825,7 +9233,7 @@
         <v>536</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>410</v>
@@ -8847,13 +9255,13 @@
         <v>539</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6" t="s">
@@ -8866,7 +9274,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="87" hidden="1">
       <c r="A89" s="6" t="s">
         <v>32</v>
       </c>
@@ -8877,7 +9285,7 @@
         <v>488</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>410</v>
@@ -8899,13 +9307,13 @@
         <v>491</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>492</v>
@@ -8920,7 +9328,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="116" hidden="1">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
@@ -8931,7 +9339,7 @@
         <v>401</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>410</v>
@@ -8956,10 +9364,10 @@
         <v>405</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="O90" s="6"/>
       <c r="P90" s="6" t="s">
@@ -8972,7 +9380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="101.5" hidden="1">
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
@@ -8983,7 +9391,7 @@
         <v>209</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>410</v>
@@ -9005,13 +9413,13 @@
         <v>212</v>
       </c>
       <c r="L91" s="20" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6" t="s">
@@ -9022,7 +9430,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" ht="72.5" hidden="1">
       <c r="A92" s="6" t="s">
         <v>32</v>
       </c>
@@ -9033,7 +9441,7 @@
         <v>543</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>415</v>
@@ -9056,17 +9464,17 @@
         <v>413</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="101.5" hidden="1">
       <c r="A93" s="6" t="s">
         <v>32</v>
       </c>
@@ -9077,7 +9485,7 @@
         <v>48</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>444</v>
@@ -9116,7 +9524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="203" hidden="1">
       <c r="A94" s="6" t="s">
         <v>32</v>
       </c>
@@ -9127,7 +9535,7 @@
         <v>548</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>444</v>
@@ -9170,7 +9578,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="116" hidden="1">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -9181,7 +9589,7 @@
         <v>85</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>444</v>
@@ -9206,10 +9614,10 @@
         <v>518</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>89</v>
@@ -9222,7 +9630,7 @@
       </c>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="87" hidden="1">
       <c r="A96" s="6" t="s">
         <v>32</v>
       </c>
@@ -9233,7 +9641,7 @@
         <v>109</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>444</v>
@@ -9255,13 +9663,13 @@
         <v>112</v>
       </c>
       <c r="L96" s="20" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>114</v>
@@ -9274,7 +9682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="174" hidden="1">
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
@@ -9285,7 +9693,7 @@
         <v>559</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>444</v>
@@ -9307,13 +9715,13 @@
         <v>562</v>
       </c>
       <c r="L97" s="20" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>563</v>
@@ -9328,7 +9736,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" ht="72.5" hidden="1">
       <c r="A98" s="6" t="s">
         <v>32</v>
       </c>
@@ -9339,7 +9747,7 @@
         <v>157</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>444</v>
@@ -9361,13 +9769,13 @@
         <v>160</v>
       </c>
       <c r="L98" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M98" s="22" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N98" s="20" t="s">
-        <v>1055</v>
+        <v>1045</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>981</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6" t="s">
@@ -9380,7 +9788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="58" hidden="1">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9391,7 +9799,7 @@
         <v>567</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>444</v>
@@ -9413,13 +9821,13 @@
         <v>570</v>
       </c>
       <c r="L99" s="20" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -9430,7 +9838,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="87" hidden="1">
       <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
@@ -9438,10 +9846,10 @@
         <v>546</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>444</v>
@@ -9463,13 +9871,13 @@
         <v>229</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>1060</v>
+        <v>53</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>1061</v>
+        <v>54</v>
       </c>
       <c r="O100" s="6" t="s">
         <v>231</v>
@@ -9484,7 +9892,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="72.5" hidden="1">
       <c r="A101" s="6" t="s">
         <v>32</v>
       </c>
@@ -9495,7 +9903,7 @@
         <v>263</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>444</v>
@@ -9520,10 +9928,10 @@
         <v>267</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="N101" s="20" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6" t="s">
@@ -9534,7 +9942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="130.5" hidden="1">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
@@ -9545,7 +9953,7 @@
         <v>573</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>574</v>
@@ -9586,7 +9994,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="87" hidden="1">
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
@@ -9597,7 +10005,7 @@
         <v>585</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>574</v>
@@ -9638,7 +10046,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="159.5" hidden="1">
       <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
@@ -9649,7 +10057,7 @@
         <v>443</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>574</v>
@@ -9688,7 +10096,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" ht="116" hidden="1">
       <c r="A105" s="6" t="s">
         <v>32</v>
       </c>
@@ -9699,7 +10107,7 @@
         <v>109</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>574</v>
@@ -9724,10 +10132,10 @@
         <v>597</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>114</v>
@@ -9740,7 +10148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="101.5" hidden="1">
       <c r="A106" s="6" t="s">
         <v>32</v>
       </c>
@@ -9751,7 +10159,7 @@
         <v>600</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>574</v>
@@ -9792,7 +10200,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="72.5" hidden="1">
       <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
@@ -9803,7 +10211,7 @@
         <v>459</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>574</v>
@@ -9844,7 +10252,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="145" hidden="1">
       <c r="A108" s="6" t="s">
         <v>32</v>
       </c>
@@ -9855,7 +10263,7 @@
         <v>611</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>574</v>
@@ -9896,7 +10304,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="188.5" hidden="1">
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
@@ -9904,10 +10312,10 @@
         <v>572</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>574</v>
@@ -9923,7 +10331,7 @@
         <v>131</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>132</v>
@@ -9932,10 +10340,10 @@
         <v>620</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>133</v>
@@ -9948,7 +10356,7 @@
       </c>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="116" hidden="1">
       <c r="A110" s="6" t="s">
         <v>32</v>
       </c>
@@ -9959,7 +10367,7 @@
         <v>183</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>574</v>
@@ -9984,10 +10392,10 @@
         <v>621</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>187</v>
@@ -10000,7 +10408,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" ht="174" hidden="1">
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
@@ -10011,7 +10419,7 @@
         <v>189</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>574</v>
@@ -10052,7 +10460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" ht="116" hidden="1">
       <c r="A112" s="6" t="s">
         <v>32</v>
       </c>
@@ -10063,7 +10471,7 @@
         <v>196</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>574</v>
@@ -10088,10 +10496,10 @@
         <v>626</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>200</v>
@@ -10106,7 +10514,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="145" hidden="1">
       <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
@@ -10117,7 +10525,7 @@
         <v>628</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>444</v>
@@ -10160,7 +10568,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="145" hidden="1">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
@@ -10171,7 +10579,7 @@
         <v>77</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>444</v>
@@ -10210,7 +10618,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
-    <row r="115" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" ht="116" hidden="1">
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
@@ -10221,7 +10629,7 @@
         <v>85</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>444</v>
@@ -10246,10 +10654,10 @@
         <v>518</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>89</v>
@@ -10262,7 +10670,7 @@
       </c>
       <c r="R115" s="6"/>
     </row>
-    <row r="116" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="145" hidden="1">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -10273,7 +10681,7 @@
         <v>611</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>444</v>
@@ -10314,7 +10722,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="188.5" hidden="1">
       <c r="A117" s="6" t="s">
         <v>32</v>
       </c>
@@ -10325,7 +10733,7 @@
         <v>640</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>444</v>
@@ -10368,7 +10776,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" ht="130.5" hidden="1">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -10379,7 +10787,7 @@
         <v>463</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>444</v>
@@ -10422,7 +10830,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" ht="116" hidden="1">
       <c r="A119" s="6" t="s">
         <v>32</v>
       </c>
@@ -10433,7 +10841,7 @@
         <v>183</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>444</v>
@@ -10458,10 +10866,10 @@
         <v>621</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="O119" s="6" t="s">
         <v>187</v>
@@ -10474,7 +10882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="159.5" hidden="1">
       <c r="A120" s="6" t="s">
         <v>32</v>
       </c>
@@ -10485,7 +10893,7 @@
         <v>217</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>444</v>
@@ -10507,13 +10915,13 @@
         <v>220</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="O120" s="6" t="s">
         <v>223</v>
@@ -10528,7 +10936,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="72.5" hidden="1">
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
@@ -10539,7 +10947,7 @@
         <v>509</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>390</v>
@@ -10574,7 +10982,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
     </row>
-    <row r="122" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" ht="58" hidden="1">
       <c r="A122" s="6" t="s">
         <v>32</v>
       </c>
@@ -10585,7 +10993,7 @@
         <v>34</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>390</v>
@@ -10626,7 +11034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="145" hidden="1">
       <c r="A123" s="6" t="s">
         <v>32</v>
       </c>
@@ -10637,7 +11045,7 @@
         <v>628</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>390</v>
@@ -10680,7 +11088,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="29" hidden="1">
       <c r="A124" s="6" t="s">
         <v>32</v>
       </c>
@@ -10691,7 +11099,7 @@
         <v>659</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>390</v>
@@ -10730,7 +11138,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="87" hidden="1">
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
@@ -10741,7 +11149,7 @@
         <v>666</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>390</v>
@@ -10776,7 +11184,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" ht="101.5" hidden="1">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
@@ -10787,7 +11195,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>390</v>
@@ -10826,7 +11234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" ht="58" hidden="1">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
@@ -10837,7 +11245,7 @@
         <v>672</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>390</v>
@@ -10860,13 +11268,13 @@
       </c>
       <c r="L127" s="6"/>
       <c r="M127" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="O127" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="N127" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="O127" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="P127" s="6" t="s">
         <v>122</v>
@@ -10875,104 +11283,102 @@
         <v>46</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="72.5" hidden="1">
       <c r="A128" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+    </row>
+    <row r="129" spans="1:18" ht="87" hidden="1">
+      <c r="A129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E128" s="6" t="s">
+      <c r="C129" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="N128" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="O128" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="P128" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q128" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R128" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="20" t="s">
+      <c r="F129" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I129" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20" t="s">
-        <v>685</v>
-      </c>
+      <c r="I129" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="L129" s="6"/>
       <c r="M129" s="6" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-    </row>
-    <row r="130" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P129" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="58">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -10980,49 +11386,51 @@
         <v>388</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>688</v>
+        <v>116</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>689</v>
+        <v>117</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>691</v>
+        <v>116</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>692</v>
+        <v>119</v>
       </c>
       <c r="L130" s="6"/>
       <c r="M130" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="O130" s="6"/>
+        <v>698</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="P130" s="6" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>696</v>
+        <v>46</v>
       </c>
       <c r="R130" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="145" hidden="1">
       <c r="A131" s="6" t="s">
         <v>32</v>
       </c>
@@ -11030,51 +11438,51 @@
         <v>388</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>116</v>
+        <v>699</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>117</v>
+        <v>700</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>116</v>
+        <v>699</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>119</v>
+        <v>702</v>
       </c>
       <c r="L131" s="6"/>
       <c r="M131" s="6" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>121</v>
+        <v>705</v>
       </c>
       <c r="P131" s="6" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>46</v>
+        <v>706</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="87" hidden="1">
       <c r="A132" s="6" t="s">
         <v>32</v>
       </c>
@@ -11082,155 +11490,155 @@
         <v>388</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="L132" s="6"/>
       <c r="M132" s="6" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="188.5" hidden="1">
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>710</v>
+      <c r="C133" s="19" t="s">
+        <v>960</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>711</v>
+        <v>130</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>710</v>
+        <v>960</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="L133" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="M133" s="6" t="s">
-        <v>714</v>
+        <v>1026</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>715</v>
+        <v>1027</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>716</v>
+        <v>133</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="R133" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="R133" s="6"/>
+    </row>
+    <row r="134" spans="1:18" ht="72.5" hidden="1">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C134" s="19" t="s">
-        <v>964</v>
+      <c r="C134" s="6" t="s">
+        <v>718</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>130</v>
+        <v>719</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>964</v>
+        <v>718</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L134" s="6" t="s">
-        <v>620</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="L134" s="6"/>
       <c r="M134" s="6" t="s">
-        <v>1034</v>
+        <v>722</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>1035</v>
+        <v>723</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>133</v>
+        <v>724</v>
       </c>
       <c r="P134" s="6" t="s">
-        <v>134</v>
+        <v>725</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R134" s="6"/>
-    </row>
-    <row r="135" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="174" hidden="1">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -11238,51 +11646,49 @@
         <v>388</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="O135" s="6" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="R135" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+      <c r="R135" s="6"/>
+    </row>
+    <row r="136" spans="1:18" ht="58" hidden="1">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -11290,49 +11696,47 @@
         <v>388</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="L136" s="6"/>
       <c r="M136" s="6" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="O136" s="6" t="s">
-        <v>736</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="O136" s="6"/>
       <c r="P136" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q136" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="R136" s="6"/>
-    </row>
-    <row r="137" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="72.5" hidden="1">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -11340,47 +11744,51 @@
         <v>388</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>739</v>
+        <v>381</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>740</v>
+        <v>382</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>741</v>
+        <v>383</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>739</v>
+        <v>381</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>742</v>
+        <v>384</v>
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6" t="s">
-        <v>743</v>
+        <v>991</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="O137" s="6"/>
+        <v>992</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="P137" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q137" s="6"/>
+      <c r="Q137" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="R137" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="43.5" hidden="1">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -11388,139 +11796,137 @@
         <v>388</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>381</v>
+        <v>744</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>382</v>
+        <v>745</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>383</v>
+        <v>746</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>381</v>
+        <v>744</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>384</v>
+        <v>747</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="O138" s="6" t="s">
-        <v>386</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O138" s="6"/>
       <c r="P138" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q138" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q138" s="6"/>
       <c r="R138" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="72.5" hidden="1">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+    </row>
+    <row r="140" spans="1:18" ht="145" hidden="1">
+      <c r="A140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E139" s="6" t="s">
+      <c r="C140" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="K139" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="N139" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6" t="s">
+      <c r="F140" s="6" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="G140" s="6"/>
+      <c r="H140" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I140" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E140" s="6" t="s">
+      <c r="J140" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20" t="s">
-        <v>685</v>
-      </c>
+      <c r="K140" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="L140" s="6"/>
       <c r="M140" s="6" t="s">
-        <v>686</v>
+        <v>758</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
+        <v>759</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q140" s="6" t="s">
+        <v>762</v>
+      </c>
       <c r="R140" s="6"/>
     </row>
-    <row r="141" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="58" hidden="1">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -11528,49 +11934,49 @@
         <v>388</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="O141" s="6" t="s">
-        <v>764</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="O141" s="6"/>
       <c r="P141" s="6" t="s">
-        <v>765</v>
+        <v>45</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="R141" s="6"/>
-    </row>
-    <row r="142" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+      <c r="R141" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="130.5" hidden="1">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -11578,29 +11984,29 @@
         <v>388</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>767</v>
+        <v>301</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>767</v>
+        <v>301</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>770</v>
+        <v>304</v>
       </c>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
@@ -11609,18 +12015,20 @@
       <c r="N142" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="O142" s="6"/>
+      <c r="O142" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="P142" s="6" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="R142" s="6" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="87" hidden="1">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -11628,51 +12036,51 @@
         <v>388</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I143" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M143" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6" t="s">
+      <c r="N143" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="N143" s="6" t="s">
-        <v>776</v>
-      </c>
       <c r="O143" s="6" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q143" s="6" t="s">
-        <v>310</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Q143" s="6"/>
       <c r="R143" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="58" hidden="1">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -11680,51 +12088,49 @@
         <v>388</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>171</v>
+        <v>776</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>172</v>
+        <v>777</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>171</v>
+        <v>776</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L144" s="6" t="s">
-        <v>175</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="O144" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="O144" s="6"/>
       <c r="P144" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q144" s="6"/>
+        <v>782</v>
+      </c>
+      <c r="Q144" s="6" t="s">
+        <v>783</v>
+      </c>
       <c r="R144" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="130.5" hidden="1">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -11732,49 +12138,51 @@
         <v>388</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="O145" s="6"/>
+        <v>790</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="P145" s="6" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="58" hidden="1">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
@@ -11782,51 +12190,47 @@
         <v>388</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="O146" s="6" t="s">
-        <v>795</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="O146" s="6"/>
       <c r="P146" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q146" s="6" t="s">
-        <v>797</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="Q146" s="6"/>
       <c r="R146" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="116" hidden="1">
       <c r="A147" s="6" t="s">
         <v>32</v>
       </c>
@@ -11834,47 +12238,53 @@
         <v>388</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>799</v>
+        <v>196</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>800</v>
+        <v>197</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>799</v>
+        <v>196</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="L147" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>626</v>
+      </c>
       <c r="M147" s="6" t="s">
-        <v>803</v>
+        <v>892</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="O147" s="6"/>
+        <v>893</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="P147" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q147" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="R147" s="6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="72.5" hidden="1">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
@@ -11882,153 +12292,151 @@
         <v>388</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>197</v>
+        <v>804</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I148" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="J148" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K148" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L148" s="6" t="s">
-        <v>626</v>
-      </c>
+      <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="O148" s="6" t="s">
-        <v>200</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="O148" s="6"/>
       <c r="P148" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q148" s="6" t="s">
-        <v>170</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="Q148" s="6"/>
       <c r="R148" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="87" hidden="1">
       <c r="A149" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>388</v>
+        <v>751</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>390</v>
+        <v>752</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I149" s="6" t="s">
-        <v>809</v>
+      <c r="I149" s="20" t="s">
+        <v>812</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="L149" s="6"/>
+        <v>813</v>
+      </c>
+      <c r="L149" s="20" t="s">
+        <v>1052</v>
+      </c>
       <c r="M149" s="6" t="s">
-        <v>811</v>
+        <v>1053</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="O149" s="6"/>
+        <v>1054</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>814</v>
+      </c>
       <c r="P149" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="Q149" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="R149" s="6"/>
+    </row>
+    <row r="150" spans="1:18" ht="87" hidden="1">
       <c r="A150" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>755</v>
+        <v>388</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>756</v>
+        <v>390</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I150" s="20" t="s">
-        <v>816</v>
+        <v>58</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>819</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="L150" s="20" t="s">
-        <v>1064</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="L150" s="6"/>
       <c r="M150" s="6" t="s">
-        <v>1065</v>
+        <v>821</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>1066</v>
+        <v>822</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>819</v>
+        <v>564</v>
       </c>
       <c r="Q150" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="R150" s="6"/>
-    </row>
-    <row r="151" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="R150" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="72.5" hidden="1">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -12036,51 +12444,49 @@
         <v>388</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="6" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="O151" s="6" t="s">
-        <v>827</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="O151" s="6"/>
       <c r="P151" s="6" t="s">
-        <v>564</v>
+        <v>45</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>46</v>
       </c>
       <c r="R151" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="72.5" hidden="1">
       <c r="A152" s="6" t="s">
         <v>32</v>
       </c>
@@ -12088,36 +12494,36 @@
         <v>388</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="L152" s="6"/>
       <c r="M152" s="6" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="O152" s="6"/>
       <c r="P152" s="6" t="s">
@@ -12127,10 +12533,10 @@
         <v>46</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="72.5" hidden="1">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -12138,38 +12544,42 @@
         <v>388</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>836</v>
+        <v>1016</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>837</v>
+        <v>203</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>838</v>
+        <v>202</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>836</v>
+        <v>1016</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="L153" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="M153" s="6" t="s">
-        <v>840</v>
+        <v>205</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="O153" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="P153" s="6" t="s">
         <v>45</v>
       </c>
@@ -12177,10 +12587,10 @@
         <v>46</v>
       </c>
       <c r="R153" s="6" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="58" hidden="1">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -12188,53 +12598,47 @@
         <v>388</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1024</v>
+        <v>209</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>202</v>
+        <v>839</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>1024</v>
+        <v>209</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L154" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="L154" s="6"/>
       <c r="M154" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="O154" s="6" t="s">
-        <v>207</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O154" s="6"/>
       <c r="P154" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q154" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q154" s="6"/>
       <c r="R154" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="87" hidden="1">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -12242,47 +12646,51 @@
         <v>388</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>843</v>
+        <v>219</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L155" s="6"/>
       <c r="M155" s="6" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O155" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="P155" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q155" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="R155" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="87" hidden="1">
       <c r="A156" s="6" t="s">
         <v>32</v>
       </c>
@@ -12290,51 +12698,51 @@
         <v>388</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L156" s="6"/>
       <c r="M156" s="6" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="R156" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="174" hidden="1">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -12342,51 +12750,51 @@
         <v>388</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>226</v>
+        <v>840</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>227</v>
+        <v>841</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>226</v>
+        <v>842</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>228</v>
+        <v>840</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>229</v>
+        <v>843</v>
       </c>
       <c r="L157" s="6"/>
       <c r="M157" s="6" t="s">
-        <v>53</v>
+        <v>844</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>54</v>
+        <v>845</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>231</v>
+        <v>846</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>232</v>
+        <v>847</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>233</v>
+        <v>848</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="174" hidden="1" x14ac:dyDescent="0.35">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="116" hidden="1">
       <c r="A158" s="6" t="s">
         <v>32</v>
       </c>
@@ -12394,1367 +12802,1341 @@
         <v>388</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>844</v>
+        <v>235</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>845</v>
+        <v>236</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>844</v>
+        <v>235</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>847</v>
+        <v>238</v>
       </c>
       <c r="L158" s="6"/>
       <c r="M158" s="6" t="s">
-        <v>848</v>
+        <v>240</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="O158" s="6" t="s">
-        <v>850</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O158" s="6"/>
       <c r="P158" s="6" t="s">
-        <v>851</v>
+        <v>242</v>
       </c>
       <c r="Q158" s="6" t="s">
-        <v>852</v>
+        <v>243</v>
       </c>
       <c r="R158" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="101.5" hidden="1">
       <c r="A159" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>235</v>
+      <c r="C159" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>390</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>236</v>
+        <v>852</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I159" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="J159" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K159" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N159" s="6" t="s">
-        <v>241</v>
+      <c r="L159" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M159" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N159" s="20" t="s">
+        <v>1078</v>
       </c>
       <c r="O159" s="6"/>
       <c r="P159" s="6" t="s">
-        <v>242</v>
+        <v>855</v>
       </c>
       <c r="Q159" s="6" t="s">
-        <v>243</v>
+        <v>736</v>
       </c>
       <c r="R159" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="145" hidden="1">
       <c r="A160" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>855</v>
+        <v>751</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>390</v>
+        <v>752</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>856</v>
+        <v>629</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>857</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>855</v>
+        <v>628</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="L160" s="20" t="s">
-        <v>1091</v>
-      </c>
-      <c r="M160" s="20" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N160" s="20" t="s">
-        <v>1090</v>
-      </c>
-      <c r="O160" s="6"/>
+        <v>631</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>635</v>
+      </c>
       <c r="P160" s="6" t="s">
-        <v>859</v>
+        <v>636</v>
       </c>
       <c r="Q160" s="6" t="s">
-        <v>738</v>
+        <v>637</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="159.5" hidden="1">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>628</v>
+        <v>280</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>629</v>
+        <v>281</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I161" s="6" t="s">
-        <v>861</v>
+      <c r="I161" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>628</v>
+        <v>280</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="L161" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="M161" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="N161" s="6" t="s">
-        <v>658</v>
+        <v>283</v>
+      </c>
+      <c r="L161" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M161" s="22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N161" s="22" t="s">
+        <v>1056</v>
       </c>
       <c r="O161" s="6" t="s">
-        <v>635</v>
+        <v>287</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q161" s="6" t="s">
-        <v>637</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="Q161" s="6"/>
       <c r="R161" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="188.5" hidden="1">
       <c r="A162" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>280</v>
+        <v>751</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>960</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I162" s="20" t="s">
-        <v>282</v>
+      <c r="I162" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>280</v>
+        <v>960</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L162" s="20" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M162" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N162" s="22" t="s">
-        <v>1068</v>
+        <v>132</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>1027</v>
       </c>
       <c r="O162" s="6" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="Q162" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R162" s="6"/>
+    </row>
+    <row r="163" spans="1:18" ht="130.5" hidden="1">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>964</v>
+        <v>751</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>964</v>
+        <v>463</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="M163" s="6" t="s">
-        <v>1034</v>
+        <v>652</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>1035</v>
+        <v>653</v>
       </c>
       <c r="O163" s="6" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="Q163" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R163" s="6"/>
-    </row>
-    <row r="164" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="R163" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="29" hidden="1">
       <c r="A164" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>755</v>
+        <v>388</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>463</v>
+        <v>1029</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>464</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="6" t="s">
+      <c r="H164" s="6"/>
+      <c r="I164" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+    </row>
+    <row r="165" spans="1:18" ht="116" hidden="1">
+      <c r="A165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I164" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="K164" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L164" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="M164" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="N164" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="O164" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="P164" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q164" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="R164" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
       <c r="I165" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="L165" s="20" t="s">
-        <v>863</v>
+        <v>1060</v>
       </c>
       <c r="M165" s="6" t="s">
-        <v>864</v>
+        <v>1058</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
+        <v>1059</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="P165" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q165" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="R165" s="6"/>
     </row>
-    <row r="166" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="145" hidden="1">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I166" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N166" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="43.5" hidden="1">
+      <c r="A167" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="M167" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="L166" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="M166" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N166" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O166" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="P166" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q166" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="R166" s="6"/>
-    </row>
-    <row r="167" spans="1:18" ht="145" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6" t="s">
+      <c r="N167" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+    </row>
+    <row r="168" spans="1:18" ht="116" hidden="1">
+      <c r="A168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I167" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K167" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="L167" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="M167" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="N167" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O167" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P167" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C168" s="6" t="s">
+      <c r="I168" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="M168" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="R168" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="101.5" hidden="1">
+      <c r="A169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="M168" s="6" t="s">
+      <c r="C169" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="N168" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-    </row>
-    <row r="169" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>874</v>
-      </c>
       <c r="F169" s="6" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="M169" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q169" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="N169" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="O169" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="P169" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q169" s="6" t="s">
-        <v>883</v>
-      </c>
       <c r="R169" s="6" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="87" hidden="1">
       <c r="A170" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>885</v>
+        <v>171</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>886</v>
+        <v>172</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>885</v>
+        <v>171</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>888</v>
+        <v>174</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>889</v>
+        <v>175</v>
       </c>
       <c r="M170" s="6" t="s">
-        <v>890</v>
+        <v>774</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>891</v>
+        <v>775</v>
       </c>
       <c r="O170" s="6" t="s">
-        <v>892</v>
+        <v>176</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="Q170" s="6" t="s">
-        <v>883</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="Q170" s="6"/>
       <c r="R170" s="6" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="87" hidden="1">
       <c r="A171" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>171</v>
+        <v>895</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>172</v>
+        <v>896</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I171" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="J171" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="K171" s="6" t="s">
-        <v>174</v>
+        <v>898</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>175</v>
+        <v>899</v>
       </c>
       <c r="M171" s="6" t="s">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>779</v>
+        <v>901</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>176</v>
+        <v>902</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q171" s="6"/>
+        <v>903</v>
+      </c>
+      <c r="Q171" s="6" t="s">
+        <v>904</v>
+      </c>
       <c r="R171" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="72.5" hidden="1">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="O172" s="6" t="s">
-        <v>906</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="O172" s="6"/>
       <c r="P172" s="6" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="Q172" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="R172" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>914</v>
+      </c>
+      <c r="R172" s="6"/>
+    </row>
+    <row r="173" spans="1:18" ht="87" hidden="1">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="M173" s="6" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="O173" s="6"/>
+        <v>921</v>
+      </c>
+      <c r="O173" s="6" t="s">
+        <v>922</v>
+      </c>
       <c r="P173" s="6" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="Q173" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="R173" s="6"/>
-    </row>
-    <row r="174" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>924</v>
+      </c>
+      <c r="R173" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="72.5" hidden="1">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>872</v>
+        <v>926</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>920</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6" t="s">
-        <v>58</v>
+        <v>928</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="M174" s="6" t="s">
-        <v>924</v>
+        <v>1088</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="O174" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+    </row>
+    <row r="175" spans="1:18" ht="130.5" hidden="1">
+      <c r="A175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="P174" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="Q174" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="R174" s="6" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="C175" s="6" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
     </row>
-    <row r="176" spans="1:18" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" ht="159.5" hidden="1">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>937</v>
+        <v>189</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>938</v>
       </c>
       <c r="J176" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L176" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="K176" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="L176" s="6" t="s">
-        <v>941</v>
-      </c>
       <c r="M176" s="6" t="s">
-        <v>1098</v>
+        <v>624</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>1099</v>
+        <v>625</v>
       </c>
       <c r="O176" s="6"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
     </row>
-    <row r="177" spans="1:18" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" ht="72.5" hidden="1">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>189</v>
+        <v>942</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I177" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I177" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="J177" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="J177" s="6" t="s">
-        <v>939</v>
-      </c>
       <c r="K177" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L177" s="6" t="s">
         <v>943</v>
       </c>
+      <c r="L177" s="20" t="s">
+        <v>1066</v>
+      </c>
       <c r="M177" s="6" t="s">
-        <v>624</v>
+        <v>1063</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>625</v>
+        <v>1064</v>
       </c>
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
     </row>
-    <row r="178" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" ht="43.5" hidden="1">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I178" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="J178" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="J178" s="6" t="s">
+      <c r="K178" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="K178" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="L178" s="20" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="M178" s="6" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="O178" s="6"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
     </row>
-    <row r="179" spans="1:18" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" ht="58" hidden="1">
       <c r="A179" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>949</v>
+        <v>171</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I179" s="20" t="s">
+      <c r="H179" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I179" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="K179" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="J179" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="K179" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="L179" s="20" t="s">
-        <v>1078</v>
+      <c r="L179" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>1075</v>
+        <v>774</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>1076</v>
+        <v>775</v>
       </c>
       <c r="O179" s="6"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
     </row>
-    <row r="180" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" ht="72.5" hidden="1">
       <c r="A180" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>171</v>
+        <v>1030</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I180" s="23" t="s">
-        <v>173</v>
+      <c r="H180" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I180" s="24" t="s">
+        <v>949</v>
       </c>
       <c r="J180" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="K180" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="K180" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="L180" s="6" t="s">
-        <v>175</v>
+      <c r="L180" s="20" t="s">
+        <v>1067</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>778</v>
+        <v>1068</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>779</v>
+        <v>1069</v>
       </c>
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
     </row>
-    <row r="181" spans="1:18" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" ht="58" hidden="1">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>1038</v>
+        <v>940</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>1070</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I181" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="J181" s="6" t="s">
+      <c r="K181" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="K181" s="17" t="s">
-        <v>955</v>
-      </c>
       <c r="L181" s="20" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="O181" s="6"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
     </row>
-    <row r="182" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" ht="116" hidden="1">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>1082</v>
+        <v>940</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I182" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="I182" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="K182" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="J182" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="K182" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="L182" s="20" t="s">
-        <v>1083</v>
+      <c r="L182" s="6" t="s">
+        <v>874</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>1084</v>
+        <v>875</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>1085</v>
+        <v>876</v>
       </c>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
     </row>
-    <row r="183" spans="1:18" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" ht="87" hidden="1">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>873</v>
+        <v>1031</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I183" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="K183" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="J183" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="K183" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="L183" s="6" t="s">
-        <v>878</v>
+      <c r="L183" s="20" t="s">
+        <v>1076</v>
       </c>
       <c r="M183" s="6" t="s">
-        <v>879</v>
+        <v>1074</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>880</v>
+        <v>1075</v>
       </c>
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
     </row>
-    <row r="184" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" ht="58" hidden="1">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1039</v>
+        <v>960</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I184" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="I184" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="K184" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="J184" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="K184" s="17" t="s">
-        <v>963</v>
-      </c>
-      <c r="L184" s="20" t="s">
-        <v>1088</v>
+      <c r="L184" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>1086</v>
+        <v>1026</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>1087</v>
+        <v>1027</v>
       </c>
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
     </row>
-    <row r="185" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" ht="87" hidden="1">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="C185" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="D185" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I185" s="17" t="s">
-        <v>131</v>
+        <v>928</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>965</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="K185" s="17" t="s">
-        <v>965</v>
+        <v>966</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>967</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="M185" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N185" s="6" t="s">
-        <v>1035</v>
+        <v>968</v>
+      </c>
+      <c r="M185" s="6">
+        <v>43.25694</v>
+      </c>
+      <c r="N185" s="6">
+        <v>5.4070900000000002</v>
       </c>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
     </row>
-    <row r="186" spans="1:18" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" hidden="1">
       <c r="A186" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>966</v>
+        <v>400</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>967</v>
+        <v>1091</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="I186" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="J186" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="K186" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="L186" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="M186" s="6">
-        <v>43.25694</v>
-      </c>
-      <c r="N186" s="6">
-        <v>5.4070900000000002</v>
+        <v>1090</v>
+      </c>
+      <c r="I186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N186" s="16" t="s">
+        <v>1084</v>
       </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" hidden="1">
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
@@ -13762,25 +14144,25 @@
         <v>400</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="I187" s="6"/>
       <c r="L187" s="6"/>
-      <c r="M187" s="16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="N187" s="16" t="s">
-        <v>1096</v>
+      <c r="M187" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N187" s="6" t="s">
+        <v>1094</v>
       </c>
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" hidden="1">
       <c r="A188" s="6" t="s">
         <v>32</v>
       </c>
@@ -13788,63 +14170,1277 @@
         <v>400</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="I188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" hidden="1">
       <c r="A189" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I189" s="26"/>
+      <c r="L189" s="26"/>
+      <c r="M189" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N189" s="10" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" hidden="1">
+      <c r="A190" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" hidden="1">
+      <c r="A191" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N191" s="6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" hidden="1">
+      <c r="A192" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D192" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N192" s="27" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1">
+      <c r="A193" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N193" s="27" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1">
+      <c r="A194" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N194" s="27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1">
+      <c r="A195" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N195" s="27" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1">
+      <c r="A196" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N196" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1">
+      <c r="A197" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N197" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1">
+      <c r="A198" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1">
+      <c r="A199" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1">
+      <c r="A200" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N200" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1">
+      <c r="A201" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1">
+      <c r="A202" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N202" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1">
+      <c r="A203" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" hidden="1">
+      <c r="A204" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N204" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1">
+      <c r="A205" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N205" s="27" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" hidden="1">
+      <c r="A206" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N206" s="6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1">
+      <c r="A207" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N207" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" hidden="1">
+      <c r="A208" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N208" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1">
+      <c r="A209" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N209" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" hidden="1">
+      <c r="A210" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N210" s="27" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" hidden="1">
+      <c r="A211" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N211" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1">
+      <c r="A212" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N212" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" hidden="1">
+      <c r="A213" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N213" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1">
+      <c r="A214" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N214" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1">
+      <c r="A215" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N215" s="6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1">
+      <c r="A216" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N216" s="6" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1">
+      <c r="A217" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N217" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1">
+      <c r="A218" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N218" s="6" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1">
+      <c r="A219" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N219" s="27" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1">
+      <c r="A220" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N220" s="27" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1">
+      <c r="A221" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N221" s="27" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1">
+      <c r="A222" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N222" s="27" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1">
+      <c r="A223" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N223" s="6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1">
+      <c r="A224" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N224" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1">
+      <c r="A225" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E225" s="28"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N225" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1">
+      <c r="A226" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N226" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" hidden="1">
+      <c r="A227" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N227" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1">
+      <c r="A228" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N228" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" hidden="1">
+      <c r="A229" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N229" s="16" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1">
+      <c r="A230" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N230" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1">
+      <c r="A231" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N231" s="6" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1">
+      <c r="A232" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N232" s="6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" hidden="1">
+      <c r="A233" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="I189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N189" s="6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
+      <c r="N233" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1">
+      <c r="A234" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N234" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" hidden="1">
+      <c r="A235" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N235" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1">
+      <c r="A236" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N236" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" hidden="1">
+      <c r="A237" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N237" s="6" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" hidden="1">
+      <c r="A238" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N238" s="6" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" hidden="1">
+      <c r="A239" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N239" s="6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1">
+      <c r="A240" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N240" s="6" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" hidden="1">
+      <c r="A241" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N241" s="6" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1">
+      <c r="A242" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N242" s="6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1">
+      <c r="A243" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N243" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1">
+      <c r="A244" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N244" s="6" t="s">
+        <v>1228</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R186" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:R244" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="CarboNium"/>
+        <filter val="FARE"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O170" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="O172" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="O174" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="O169" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O171" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="O173" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BD686-EA38-4FBB-8247-F5FED924E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184BF54-AF42-490A-9166-0A51276DB190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$R$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$R$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="1249">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -4105,6 +4105,69 @@
   </si>
   <si>
     <t>-0.5800364</t>
+  </si>
+  <si>
+    <t>RhizoSeqC</t>
+  </si>
+  <si>
+    <t>PGD RhizoSeqC</t>
+  </si>
+  <si>
+    <t>CEREGE</t>
+  </si>
+  <si>
+    <t>Centre de recherche et d'enseignement des géosciences de l'Environnement</t>
+  </si>
+  <si>
+    <t>AMU, CNRS, INRAE, IRD, Collège de France</t>
+  </si>
+  <si>
+    <t>Technopôle de l’Arbois-Méditerranée
+BP80, CEDEX 04
+13545 Aix-en-Provence
+France</t>
+  </si>
+  <si>
+    <t>43.4909505</t>
+  </si>
+  <si>
+    <t>5.3321845</t>
+  </si>
+  <si>
+    <t>DIADE</t>
+  </si>
+  <si>
+    <t>Diversité, adpatation et développement des plantes</t>
+  </si>
+  <si>
+    <t>Cirad, univ Montpellier, IRD, CNRS</t>
+  </si>
+  <si>
+    <t>43.6458883</t>
+  </si>
+  <si>
+    <t>3.8683797</t>
+  </si>
+  <si>
+    <t>911 Avenue Agropolis, 34093 Montpellier, France</t>
+  </si>
+  <si>
+    <t>ECODIV</t>
+  </si>
+  <si>
+    <t>Laboratoire d'Etude et Compréhension de la Biodiversité</t>
+  </si>
+  <si>
+    <t>INRAE 1499, Univ Rouen Normandie</t>
+  </si>
+  <si>
+    <t>49.46307</t>
+  </si>
+  <si>
+    <t>1.09364</t>
+  </si>
+  <si>
+    <t>Mont-Saint-Aignan, Seine-Maritime, France</t>
   </si>
 </sst>
 </file>
@@ -4679,12 +4742,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="N255" sqref="N255"/>
+      <selection pane="bottomLeft" activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -4693,13 +4756,13 @@
     <col min="2" max="2" width="19.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.453125" style="10" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="18.81640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="10" customWidth="1"/>
     <col min="12" max="12" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6328125" style="10" bestFit="1" customWidth="1"/>
@@ -5236,7 +5299,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="72.5">
+    <row r="11" spans="1:18" ht="72.5" hidden="1">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -7148,7 +7211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="72.5">
+    <row r="48" spans="1:18" ht="72.5" hidden="1">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -11378,7 +11441,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="58">
+    <row r="130" spans="1:18" ht="58" hidden="1">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -15340,7 +15403,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1">
+    <row r="241" spans="1:18" hidden="1">
       <c r="A241" s="6" t="s">
         <v>32</v>
       </c>
@@ -15362,7 +15425,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1">
+    <row r="242" spans="1:18" hidden="1">
       <c r="A242" s="6" t="s">
         <v>32</v>
       </c>
@@ -15384,7 +15447,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1">
+    <row r="243" spans="1:18" hidden="1">
       <c r="A243" s="6" t="s">
         <v>32</v>
       </c>
@@ -15406,7 +15469,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1">
+    <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="6" t="s">
         <v>32</v>
       </c>
@@ -15428,11 +15491,486 @@
         <v>1228</v>
       </c>
     </row>
+    <row r="245" spans="1:18" s="15" customFormat="1" ht="145" hidden="1">
+      <c r="A245" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J245" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K245" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="L245" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="M245" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N245" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="O245" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="P245" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q245" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R245" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" s="15" customFormat="1" ht="101.5" hidden="1">
+      <c r="A246" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J246" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K246" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L246" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="M246" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N246" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" s="15" customFormat="1" ht="130.5" hidden="1">
+      <c r="A247" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="J247" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="K247" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="L247" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="M247" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N247" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+    </row>
+    <row r="248" spans="1:18" s="15" customFormat="1" ht="116" hidden="1">
+      <c r="A248" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K248" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L248" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="M248" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="N248" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="O248" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P248" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q248" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R248" s="6"/>
+    </row>
+    <row r="249" spans="1:18" s="15" customFormat="1" ht="87" hidden="1">
+      <c r="A249" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J249" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K249" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L249" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="M249" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N249" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O249" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P249" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q249" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R249" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" s="15" customFormat="1" ht="58" hidden="1">
+      <c r="A250" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I250" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J250" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="K250" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="L250" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M250" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="N250" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+    </row>
+    <row r="251" spans="1:18" ht="130.5" hidden="1">
+      <c r="A251" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J251" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K251" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L251" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M251" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N251" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+    </row>
+    <row r="252" spans="1:18" ht="72.5" hidden="1">
+      <c r="A252" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J252" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K252" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L252" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M252" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N252" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="6"/>
+      <c r="R252" s="6"/>
+    </row>
+    <row r="253" spans="1:18" ht="159.5">
+      <c r="A253" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="K253" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L253" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="M253" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="N253" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+    </row>
+    <row r="254" spans="1:18" ht="58">
+      <c r="A254" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L254" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M254" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N254" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R244" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:R253" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="RhizoSeqC"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="FARE"/>
+        <filter val="LSCE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBC6BE-21F2-4C55-ADFD-4CF8D0C98487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224712F-E545-4605-AA93-9C3EDDCFCC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$Q$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$Q$375</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1596">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -3909,12 +3909,6 @@
     <t>5.2689</t>
   </si>
   <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Bac Giang</t>
   </si>
   <si>
@@ -3933,42 +3927,12 @@
     <t>31.0601584</t>
   </si>
   <si>
-    <t>12.1586188</t>
-  </si>
-  <si>
-    <t>105.3309759</t>
-  </si>
-  <si>
-    <t>12.9256791</t>
-  </si>
-  <si>
-    <t>103.2317136</t>
-  </si>
-  <si>
     <t>21.3169625</t>
   </si>
   <si>
     <t>106.437985</t>
   </si>
   <si>
-    <t>43.6112422</t>
-  </si>
-  <si>
-    <t>3.8767337</t>
-  </si>
-  <si>
-    <t>43.6044622</t>
-  </si>
-  <si>
-    <t>1.4442469</t>
-  </si>
-  <si>
-    <t>47.3215806</t>
-  </si>
-  <si>
-    <t>5.0414701</t>
-  </si>
-  <si>
     <t>49.9666304</t>
   </si>
   <si>
@@ -3978,54 +3942,9 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>Para</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Ho Chi Min</t>
-  </si>
-  <si>
-    <t>Nouvelle Caledonie</t>
-  </si>
-  <si>
     <t>Estrees Mons</t>
   </si>
   <si>
-    <t>-21.3019905</t>
-  </si>
-  <si>
-    <t>165.4880773</t>
-  </si>
-  <si>
-    <t>10.7763897</t>
-  </si>
-  <si>
-    <t>106.7011391</t>
-  </si>
-  <si>
-    <t>-22.9110137</t>
-  </si>
-  <si>
-    <t>-43.2093727</t>
-  </si>
-  <si>
-    <t>-4.7493933</t>
-  </si>
-  <si>
-    <t>-52.8973006</t>
-  </si>
-  <si>
-    <t>4.0039882</t>
-  </si>
-  <si>
-    <t>-52.999998</t>
-  </si>
-  <si>
     <t>16.2528827</t>
   </si>
   <si>
@@ -4041,12 +3960,6 @@
     <t>Laqueille</t>
   </si>
   <si>
-    <t>Breuil</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
     <t>Feucherolles</t>
   </si>
   <si>
@@ -4059,15 +3972,6 @@
     <t>1.9723953</t>
   </si>
   <si>
-    <t>Breteniere</t>
-  </si>
-  <si>
-    <t>47.2403931</t>
-  </si>
-  <si>
-    <t>5.1144328</t>
-  </si>
-  <si>
     <t>46.4351549</t>
   </si>
   <si>
@@ -4080,12 +3984,6 @@
     <t>-2.6474422</t>
   </si>
   <si>
-    <t>44.3182351</t>
-  </si>
-  <si>
-    <t>0.1062737</t>
-  </si>
-  <si>
     <t>48.7381866</t>
   </si>
   <si>
@@ -4096,12 +3994,6 @@
   </si>
   <si>
     <t>2.9552861</t>
-  </si>
-  <si>
-    <t>44.841225</t>
-  </si>
-  <si>
-    <t>-0.5800364</t>
   </si>
   <si>
     <t>RhizoSeqC</t>
@@ -4211,17 +4103,1131 @@
   </si>
   <si>
     <t>5.408156871795659</t>
+  </si>
+  <si>
+    <t>Couanimi</t>
+  </si>
+  <si>
+    <t>Crique Plomb</t>
+  </si>
+  <si>
+    <t>Paracou</t>
+  </si>
+  <si>
+    <t>5.3854052</t>
+  </si>
+  <si>
+    <t>5.0117933</t>
+  </si>
+  <si>
+    <t>5.2745908</t>
+  </si>
+  <si>
+    <t>-53.2375585</t>
+  </si>
+  <si>
+    <t>-52.9466305</t>
+  </si>
+  <si>
+    <t>-52.9238682</t>
+  </si>
+  <si>
+    <t>9.8143565</t>
+  </si>
+  <si>
+    <t>-15.7850594</t>
+  </si>
+  <si>
+    <t>5.6234205</t>
+  </si>
+  <si>
+    <t>3.9597343</t>
+  </si>
+  <si>
+    <t>11.9531893</t>
+  </si>
+  <si>
+    <t>31.731174</t>
+  </si>
+  <si>
+    <t>13.655368</t>
+  </si>
+  <si>
+    <t>14.4759752</t>
+  </si>
+  <si>
+    <t>36.8797376</t>
+  </si>
+  <si>
+    <t>34.9347657</t>
+  </si>
+  <si>
+    <t>1.7193647</t>
+  </si>
+  <si>
+    <t>-40.5204231</t>
+  </si>
+  <si>
+    <t>12.2547274</t>
+  </si>
+  <si>
+    <t>-53.1358235</t>
+  </si>
+  <si>
+    <t>76.4425161</t>
+  </si>
+  <si>
+    <t>-8.3331992</t>
+  </si>
+  <si>
+    <t>2.6518962</t>
+  </si>
+  <si>
+    <t>-16.4032501</t>
+  </si>
+  <si>
+    <t>10.8818118</t>
+  </si>
+  <si>
+    <t>10.6165319</t>
+  </si>
+  <si>
+    <t>Belefoungu</t>
+  </si>
+  <si>
+    <t>Mata flux</t>
+  </si>
+  <si>
+    <t>Cacao flux</t>
+  </si>
+  <si>
+    <t>Carpaag</t>
+  </si>
+  <si>
+    <t>Mule Hole</t>
+  </si>
+  <si>
+    <t>Tensift</t>
+  </si>
+  <si>
+    <t>Wankama</t>
+  </si>
+  <si>
+    <t>Niakhar</t>
+  </si>
+  <si>
+    <t>Niakhar sob</t>
+  </si>
+  <si>
+    <t>Niakhar ragola</t>
+  </si>
+  <si>
+    <t>Kamech</t>
+  </si>
+  <si>
+    <t>Taous</t>
+  </si>
+  <si>
+    <t>Bassin versant du Couesnon</t>
+  </si>
+  <si>
+    <t>Grand Reims</t>
+  </si>
+  <si>
+    <t>bassin de la Doller et Déodatie</t>
+  </si>
+  <si>
+    <t>Bassin versant du Ferlo</t>
+  </si>
+  <si>
+    <t>Ile de la Reunion</t>
+  </si>
+  <si>
+    <t>48.4709468</t>
+  </si>
+  <si>
+    <t>-1.485155</t>
+  </si>
+  <si>
+    <t>49.2715494</t>
+  </si>
+  <si>
+    <t>47.7522952</t>
+  </si>
+  <si>
+    <t>44.2177572</t>
+  </si>
+  <si>
+    <t>-21.1105466</t>
+  </si>
+  <si>
+    <t>15.8828224</t>
+  </si>
+  <si>
+    <t>4.0189861</t>
+  </si>
+  <si>
+    <t>7.1234631</t>
+  </si>
+  <si>
+    <t>5.1381491</t>
+  </si>
+  <si>
+    <t>55.5197908</t>
+  </si>
+  <si>
+    <t>-15.2503105</t>
+  </si>
+  <si>
+    <t>Ouvèze Ventoux</t>
+  </si>
+  <si>
+    <t>Auzeville</t>
+  </si>
+  <si>
+    <t>43.529239</t>
+  </si>
+  <si>
+    <t>1.4832805</t>
+  </si>
+  <si>
+    <t>Epoisses</t>
+  </si>
+  <si>
+    <t>47.2367897</t>
+  </si>
+  <si>
+    <t>5.0989546</t>
+  </si>
+  <si>
+    <t>Mauguio</t>
+  </si>
+  <si>
+    <t>43.6156131</t>
+  </si>
+  <si>
+    <t>4.0102919</t>
+  </si>
+  <si>
+    <t>13.0955403</t>
+  </si>
+  <si>
+    <t>103.2031507</t>
+  </si>
+  <si>
+    <t>12.1812906</t>
+  </si>
+  <si>
+    <t>105.3187456</t>
+  </si>
+  <si>
+    <t>Breuil chenue</t>
+  </si>
+  <si>
+    <t>45.6511054</t>
+  </si>
+  <si>
+    <t>2.7329003</t>
+  </si>
+  <si>
+    <t>Pierroton Xylosylve</t>
+  </si>
+  <si>
+    <t>44.7396811</t>
+  </si>
+  <si>
+    <t>-0.7669581</t>
+  </si>
+  <si>
+    <t>Abisko</t>
+  </si>
+  <si>
+    <t>Zackenberg</t>
+  </si>
+  <si>
+    <t>Churchill</t>
+  </si>
+  <si>
+    <t>68.3495543</t>
+  </si>
+  <si>
+    <t>74.4697165</t>
+  </si>
+  <si>
+    <t>58.767877</t>
+  </si>
+  <si>
+    <t>18.831036</t>
+  </si>
+  <si>
+    <t>-20.5746022</t>
+  </si>
+  <si>
+    <t>-94.1699046</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Mahury</t>
+  </si>
+  <si>
+    <t>Mamangua</t>
+  </si>
+  <si>
+    <t>Guaratiba</t>
+  </si>
+  <si>
+    <t>Marapanim</t>
+  </si>
+  <si>
+    <t>Can Gio</t>
+  </si>
+  <si>
+    <t>Manche a eau</t>
+  </si>
+  <si>
+    <t>La Lezarde</t>
+  </si>
+  <si>
+    <t>Ouvea</t>
+  </si>
+  <si>
+    <t>Dumbea</t>
+  </si>
+  <si>
+    <t>Crique Fouille</t>
+  </si>
+  <si>
+    <t>16.277231</t>
+  </si>
+  <si>
+    <t>16.2124478</t>
+  </si>
+  <si>
+    <t>4.9382639</t>
+  </si>
+  <si>
+    <t>4.8079943</t>
+  </si>
+  <si>
+    <t>-23.2629475</t>
+  </si>
+  <si>
+    <t>-22.9624307</t>
+  </si>
+  <si>
+    <t>-0.7113507</t>
+  </si>
+  <si>
+    <t>10.5075445</t>
+  </si>
+  <si>
+    <t>-20.6519725</t>
+  </si>
+  <si>
+    <t>-22.1589413</t>
+  </si>
+  <si>
+    <t>-61.5578084</t>
+  </si>
+  <si>
+    <t>-61.5905897</t>
+  </si>
+  <si>
+    <t>-52.3379376</t>
+  </si>
+  <si>
+    <t>-52.2979664</t>
+  </si>
+  <si>
+    <t>-44.6147914</t>
+  </si>
+  <si>
+    <t>-43.612538</t>
+  </si>
+  <si>
+    <t>-47.6976974</t>
+  </si>
+  <si>
+    <t>106.8645697</t>
+  </si>
+  <si>
+    <t>166.5403443</t>
+  </si>
+  <si>
+    <t>166.443895</t>
+  </si>
+  <si>
+    <t>Mortagne-sur-Gironde</t>
+  </si>
+  <si>
+    <t>Littoral charentais</t>
+  </si>
+  <si>
+    <t>Estuaire de la Loire</t>
+  </si>
+  <si>
+    <t>Rade de Brest</t>
+  </si>
+  <si>
+    <t>Estuaire du Trieux</t>
+  </si>
+  <si>
+    <t>Anse du Cul-de-Loup</t>
+  </si>
+  <si>
+    <t>Baie de Bourgneuf</t>
+  </si>
+  <si>
+    <t>Estuaire de la Canche</t>
+  </si>
+  <si>
+    <t>Bassin Arcachon</t>
+  </si>
+  <si>
+    <t>44.676871</t>
+  </si>
+  <si>
+    <t>45.4835846</t>
+  </si>
+  <si>
+    <t>45.8217455</t>
+  </si>
+  <si>
+    <t>47.2896421</t>
+  </si>
+  <si>
+    <t>48.3338885</t>
+  </si>
+  <si>
+    <t>48.7858434</t>
+  </si>
+  <si>
+    <t>49.5827295</t>
+  </si>
+  <si>
+    <t>47.0369055</t>
+  </si>
+  <si>
+    <t>50.5395128</t>
+  </si>
+  <si>
+    <t>-1.1181765</t>
+  </si>
+  <si>
+    <t>1.598988</t>
+  </si>
+  <si>
+    <t>-0.7840259</t>
+  </si>
+  <si>
+    <t>-1.11008</t>
+  </si>
+  <si>
+    <t>-2.1253744</t>
+  </si>
+  <si>
+    <t>-4.479722</t>
+  </si>
+  <si>
+    <t>-3.0975328</t>
+  </si>
+  <si>
+    <t>-1.288515</t>
+  </si>
+  <si>
+    <t>-2.129974</t>
+  </si>
+  <si>
+    <t>Lac de Clairvaux</t>
+  </si>
+  <si>
+    <t>Lac de Maclu</t>
+  </si>
+  <si>
+    <t>Lac de Petit Maclu</t>
+  </si>
+  <si>
+    <t>Lac de Chalain</t>
+  </si>
+  <si>
+    <t>Lac d'Ilay</t>
+  </si>
+  <si>
+    <t>Lac de Narlay</t>
+  </si>
+  <si>
+    <t>Lac de Remoray</t>
+  </si>
+  <si>
+    <t>Lac de Saint Point</t>
+  </si>
+  <si>
+    <t>Lac de Bonlieu</t>
+  </si>
+  <si>
+    <t>Lac de l'Abbaye</t>
+  </si>
+  <si>
+    <t>Lac de Nantua</t>
+  </si>
+  <si>
+    <t>46.5701286</t>
+  </si>
+  <si>
+    <t>46.6253605</t>
+  </si>
+  <si>
+    <t>46.630828</t>
+  </si>
+  <si>
+    <t>46.6705235</t>
+  </si>
+  <si>
+    <t>46.6258328</t>
+  </si>
+  <si>
+    <t>46.6422649</t>
+  </si>
+  <si>
+    <t>46.7713115</t>
+  </si>
+  <si>
+    <t>46.8171415</t>
+  </si>
+  <si>
+    <t>46.586469</t>
+  </si>
+  <si>
+    <t>46.530186</t>
+  </si>
+  <si>
+    <t>46.1617975</t>
+  </si>
+  <si>
+    <t>5.7522118</t>
+  </si>
+  <si>
+    <t>5.907444</t>
+  </si>
+  <si>
+    <t>5.9157961</t>
+  </si>
+  <si>
+    <t>5.7932344</t>
+  </si>
+  <si>
+    <t>5.8966667</t>
+  </si>
+  <si>
+    <t>5.9124169</t>
+  </si>
+  <si>
+    <t>6.2642115</t>
+  </si>
+  <si>
+    <t>6.3135619</t>
+  </si>
+  <si>
+    <t>5.8734329</t>
+  </si>
+  <si>
+    <t>5.911308</t>
+  </si>
+  <si>
+    <t>5.5882355</t>
+  </si>
+  <si>
+    <t>Lac des Rousses</t>
+  </si>
+  <si>
+    <t>Lac de Bellefontaine</t>
+  </si>
+  <si>
+    <t>Lac des Mortes</t>
+  </si>
+  <si>
+    <t>Etang du Pont rouge</t>
+  </si>
+  <si>
+    <t>Lac de Gerardmer</t>
+  </si>
+  <si>
+    <t>Lac de Longemer</t>
+  </si>
+  <si>
+    <t>Lac de la Maix</t>
+  </si>
+  <si>
+    <t>Lac des Corbeaux</t>
+  </si>
+  <si>
+    <t>Lac de Blanchemer</t>
+  </si>
+  <si>
+    <t>Lac Marion</t>
+  </si>
+  <si>
+    <t>Lac Mourisot</t>
+  </si>
+  <si>
+    <t>Wildsee</t>
+  </si>
+  <si>
+    <t>Lac de la Godivelle</t>
+  </si>
+  <si>
+    <t>Lac de la Landie</t>
+  </si>
+  <si>
+    <t>Lac de Montcineyre</t>
+  </si>
+  <si>
+    <t>Lac de Guery</t>
+  </si>
+  <si>
+    <t>Lac Verdet</t>
+  </si>
+  <si>
+    <t>Lac du Mont-Coua</t>
+  </si>
+  <si>
+    <t>Lac du Brévent</t>
+  </si>
+  <si>
+    <t>Lac de Paladru</t>
+  </si>
+  <si>
+    <t>46.5043765</t>
+  </si>
+  <si>
+    <t>46.5726694</t>
+  </si>
+  <si>
+    <t>46.5776486</t>
+  </si>
+  <si>
+    <t>46.3675885</t>
+  </si>
+  <si>
+    <t>48.0692775</t>
+  </si>
+  <si>
+    <t>48.070704</t>
+  </si>
+  <si>
+    <t>48.47577</t>
+  </si>
+  <si>
+    <t>47.9908785</t>
+  </si>
+  <si>
+    <t>48.017496</t>
+  </si>
+  <si>
+    <t>43.466942</t>
+  </si>
+  <si>
+    <t>43.4559886</t>
+  </si>
+  <si>
+    <t>48.5696789</t>
+  </si>
+  <si>
+    <t>45.3875508</t>
+  </si>
+  <si>
+    <t>45.4211895</t>
+  </si>
+  <si>
+    <t>45.45884</t>
+  </si>
+  <si>
+    <t>45.615342</t>
+  </si>
+  <si>
+    <t>45.5763977</t>
+  </si>
+  <si>
+    <t>45.3177295</t>
+  </si>
+  <si>
+    <t>45.9288987</t>
+  </si>
+  <si>
+    <t>45.451268</t>
+  </si>
+  <si>
+    <t>6.0901149</t>
+  </si>
+  <si>
+    <t>6.091801</t>
+  </si>
+  <si>
+    <t>6.097739</t>
+  </si>
+  <si>
+    <t>3.4548135</t>
+  </si>
+  <si>
+    <t>6.854927</t>
+  </si>
+  <si>
+    <t>6.953772</t>
+  </si>
+  <si>
+    <t>7.074959</t>
+  </si>
+  <si>
+    <t>6.904423</t>
+  </si>
+  <si>
+    <t>6.976979</t>
+  </si>
+  <si>
+    <t>-1.5483</t>
+  </si>
+  <si>
+    <t>-1.5576147</t>
+  </si>
+  <si>
+    <t>8.239517</t>
+  </si>
+  <si>
+    <t>2.9166089</t>
+  </si>
+  <si>
+    <t>2.76727</t>
+  </si>
+  <si>
+    <t>2.8973375</t>
+  </si>
+  <si>
+    <t>2.821951</t>
+  </si>
+  <si>
+    <t>6.954547</t>
+  </si>
+  <si>
+    <t>6.638325</t>
+  </si>
+  <si>
+    <t>6.8272757</t>
+  </si>
+  <si>
+    <t>5.52892</t>
+  </si>
+  <si>
+    <t>Lac d'Anterne</t>
+  </si>
+  <si>
+    <t>Lac d'Allos</t>
+  </si>
+  <si>
+    <t>Lac du Lauzanier</t>
+  </si>
+  <si>
+    <t>Lac de la Thuile</t>
+  </si>
+  <si>
+    <t>Lac Blanc (Aiguilles rouges)</t>
+  </si>
+  <si>
+    <t>Lac Bénit</t>
+  </si>
+  <si>
+    <t>Lac de Gers</t>
+  </si>
+  <si>
+    <t>Lac de la Muzelle</t>
+  </si>
+  <si>
+    <t>Lac du Lauvitel</t>
+  </si>
+  <si>
+    <t>Lac Robert</t>
+  </si>
+  <si>
+    <t>Lac de Bastani</t>
+  </si>
+  <si>
+    <t>Lac de Nino</t>
+  </si>
+  <si>
+    <t>Etang d'Urbino</t>
+  </si>
+  <si>
+    <t>Lac de Mélo</t>
+  </si>
+  <si>
+    <t>Lac de Capitello</t>
+  </si>
+  <si>
+    <t>Lac Nègre</t>
+  </si>
+  <si>
+    <t>Grand Lac</t>
+  </si>
+  <si>
+    <t>Lac de la Ponssonière</t>
+  </si>
+  <si>
+    <t>Lac de l'Eychauda</t>
+  </si>
+  <si>
+    <t>Lac de Tignes</t>
+  </si>
+  <si>
+    <t>Lac de Plan Vianney</t>
+  </si>
+  <si>
+    <t>Lac du Verney</t>
+  </si>
+  <si>
+    <t>Lac Luitel</t>
+  </si>
+  <si>
+    <t>Lac d'Arvouin</t>
+  </si>
+  <si>
+    <t>Lac du Loup</t>
+  </si>
+  <si>
+    <t>Lac de la Plagne</t>
+  </si>
+  <si>
+    <t>Lac de Saint André</t>
+  </si>
+  <si>
+    <t>Lac Savines</t>
+  </si>
+  <si>
+    <t>Lac du Doménon</t>
+  </si>
+  <si>
+    <t>Lacs de la Braissette</t>
+  </si>
+  <si>
+    <t>Lagune Pierre Blanche</t>
+  </si>
+  <si>
+    <t>Etang de Lannenec</t>
+  </si>
+  <si>
+    <t>Etang de la Beulie</t>
+  </si>
+  <si>
+    <t>Estany Gros</t>
+  </si>
+  <si>
+    <t>Estany del Mig</t>
+  </si>
+  <si>
+    <t>Lac d'Espingo</t>
+  </si>
+  <si>
+    <t>Lac Gentau</t>
+  </si>
+  <si>
+    <t>Etang d'Arbu</t>
+  </si>
+  <si>
+    <t>Etang de Sarrat de Montestaure</t>
+  </si>
+  <si>
+    <t>Etang de la Soucaranne</t>
+  </si>
+  <si>
+    <t>Lac de Barroude</t>
+  </si>
+  <si>
+    <t>Etang de Sigriou</t>
+  </si>
+  <si>
+    <t>44.3784815</t>
+  </si>
+  <si>
+    <t>45.5298299</t>
+  </si>
+  <si>
+    <t>45.9826475</t>
+  </si>
+  <si>
+    <t>46.02768</t>
+  </si>
+  <si>
+    <t>46.0267915</t>
+  </si>
+  <si>
+    <t>44.9505994</t>
+  </si>
+  <si>
+    <t>44.9695969</t>
+  </si>
+  <si>
+    <t>45.1319455</t>
+  </si>
+  <si>
+    <t>42.0658327</t>
+  </si>
+  <si>
+    <t>42.255939</t>
+  </si>
+  <si>
+    <t>42.0514305</t>
+  </si>
+  <si>
+    <t>42.2129701</t>
+  </si>
+  <si>
+    <t>42.2123754</t>
+  </si>
+  <si>
+    <t>44.1589215</t>
+  </si>
+  <si>
+    <t>45.0413919</t>
+  </si>
+  <si>
+    <t>45.052477</t>
+  </si>
+  <si>
+    <t>44.932097</t>
+  </si>
+  <si>
+    <t>45.4657462</t>
+  </si>
+  <si>
+    <t>44.957827</t>
+  </si>
+  <si>
+    <t>45.138656</t>
+  </si>
+  <si>
+    <t>45.0908023</t>
+  </si>
+  <si>
+    <t>46.31435</t>
+  </si>
+  <si>
+    <t>45.3787016</t>
+  </si>
+  <si>
+    <t>45.484304</t>
+  </si>
+  <si>
+    <t>45.4940055</t>
+  </si>
+  <si>
+    <t>44.5300085</t>
+  </si>
+  <si>
+    <t>45.1633324</t>
+  </si>
+  <si>
+    <t>44.2987294</t>
+  </si>
+  <si>
+    <t>43.8580174</t>
+  </si>
+  <si>
+    <t>47.7408664</t>
+  </si>
+  <si>
+    <t>47.9421165</t>
+  </si>
+  <si>
+    <t>42.6251679</t>
+  </si>
+  <si>
+    <t>42.621632</t>
+  </si>
+  <si>
+    <t>42.7284356</t>
+  </si>
+  <si>
+    <t>42.8482733</t>
+  </si>
+  <si>
+    <t>42.8208615</t>
+  </si>
+  <si>
+    <t>42.7407304</t>
+  </si>
+  <si>
+    <t>42.6261104</t>
+  </si>
+  <si>
+    <t>42.731153</t>
+  </si>
+  <si>
+    <t>42.754836</t>
+  </si>
+  <si>
+    <t>6.7968819</t>
+  </si>
+  <si>
+    <t>6.7065149</t>
+  </si>
+  <si>
+    <t>6.8721505</t>
+  </si>
+  <si>
+    <t>6.0571315</t>
+  </si>
+  <si>
+    <t>6.888953</t>
+  </si>
+  <si>
+    <t>6.504682</t>
+  </si>
+  <si>
+    <t>6.7292795</t>
+  </si>
+  <si>
+    <t>6.0972095</t>
+  </si>
+  <si>
+    <t>6.0659729</t>
+  </si>
+  <si>
+    <t>5.914315</t>
+  </si>
+  <si>
+    <t>9.1341667</t>
+  </si>
+  <si>
+    <t>8.9380553</t>
+  </si>
+  <si>
+    <t>9.4727148</t>
+  </si>
+  <si>
+    <t>9.0226188</t>
+  </si>
+  <si>
+    <t>9.012018</t>
+  </si>
+  <si>
+    <t>7.2361404</t>
+  </si>
+  <si>
+    <t>6.473166</t>
+  </si>
+  <si>
+    <t>6.4726764</t>
+  </si>
+  <si>
+    <t>6.4773865</t>
+  </si>
+  <si>
+    <t>6.90394</t>
+  </si>
+  <si>
+    <t>6.0438795</t>
+  </si>
+  <si>
+    <t>6.046135</t>
+  </si>
+  <si>
+    <t>5.8483439</t>
+  </si>
+  <si>
+    <t>6.809599</t>
+  </si>
+  <si>
+    <t>6.366896</t>
+  </si>
+  <si>
+    <t>6.8413855</t>
+  </si>
+  <si>
+    <t>5.9867311</t>
+  </si>
+  <si>
+    <t>6.3950104</t>
+  </si>
+  <si>
+    <t>5.958889</t>
+  </si>
+  <si>
+    <t>6.780566</t>
+  </si>
+  <si>
+    <t>5.985274</t>
+  </si>
+  <si>
+    <t>-3.493082</t>
+  </si>
+  <si>
+    <t>1.9581085</t>
+  </si>
+  <si>
+    <t>2.006775</t>
+  </si>
+  <si>
+    <t>2.009754</t>
+  </si>
+  <si>
+    <t>0.495966</t>
+  </si>
+  <si>
+    <t>-0.4874124</t>
+  </si>
+  <si>
+    <t>1.4371455</t>
+  </si>
+  <si>
+    <t>1.407419</t>
+  </si>
+  <si>
+    <t>1.435</t>
+  </si>
+  <si>
+    <t>0.1449685</t>
+  </si>
+  <si>
+    <t>1.4225525</t>
+  </si>
+  <si>
+    <t>Villiers-le-Bâcle</t>
+  </si>
+  <si>
+    <t>Greoux</t>
+  </si>
+  <si>
+    <t>48.7312772929169</t>
+  </si>
+  <si>
+    <t>43.7518061406958</t>
+  </si>
+  <si>
+    <t>2.11086897609262</t>
+  </si>
+  <si>
+    <t>5.85564275044604</t>
+  </si>
+  <si>
+    <t>4.8483733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4289,8 +5295,23 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4315,8 +5336,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4339,18 +5365,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4368,16 +5405,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4386,32 +5423,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4648,51 +5718,51 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4700,7 +5770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4708,7 +5778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +5786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +5794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4737,15 +5807,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q257"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="10" bestFit="1" customWidth="1"/>
@@ -4767,7 +5838,7 @@
     <col min="18" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -4820,7 +5891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5">
+    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -4873,7 +5944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58">
+    <row r="3" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -4922,7 +5993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="174">
+    <row r="4" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -4971,7 +6042,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="87">
+    <row r="5" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -5024,7 +6095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="145">
+    <row r="6" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -5073,7 +6144,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="116">
+    <row r="7" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -5124,7 +6195,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="159.5">
+    <row r="8" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -5177,7 +6248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="87">
+    <row r="9" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -5230,7 +6301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="116">
+    <row r="10" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -5281,7 +6352,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="72.5">
+    <row r="11" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -5334,7 +6405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="101.5">
+    <row r="12" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -5383,7 +6454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="188.5">
+    <row r="13" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -5434,7 +6505,7 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="174">
+    <row r="14" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -5485,7 +6556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="101.5">
+    <row r="15" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -5532,7 +6603,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="87">
+    <row r="16" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -5583,7 +6654,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="101.5">
+    <row r="17" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -5634,7 +6705,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="58">
+    <row r="18" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -5685,7 +6756,7 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" ht="87">
+    <row r="19" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -5736,7 +6807,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="87">
+    <row r="20" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -5783,7 +6854,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" ht="116">
+    <row r="21" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -5834,7 +6905,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="174">
+    <row r="22" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -5885,7 +6956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="116">
+    <row r="23" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -5938,7 +7009,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="72.5">
+    <row r="24" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
@@ -5991,7 +7062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="58">
+    <row r="25" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -6040,7 +7111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="159.5">
+    <row r="26" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -6093,7 +7164,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="101.5">
+    <row r="27" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -6146,7 +7217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="116">
+    <row r="28" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -6197,7 +7268,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="58">
+    <row r="29" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -6246,7 +7317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="87">
+    <row r="30" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -6295,7 +7366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="72.5">
+    <row r="31" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -6344,7 +7415,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="72.5">
+    <row r="32" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -6393,7 +7464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="101.5">
+    <row r="33" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -6444,7 +7515,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="159.5">
+    <row r="34" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -6495,7 +7566,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="130.5">
+    <row r="35" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -6548,7 +7619,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="130.5">
+    <row r="36" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -6601,7 +7672,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="217.5">
+    <row r="37" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -6652,7 +7723,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="101.5">
+    <row r="38" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -6701,7 +7772,7 @@
       </c>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="145">
+    <row r="39" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -6752,7 +7823,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="116">
+    <row r="40" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -6803,7 +7874,7 @@
       </c>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" ht="246.5">
+    <row r="41" spans="1:17" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -6856,7 +7927,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="249.5" customHeight="1">
+    <row r="42" spans="1:17" ht="249.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -6905,7 +7976,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="58">
+    <row r="43" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -6954,7 +8025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="275.5" customHeight="1">
+    <row r="44" spans="1:17" ht="275.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -7001,7 +8072,7 @@
       </c>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" ht="116">
+    <row r="45" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -7052,7 +8123,7 @@
       </c>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" ht="87">
+    <row r="46" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -7105,7 +8176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="116">
+    <row r="47" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -7156,7 +8227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="72.5">
+    <row r="48" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -7209,7 +8280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="145">
+    <row r="49" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -7262,7 +8333,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="188.5">
+    <row r="50" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -7313,7 +8384,7 @@
       </c>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="101.5">
+    <row r="51" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -7364,7 +8435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="58">
+    <row r="52" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -7415,7 +8486,7 @@
       </c>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="188.5">
+    <row r="53" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -7468,7 +8539,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="87">
+    <row r="54" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -7519,7 +8590,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="116">
+    <row r="55" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -7570,7 +8641,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="116">
+    <row r="56" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -7623,7 +8694,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="101.5">
+    <row r="57" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -7676,7 +8747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="159.5">
+    <row r="58" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
@@ -7729,7 +8800,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="116">
+    <row r="59" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>32</v>
       </c>
@@ -7778,7 +8849,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="72.5">
+    <row r="60" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -7817,7 +8888,7 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="72.5">
+    <row r="61" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -7866,7 +8937,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="87">
+    <row r="62" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -7917,7 +8988,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="304.5">
+    <row r="63" spans="1:17" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
@@ -7966,7 +9037,7 @@
       </c>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="101.5">
+    <row r="64" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
@@ -8015,7 +9086,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="87">
+    <row r="65" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
@@ -8064,7 +9135,7 @@
       </c>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="130.5">
+    <row r="66" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
@@ -8115,7 +9186,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="130.5">
+    <row r="67" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -8168,7 +9239,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="130.5">
+    <row r="68" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>32</v>
       </c>
@@ -8221,7 +9292,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="145">
+    <row r="69" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
@@ -8274,7 +9345,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="87">
+    <row r="70" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
@@ -8327,7 +9398,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="130.5">
+    <row r="71" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
@@ -8380,7 +9451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="101.5">
+    <row r="72" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>32</v>
       </c>
@@ -8433,7 +9504,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="116">
+    <row r="73" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
@@ -8486,7 +9557,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="72.5">
+    <row r="74" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
@@ -8537,7 +9608,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="72.5">
+    <row r="75" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -8584,7 +9655,7 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="1:17" ht="130.5">
+    <row r="76" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -8633,7 +9704,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="58">
+    <row r="77" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>32</v>
       </c>
@@ -8684,7 +9755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="174">
+    <row r="78" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
@@ -8731,7 +9802,7 @@
       </c>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="1:17" ht="116">
+    <row r="79" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -8782,7 +9853,7 @@
       </c>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="1:17" ht="145">
+    <row r="80" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>32</v>
       </c>
@@ -8835,7 +9906,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="188.5">
+    <row r="81" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>32</v>
       </c>
@@ -8886,7 +9957,7 @@
       </c>
       <c r="Q81" s="6"/>
     </row>
-    <row r="82" spans="1:17" ht="72.5">
+    <row r="82" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -8935,7 +10006,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="304.5">
+    <row r="83" spans="1:17" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>32</v>
       </c>
@@ -8984,7 +10055,7 @@
       </c>
       <c r="Q83" s="6"/>
     </row>
-    <row r="84" spans="1:17" ht="87">
+    <row r="84" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
@@ -9037,7 +10108,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="87">
+    <row r="85" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
@@ -9086,7 +10157,7 @@
       </c>
       <c r="Q85" s="6"/>
     </row>
-    <row r="86" spans="1:17" ht="87">
+    <row r="86" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -9137,7 +10208,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="130.5">
+    <row r="87" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -9190,7 +10261,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="188.5">
+    <row r="88" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -9241,7 +10312,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="87">
+    <row r="89" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>32</v>
       </c>
@@ -9294,7 +10365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="116">
+    <row r="90" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
@@ -9345,7 +10416,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="101.5">
+    <row r="91" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
@@ -9394,7 +10465,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="72.5">
+    <row r="92" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>32</v>
       </c>
@@ -9437,7 +10508,7 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
     </row>
-    <row r="93" spans="1:17" ht="101.5">
+    <row r="93" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>32</v>
       </c>
@@ -9486,7 +10557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="203">
+    <row r="94" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>32</v>
       </c>
@@ -9539,7 +10610,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="116">
+    <row r="95" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -9590,7 +10661,7 @@
       </c>
       <c r="Q95" s="6"/>
     </row>
-    <row r="96" spans="1:17" ht="87">
+    <row r="96" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>32</v>
       </c>
@@ -9641,7 +10712,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="174">
+    <row r="97" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
@@ -9694,7 +10765,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="72.5">
+    <row r="98" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>32</v>
       </c>
@@ -9745,7 +10816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="58">
+    <row r="99" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -9794,7 +10865,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="87">
+    <row r="100" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
@@ -9847,7 +10918,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="72.5">
+    <row r="101" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>32</v>
       </c>
@@ -9896,7 +10967,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="130.5">
+    <row r="102" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
@@ -9947,7 +11018,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="87">
+    <row r="103" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
@@ -9998,7 +11069,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="159.5">
+    <row r="104" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
@@ -10047,7 +11118,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="116">
+    <row r="105" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>32</v>
       </c>
@@ -10098,7 +11169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="101.5">
+    <row r="106" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>32</v>
       </c>
@@ -10149,7 +11220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="72.5">
+    <row r="107" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
@@ -10200,7 +11271,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="145">
+    <row r="108" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>32</v>
       </c>
@@ -10251,7 +11322,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="188.5">
+    <row r="109" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
@@ -10302,7 +11373,7 @@
       </c>
       <c r="Q109" s="6"/>
     </row>
-    <row r="110" spans="1:17" ht="116">
+    <row r="110" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>32</v>
       </c>
@@ -10353,7 +11424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="174">
+    <row r="111" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
@@ -10404,7 +11475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="116">
+    <row r="112" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>32</v>
       </c>
@@ -10457,7 +11528,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="145">
+    <row r="113" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
@@ -10510,7 +11581,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="145">
+    <row r="114" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
@@ -10559,7 +11630,7 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
     </row>
-    <row r="115" spans="1:17" ht="116">
+    <row r="115" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
@@ -10610,7 +11681,7 @@
       </c>
       <c r="Q115" s="6"/>
     </row>
-    <row r="116" spans="1:17" ht="145">
+    <row r="116" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -10661,7 +11732,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="188.5">
+    <row r="117" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>32</v>
       </c>
@@ -10714,7 +11785,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="130.5">
+    <row r="118" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -10767,7 +11838,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="116">
+    <row r="119" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>32</v>
       </c>
@@ -10818,7 +11889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="159.5">
+    <row r="120" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>32</v>
       </c>
@@ -10871,7 +11942,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="72.5">
+    <row r="121" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
@@ -10916,7 +11987,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="1:17" ht="58">
+    <row r="122" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>32</v>
       </c>
@@ -10967,7 +12038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="145">
+    <row r="123" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>32</v>
       </c>
@@ -11020,7 +12091,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="29">
+    <row r="124" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>32</v>
       </c>
@@ -11069,7 +12140,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="87">
+    <row r="125" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
@@ -11114,7 +12185,7 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
     </row>
-    <row r="126" spans="1:17" ht="101.5">
+    <row r="126" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
@@ -11163,7 +12234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="58">
+    <row r="127" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
@@ -11214,7 +12285,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="72.5">
+    <row r="128" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>32</v>
       </c>
@@ -11255,7 +12326,7 @@
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="1:17" ht="87">
+    <row r="129" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>32</v>
       </c>
@@ -11304,7 +12375,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="58">
+    <row r="130" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -11355,7 +12426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="145">
+    <row r="131" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>32</v>
       </c>
@@ -11406,7 +12477,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="87">
+    <row r="132" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>32</v>
       </c>
@@ -11457,7 +12528,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="188.5">
+    <row r="133" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
@@ -11508,7 +12579,7 @@
       </c>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="1:17" ht="72.5">
+    <row r="134" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -11559,7 +12630,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="174">
+    <row r="135" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -11608,7 +12679,7 @@
       </c>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="1:17" ht="58">
+    <row r="136" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -11655,7 +12726,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="72.5">
+    <row r="137" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -11706,7 +12777,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="43.5">
+    <row r="138" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -11753,7 +12824,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="72.5">
+    <row r="139" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -11792,7 +12863,7 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="1:17" ht="145">
+    <row r="140" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -11841,7 +12912,7 @@
       </c>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="1:17" ht="58">
+    <row r="141" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -11890,7 +12961,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="130.5">
+    <row r="142" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -11941,7 +13012,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="87">
+    <row r="143" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -11992,7 +13063,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="58">
+    <row r="144" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -12041,7 +13112,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="130.5">
+    <row r="145" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -12092,7 +13163,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="58">
+    <row r="146" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
@@ -12139,7 +13210,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="116">
+    <row r="147" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>32</v>
       </c>
@@ -12192,7 +13263,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="72.5">
+    <row r="148" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
@@ -12239,7 +13310,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="87">
+    <row r="149" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>32</v>
       </c>
@@ -12290,7 +13361,7 @@
       </c>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="1:17" ht="87">
+    <row r="150" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>32</v>
       </c>
@@ -12341,7 +13412,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="72.5">
+    <row r="151" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -12390,7 +13461,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="72.5">
+    <row r="152" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>32</v>
       </c>
@@ -12439,7 +13510,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="72.5">
+    <row r="153" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -12492,7 +13563,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="58">
+    <row r="154" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -12539,7 +13610,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="87">
+    <row r="155" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -12590,7 +13661,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="87">
+    <row r="156" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>32</v>
       </c>
@@ -12641,7 +13712,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="174">
+    <row r="157" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -12692,7 +13763,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="116">
+    <row r="158" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>32</v>
       </c>
@@ -12741,7 +13812,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="101.5">
+    <row r="159" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>32</v>
       </c>
@@ -12792,7 +13863,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="145">
+    <row r="160" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>32</v>
       </c>
@@ -12845,7 +13916,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="159.5">
+    <row r="161" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
@@ -12896,7 +13967,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="188.5">
+    <row r="162" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>32</v>
       </c>
@@ -12947,7 +14018,7 @@
       </c>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="1:17" ht="130.5">
+    <row r="163" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
@@ -13000,7 +14071,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="29">
+    <row r="164" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>32</v>
       </c>
@@ -13037,7 +14108,7 @@
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:17" ht="116">
+    <row r="165" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>32</v>
       </c>
@@ -13086,7 +14157,7 @@
       </c>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="1:17" ht="145">
+    <row r="166" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
@@ -13137,7 +14208,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="43.5">
+    <row r="167" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>32</v>
       </c>
@@ -13174,7 +14245,7 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" ht="116">
+    <row r="168" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>32</v>
       </c>
@@ -13227,7 +14298,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="101.5">
+    <row r="169" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
@@ -13280,7 +14351,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="87">
+    <row r="170" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>32</v>
       </c>
@@ -13331,7 +14402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="87">
+    <row r="171" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>32</v>
       </c>
@@ -13384,7 +14455,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="72.5">
+    <row r="172" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
@@ -13433,7 +14504,7 @@
       </c>
       <c r="Q172" s="6"/>
     </row>
-    <row r="173" spans="1:17" ht="87">
+    <row r="173" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
@@ -13486,7 +14557,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="72.5">
+    <row r="174" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
@@ -13527,7 +14598,7 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
     </row>
-    <row r="175" spans="1:17" ht="130.5">
+    <row r="175" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
@@ -13568,7 +14639,7 @@
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
     </row>
-    <row r="176" spans="1:17" ht="159.5">
+    <row r="176" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
@@ -13609,7 +14680,7 @@
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
     </row>
-    <row r="177" spans="1:17" ht="72.5">
+    <row r="177" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
@@ -13650,7 +14721,7 @@
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
     </row>
-    <row r="178" spans="1:17" ht="43.5">
+    <row r="178" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
@@ -13691,7 +14762,7 @@
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
     </row>
-    <row r="179" spans="1:17" ht="58">
+    <row r="179" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>32</v>
       </c>
@@ -13732,7 +14803,7 @@
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
     </row>
-    <row r="180" spans="1:17" ht="72.5">
+    <row r="180" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>32</v>
       </c>
@@ -13773,7 +14844,7 @@
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
     </row>
-    <row r="181" spans="1:17" ht="58">
+    <row r="181" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
@@ -13814,7 +14885,7 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
     </row>
-    <row r="182" spans="1:17" ht="116">
+    <row r="182" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
@@ -13855,7 +14926,7 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
     </row>
-    <row r="183" spans="1:17" ht="87">
+    <row r="183" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
@@ -13896,7 +14967,7 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
     </row>
-    <row r="184" spans="1:17" ht="58">
+    <row r="184" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
@@ -13937,7 +15008,7 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
     </row>
-    <row r="185" spans="1:17" ht="87">
+    <row r="185" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
@@ -13980,7 +15051,7 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>32</v>
       </c>
@@ -14011,7 +15082,7 @@
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
@@ -14042,7 +15113,7 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>32</v>
       </c>
@@ -14073,7 +15144,7 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>32</v>
       </c>
@@ -14104,7 +15175,7 @@
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>32</v>
       </c>
@@ -14135,7 +15206,7 @@
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>32</v>
       </c>
@@ -14166,7 +15237,7 @@
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>32</v>
       </c>
@@ -14197,7 +15268,7 @@
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>32</v>
       </c>
@@ -14228,7 +15299,7 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>32</v>
       </c>
@@ -14259,7 +15330,7 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>32</v>
       </c>
@@ -14290,7 +15361,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>32</v>
       </c>
@@ -14321,7 +15392,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>32</v>
       </c>
@@ -14352,7 +15423,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>32</v>
       </c>
@@ -14383,7 +15454,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>32</v>
       </c>
@@ -14414,7 +15485,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>32</v>
       </c>
@@ -14445,7 +15516,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>32</v>
       </c>
@@ -14476,7 +15547,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>32</v>
       </c>
@@ -14507,7 +15578,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>32</v>
       </c>
@@ -14538,7 +15609,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>32</v>
       </c>
@@ -14569,7 +15640,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>32</v>
       </c>
@@ -14600,7 +15671,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>32</v>
       </c>
@@ -14631,7 +15702,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>32</v>
       </c>
@@ -14662,7 +15733,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>32</v>
       </c>
@@ -14693,7 +15764,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>32</v>
       </c>
@@ -14724,7 +15795,7 @@
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>32</v>
       </c>
@@ -14755,7 +15826,7 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>32</v>
       </c>
@@ -14763,7 +15834,7 @@
         <v>508</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>1089</v>
@@ -14776,25 +15847,25 @@
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="M211" s="6" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="N211" s="6"/>
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>1163</v>
+      <c r="C212" s="31" t="s">
+        <v>1289</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>1089</v>
@@ -14806,26 +15877,26 @@
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
-      <c r="L212" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="M212" s="6" t="s">
-        <v>1182</v>
+      <c r="L212" s="32" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M212" s="32" t="s">
+        <v>1291</v>
       </c>
       <c r="N212" s="6"/>
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>859</v>
+      <c r="C213" s="31" t="s">
+        <v>1286</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>1089</v>
@@ -14837,26 +15908,26 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
-      <c r="L213" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M213" s="6" t="s">
-        <v>1180</v>
+      <c r="L213" s="32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M213" s="32" t="s">
+        <v>1288</v>
       </c>
       <c r="N213" s="6"/>
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>1164</v>
+      <c r="C214" s="31" t="s">
+        <v>1292</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>1089</v>
@@ -14868,18 +15939,18 @@
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
-      <c r="L214" s="6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M214" s="6" t="s">
-        <v>1178</v>
+      <c r="L214" s="32" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M214" s="32" t="s">
+        <v>1294</v>
       </c>
       <c r="N214" s="6"/>
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>32</v>
       </c>
@@ -14887,7 +15958,7 @@
         <v>508</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>1089</v>
@@ -14900,17 +15971,17 @@
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="M215" s="6" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="N215" s="6"/>
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>32</v>
       </c>
@@ -14918,7 +15989,7 @@
         <v>508</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>1089</v>
@@ -14930,18 +16001,18 @@
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
-      <c r="L216" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M216" s="6" t="s">
-        <v>1174</v>
+      <c r="L216" s="32" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M216" s="32" t="s">
+        <v>1296</v>
       </c>
       <c r="N216" s="6"/>
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>32</v>
       </c>
@@ -14949,7 +16020,7 @@
         <v>508</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>1089</v>
@@ -14961,18 +16032,18 @@
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
-      <c r="L217" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="M217" s="6" t="s">
-        <v>1172</v>
+      <c r="L217" s="32" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M217" s="32" t="s">
+        <v>1298</v>
       </c>
       <c r="N217" s="6"/>
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>32</v>
       </c>
@@ -14980,7 +16051,7 @@
         <v>508</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>1089</v>
@@ -14993,25 +16064,25 @@
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
       <c r="L218" s="23" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="N218" s="6"/>
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1185</v>
+        <v>1139</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>1089</v>
@@ -15024,25 +16095,25 @@
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M219" s="23" t="s">
-        <v>1203</v>
+        <v>1147</v>
+      </c>
+      <c r="M219" s="6" t="s">
+        <v>1156</v>
       </c>
       <c r="N219" s="6"/>
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1186</v>
+        <v>1140</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>1089</v>
@@ -15055,25 +16126,25 @@
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
       <c r="L220" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M220" s="23" t="s">
-        <v>1201</v>
+        <v>1148</v>
+      </c>
+      <c r="M220" s="6" t="s">
+        <v>1157</v>
       </c>
       <c r="N220" s="6"/>
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1187</v>
+        <v>1144</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>1089</v>
@@ -15085,26 +16156,26 @@
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
-      <c r="L221" s="23" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M221" s="23" t="s">
-        <v>1199</v>
+      <c r="L221" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M221" s="6" t="s">
+        <v>1160</v>
       </c>
       <c r="N221" s="6"/>
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1188</v>
+        <v>1145</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>1089</v>
@@ -15116,26 +16187,26 @@
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
-      <c r="L222" s="23" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M222" s="23" t="s">
-        <v>1197</v>
+      <c r="L222" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M222" s="6" t="s">
+        <v>1162</v>
       </c>
       <c r="N222" s="6"/>
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>751</v>
+        <v>408</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1189</v>
+        <v>1090</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>1089</v>
@@ -15147,26 +16218,26 @@
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
-      <c r="L223" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M223" s="6" t="s">
-        <v>1195</v>
+      <c r="L223" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M223" s="16" t="s">
+        <v>1084</v>
       </c>
       <c r="N223" s="6"/>
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>751</v>
+        <v>408</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1190</v>
+        <v>1091</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>1089</v>
@@ -15178,26 +16249,26 @@
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
-      <c r="L224" s="23" t="s">
-        <v>1192</v>
+      <c r="L224" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="M224" s="6" t="s">
-        <v>1193</v>
+        <v>1093</v>
       </c>
       <c r="N224" s="6"/>
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1139</v>
+        <v>1094</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>1089</v>
@@ -15210,25 +16281,25 @@
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6" t="s">
-        <v>1147</v>
+        <v>1095</v>
       </c>
       <c r="M225" s="6" t="s">
-        <v>1156</v>
+        <v>1096</v>
       </c>
       <c r="N225" s="6"/>
       <c r="O225" s="6"/>
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1140</v>
+        <v>1097</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>1089</v>
@@ -15241,25 +16312,25 @@
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6" t="s">
-        <v>1148</v>
+        <v>1098</v>
       </c>
       <c r="M226" s="6" t="s">
-        <v>1157</v>
+        <v>1099</v>
       </c>
       <c r="N226" s="6"/>
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1144</v>
+        <v>1100</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>1089</v>
@@ -15272,25 +16343,25 @@
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6" t="s">
-        <v>1151</v>
+        <v>1101</v>
       </c>
       <c r="M227" s="6" t="s">
-        <v>1160</v>
+        <v>1102</v>
       </c>
       <c r="N227" s="6"/>
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1145</v>
+        <v>1121</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>1089</v>
@@ -15303,17 +16374,17 @@
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6" t="s">
-        <v>1153</v>
+        <v>1122</v>
       </c>
       <c r="M228" s="6" t="s">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="N228" s="6"/>
       <c r="O228" s="6"/>
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>32</v>
       </c>
@@ -15321,7 +16392,7 @@
         <v>408</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1090</v>
+        <v>1126</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>1089</v>
@@ -15333,26 +16404,26 @@
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
-      <c r="L229" s="16" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M229" s="16" t="s">
-        <v>1084</v>
+      <c r="L229" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M229" s="6" t="s">
+        <v>1128</v>
       </c>
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1091</v>
+        <v>1174</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>1089</v>
@@ -15365,25 +16436,25 @@
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6" t="s">
-        <v>1092</v>
+        <v>1171</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>1093</v>
+        <v>1172</v>
       </c>
       <c r="N230" s="6"/>
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1094</v>
+        <v>1180</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>1089</v>
@@ -15396,25 +16467,25 @@
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6" t="s">
-        <v>1095</v>
+        <v>1182</v>
       </c>
       <c r="M231" s="6" t="s">
-        <v>1096</v>
+        <v>1183</v>
       </c>
       <c r="N231" s="6"/>
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>1097</v>
+        <v>360</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>1289</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>1089</v>
@@ -15426,26 +16497,26 @@
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
-      <c r="L232" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="M232" s="6" t="s">
-        <v>1099</v>
+      <c r="L232" s="32" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M232" s="32" t="s">
+        <v>1291</v>
       </c>
       <c r="N232" s="6"/>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1100</v>
+        <v>1177</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1089</v>
@@ -15458,25 +16529,25 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6" t="s">
-        <v>1101</v>
+        <v>1184</v>
       </c>
       <c r="M233" s="6" t="s">
-        <v>1102</v>
+        <v>1185</v>
       </c>
       <c r="N233" s="6"/>
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1121</v>
+        <v>1178</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>1089</v>
@@ -15489,25 +16560,25 @@
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
       <c r="L234" s="6" t="s">
-        <v>1122</v>
+        <v>1186</v>
       </c>
       <c r="M234" s="6" t="s">
-        <v>1123</v>
+        <v>1187</v>
       </c>
       <c r="N234" s="6"/>
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1126</v>
+        <v>1179</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>1089</v>
@@ -15519,18 +16590,18 @@
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
-      <c r="L235" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M235" s="6" t="s">
-        <v>1128</v>
+      <c r="L235" s="32" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M235" s="32" t="s">
+        <v>1301</v>
       </c>
       <c r="N235" s="6"/>
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>32</v>
       </c>
@@ -15538,7 +16609,7 @@
         <v>360</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>1089</v>
@@ -15551,25 +16622,25 @@
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="M236" s="6" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="N236" s="6"/>
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>1209</v>
+      <c r="C237" s="31" t="s">
+        <v>1299</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>1089</v>
@@ -15582,686 +16653,722 @@
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="M237" s="6" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="N237" s="6"/>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" s="15" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1213</v>
+        <v>521</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-      <c r="I238" s="6"/>
-      <c r="J238" s="6"/>
-      <c r="K238" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="K238" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="L238" s="6" t="s">
-        <v>1214</v>
+        <v>524</v>
       </c>
       <c r="M238" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="N238" s="6"/>
-      <c r="O238" s="6"/>
-      <c r="P238" s="6"/>
-      <c r="Q238" s="6"/>
-    </row>
-    <row r="239" spans="1:17">
+        <v>525</v>
+      </c>
+      <c r="N238" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="O238" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P238" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q238" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" s="15" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1204</v>
+        <v>48</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-      <c r="I239" s="6"/>
-      <c r="J239" s="6"/>
-      <c r="K239" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K239" s="6" t="s">
+        <v>547</v>
+      </c>
       <c r="L239" s="6" t="s">
-        <v>1216</v>
+        <v>53</v>
       </c>
       <c r="M239" s="6" t="s">
-        <v>1217</v>
+        <v>54</v>
       </c>
       <c r="N239" s="6"/>
-      <c r="O239" s="6"/>
+      <c r="O239" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="P239" s="6"/>
-      <c r="Q239" s="6"/>
-    </row>
-    <row r="240" spans="1:17">
+      <c r="Q239" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" s="15" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1205</v>
+        <v>933</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E240" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6"/>
-      <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
+      <c r="G240" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="K240" s="6" t="s">
+        <v>937</v>
+      </c>
       <c r="L240" s="6" t="s">
-        <v>1218</v>
+        <v>1085</v>
       </c>
       <c r="M240" s="6" t="s">
-        <v>1219</v>
+        <v>1086</v>
       </c>
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" s="15" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1206</v>
+        <v>85</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6"/>
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J241" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K241" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="L241" s="6" t="s">
-        <v>1220</v>
+        <v>886</v>
       </c>
       <c r="M241" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="N241" s="6"/>
-      <c r="O241" s="6"/>
-      <c r="P241" s="6"/>
+        <v>887</v>
+      </c>
+      <c r="N241" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O241" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P241" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="Q241" s="6"/>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" s="15" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1210</v>
+        <v>100</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6"/>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K242" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="L242" s="6" t="s">
-        <v>1222</v>
+        <v>105</v>
       </c>
       <c r="M242" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N242" s="6"/>
-      <c r="O242" s="6"/>
-      <c r="P242" s="6"/>
-      <c r="Q242" s="6"/>
-    </row>
-    <row r="243" spans="1:17">
+        <v>106</v>
+      </c>
+      <c r="N242" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O242" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P242" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q242" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" s="15" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1207</v>
+        <v>171</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E243" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-      <c r="I243" s="6"/>
-      <c r="J243" s="6"/>
-      <c r="K243" s="6"/>
+      <c r="G243" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H243" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="J243" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="K243" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="L243" s="6" t="s">
-        <v>1224</v>
+        <v>774</v>
       </c>
       <c r="M243" s="6" t="s">
-        <v>1225</v>
+        <v>775</v>
       </c>
       <c r="N243" s="6"/>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>360</v>
+        <v>1192</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E244" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-      <c r="I244" s="6"/>
-      <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
+      <c r="G244" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I244" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J244" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K244" s="6" t="s">
+        <v>1197</v>
+      </c>
       <c r="L244" s="6" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
       <c r="M244" s="6" t="s">
-        <v>1227</v>
+        <v>1199</v>
       </c>
       <c r="N244" s="6"/>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
     </row>
-    <row r="245" spans="1:17" s="15" customFormat="1" ht="145">
+    <row r="245" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>521</v>
+        <v>1200</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F245" s="6" t="s">
-        <v>519</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>58</v>
+        <v>1065</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>520</v>
+        <v>1201</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>521</v>
+        <v>1200</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>522</v>
+        <v>1202</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>523</v>
+        <v>1205</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>524</v>
+        <v>1203</v>
       </c>
       <c r="M245" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="N245" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="O245" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P245" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q245" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" s="15" customFormat="1" ht="101.5">
+        <v>1204</v>
+      </c>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F246" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>37</v>
+        <v>928</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>50</v>
+        <v>938</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>48</v>
+        <v>935</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>547</v>
+        <v>939</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>53</v>
+        <v>624</v>
       </c>
       <c r="M246" s="6" t="s">
-        <v>54</v>
+        <v>625</v>
       </c>
       <c r="N246" s="6"/>
-      <c r="O246" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="O246" s="6"/>
       <c r="P246" s="6"/>
-      <c r="Q246" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" s="15" customFormat="1" ht="130.5">
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>933</v>
+        <v>1206</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>1229</v>
+        <v>1193</v>
       </c>
       <c r="F247" s="6"/>
-      <c r="G247" s="6" t="s">
-        <v>928</v>
-      </c>
+      <c r="G247" s="6"/>
       <c r="H247" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>935</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="I247" s="6"/>
       <c r="J247" s="6" t="s">
-        <v>936</v>
+        <v>1208</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>937</v>
+        <v>1211</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>1085</v>
+        <v>1209</v>
       </c>
       <c r="M247" s="6" t="s">
-        <v>1086</v>
+        <v>1210</v>
       </c>
       <c r="N247" s="6"/>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
     </row>
-    <row r="248" spans="1:17" s="15" customFormat="1" ht="116">
+    <row r="248" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1228</v>
+        <v>962</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>85</v>
+        <v>933</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>86</v>
+        <v>1223</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>58</v>
+        <v>928</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>87</v>
+        <v>934</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>85</v>
+        <v>935</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>88</v>
+        <v>936</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>518</v>
+        <v>937</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>886</v>
+        <v>1085</v>
       </c>
       <c r="M248" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="N248" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O248" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P248" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
     </row>
-    <row r="249" spans="1:17" s="15" customFormat="1" ht="87">
+    <row r="249" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1228</v>
+        <v>962</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>100</v>
+        <v>1213</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>101</v>
+        <v>1222</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>58</v>
+        <v>928</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I249" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J249" s="6" t="s">
-        <v>103</v>
-      </c>
+        <v>1217</v>
+      </c>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
       <c r="K249" s="6" t="s">
-        <v>528</v>
+        <v>1216</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>105</v>
+        <v>1214</v>
       </c>
       <c r="M249" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N249" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O249" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P249" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q249" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" s="15" customFormat="1" ht="58">
+        <v>1215</v>
+      </c>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+    </row>
+    <row r="250" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1228</v>
+        <v>962</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>171</v>
+        <v>1218</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>1082</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F250" s="6"/>
-      <c r="G250" s="20" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H250" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I250" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="J250" s="17" t="s">
-        <v>948</v>
+        <v>1212</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6" t="s">
+        <v>1220</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>175</v>
+        <v>1224</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>774</v>
+        <v>1225</v>
       </c>
       <c r="M250" s="6" t="s">
-        <v>775</v>
+        <v>1226</v>
       </c>
       <c r="N250" s="6"/>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
     </row>
-    <row r="251" spans="1:17" ht="130.5">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1228</v>
+        <v>33</v>
       </c>
       <c r="C251" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="27" t="s">
         <v>1230</v>
       </c>
-      <c r="D251" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H251" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J251" s="6" t="s">
-        <v>1232</v>
-      </c>
-      <c r="K251" s="6" t="s">
+      <c r="M251" s="28" t="s">
         <v>1233</v>
-      </c>
-      <c r="L251" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M251" s="6" t="s">
-        <v>1235</v>
       </c>
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
     </row>
-    <row r="252" spans="1:17" ht="72.5">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>1236</v>
-      </c>
       <c r="D252" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>1229</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H252" s="6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I252" s="6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J252" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K252" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L252" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="M252" s="6" t="s">
-        <v>1240</v>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M252" s="28" t="s">
+        <v>1234</v>
       </c>
       <c r="N252" s="6"/>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
     </row>
-    <row r="253" spans="1:17" ht="159.5">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>1228</v>
+        <v>33</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>189</v>
+        <v>1229</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>1229</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="K253" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="L253" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="M253" s="6" t="s">
-        <v>625</v>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M253" s="28" t="s">
+        <v>1235</v>
       </c>
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
     </row>
-    <row r="254" spans="1:17" ht="58">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>1242</v>
+        <v>627</v>
+      </c>
+      <c r="C254" s="31" t="s">
+        <v>1256</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>1229</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
-      <c r="H254" s="6" t="s">
-        <v>1243</v>
-      </c>
+      <c r="H254" s="6"/>
       <c r="I254" s="6"/>
-      <c r="J254" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K254" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="L254" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="M254" s="6" t="s">
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="29" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M254" s="29" t="s">
         <v>1246</v>
       </c>
       <c r="N254" s="6"/>
@@ -16269,138 +17376,3766 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
     </row>
-    <row r="255" spans="1:17" ht="130.5">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>933</v>
+        <v>627</v>
+      </c>
+      <c r="C255" s="31" t="s">
+        <v>1257</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="H255" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="I255" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="J255" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="K255" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="L255" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="M255" s="6" t="s">
-        <v>1086</v>
+        <v>1089</v>
+      </c>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="30" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M255" s="30" t="s">
+        <v>1247</v>
       </c>
       <c r="N255" s="6"/>
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
     </row>
-    <row r="256" spans="1:17" ht="87">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>1249</v>
+        <v>627</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>1258</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="H256" s="6" t="s">
-        <v>1253</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L256" s="6" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M256" s="6" t="s">
-        <v>1251</v>
+      <c r="K256" s="6"/>
+      <c r="L256" s="29" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M256" s="29" t="s">
+        <v>1248</v>
       </c>
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
     </row>
-    <row r="257" spans="1:17" ht="72.5">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1254</v>
+        <v>627</v>
+      </c>
+      <c r="C257" s="31" t="s">
+        <v>1259</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="H257" s="6" t="s">
-        <v>1255</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
       <c r="I257" s="6"/>
-      <c r="J257" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K257" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="L257" s="6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="M257" s="6" t="s">
-        <v>1262</v>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="29" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M257" s="30" t="s">
+        <v>1249</v>
       </c>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
     </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A258" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C258" s="31" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="29" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M258" s="29" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A259" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C259" s="31" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M259" s="28" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="6"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A260" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C260" s="31" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="27" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M260" s="27" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A261" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C261" s="31" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M261" s="28" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+      <c r="Q261" s="6"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A262" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C262" s="31" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M262" s="28" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="6"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A263" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C263" s="31" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M263" s="28" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+      <c r="Q263" s="6"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A264" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C264" s="31" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="27" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M264" s="27" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+      <c r="Q264" s="6"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A265" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C265" s="31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="27" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M265" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="6"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A266" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C266" s="33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="33" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M266" s="34" t="s">
+        <v>1274</v>
+      </c>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="6"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A267" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C267" s="33" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D267" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="33" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M267" s="33" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="6"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A268" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C268" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D268" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="33" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M268" s="33" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A269" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C269" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D269" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M269" s="33" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="6"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A270" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C270" s="33" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D270" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="34" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M270" s="33" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="6"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A271" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C271" s="33" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D271" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="33" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M271" s="34" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="6"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A272" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="C272" s="33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="31" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M272" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="6"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A273" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C273" s="31" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M273" s="34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="6"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A274" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M274" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="6"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A275" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M275" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A276" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M276" s="23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A277" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C277" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M277" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="6"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A278" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C278" s="33" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="33" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M278" s="33" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="6"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A279" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C279" s="33" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D279" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M279" s="34" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="6"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A280" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C280" s="33" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D280" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="33" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M280" s="34" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A281" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C281" s="33" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="33" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M281" s="34" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="6"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A282" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C282" s="33" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M282" s="34" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="6"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A283" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M283" s="34" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A284" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="37" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M284" s="37">
+        <v>-52.289486400000001</v>
+      </c>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="6"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A285" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M285" s="34" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="6"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A286" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="6"/>
+      <c r="L286" s="34" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M286" s="34" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+      <c r="Q286" s="6"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A287" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="6"/>
+      <c r="L287" s="34" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M287" s="34" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+      <c r="Q287" s="6"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A288" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M288" s="34" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="6"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A289" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="33" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M289" s="33" t="s">
+        <v>1342</v>
+      </c>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="6"/>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A290" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="34" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M290" s="33" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="6"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A291" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="34" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M291" s="33" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+      <c r="Q291" s="6"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A292" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D292" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="33" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M292" s="34" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+      <c r="Q292" s="6"/>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A293" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D293" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6"/>
+      <c r="L293" s="33" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M293" s="34" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="6"/>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A294" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D294" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="6"/>
+      <c r="L294" s="33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M294" s="34" t="s">
+        <v>1366</v>
+      </c>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+      <c r="Q294" s="6"/>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A295" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D295" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="6"/>
+      <c r="L295" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M295" s="34" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
+      <c r="Q295" s="6"/>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A296" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C296" s="33" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D296" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
+      <c r="K296" s="6"/>
+      <c r="L296" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M296" s="34" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N296" s="6"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
+      <c r="Q296" s="6"/>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A297" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D297" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="6"/>
+      <c r="L297" s="33" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M297" s="34" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N297" s="6"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="6"/>
+      <c r="Q297" s="6"/>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A298" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="6"/>
+      <c r="J298" s="6"/>
+      <c r="K298" s="6"/>
+      <c r="L298" s="33" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M298" s="34" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
+      <c r="Q298" s="6"/>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A299" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D299" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="6"/>
+      <c r="L299" s="33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M299" s="34" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="6"/>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A300" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C300" s="33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D300" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6"/>
+      <c r="K300" s="6"/>
+      <c r="L300" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M300" s="33" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+      <c r="Q300" s="6"/>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A301" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="6"/>
+      <c r="L301" s="33" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M301" s="33" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
+      <c r="Q301" s="6"/>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A302" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C302" s="33" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="6"/>
+      <c r="J302" s="6"/>
+      <c r="K302" s="6"/>
+      <c r="L302" s="33" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M302" s="33" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N302" s="6"/>
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
+      <c r="Q302" s="6"/>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A303" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="6"/>
+      <c r="L303" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="M303" s="33" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
+      <c r="Q303" s="6"/>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A304" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="6"/>
+      <c r="L304" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="M304" s="33" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
+      <c r="Q304" s="6"/>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A305" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="6"/>
+      <c r="L305" s="33" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M305" s="33" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N305" s="6"/>
+      <c r="O305" s="6"/>
+      <c r="P305" s="6"/>
+      <c r="Q305" s="6"/>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A306" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="6"/>
+      <c r="K306" s="6"/>
+      <c r="L306" s="33" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M306" s="33" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N306" s="6"/>
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
+      <c r="Q306" s="6"/>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A307" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="6"/>
+      <c r="K307" s="6"/>
+      <c r="L307" s="33" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M307" s="33" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
+      <c r="Q307" s="6"/>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A308" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C308" s="33" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="6"/>
+      <c r="J308" s="6"/>
+      <c r="K308" s="6"/>
+      <c r="L308" s="33" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M308" s="33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="N308" s="6"/>
+      <c r="O308" s="6"/>
+      <c r="P308" s="6"/>
+      <c r="Q308" s="6"/>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A309" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="6"/>
+      <c r="J309" s="6"/>
+      <c r="K309" s="6"/>
+      <c r="L309" s="33" t="s">
+        <v>1391</v>
+      </c>
+      <c r="M309" s="33" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N309" s="6"/>
+      <c r="O309" s="6"/>
+      <c r="P309" s="6"/>
+      <c r="Q309" s="6"/>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A310" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="6"/>
+      <c r="J310" s="6"/>
+      <c r="K310" s="6"/>
+      <c r="L310" s="33" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M310" s="33" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N310" s="6"/>
+      <c r="O310" s="6"/>
+      <c r="P310" s="6"/>
+      <c r="Q310" s="6"/>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A311" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C311" s="33" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="6"/>
+      <c r="J311" s="6"/>
+      <c r="K311" s="6"/>
+      <c r="L311" s="33" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M311" s="33" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N311" s="6"/>
+      <c r="O311" s="6"/>
+      <c r="P311" s="6"/>
+      <c r="Q311" s="6"/>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A312" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C312" s="33" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="6"/>
+      <c r="J312" s="6"/>
+      <c r="K312" s="6"/>
+      <c r="L312" s="29" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M312" s="29" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N312" s="6"/>
+      <c r="O312" s="6"/>
+      <c r="P312" s="6"/>
+      <c r="Q312" s="6"/>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A313" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="6"/>
+      <c r="J313" s="6"/>
+      <c r="K313" s="6"/>
+      <c r="L313" s="29" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M313" s="29" t="s">
+        <v>1446</v>
+      </c>
+      <c r="N313" s="6"/>
+      <c r="O313" s="6"/>
+      <c r="P313" s="6"/>
+      <c r="Q313" s="6"/>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A314" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C314" s="29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="6"/>
+      <c r="K314" s="6"/>
+      <c r="L314" s="29" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M314" s="29" t="s">
+        <v>1447</v>
+      </c>
+      <c r="N314" s="6"/>
+      <c r="O314" s="6"/>
+      <c r="P314" s="6"/>
+      <c r="Q314" s="6"/>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A315" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C315" s="29" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="6"/>
+      <c r="J315" s="6"/>
+      <c r="K315" s="6"/>
+      <c r="L315" s="29" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M315" s="29" t="s">
+        <v>1448</v>
+      </c>
+      <c r="N315" s="6"/>
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
+      <c r="Q315" s="6"/>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A316" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6"/>
+      <c r="K316" s="6"/>
+      <c r="L316" s="29" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M316" s="29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N316" s="6"/>
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+      <c r="Q316" s="6"/>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A317" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="6"/>
+      <c r="J317" s="6"/>
+      <c r="K317" s="6"/>
+      <c r="L317" s="29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="M317" s="29" t="s">
+        <v>1450</v>
+      </c>
+      <c r="N317" s="6"/>
+      <c r="O317" s="6"/>
+      <c r="P317" s="6"/>
+      <c r="Q317" s="6"/>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A318" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+      <c r="I318" s="6"/>
+      <c r="J318" s="6"/>
+      <c r="K318" s="6"/>
+      <c r="L318" s="29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M318" s="29" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N318" s="6"/>
+      <c r="O318" s="6"/>
+      <c r="P318" s="6"/>
+      <c r="Q318" s="6"/>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A319" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="6"/>
+      <c r="J319" s="6"/>
+      <c r="K319" s="6"/>
+      <c r="L319" s="29" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M319" s="29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="N319" s="6"/>
+      <c r="O319" s="6"/>
+      <c r="P319" s="6"/>
+      <c r="Q319" s="6"/>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A320" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="6"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="6"/>
+      <c r="L320" s="29" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M320" s="29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
+      <c r="Q320" s="6"/>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A321" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C321" s="29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+      <c r="I321" s="6"/>
+      <c r="J321" s="6"/>
+      <c r="K321" s="6"/>
+      <c r="L321" s="29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="M321" s="30" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N321" s="6"/>
+      <c r="O321" s="6"/>
+      <c r="P321" s="6"/>
+      <c r="Q321" s="6"/>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A322" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C322" s="29" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+      <c r="I322" s="6"/>
+      <c r="J322" s="6"/>
+      <c r="K322" s="6"/>
+      <c r="L322" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M322" s="30" t="s">
+        <v>1455</v>
+      </c>
+      <c r="N322" s="6"/>
+      <c r="O322" s="6"/>
+      <c r="P322" s="6"/>
+      <c r="Q322" s="6"/>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A323" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C323" s="29" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="6"/>
+      <c r="J323" s="6"/>
+      <c r="K323" s="6"/>
+      <c r="L323" s="29" t="s">
+        <v>1436</v>
+      </c>
+      <c r="M323" s="29" t="s">
+        <v>1456</v>
+      </c>
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
+      <c r="Q323" s="6"/>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A324" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C324" s="29" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="6"/>
+      <c r="J324" s="6"/>
+      <c r="K324" s="6"/>
+      <c r="L324" s="29" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M324" s="29" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+      <c r="Q324" s="6"/>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A325" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C325" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="6"/>
+      <c r="J325" s="6"/>
+      <c r="K325" s="6"/>
+      <c r="L325" s="29" t="s">
+        <v>1438</v>
+      </c>
+      <c r="M325" s="29" t="s">
+        <v>1458</v>
+      </c>
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
+      <c r="Q325" s="6"/>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A326" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" s="29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="6"/>
+      <c r="J326" s="6"/>
+      <c r="K326" s="6"/>
+      <c r="L326" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M326" s="29" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
+      <c r="Q326" s="6"/>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A327" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C327" s="29" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+      <c r="I327" s="6"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="6"/>
+      <c r="L327" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M327" s="29" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
+      <c r="Q327" s="6"/>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A328" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+      <c r="I328" s="6"/>
+      <c r="J328" s="6"/>
+      <c r="K328" s="6"/>
+      <c r="L328" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M328" s="29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="N328" s="6"/>
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
+      <c r="Q328" s="6"/>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A329" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C329" s="29" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+      <c r="I329" s="6"/>
+      <c r="J329" s="6"/>
+      <c r="K329" s="6"/>
+      <c r="L329" s="33" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M329" s="33" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
+      <c r="Q329" s="6"/>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A330" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C330" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+      <c r="I330" s="6"/>
+      <c r="J330" s="6"/>
+      <c r="K330" s="6"/>
+      <c r="L330" s="33" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M330" s="33" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
+      <c r="Q330" s="6"/>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A331" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C331" s="33" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+      <c r="I331" s="6"/>
+      <c r="J331" s="6"/>
+      <c r="K331" s="6"/>
+      <c r="L331" s="33" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M331" s="33" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+      <c r="Q331" s="6"/>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A332" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C332" s="33" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+      <c r="I332" s="6"/>
+      <c r="J332" s="6"/>
+      <c r="K332" s="6"/>
+      <c r="L332" s="29">
+        <v>45.9914196</v>
+      </c>
+      <c r="M332" s="29" t="s">
+        <v>1547</v>
+      </c>
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+      <c r="Q332" s="6"/>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A333" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C333" s="33" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="6"/>
+      <c r="K333" s="6"/>
+      <c r="L333" s="29">
+        <v>44.233585499999997</v>
+      </c>
+      <c r="M333" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+      <c r="P333" s="6"/>
+      <c r="Q333" s="6"/>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A334" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C334" s="33" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="6"/>
+      <c r="K334" s="6"/>
+      <c r="L334" s="29" t="s">
+        <v>1507</v>
+      </c>
+      <c r="M334" s="29" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+      <c r="P334" s="6"/>
+      <c r="Q334" s="6"/>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A335" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C335" s="33" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="6"/>
+      <c r="L335" s="29" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M335" s="29" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
+      <c r="Q335" s="6"/>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A336" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C336" s="33" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="29" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M336" s="29" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N336" s="6"/>
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
+      <c r="Q336" s="6"/>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A337" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C337" s="29" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="6"/>
+      <c r="L337" s="29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M337" s="29" t="s">
+        <v>1552</v>
+      </c>
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
+      <c r="Q337" s="6"/>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A338" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C338" s="29" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="6"/>
+      <c r="L338" s="29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M338" s="29" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N338" s="6"/>
+      <c r="O338" s="6"/>
+      <c r="P338" s="6"/>
+      <c r="Q338" s="6"/>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A339" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C339" s="29" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="6"/>
+      <c r="K339" s="6"/>
+      <c r="L339" s="29" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M339" s="29" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N339" s="6"/>
+      <c r="O339" s="6"/>
+      <c r="P339" s="6"/>
+      <c r="Q339" s="6"/>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A340" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+      <c r="I340" s="6"/>
+      <c r="J340" s="6"/>
+      <c r="K340" s="6"/>
+      <c r="L340" s="29" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M340" s="29" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N340" s="6"/>
+      <c r="O340" s="6"/>
+      <c r="P340" s="6"/>
+      <c r="Q340" s="6"/>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A341" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C341" s="29" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="6"/>
+      <c r="J341" s="6"/>
+      <c r="K341" s="6"/>
+      <c r="L341" s="29" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M341" s="29" t="s">
+        <v>1556</v>
+      </c>
+      <c r="N341" s="6"/>
+      <c r="O341" s="6"/>
+      <c r="P341" s="6"/>
+      <c r="Q341" s="6"/>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A342" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C342" s="29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="6"/>
+      <c r="J342" s="6"/>
+      <c r="K342" s="6"/>
+      <c r="L342" s="29" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M342" s="29" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N342" s="6"/>
+      <c r="O342" s="6"/>
+      <c r="P342" s="6"/>
+      <c r="Q342" s="6"/>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A343" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="6"/>
+      <c r="K343" s="6"/>
+      <c r="L343" s="29" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M343" s="29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N343" s="6"/>
+      <c r="O343" s="6"/>
+      <c r="P343" s="6"/>
+      <c r="Q343" s="6"/>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A344" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="6"/>
+      <c r="K344" s="6"/>
+      <c r="L344" s="29" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M344" s="29" t="s">
+        <v>1559</v>
+      </c>
+      <c r="N344" s="6"/>
+      <c r="O344" s="6"/>
+      <c r="P344" s="6"/>
+      <c r="Q344" s="6"/>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A345" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="6"/>
+      <c r="L345" s="29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M345" s="29" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N345" s="6"/>
+      <c r="O345" s="6"/>
+      <c r="P345" s="6"/>
+      <c r="Q345" s="6"/>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A346" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="29" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M346" s="29" t="s">
+        <v>1561</v>
+      </c>
+      <c r="N346" s="6"/>
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A347" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+      <c r="I347" s="6"/>
+      <c r="J347" s="6"/>
+      <c r="K347" s="6"/>
+      <c r="L347" s="29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M347" s="29" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N347" s="6"/>
+      <c r="O347" s="6"/>
+      <c r="P347" s="6"/>
+      <c r="Q347" s="6"/>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A348" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C348" s="29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+      <c r="I348" s="6"/>
+      <c r="J348" s="6"/>
+      <c r="K348" s="6"/>
+      <c r="L348" s="29" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M348" s="29" t="s">
+        <v>1563</v>
+      </c>
+      <c r="N348" s="6"/>
+      <c r="O348" s="6"/>
+      <c r="P348" s="6"/>
+      <c r="Q348" s="6"/>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A349" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C349" s="29" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+      <c r="I349" s="6"/>
+      <c r="J349" s="6"/>
+      <c r="K349" s="6"/>
+      <c r="L349" s="29" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M349" s="29" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N349" s="6"/>
+      <c r="O349" s="6"/>
+      <c r="P349" s="6"/>
+      <c r="Q349" s="6"/>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A350" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C350" s="29" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+      <c r="I350" s="6"/>
+      <c r="J350" s="6"/>
+      <c r="K350" s="6"/>
+      <c r="L350" s="29" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M350" s="29" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N350" s="6"/>
+      <c r="O350" s="6"/>
+      <c r="P350" s="6"/>
+      <c r="Q350" s="6"/>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A351" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+      <c r="I351" s="6"/>
+      <c r="J351" s="6"/>
+      <c r="K351" s="6"/>
+      <c r="L351" s="29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M351" s="29" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N351" s="6"/>
+      <c r="O351" s="6"/>
+      <c r="P351" s="6"/>
+      <c r="Q351" s="6"/>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A352" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C352" s="29" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+      <c r="L352" s="29" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M352" s="29" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N352" s="6"/>
+      <c r="O352" s="6"/>
+      <c r="P352" s="6"/>
+      <c r="Q352" s="6"/>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A353" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C353" s="29" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+      <c r="I353" s="6"/>
+      <c r="J353" s="6"/>
+      <c r="K353" s="6"/>
+      <c r="L353" s="29" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M353" s="29" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N353" s="6"/>
+      <c r="O353" s="6"/>
+      <c r="P353" s="6"/>
+      <c r="Q353" s="6"/>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A354" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C354" s="29" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="6"/>
+      <c r="L354" s="29" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M354" s="29" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N354" s="6"/>
+      <c r="O354" s="6"/>
+      <c r="P354" s="6"/>
+      <c r="Q354" s="6"/>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A355" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C355" s="29" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="6"/>
+      <c r="L355" s="29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M355" s="29" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N355" s="6"/>
+      <c r="O355" s="6"/>
+      <c r="P355" s="6"/>
+      <c r="Q355" s="6"/>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A356" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="6"/>
+      <c r="L356" s="29" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M356" s="29" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N356" s="6"/>
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A357" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="6"/>
+      <c r="L357" s="29" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M357" s="29" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N357" s="6"/>
+      <c r="O357" s="6"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="6"/>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A358" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C358" s="29" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="6"/>
+      <c r="L358" s="29" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M358" s="29" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N358" s="6"/>
+      <c r="O358" s="6"/>
+      <c r="P358" s="6"/>
+      <c r="Q358" s="6"/>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A359" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C359" s="29" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="29" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M359" s="29" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N359" s="6"/>
+      <c r="O359" s="6"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A360" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C360" s="29" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="29" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M360" s="29" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N360" s="6"/>
+      <c r="O360" s="6"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A361" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="29" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="6"/>
+      <c r="L361" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M361" s="29" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N361" s="6"/>
+      <c r="O361" s="6"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="6"/>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A362" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C362" s="29" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="6"/>
+      <c r="L362" s="29" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M362" s="29" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N362" s="6"/>
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A363" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C363" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="6"/>
+      <c r="L363" s="29" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M363" s="30" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N363" s="6"/>
+      <c r="O363" s="6"/>
+      <c r="P363" s="6"/>
+      <c r="Q363" s="6"/>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A364" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C364" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="6"/>
+      <c r="L364" s="29" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M364" s="29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N364" s="6"/>
+      <c r="O364" s="6"/>
+      <c r="P364" s="6"/>
+      <c r="Q364" s="6"/>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A365" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C365" s="29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="6"/>
+      <c r="L365" s="29" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M365" s="29" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N365" s="6"/>
+      <c r="O365" s="6"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="6"/>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A366" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+      <c r="I366" s="6"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="6"/>
+      <c r="L366" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M366" s="29" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N366" s="6"/>
+      <c r="O366" s="6"/>
+      <c r="P366" s="6"/>
+      <c r="Q366" s="6"/>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A367" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C367" s="29" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+      <c r="I367" s="6"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="6"/>
+      <c r="L367" s="29" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M367" s="29" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N367" s="6"/>
+      <c r="O367" s="6"/>
+      <c r="P367" s="6"/>
+      <c r="Q367" s="6"/>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A368" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
+      <c r="I368" s="6"/>
+      <c r="J368" s="6"/>
+      <c r="K368" s="6"/>
+      <c r="L368" s="29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M368" s="30" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N368" s="6"/>
+      <c r="O368" s="6"/>
+      <c r="P368" s="6"/>
+      <c r="Q368" s="6"/>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A369" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C369" s="33" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
+      <c r="I369" s="6"/>
+      <c r="J369" s="6"/>
+      <c r="K369" s="6"/>
+      <c r="L369" s="29" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M369" s="29" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N369" s="6"/>
+      <c r="O369" s="6"/>
+      <c r="P369" s="6"/>
+      <c r="Q369" s="6"/>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A370" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C370" s="33" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="6"/>
+      <c r="I370" s="6"/>
+      <c r="J370" s="6"/>
+      <c r="K370" s="6"/>
+      <c r="L370" s="29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M370" s="29" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N370" s="6"/>
+      <c r="O370" s="6"/>
+      <c r="P370" s="6"/>
+      <c r="Q370" s="6"/>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A371" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C371" s="33" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="6"/>
+      <c r="I371" s="6"/>
+      <c r="J371" s="6"/>
+      <c r="K371" s="6"/>
+      <c r="L371" s="29" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M371" s="29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N371" s="6"/>
+      <c r="O371" s="6"/>
+      <c r="P371" s="6"/>
+      <c r="Q371" s="6"/>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A372" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C372" s="33" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
+      <c r="I372" s="6"/>
+      <c r="J372" s="6"/>
+      <c r="K372" s="6"/>
+      <c r="L372" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M372" s="33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N372" s="6"/>
+      <c r="O372" s="6"/>
+      <c r="P372" s="6"/>
+      <c r="Q372" s="6"/>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A373" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C373" s="33" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="6"/>
+      <c r="I373" s="6"/>
+      <c r="J373" s="6"/>
+      <c r="K373" s="6"/>
+      <c r="L373" s="33" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M373" s="33" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N373" s="6"/>
+      <c r="O373" s="6"/>
+      <c r="P373" s="6"/>
+      <c r="Q373" s="6"/>
+    </row>
+    <row r="374" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A374" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D374" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="6"/>
+      <c r="I374" s="6"/>
+      <c r="J374" s="6"/>
+      <c r="K374" s="6"/>
+      <c r="L374" s="31" t="s">
+        <v>1591</v>
+      </c>
+      <c r="M374" s="31" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N374" s="6"/>
+      <c r="O374" s="6"/>
+      <c r="P374" s="6"/>
+      <c r="Q374" s="6"/>
+    </row>
+    <row r="375" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A375" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C375" s="36" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D375" s="31" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
+      <c r="I375" s="6"/>
+      <c r="J375" s="6"/>
+      <c r="K375" s="6"/>
+      <c r="L375" s="31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="M375" s="31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N375" s="6"/>
+      <c r="O375" s="6"/>
+      <c r="P375" s="6"/>
+      <c r="Q375" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q257" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <autoFilter ref="A1:Q375" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Site"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N169" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="N171" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F656DC-C8E0-4FEF-B8B9-60BE5975648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE8C83-F885-4C80-98BE-82D62E6CBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Liste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$Q$376</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Liste!$A$1:$Q$378</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="1603">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -5223,12 +5223,21 @@
   <si>
     <t>6.1749763</t>
   </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Jérôme Demarty</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Jenny</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5730,51 +5739,51 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5819,16 +5828,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q376"/>
+  <dimension ref="A1:Q378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="T382" sqref="T382"/>
+      <selection pane="bottomLeft" activeCell="J380" sqref="J380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="10" bestFit="1" customWidth="1"/>
@@ -5850,7 +5858,7 @@
     <col min="18" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58">
+    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="174">
+    <row r="4" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -6054,7 +6062,7 @@
       </c>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" ht="87">
+    <row r="5" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -6107,7 +6115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="145">
+    <row r="6" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -6156,7 +6164,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="116">
+    <row r="7" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -6207,7 +6215,7 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="159.5">
+    <row r="8" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -6260,7 +6268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="87">
+    <row r="9" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -6313,7 +6321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="116">
+    <row r="10" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="72.5">
+    <row r="11" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -6417,7 +6425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="101.5">
+    <row r="12" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="188.5">
+    <row r="13" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -6517,7 +6525,7 @@
       </c>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="174">
+    <row r="14" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -6568,7 +6576,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="101.5">
+    <row r="15" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -6615,7 +6623,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="87">
+    <row r="16" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -6666,7 +6674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="101.5">
+    <row r="17" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -6717,7 +6725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="58">
+    <row r="18" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -6768,7 +6776,7 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" ht="87">
+    <row r="19" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -6819,7 +6827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="87">
+    <row r="20" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -6866,7 +6874,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" ht="116">
+    <row r="21" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -6917,7 +6925,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="174">
+    <row r="22" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -6968,7 +6976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="116">
+    <row r="23" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="72.5">
+    <row r="24" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
@@ -7074,7 +7082,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="58">
+    <row r="25" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -7123,7 +7131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="159.5">
+    <row r="26" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="101.5">
+    <row r="27" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -7229,7 +7237,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="116">
+    <row r="28" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="58">
+    <row r="29" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -7329,7 +7337,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="87">
+    <row r="30" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -7378,7 +7386,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="72.5">
+    <row r="31" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -7427,7 +7435,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="72.5">
+    <row r="32" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -7476,7 +7484,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="101.5">
+    <row r="33" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -7527,7 +7535,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="159.5">
+    <row r="34" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="130.5">
+    <row r="35" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -7631,7 +7639,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="130.5">
+    <row r="36" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="217.5">
+    <row r="37" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -7735,7 +7743,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="101.5">
+    <row r="38" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -7784,7 +7792,7 @@
       </c>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="145">
+    <row r="39" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="116">
+    <row r="40" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -7886,7 +7894,7 @@
       </c>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" ht="246.5">
+    <row r="41" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -7939,7 +7947,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="249.5" customHeight="1">
+    <row r="42" spans="1:17" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -7988,7 +7996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="58">
+    <row r="43" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -8037,7 +8045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="275.5" customHeight="1">
+    <row r="44" spans="1:17" ht="275.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -8084,7 +8092,7 @@
       </c>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" ht="116">
+    <row r="45" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -8135,7 +8143,7 @@
       </c>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:17" ht="87">
+    <row r="46" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="116">
+    <row r="47" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -8239,7 +8247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="72.5">
+    <row r="48" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -8292,7 +8300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="145">
+    <row r="49" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="188.5">
+    <row r="50" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -8396,7 +8404,7 @@
       </c>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="101.5">
+    <row r="51" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -8447,7 +8455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="58">
+    <row r="52" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -8498,7 +8506,7 @@
       </c>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="188.5">
+    <row r="53" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -8551,7 +8559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="87">
+    <row r="54" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="116">
+    <row r="55" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -8653,7 +8661,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="116">
+    <row r="56" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -8706,7 +8714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="101.5">
+    <row r="57" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -8759,7 +8767,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="159.5">
+    <row r="58" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
@@ -8812,7 +8820,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="116">
+    <row r="59" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>32</v>
       </c>
@@ -8861,7 +8869,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="72.5">
+    <row r="60" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -8900,7 +8908,7 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="72.5">
+    <row r="61" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -8949,7 +8957,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="87">
+    <row r="62" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="304.5">
+    <row r="63" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
@@ -9049,7 +9057,7 @@
       </c>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="101.5">
+    <row r="64" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="87">
+    <row r="65" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
@@ -9147,7 +9155,7 @@
       </c>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="130.5">
+    <row r="66" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
@@ -9198,7 +9206,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="130.5">
+    <row r="67" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -9251,7 +9259,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="130.5">
+    <row r="68" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>32</v>
       </c>
@@ -9304,7 +9312,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="145">
+    <row r="69" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
@@ -9357,7 +9365,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="87">
+    <row r="70" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
@@ -9410,7 +9418,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="130.5">
+    <row r="71" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
@@ -9463,7 +9471,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="101.5">
+    <row r="72" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>32</v>
       </c>
@@ -9516,7 +9524,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="116">
+    <row r="73" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
@@ -9569,7 +9577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="72.5">
+    <row r="74" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
@@ -9620,7 +9628,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="72.5">
+    <row r="75" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -9667,7 +9675,7 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="1:17" ht="130.5">
+    <row r="76" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -9716,7 +9724,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="58">
+    <row r="77" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>32</v>
       </c>
@@ -9767,7 +9775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="174">
+    <row r="78" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
@@ -9814,7 +9822,7 @@
       </c>
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="1:17" ht="116">
+    <row r="79" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -9865,7 +9873,7 @@
       </c>
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="1:17" ht="145">
+    <row r="80" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>32</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="188.5">
+    <row r="81" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>32</v>
       </c>
@@ -9969,7 +9977,7 @@
       </c>
       <c r="Q81" s="6"/>
     </row>
-    <row r="82" spans="1:17" ht="72.5">
+    <row r="82" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -10018,7 +10026,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="304.5">
+    <row r="83" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>32</v>
       </c>
@@ -10067,7 +10075,7 @@
       </c>
       <c r="Q83" s="6"/>
     </row>
-    <row r="84" spans="1:17" ht="87">
+    <row r="84" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
@@ -10120,7 +10128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="87">
+    <row r="85" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
@@ -10169,7 +10177,7 @@
       </c>
       <c r="Q85" s="6"/>
     </row>
-    <row r="86" spans="1:17" ht="87">
+    <row r="86" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -10220,7 +10228,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="130.5">
+    <row r="87" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -10273,7 +10281,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="188.5">
+    <row r="88" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -10324,7 +10332,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="87">
+    <row r="89" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>32</v>
       </c>
@@ -10377,7 +10385,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="116">
+    <row r="90" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
@@ -10428,7 +10436,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="101.5">
+    <row r="91" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
@@ -10477,7 +10485,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="72.5">
+    <row r="92" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>32</v>
       </c>
@@ -10520,7 +10528,7 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
     </row>
-    <row r="93" spans="1:17" ht="101.5">
+    <row r="93" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>32</v>
       </c>
@@ -10569,7 +10577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="203">
+    <row r="94" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>32</v>
       </c>
@@ -10622,7 +10630,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="116">
+    <row r="95" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -10673,7 +10681,7 @@
       </c>
       <c r="Q95" s="6"/>
     </row>
-    <row r="96" spans="1:17" ht="87">
+    <row r="96" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>32</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="174">
+    <row r="97" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
@@ -10777,7 +10785,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="72.5">
+    <row r="98" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>32</v>
       </c>
@@ -10828,7 +10836,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="58">
+    <row r="99" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -10877,7 +10885,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="87">
+    <row r="100" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
@@ -10930,7 +10938,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="72.5">
+    <row r="101" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>32</v>
       </c>
@@ -10979,7 +10987,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="130.5">
+    <row r="102" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
@@ -11030,7 +11038,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="87">
+    <row r="103" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
@@ -11081,7 +11089,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="159.5">
+    <row r="104" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
@@ -11130,7 +11138,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="116">
+    <row r="105" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>32</v>
       </c>
@@ -11181,7 +11189,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="101.5">
+    <row r="106" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>32</v>
       </c>
@@ -11232,7 +11240,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="72.5">
+    <row r="107" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
@@ -11283,7 +11291,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="145">
+    <row r="108" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>32</v>
       </c>
@@ -11334,7 +11342,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="188.5">
+    <row r="109" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
@@ -11385,7 +11393,7 @@
       </c>
       <c r="Q109" s="6"/>
     </row>
-    <row r="110" spans="1:17" ht="116">
+    <row r="110" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>32</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="174">
+    <row r="111" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
@@ -11487,7 +11495,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="116">
+    <row r="112" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>32</v>
       </c>
@@ -11540,7 +11548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="145">
+    <row r="113" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
@@ -11593,7 +11601,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="145">
+    <row r="114" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
@@ -11642,7 +11650,7 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
     </row>
-    <row r="115" spans="1:17" ht="116">
+    <row r="115" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
@@ -11693,7 +11701,7 @@
       </c>
       <c r="Q115" s="6"/>
     </row>
-    <row r="116" spans="1:17" ht="145">
+    <row r="116" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -11744,7 +11752,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="188.5">
+    <row r="117" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>32</v>
       </c>
@@ -11797,7 +11805,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="130.5">
+    <row r="118" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -11850,7 +11858,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="116">
+    <row r="119" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>32</v>
       </c>
@@ -11901,7 +11909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="159.5">
+    <row r="120" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>32</v>
       </c>
@@ -11954,7 +11962,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="72.5">
+    <row r="121" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
@@ -11999,7 +12007,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
     </row>
-    <row r="122" spans="1:17" ht="58">
+    <row r="122" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>32</v>
       </c>
@@ -12050,7 +12058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="145">
+    <row r="123" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>32</v>
       </c>
@@ -12103,7 +12111,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="29">
+    <row r="124" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>32</v>
       </c>
@@ -12152,7 +12160,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="87">
+    <row r="125" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
@@ -12197,7 +12205,7 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
     </row>
-    <row r="126" spans="1:17" ht="101.5">
+    <row r="126" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="58">
+    <row r="127" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
@@ -12297,7 +12305,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="72.5">
+    <row r="128" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>32</v>
       </c>
@@ -12338,7 +12346,7 @@
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
     </row>
-    <row r="129" spans="1:17" ht="87">
+    <row r="129" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>32</v>
       </c>
@@ -12387,7 +12395,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="58">
+    <row r="130" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -12438,7 +12446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="145">
+    <row r="131" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>32</v>
       </c>
@@ -12489,7 +12497,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="87">
+    <row r="132" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>32</v>
       </c>
@@ -12540,7 +12548,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="188.5">
+    <row r="133" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
@@ -12591,7 +12599,7 @@
       </c>
       <c r="Q133" s="6"/>
     </row>
-    <row r="134" spans="1:17" ht="72.5">
+    <row r="134" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -12642,7 +12650,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="174">
+    <row r="135" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -12691,7 +12699,7 @@
       </c>
       <c r="Q135" s="6"/>
     </row>
-    <row r="136" spans="1:17" ht="58">
+    <row r="136" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -12738,7 +12746,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="72.5">
+    <row r="137" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -12789,7 +12797,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="43.5">
+    <row r="138" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -12836,7 +12844,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="72.5">
+    <row r="139" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -12875,7 +12883,7 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
     </row>
-    <row r="140" spans="1:17" ht="145">
+    <row r="140" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -12924,7 +12932,7 @@
       </c>
       <c r="Q140" s="6"/>
     </row>
-    <row r="141" spans="1:17" ht="58">
+    <row r="141" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -12973,7 +12981,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="130.5">
+    <row r="142" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -13024,7 +13032,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="87">
+    <row r="143" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -13075,7 +13083,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="58">
+    <row r="144" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="130.5">
+    <row r="145" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="72.5">
+    <row r="146" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
@@ -13224,7 +13232,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="116">
+    <row r="147" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>32</v>
       </c>
@@ -13277,7 +13285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="72.5">
+    <row r="148" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
@@ -13324,7 +13332,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="87">
+    <row r="149" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>32</v>
       </c>
@@ -13375,7 +13383,7 @@
       </c>
       <c r="Q149" s="6"/>
     </row>
-    <row r="150" spans="1:17" ht="87">
+    <row r="150" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>32</v>
       </c>
@@ -13426,7 +13434,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="72.5">
+    <row r="151" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -13475,7 +13483,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="72.5">
+    <row r="152" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>32</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="72.5">
+    <row r="153" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -13577,7 +13585,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="58">
+    <row r="154" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -13624,7 +13632,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="87">
+    <row r="155" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -13675,7 +13683,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="87">
+    <row r="156" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>32</v>
       </c>
@@ -13726,7 +13734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="174">
+    <row r="157" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -13777,7 +13785,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="116">
+    <row r="158" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>32</v>
       </c>
@@ -13826,7 +13834,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="101.5">
+    <row r="159" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>32</v>
       </c>
@@ -13877,7 +13885,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="145">
+    <row r="160" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>32</v>
       </c>
@@ -13930,7 +13938,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="159.5">
+    <row r="161" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
@@ -13981,7 +13989,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="188.5">
+    <row r="162" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>32</v>
       </c>
@@ -14032,7 +14040,7 @@
       </c>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="1:17" ht="130.5">
+    <row r="163" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
@@ -14085,7 +14093,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="29">
+    <row r="164" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>32</v>
       </c>
@@ -14122,7 +14130,7 @@
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:17" ht="116">
+    <row r="165" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>32</v>
       </c>
@@ -14171,7 +14179,7 @@
       </c>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="1:17" ht="145">
+    <row r="166" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
@@ -14222,7 +14230,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="43.5">
+    <row r="167" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>32</v>
       </c>
@@ -14259,7 +14267,7 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" ht="116">
+    <row r="168" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>32</v>
       </c>
@@ -14312,7 +14320,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="101.5">
+    <row r="169" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
@@ -14365,7 +14373,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="87">
+    <row r="170" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>32</v>
       </c>
@@ -14416,7 +14424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="87">
+    <row r="171" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>32</v>
       </c>
@@ -14469,7 +14477,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="72.5">
+    <row r="172" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
@@ -14518,7 +14526,7 @@
       </c>
       <c r="Q172" s="6"/>
     </row>
-    <row r="173" spans="1:17" ht="87">
+    <row r="173" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
@@ -14571,7 +14579,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="72.5">
+    <row r="174" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
@@ -14612,7 +14620,7 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
     </row>
-    <row r="175" spans="1:17" ht="130.5">
+    <row r="175" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
@@ -14653,7 +14661,7 @@
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
     </row>
-    <row r="176" spans="1:17" ht="159.5">
+    <row r="176" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
@@ -14694,7 +14702,7 @@
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
     </row>
-    <row r="177" spans="1:17" ht="72.5">
+    <row r="177" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
@@ -14735,7 +14743,7 @@
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
     </row>
-    <row r="178" spans="1:17" ht="43.5">
+    <row r="178" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
@@ -14776,7 +14784,7 @@
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
     </row>
-    <row r="179" spans="1:17" ht="58">
+    <row r="179" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>32</v>
       </c>
@@ -14817,7 +14825,7 @@
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
     </row>
-    <row r="180" spans="1:17" ht="72.5">
+    <row r="180" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>32</v>
       </c>
@@ -14858,7 +14866,7 @@
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
     </row>
-    <row r="181" spans="1:17" ht="58">
+    <row r="181" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
@@ -14899,7 +14907,7 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
     </row>
-    <row r="182" spans="1:17" ht="116">
+    <row r="182" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
@@ -14940,7 +14948,7 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
     </row>
-    <row r="183" spans="1:17" ht="87">
+    <row r="183" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
@@ -14981,7 +14989,7 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
     </row>
-    <row r="184" spans="1:17" ht="58">
+    <row r="184" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
@@ -15022,7 +15030,7 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
     </row>
-    <row r="185" spans="1:17" ht="87">
+    <row r="185" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
@@ -15065,7 +15073,7 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
     </row>
-    <row r="186" spans="1:17" hidden="1">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>32</v>
       </c>
@@ -15096,7 +15104,7 @@
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
     </row>
-    <row r="187" spans="1:17" hidden="1">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
@@ -15127,7 +15135,7 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
     </row>
-    <row r="188" spans="1:17" hidden="1">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>32</v>
       </c>
@@ -15158,7 +15166,7 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
     </row>
-    <row r="189" spans="1:17" hidden="1">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>32</v>
       </c>
@@ -15189,7 +15197,7 @@
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
     </row>
-    <row r="190" spans="1:17" hidden="1">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>32</v>
       </c>
@@ -15220,7 +15228,7 @@
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
     </row>
-    <row r="191" spans="1:17" hidden="1">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>32</v>
       </c>
@@ -15251,7 +15259,7 @@
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
     </row>
-    <row r="192" spans="1:17" hidden="1">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>32</v>
       </c>
@@ -15282,7 +15290,7 @@
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
     </row>
-    <row r="193" spans="1:17" hidden="1">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>32</v>
       </c>
@@ -15313,7 +15321,7 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
     </row>
-    <row r="194" spans="1:17" hidden="1">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>32</v>
       </c>
@@ -15344,7 +15352,7 @@
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
     </row>
-    <row r="195" spans="1:17" hidden="1">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>32</v>
       </c>
@@ -15375,7 +15383,7 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
     </row>
-    <row r="196" spans="1:17" hidden="1">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>32</v>
       </c>
@@ -15406,7 +15414,7 @@
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
     </row>
-    <row r="197" spans="1:17" hidden="1">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>32</v>
       </c>
@@ -15437,7 +15445,7 @@
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
     </row>
-    <row r="198" spans="1:17" hidden="1">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>32</v>
       </c>
@@ -15468,7 +15476,7 @@
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
     </row>
-    <row r="199" spans="1:17" hidden="1">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>32</v>
       </c>
@@ -15499,7 +15507,7 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
     </row>
-    <row r="200" spans="1:17" hidden="1">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>32</v>
       </c>
@@ -15530,7 +15538,7 @@
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
     </row>
-    <row r="201" spans="1:17" hidden="1">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>32</v>
       </c>
@@ -15561,7 +15569,7 @@
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
     </row>
-    <row r="202" spans="1:17" hidden="1">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>32</v>
       </c>
@@ -15592,7 +15600,7 @@
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
     </row>
-    <row r="203" spans="1:17" hidden="1">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>32</v>
       </c>
@@ -15623,7 +15631,7 @@
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
     </row>
-    <row r="204" spans="1:17" hidden="1">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>32</v>
       </c>
@@ -15654,7 +15662,7 @@
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17" hidden="1">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>32</v>
       </c>
@@ -15685,7 +15693,7 @@
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17" hidden="1">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>32</v>
       </c>
@@ -15716,7 +15724,7 @@
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17" hidden="1">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>32</v>
       </c>
@@ -15747,7 +15755,7 @@
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17" hidden="1">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>32</v>
       </c>
@@ -15778,7 +15786,7 @@
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17" hidden="1">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>32</v>
       </c>
@@ -15809,7 +15817,7 @@
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
     </row>
-    <row r="210" spans="1:17" hidden="1">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>32</v>
       </c>
@@ -15840,7 +15848,7 @@
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17" hidden="1">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>32</v>
       </c>
@@ -15871,7 +15879,7 @@
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17" hidden="1">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>32</v>
       </c>
@@ -15902,7 +15910,7 @@
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17" hidden="1">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>32</v>
       </c>
@@ -15933,7 +15941,7 @@
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17" hidden="1">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>32</v>
       </c>
@@ -15964,7 +15972,7 @@
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" hidden="1">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>32</v>
       </c>
@@ -15995,7 +16003,7 @@
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" hidden="1">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>32</v>
       </c>
@@ -16026,7 +16034,7 @@
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" hidden="1">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>32</v>
       </c>
@@ -16057,7 +16065,7 @@
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17" hidden="1">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>32</v>
       </c>
@@ -16088,7 +16096,7 @@
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>32</v>
       </c>
@@ -16119,7 +16127,7 @@
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>32</v>
       </c>
@@ -16150,7 +16158,7 @@
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>32</v>
       </c>
@@ -16181,7 +16189,7 @@
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>32</v>
       </c>
@@ -16212,7 +16220,7 @@
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>32</v>
       </c>
@@ -16243,7 +16251,7 @@
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>32</v>
       </c>
@@ -16274,7 +16282,7 @@
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="1:17" hidden="1">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>32</v>
       </c>
@@ -16305,7 +16313,7 @@
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="1:17" hidden="1">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>32</v>
       </c>
@@ -16336,7 +16344,7 @@
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="1:17" hidden="1">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>32</v>
       </c>
@@ -16367,7 +16375,7 @@
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="1:17" hidden="1">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>32</v>
       </c>
@@ -16398,7 +16406,7 @@
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="1:17" hidden="1">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>32</v>
       </c>
@@ -16429,7 +16437,7 @@
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="1:17" hidden="1">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>32</v>
       </c>
@@ -16460,7 +16468,7 @@
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
     </row>
-    <row r="231" spans="1:17" hidden="1">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>32</v>
       </c>
@@ -16491,7 +16499,7 @@
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
     </row>
-    <row r="232" spans="1:17" hidden="1">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>32</v>
       </c>
@@ -16522,7 +16530,7 @@
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
     </row>
-    <row r="233" spans="1:17" hidden="1">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>32</v>
       </c>
@@ -16553,7 +16561,7 @@
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
     </row>
-    <row r="234" spans="1:17" hidden="1">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>32</v>
       </c>
@@ -16584,7 +16592,7 @@
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
     </row>
-    <row r="235" spans="1:17" hidden="1">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>32</v>
       </c>
@@ -16615,7 +16623,7 @@
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
     </row>
-    <row r="236" spans="1:17" hidden="1">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>32</v>
       </c>
@@ -16646,7 +16654,7 @@
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
     </row>
-    <row r="237" spans="1:17" hidden="1">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>32</v>
       </c>
@@ -16677,7 +16685,7 @@
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
     </row>
-    <row r="238" spans="1:17" s="15" customFormat="1" ht="145">
+    <row r="238" spans="1:17" s="15" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>32</v>
       </c>
@@ -16730,7 +16738,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="239" spans="1:17" s="15" customFormat="1" ht="101.5">
+    <row r="239" spans="1:17" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>32</v>
       </c>
@@ -16779,7 +16787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:17" s="15" customFormat="1" ht="130.5">
+    <row r="240" spans="1:17" s="15" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>32</v>
       </c>
@@ -16822,7 +16830,7 @@
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
     </row>
-    <row r="241" spans="1:17" s="15" customFormat="1" ht="116">
+    <row r="241" spans="1:17" s="15" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>32</v>
       </c>
@@ -16873,7 +16881,7 @@
       </c>
       <c r="Q241" s="6"/>
     </row>
-    <row r="242" spans="1:17" s="15" customFormat="1" ht="87">
+    <row r="242" spans="1:17" s="15" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>32</v>
       </c>
@@ -16926,7 +16934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="15" customFormat="1" ht="58">
+    <row r="243" spans="1:17" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>32</v>
       </c>
@@ -16969,7 +16977,7 @@
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
     </row>
-    <row r="244" spans="1:17" ht="130.5">
+    <row r="244" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>32</v>
       </c>
@@ -17012,7 +17020,7 @@
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
     </row>
-    <row r="245" spans="1:17" ht="72.5">
+    <row r="245" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>32</v>
       </c>
@@ -17055,7 +17063,7 @@
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
     </row>
-    <row r="246" spans="1:17" ht="159.5">
+    <row r="246" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>32</v>
       </c>
@@ -17098,7 +17106,7 @@
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
     </row>
-    <row r="247" spans="1:17" ht="58">
+    <row r="247" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>32</v>
       </c>
@@ -17137,7 +17145,7 @@
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
     </row>
-    <row r="248" spans="1:17" ht="130.5">
+    <row r="248" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>32</v>
       </c>
@@ -17182,7 +17190,7 @@
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
     </row>
-    <row r="249" spans="1:17" ht="87">
+    <row r="249" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>32</v>
       </c>
@@ -17223,7 +17231,7 @@
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
     </row>
-    <row r="250" spans="1:17" ht="72.5">
+    <row r="250" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>32</v>
       </c>
@@ -17266,7 +17274,7 @@
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
     </row>
-    <row r="251" spans="1:17" hidden="1">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>32</v>
       </c>
@@ -17297,7 +17305,7 @@
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>32</v>
       </c>
@@ -17328,7 +17336,7 @@
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
     </row>
-    <row r="253" spans="1:17" hidden="1">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>32</v>
       </c>
@@ -17359,7 +17367,7 @@
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>32</v>
       </c>
@@ -17390,7 +17398,7 @@
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>32</v>
       </c>
@@ -17421,7 +17429,7 @@
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>32</v>
       </c>
@@ -17452,7 +17460,7 @@
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
     </row>
-    <row r="257" spans="1:17" hidden="1">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>32</v>
       </c>
@@ -17483,7 +17491,7 @@
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
     </row>
-    <row r="258" spans="1:17" hidden="1">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>32</v>
       </c>
@@ -17514,7 +17522,7 @@
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
     </row>
-    <row r="259" spans="1:17" hidden="1">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>32</v>
       </c>
@@ -17545,7 +17553,7 @@
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
     </row>
-    <row r="260" spans="1:17" hidden="1">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>32</v>
       </c>
@@ -17576,7 +17584,7 @@
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
     </row>
-    <row r="261" spans="1:17" hidden="1">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>32</v>
       </c>
@@ -17607,7 +17615,7 @@
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
     </row>
-    <row r="262" spans="1:17" hidden="1">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>32</v>
       </c>
@@ -17638,7 +17646,7 @@
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
     </row>
-    <row r="263" spans="1:17" hidden="1">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>32</v>
       </c>
@@ -17669,7 +17677,7 @@
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
     </row>
-    <row r="264" spans="1:17" hidden="1">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>32</v>
       </c>
@@ -17700,7 +17708,7 @@
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
     </row>
-    <row r="265" spans="1:17" hidden="1">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>32</v>
       </c>
@@ -17731,7 +17739,7 @@
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
     </row>
-    <row r="266" spans="1:17" hidden="1">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>32</v>
       </c>
@@ -17762,7 +17770,7 @@
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
     </row>
-    <row r="267" spans="1:17" hidden="1">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>32</v>
       </c>
@@ -17793,7 +17801,7 @@
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
     </row>
-    <row r="268" spans="1:17" hidden="1">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>32</v>
       </c>
@@ -17824,7 +17832,7 @@
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
     </row>
-    <row r="269" spans="1:17" hidden="1">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>32</v>
       </c>
@@ -17855,7 +17863,7 @@
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
     </row>
-    <row r="270" spans="1:17" hidden="1">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>32</v>
       </c>
@@ -17886,7 +17894,7 @@
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
     </row>
-    <row r="271" spans="1:17" hidden="1">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>32</v>
       </c>
@@ -17917,7 +17925,7 @@
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
     </row>
-    <row r="272" spans="1:17" hidden="1">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>32</v>
       </c>
@@ -17948,7 +17956,7 @@
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
     </row>
-    <row r="273" spans="1:17" hidden="1">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>32</v>
       </c>
@@ -17979,7 +17987,7 @@
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
     </row>
-    <row r="274" spans="1:17" hidden="1">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>32</v>
       </c>
@@ -18010,7 +18018,7 @@
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
     </row>
-    <row r="275" spans="1:17" hidden="1">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>32</v>
       </c>
@@ -18041,7 +18049,7 @@
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
     </row>
-    <row r="276" spans="1:17" hidden="1">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>32</v>
       </c>
@@ -18072,7 +18080,7 @@
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
     </row>
-    <row r="277" spans="1:17" hidden="1">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>32</v>
       </c>
@@ -18103,7 +18111,7 @@
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
     </row>
-    <row r="278" spans="1:17" hidden="1">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>32</v>
       </c>
@@ -18134,7 +18142,7 @@
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
     </row>
-    <row r="279" spans="1:17" hidden="1">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>32</v>
       </c>
@@ -18165,7 +18173,7 @@
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
     </row>
-    <row r="280" spans="1:17" hidden="1">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>32</v>
       </c>
@@ -18196,7 +18204,7 @@
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
     </row>
-    <row r="281" spans="1:17" hidden="1">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>32</v>
       </c>
@@ -18227,7 +18235,7 @@
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
     </row>
-    <row r="282" spans="1:17" hidden="1">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>32</v>
       </c>
@@ -18258,7 +18266,7 @@
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
     </row>
-    <row r="283" spans="1:17" hidden="1">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>32</v>
       </c>
@@ -18289,7 +18297,7 @@
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
     </row>
-    <row r="284" spans="1:17" hidden="1">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>32</v>
       </c>
@@ -18320,7 +18328,7 @@
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
     </row>
-    <row r="285" spans="1:17" hidden="1">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>32</v>
       </c>
@@ -18351,7 +18359,7 @@
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
     </row>
-    <row r="286" spans="1:17" hidden="1">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>32</v>
       </c>
@@ -18382,7 +18390,7 @@
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
     </row>
-    <row r="287" spans="1:17" hidden="1">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>32</v>
       </c>
@@ -18413,7 +18421,7 @@
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
     </row>
-    <row r="288" spans="1:17" hidden="1">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>32</v>
       </c>
@@ -18444,7 +18452,7 @@
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
     </row>
-    <row r="289" spans="1:17" hidden="1">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>32</v>
       </c>
@@ -18475,7 +18483,7 @@
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
     </row>
-    <row r="290" spans="1:17" hidden="1">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>32</v>
       </c>
@@ -18506,7 +18514,7 @@
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
     </row>
-    <row r="291" spans="1:17" hidden="1">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>32</v>
       </c>
@@ -18537,7 +18545,7 @@
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
     </row>
-    <row r="292" spans="1:17" hidden="1">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>32</v>
       </c>
@@ -18568,7 +18576,7 @@
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
     </row>
-    <row r="293" spans="1:17" hidden="1">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>32</v>
       </c>
@@ -18599,7 +18607,7 @@
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:17" hidden="1">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>32</v>
       </c>
@@ -18630,7 +18638,7 @@
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:17" hidden="1">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>32</v>
       </c>
@@ -18661,7 +18669,7 @@
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:17" hidden="1">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>32</v>
       </c>
@@ -18692,7 +18700,7 @@
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
     </row>
-    <row r="297" spans="1:17" hidden="1">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>32</v>
       </c>
@@ -18723,7 +18731,7 @@
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
     </row>
-    <row r="298" spans="1:17" hidden="1">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>32</v>
       </c>
@@ -18754,7 +18762,7 @@
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
     </row>
-    <row r="299" spans="1:17" hidden="1">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>32</v>
       </c>
@@ -18785,7 +18793,7 @@
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
     </row>
-    <row r="300" spans="1:17" hidden="1">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>32</v>
       </c>
@@ -18816,7 +18824,7 @@
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
     </row>
-    <row r="301" spans="1:17" hidden="1">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>32</v>
       </c>
@@ -18847,7 +18855,7 @@
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
     </row>
-    <row r="302" spans="1:17" hidden="1">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>32</v>
       </c>
@@ -18878,7 +18886,7 @@
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
     </row>
-    <row r="303" spans="1:17" hidden="1">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>32</v>
       </c>
@@ -18909,7 +18917,7 @@
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
     </row>
-    <row r="304" spans="1:17" hidden="1">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>32</v>
       </c>
@@ -18940,7 +18948,7 @@
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
     </row>
-    <row r="305" spans="1:17" hidden="1">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>32</v>
       </c>
@@ -18971,7 +18979,7 @@
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
     </row>
-    <row r="306" spans="1:17" hidden="1">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>32</v>
       </c>
@@ -19002,7 +19010,7 @@
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
     </row>
-    <row r="307" spans="1:17" hidden="1">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>32</v>
       </c>
@@ -19033,7 +19041,7 @@
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
     </row>
-    <row r="308" spans="1:17" hidden="1">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>32</v>
       </c>
@@ -19064,7 +19072,7 @@
       <c r="P308" s="6"/>
       <c r="Q308" s="6"/>
     </row>
-    <row r="309" spans="1:17" hidden="1">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>32</v>
       </c>
@@ -19095,7 +19103,7 @@
       <c r="P309" s="6"/>
       <c r="Q309" s="6"/>
     </row>
-    <row r="310" spans="1:17" hidden="1">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>32</v>
       </c>
@@ -19126,7 +19134,7 @@
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
     </row>
-    <row r="311" spans="1:17" hidden="1">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>32</v>
       </c>
@@ -19157,7 +19165,7 @@
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
     </row>
-    <row r="312" spans="1:17" hidden="1">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>32</v>
       </c>
@@ -19188,7 +19196,7 @@
       <c r="P312" s="6"/>
       <c r="Q312" s="6"/>
     </row>
-    <row r="313" spans="1:17" hidden="1">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>32</v>
       </c>
@@ -19219,7 +19227,7 @@
       <c r="P313" s="6"/>
       <c r="Q313" s="6"/>
     </row>
-    <row r="314" spans="1:17" hidden="1">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>32</v>
       </c>
@@ -19250,7 +19258,7 @@
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
     </row>
-    <row r="315" spans="1:17" hidden="1">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>32</v>
       </c>
@@ -19281,7 +19289,7 @@
       <c r="P315" s="6"/>
       <c r="Q315" s="6"/>
     </row>
-    <row r="316" spans="1:17" hidden="1">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>32</v>
       </c>
@@ -19312,7 +19320,7 @@
       <c r="P316" s="6"/>
       <c r="Q316" s="6"/>
     </row>
-    <row r="317" spans="1:17" hidden="1">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>32</v>
       </c>
@@ -19343,7 +19351,7 @@
       <c r="P317" s="6"/>
       <c r="Q317" s="6"/>
     </row>
-    <row r="318" spans="1:17" hidden="1">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>32</v>
       </c>
@@ -19374,7 +19382,7 @@
       <c r="P318" s="6"/>
       <c r="Q318" s="6"/>
     </row>
-    <row r="319" spans="1:17" hidden="1">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>32</v>
       </c>
@@ -19405,7 +19413,7 @@
       <c r="P319" s="6"/>
       <c r="Q319" s="6"/>
     </row>
-    <row r="320" spans="1:17" hidden="1">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>32</v>
       </c>
@@ -19436,7 +19444,7 @@
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
     </row>
-    <row r="321" spans="1:17" hidden="1">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>32</v>
       </c>
@@ -19467,7 +19475,7 @@
       <c r="P321" s="6"/>
       <c r="Q321" s="6"/>
     </row>
-    <row r="322" spans="1:17" hidden="1">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>32</v>
       </c>
@@ -19498,7 +19506,7 @@
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
     </row>
-    <row r="323" spans="1:17" hidden="1">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>32</v>
       </c>
@@ -19529,7 +19537,7 @@
       <c r="P323" s="6"/>
       <c r="Q323" s="6"/>
     </row>
-    <row r="324" spans="1:17" hidden="1">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>32</v>
       </c>
@@ -19560,7 +19568,7 @@
       <c r="P324" s="6"/>
       <c r="Q324" s="6"/>
     </row>
-    <row r="325" spans="1:17" hidden="1">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>32</v>
       </c>
@@ -19591,7 +19599,7 @@
       <c r="P325" s="6"/>
       <c r="Q325" s="6"/>
     </row>
-    <row r="326" spans="1:17" hidden="1">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>32</v>
       </c>
@@ -19622,7 +19630,7 @@
       <c r="P326" s="6"/>
       <c r="Q326" s="6"/>
     </row>
-    <row r="327" spans="1:17" hidden="1">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>32</v>
       </c>
@@ -19653,7 +19661,7 @@
       <c r="P327" s="6"/>
       <c r="Q327" s="6"/>
     </row>
-    <row r="328" spans="1:17" hidden="1">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>32</v>
       </c>
@@ -19684,7 +19692,7 @@
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
     </row>
-    <row r="329" spans="1:17" hidden="1">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>32</v>
       </c>
@@ -19715,7 +19723,7 @@
       <c r="P329" s="6"/>
       <c r="Q329" s="6"/>
     </row>
-    <row r="330" spans="1:17" hidden="1">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>32</v>
       </c>
@@ -19746,7 +19754,7 @@
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
     </row>
-    <row r="331" spans="1:17" hidden="1">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>32</v>
       </c>
@@ -19777,7 +19785,7 @@
       <c r="P331" s="6"/>
       <c r="Q331" s="6"/>
     </row>
-    <row r="332" spans="1:17" hidden="1">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>32</v>
       </c>
@@ -19808,7 +19816,7 @@
       <c r="P332" s="6"/>
       <c r="Q332" s="6"/>
     </row>
-    <row r="333" spans="1:17" hidden="1">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>32</v>
       </c>
@@ -19839,7 +19847,7 @@
       <c r="P333" s="6"/>
       <c r="Q333" s="6"/>
     </row>
-    <row r="334" spans="1:17" hidden="1">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>32</v>
       </c>
@@ -19870,7 +19878,7 @@
       <c r="P334" s="6"/>
       <c r="Q334" s="6"/>
     </row>
-    <row r="335" spans="1:17" hidden="1">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>32</v>
       </c>
@@ -19901,7 +19909,7 @@
       <c r="P335" s="6"/>
       <c r="Q335" s="6"/>
     </row>
-    <row r="336" spans="1:17" hidden="1">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>32</v>
       </c>
@@ -19932,7 +19940,7 @@
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
     </row>
-    <row r="337" spans="1:17" hidden="1">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>32</v>
       </c>
@@ -19963,7 +19971,7 @@
       <c r="P337" s="6"/>
       <c r="Q337" s="6"/>
     </row>
-    <row r="338" spans="1:17" hidden="1">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>32</v>
       </c>
@@ -19994,7 +20002,7 @@
       <c r="P338" s="6"/>
       <c r="Q338" s="6"/>
     </row>
-    <row r="339" spans="1:17" hidden="1">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>32</v>
       </c>
@@ -20025,7 +20033,7 @@
       <c r="P339" s="6"/>
       <c r="Q339" s="6"/>
     </row>
-    <row r="340" spans="1:17" hidden="1">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>32</v>
       </c>
@@ -20056,7 +20064,7 @@
       <c r="P340" s="6"/>
       <c r="Q340" s="6"/>
     </row>
-    <row r="341" spans="1:17" hidden="1">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>32</v>
       </c>
@@ -20087,7 +20095,7 @@
       <c r="P341" s="6"/>
       <c r="Q341" s="6"/>
     </row>
-    <row r="342" spans="1:17" hidden="1">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>32</v>
       </c>
@@ -20118,7 +20126,7 @@
       <c r="P342" s="6"/>
       <c r="Q342" s="6"/>
     </row>
-    <row r="343" spans="1:17" hidden="1">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>32</v>
       </c>
@@ -20149,7 +20157,7 @@
       <c r="P343" s="6"/>
       <c r="Q343" s="6"/>
     </row>
-    <row r="344" spans="1:17" hidden="1">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>32</v>
       </c>
@@ -20180,7 +20188,7 @@
       <c r="P344" s="6"/>
       <c r="Q344" s="6"/>
     </row>
-    <row r="345" spans="1:17" hidden="1">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>32</v>
       </c>
@@ -20211,7 +20219,7 @@
       <c r="P345" s="6"/>
       <c r="Q345" s="6"/>
     </row>
-    <row r="346" spans="1:17" hidden="1">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>32</v>
       </c>
@@ -20242,7 +20250,7 @@
       <c r="P346" s="6"/>
       <c r="Q346" s="6"/>
     </row>
-    <row r="347" spans="1:17" hidden="1">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>32</v>
       </c>
@@ -20273,7 +20281,7 @@
       <c r="P347" s="6"/>
       <c r="Q347" s="6"/>
     </row>
-    <row r="348" spans="1:17" hidden="1">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>32</v>
       </c>
@@ -20304,7 +20312,7 @@
       <c r="P348" s="6"/>
       <c r="Q348" s="6"/>
     </row>
-    <row r="349" spans="1:17" hidden="1">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>32</v>
       </c>
@@ -20335,7 +20343,7 @@
       <c r="P349" s="6"/>
       <c r="Q349" s="6"/>
     </row>
-    <row r="350" spans="1:17" hidden="1">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>32</v>
       </c>
@@ -20366,7 +20374,7 @@
       <c r="P350" s="6"/>
       <c r="Q350" s="6"/>
     </row>
-    <row r="351" spans="1:17" hidden="1">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>32</v>
       </c>
@@ -20397,7 +20405,7 @@
       <c r="P351" s="6"/>
       <c r="Q351" s="6"/>
     </row>
-    <row r="352" spans="1:17" hidden="1">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>32</v>
       </c>
@@ -20428,7 +20436,7 @@
       <c r="P352" s="6"/>
       <c r="Q352" s="6"/>
     </row>
-    <row r="353" spans="1:17" hidden="1">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>32</v>
       </c>
@@ -20459,7 +20467,7 @@
       <c r="P353" s="6"/>
       <c r="Q353" s="6"/>
     </row>
-    <row r="354" spans="1:17" hidden="1">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>32</v>
       </c>
@@ -20490,7 +20498,7 @@
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>
     </row>
-    <row r="355" spans="1:17" hidden="1">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>32</v>
       </c>
@@ -20521,7 +20529,7 @@
       <c r="P355" s="6"/>
       <c r="Q355" s="6"/>
     </row>
-    <row r="356" spans="1:17" hidden="1">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>32</v>
       </c>
@@ -20552,7 +20560,7 @@
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
     </row>
-    <row r="357" spans="1:17" hidden="1">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>32</v>
       </c>
@@ -20583,7 +20591,7 @@
       <c r="P357" s="6"/>
       <c r="Q357" s="6"/>
     </row>
-    <row r="358" spans="1:17" hidden="1">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>32</v>
       </c>
@@ -20614,7 +20622,7 @@
       <c r="P358" s="6"/>
       <c r="Q358" s="6"/>
     </row>
-    <row r="359" spans="1:17" hidden="1">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>32</v>
       </c>
@@ -20645,7 +20653,7 @@
       <c r="P359" s="6"/>
       <c r="Q359" s="6"/>
     </row>
-    <row r="360" spans="1:17" hidden="1">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>32</v>
       </c>
@@ -20676,7 +20684,7 @@
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
     </row>
-    <row r="361" spans="1:17" hidden="1">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>32</v>
       </c>
@@ -20707,7 +20715,7 @@
       <c r="P361" s="6"/>
       <c r="Q361" s="6"/>
     </row>
-    <row r="362" spans="1:17" hidden="1">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>32</v>
       </c>
@@ -20738,7 +20746,7 @@
       <c r="P362" s="6"/>
       <c r="Q362" s="6"/>
     </row>
-    <row r="363" spans="1:17" hidden="1">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>32</v>
       </c>
@@ -20769,7 +20777,7 @@
       <c r="P363" s="6"/>
       <c r="Q363" s="6"/>
     </row>
-    <row r="364" spans="1:17" hidden="1">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>32</v>
       </c>
@@ -20800,7 +20808,7 @@
       <c r="P364" s="6"/>
       <c r="Q364" s="6"/>
     </row>
-    <row r="365" spans="1:17" hidden="1">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>32</v>
       </c>
@@ -20831,7 +20839,7 @@
       <c r="P365" s="6"/>
       <c r="Q365" s="6"/>
     </row>
-    <row r="366" spans="1:17" hidden="1">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>32</v>
       </c>
@@ -20862,7 +20870,7 @@
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
     </row>
-    <row r="367" spans="1:17" hidden="1">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>32</v>
       </c>
@@ -20893,7 +20901,7 @@
       <c r="P367" s="6"/>
       <c r="Q367" s="6"/>
     </row>
-    <row r="368" spans="1:17" hidden="1">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>32</v>
       </c>
@@ -20924,7 +20932,7 @@
       <c r="P368" s="6"/>
       <c r="Q368" s="6"/>
     </row>
-    <row r="369" spans="1:17" hidden="1">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>32</v>
       </c>
@@ -20955,7 +20963,7 @@
       <c r="P369" s="6"/>
       <c r="Q369" s="6"/>
     </row>
-    <row r="370" spans="1:17" hidden="1">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>32</v>
       </c>
@@ -20986,7 +20994,7 @@
       <c r="P370" s="6"/>
       <c r="Q370" s="6"/>
     </row>
-    <row r="371" spans="1:17" hidden="1">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>32</v>
       </c>
@@ -21017,7 +21025,7 @@
       <c r="P371" s="6"/>
       <c r="Q371" s="6"/>
     </row>
-    <row r="372" spans="1:17" hidden="1">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>32</v>
       </c>
@@ -21048,7 +21056,7 @@
       <c r="P372" s="6"/>
       <c r="Q372" s="6"/>
     </row>
-    <row r="373" spans="1:17" hidden="1">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>32</v>
       </c>
@@ -21079,7 +21087,7 @@
       <c r="P373" s="6"/>
       <c r="Q373" s="6"/>
     </row>
-    <row r="374" spans="1:17" ht="29" hidden="1">
+    <row r="374" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>32</v>
       </c>
@@ -21110,7 +21118,7 @@
       <c r="P374" s="6"/>
       <c r="Q374" s="6"/>
     </row>
-    <row r="375" spans="1:17" ht="29" hidden="1">
+    <row r="375" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>32</v>
       </c>
@@ -21141,7 +21149,7 @@
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
     </row>
-    <row r="376" spans="1:17" ht="43.5">
+    <row r="376" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>32</v>
       </c>
@@ -21176,14 +21184,70 @@
       <c r="P376" s="6"/>
       <c r="Q376" s="6"/>
     </row>
+    <row r="377" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A377" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
+      <c r="I377" s="6"/>
+      <c r="J377" s="6"/>
+      <c r="K377" s="6"/>
+      <c r="L377" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="M377" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="N377" s="6"/>
+      <c r="O377" s="6"/>
+      <c r="P377" s="6"/>
+      <c r="Q377" s="6"/>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A378" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+      <c r="I378" s="6"/>
+      <c r="J378" s="6"/>
+      <c r="K378" s="6"/>
+      <c r="L378" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="M378" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N378" s="6"/>
+      <c r="O378" s="6"/>
+      <c r="P378" s="6"/>
+      <c r="Q378" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q376" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Labo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q378" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N169" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F32D1-40F7-45E0-B32A-D3194EBC203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86EE63-A6D0-4E41-A15C-7E38436FFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8383" uniqueCount="2926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8381" uniqueCount="2926">
   <si>
     <t>Titre : Liste des unités du PEPR FairCarboN</t>
   </si>
@@ -10085,10 +10085,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="T818" sqref="T818"/>
+      <selection pane="bottomLeft" activeCell="N760" sqref="N760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10181,7 +10181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -11224,7 +11224,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>32</v>
       </c>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="249.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="275.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="275.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>32</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>32</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>32</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="U52" s="6"/>
     </row>
-    <row r="53" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>32</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>32</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>32</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
@@ -13426,7 +13426,7 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
     </row>
-    <row r="61" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>32</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>32</v>
       </c>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="U65" s="6"/>
     </row>
-    <row r="66" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>32</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>32</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>32</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>32</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>32</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>32</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>32</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -14255,7 +14255,7 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
     </row>
-    <row r="76" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>32</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>32</v>
       </c>
@@ -14418,7 +14418,7 @@
       </c>
       <c r="U78" s="6"/>
     </row>
-    <row r="79" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="U79" s="6"/>
     </row>
-    <row r="80" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>32</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>32</v>
       </c>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="U81" s="6"/>
     </row>
-    <row r="82" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>32</v>
       </c>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>32</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>32</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>32</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>32</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>32</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>32</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="203" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>32</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>32</v>
       </c>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>32</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>32</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>32</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>32</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>32</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>32</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>32</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="U109" s="6"/>
     </row>
-    <row r="110" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>32</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>32</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>32</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>32</v>
       </c>
@@ -16392,7 +16392,7 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
     </row>
-    <row r="115" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
@@ -16447,7 +16447,7 @@
       </c>
       <c r="U115" s="6"/>
     </row>
-    <row r="116" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>32</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>32</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>32</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>32</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
@@ -16777,7 +16777,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
     </row>
-    <row r="122" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>32</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>32</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>32</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>32</v>
       </c>
@@ -16991,7 +16991,7 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
     </row>
-    <row r="126" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>32</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>32</v>
       </c>
@@ -17146,7 +17146,7 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
     </row>
-    <row r="129" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>32</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>32</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>32</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>32</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
@@ -17419,7 +17419,7 @@
       </c>
       <c r="U133" s="6"/>
     </row>
-    <row r="134" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -17527,7 +17527,7 @@
       </c>
       <c r="U135" s="6"/>
     </row>
-    <row r="136" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -17729,7 +17729,7 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
     </row>
-    <row r="140" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="U140" s="6"/>
     </row>
-    <row r="141" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>32</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>32</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>32</v>
       </c>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="U149" s="6"/>
     </row>
-    <row r="150" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>32</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>32</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>32</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>32</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>32</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>32</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>32</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>32</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>32</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>32</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>32</v>
       </c>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="U162" s="6"/>
     </row>
-    <row r="163" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>32</v>
       </c>
@@ -19078,7 +19078,7 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
     </row>
-    <row r="165" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>32</v>
       </c>
@@ -19133,7 +19133,7 @@
       </c>
       <c r="U165" s="6"/>
     </row>
-    <row r="166" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>32</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>32</v>
       </c>
@@ -19231,7 +19231,7 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
     </row>
-    <row r="168" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>32</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>32</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>32</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>32</v>
       </c>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="U172" s="6"/>
     </row>
-    <row r="173" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>32</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>32</v>
       </c>
@@ -19612,7 +19612,7 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
     </row>
-    <row r="175" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
@@ -19655,7 +19655,7 @@
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
     </row>
-    <row r="176" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>32</v>
       </c>
@@ -19698,7 +19698,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
     </row>
-    <row r="177" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>32</v>
       </c>
@@ -19743,7 +19743,7 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
     </row>
-    <row r="178" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>32</v>
       </c>
@@ -19788,7 +19788,7 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
     </row>
-    <row r="179" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>32</v>
       </c>
@@ -19833,7 +19833,7 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
     </row>
-    <row r="180" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>32</v>
       </c>
@@ -19878,7 +19878,7 @@
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
     </row>
-    <row r="181" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
@@ -19923,7 +19923,7 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
     </row>
-    <row r="182" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>32</v>
       </c>
@@ -19968,7 +19968,7 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
     </row>
-    <row r="183" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>32</v>
       </c>
@@ -20013,7 +20013,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
     </row>
-    <row r="184" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>32</v>
       </c>
@@ -20058,7 +20058,7 @@
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
     </row>
-    <row r="185" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>32</v>
       </c>
@@ -21925,7 +21925,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
     </row>
-    <row r="238" spans="1:21" s="15" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" s="15" customFormat="1" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>32</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="239" spans="1:21" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" s="15" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>32</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:21" s="15" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" s="15" customFormat="1" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>32</v>
       </c>
@@ -22080,7 +22080,7 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
     </row>
-    <row r="241" spans="1:21" s="15" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" s="15" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>32</v>
       </c>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="U241" s="6"/>
     </row>
-    <row r="242" spans="1:21" s="15" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" s="15" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>32</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="243" spans="1:21" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" s="15" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>32</v>
       </c>
@@ -22239,7 +22239,7 @@
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
     </row>
-    <row r="244" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>32</v>
       </c>
@@ -22286,7 +22286,7 @@
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
     </row>
-    <row r="245" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>32</v>
       </c>
@@ -22333,7 +22333,7 @@
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
     </row>
-    <row r="246" spans="1:21" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>32</v>
       </c>
@@ -22378,7 +22378,7 @@
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
     </row>
-    <row r="247" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>32</v>
       </c>
@@ -22423,7 +22423,7 @@
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
     </row>
-    <row r="248" spans="1:21" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>32</v>
       </c>
@@ -22470,7 +22470,7 @@
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
     </row>
-    <row r="249" spans="1:21" ht="87" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>32</v>
       </c>
@@ -22517,7 +22517,7 @@
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
     </row>
-    <row r="250" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>32</v>
       </c>
@@ -26941,7 +26941,7 @@
       <c r="T375" s="6"/>
       <c r="U375" s="6"/>
     </row>
-    <row r="376" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>32</v>
       </c>
@@ -26982,7 +26982,7 @@
       <c r="T376" s="6"/>
       <c r="U376" s="6"/>
     </row>
-    <row r="377" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>32</v>
       </c>
@@ -27027,7 +27027,7 @@
       <c r="T377" s="6"/>
       <c r="U377" s="6"/>
     </row>
-    <row r="378" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>32</v>
       </c>
@@ -27072,7 +27072,7 @@
       <c r="T378" s="6"/>
       <c r="U378" s="6"/>
     </row>
-    <row r="379" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>32</v>
       </c>
@@ -27117,7 +27117,7 @@
       <c r="T379" s="6"/>
       <c r="U379" s="6"/>
     </row>
-    <row r="380" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>32</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
     </row>
-    <row r="381" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>32</v>
       </c>
@@ -27207,7 +27207,7 @@
       <c r="T381" s="6"/>
       <c r="U381" s="6"/>
     </row>
-    <row r="382" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>32</v>
       </c>
@@ -27252,7 +27252,7 @@
       <c r="T382" s="6"/>
       <c r="U382" s="6"/>
     </row>
-    <row r="383" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>32</v>
       </c>
@@ -27297,7 +27297,7 @@
       <c r="T383" s="6"/>
       <c r="U383" s="6"/>
     </row>
-    <row r="384" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>32</v>
       </c>
@@ -27342,7 +27342,7 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
     </row>
-    <row r="385" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>32</v>
       </c>
@@ -27387,7 +27387,7 @@
       <c r="T385" s="6"/>
       <c r="U385" s="6"/>
     </row>
-    <row r="386" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>32</v>
       </c>
@@ -27432,7 +27432,7 @@
       <c r="T386" s="6"/>
       <c r="U386" s="6"/>
     </row>
-    <row r="387" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>32</v>
       </c>
@@ -27477,7 +27477,7 @@
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
     </row>
-    <row r="388" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>32</v>
       </c>
@@ -27522,7 +27522,7 @@
       <c r="T388" s="6"/>
       <c r="U388" s="6"/>
     </row>
-    <row r="389" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>32</v>
       </c>
@@ -27567,7 +27567,7 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
     </row>
-    <row r="390" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>32</v>
       </c>
@@ -27612,7 +27612,7 @@
       <c r="T390" s="6"/>
       <c r="U390" s="6"/>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>32</v>
       </c>
@@ -27657,7 +27657,7 @@
       <c r="T391" s="6"/>
       <c r="U391" s="6"/>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>32</v>
       </c>
@@ -27702,7 +27702,7 @@
       <c r="T392" s="6"/>
       <c r="U392" s="6"/>
     </row>
-    <row r="393" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>32</v>
       </c>
@@ -27747,7 +27747,7 @@
       <c r="T393" s="6"/>
       <c r="U393" s="6"/>
     </row>
-    <row r="394" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>32</v>
       </c>
@@ -27792,7 +27792,7 @@
       <c r="T394" s="6"/>
       <c r="U394" s="6"/>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>32</v>
       </c>
@@ -27837,7 +27837,7 @@
       <c r="T395" s="6"/>
       <c r="U395" s="6"/>
     </row>
-    <row r="396" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>32</v>
       </c>
@@ -27882,7 +27882,7 @@
       <c r="T396" s="6"/>
       <c r="U396" s="6"/>
     </row>
-    <row r="397" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>32</v>
       </c>
@@ -27927,7 +27927,7 @@
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
     </row>
-    <row r="398" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>32</v>
       </c>
@@ -27972,7 +27972,7 @@
       <c r="T398" s="6"/>
       <c r="U398" s="6"/>
     </row>
-    <row r="399" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>32</v>
       </c>
@@ -28017,7 +28017,7 @@
       <c r="T399" s="6"/>
       <c r="U399" s="6"/>
     </row>
-    <row r="400" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>32</v>
       </c>
@@ -28062,7 +28062,7 @@
       <c r="T400" s="6"/>
       <c r="U400" s="6"/>
     </row>
-    <row r="401" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>32</v>
       </c>
@@ -28107,7 +28107,7 @@
       <c r="T401" s="6"/>
       <c r="U401" s="6"/>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>32</v>
       </c>
@@ -28152,7 +28152,7 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>32</v>
       </c>
@@ -28197,7 +28197,7 @@
       <c r="T403" s="6"/>
       <c r="U403" s="6"/>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>32</v>
       </c>
@@ -28242,7 +28242,7 @@
       <c r="T404" s="6"/>
       <c r="U404" s="6"/>
     </row>
-    <row r="405" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>32</v>
       </c>
@@ -28287,7 +28287,7 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
     </row>
-    <row r="406" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>32</v>
       </c>
@@ -28332,7 +28332,7 @@
       <c r="T406" s="6"/>
       <c r="U406" s="6"/>
     </row>
-    <row r="407" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>32</v>
       </c>
@@ -28377,7 +28377,7 @@
       <c r="T407" s="6"/>
       <c r="U407" s="6"/>
     </row>
-    <row r="408" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>32</v>
       </c>
@@ -28422,7 +28422,7 @@
       <c r="T408" s="6"/>
       <c r="U408" s="6"/>
     </row>
-    <row r="409" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>32</v>
       </c>
@@ -28467,7 +28467,7 @@
       <c r="T409" s="6"/>
       <c r="U409" s="6"/>
     </row>
-    <row r="410" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>32</v>
       </c>
@@ -28512,7 +28512,7 @@
       <c r="T410" s="6"/>
       <c r="U410" s="6"/>
     </row>
-    <row r="411" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>32</v>
       </c>
@@ -28557,7 +28557,7 @@
       <c r="T411" s="6"/>
       <c r="U411" s="6"/>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>32</v>
       </c>
@@ -28602,7 +28602,7 @@
       <c r="T412" s="6"/>
       <c r="U412" s="6"/>
     </row>
-    <row r="413" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>32</v>
       </c>
@@ -28647,7 +28647,7 @@
       <c r="T413" s="6"/>
       <c r="U413" s="6"/>
     </row>
-    <row r="414" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>32</v>
       </c>
@@ -28692,7 +28692,7 @@
       <c r="T414" s="6"/>
       <c r="U414" s="6"/>
     </row>
-    <row r="415" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>32</v>
       </c>
@@ -28737,7 +28737,7 @@
       <c r="T415" s="6"/>
       <c r="U415" s="6"/>
     </row>
-    <row r="416" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>32</v>
       </c>
@@ -28782,7 +28782,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
     </row>
-    <row r="417" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>32</v>
       </c>
@@ -28827,7 +28827,7 @@
       <c r="T417" s="6"/>
       <c r="U417" s="6"/>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>32</v>
       </c>
@@ -28870,7 +28870,7 @@
       <c r="T418" s="6"/>
       <c r="U418" s="6"/>
     </row>
-    <row r="419" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>32</v>
       </c>
@@ -28915,7 +28915,7 @@
       <c r="T419" s="6"/>
       <c r="U419" s="6"/>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420" s="44" t="s">
         <v>32</v>
       </c>
@@ -28958,7 +28958,7 @@
       <c r="T420" s="6"/>
       <c r="U420" s="6"/>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421" s="44" t="s">
         <v>32</v>
       </c>
@@ -29001,7 +29001,7 @@
       <c r="T421" s="6"/>
       <c r="U421" s="6"/>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" s="44" t="s">
         <v>32</v>
       </c>
@@ -29044,7 +29044,7 @@
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" s="44" t="s">
         <v>32</v>
       </c>
@@ -29087,7 +29087,7 @@
       <c r="T423" s="6"/>
       <c r="U423" s="6"/>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" s="44" t="s">
         <v>32</v>
       </c>
@@ -29130,7 +29130,7 @@
       <c r="T424" s="6"/>
       <c r="U424" s="6"/>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" s="44" t="s">
         <v>32</v>
       </c>
@@ -29173,7 +29173,7 @@
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" s="44" t="s">
         <v>32</v>
       </c>
@@ -29216,7 +29216,7 @@
       <c r="T426" s="6"/>
       <c r="U426" s="6"/>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" s="44" t="s">
         <v>32</v>
       </c>
@@ -29259,7 +29259,7 @@
       <c r="T427" s="6"/>
       <c r="U427" s="6"/>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" s="44" t="s">
         <v>32</v>
       </c>
@@ -29302,7 +29302,7 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
     </row>
-    <row r="429" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A429" s="44" t="s">
         <v>32</v>
       </c>
@@ -29345,7 +29345,7 @@
       <c r="T429" s="6"/>
       <c r="U429" s="6"/>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" s="44" t="s">
         <v>32</v>
       </c>
@@ -29388,7 +29388,7 @@
       <c r="T430" s="6"/>
       <c r="U430" s="6"/>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" s="44" t="s">
         <v>32</v>
       </c>
@@ -29431,7 +29431,7 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" s="44" t="s">
         <v>32</v>
       </c>
@@ -29474,7 +29474,7 @@
       <c r="T432" s="6"/>
       <c r="U432" s="6"/>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" s="44" t="s">
         <v>32</v>
       </c>
@@ -29517,7 +29517,7 @@
       <c r="T433" s="6"/>
       <c r="U433" s="6"/>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" s="44" t="s">
         <v>32</v>
       </c>
@@ -29560,7 +29560,7 @@
       <c r="T434" s="6"/>
       <c r="U434" s="6"/>
     </row>
-    <row r="435" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A435" s="44" t="s">
         <v>32</v>
       </c>
@@ -29603,7 +29603,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" s="44" t="s">
         <v>32</v>
       </c>
@@ -29646,7 +29646,7 @@
       <c r="T436" s="6"/>
       <c r="U436" s="6"/>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" s="44" t="s">
         <v>32</v>
       </c>
@@ -29689,7 +29689,7 @@
       <c r="T437" s="6"/>
       <c r="U437" s="6"/>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" s="44" t="s">
         <v>32</v>
       </c>
@@ -29732,7 +29732,7 @@
       <c r="T438" s="6"/>
       <c r="U438" s="6"/>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" s="44" t="s">
         <v>32</v>
       </c>
@@ -29775,7 +29775,7 @@
       <c r="T439" s="6"/>
       <c r="U439" s="6"/>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" s="44" t="s">
         <v>32</v>
       </c>
@@ -29818,7 +29818,7 @@
       <c r="T440" s="6"/>
       <c r="U440" s="6"/>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" s="44" t="s">
         <v>32</v>
       </c>
@@ -29861,7 +29861,7 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
     </row>
-    <row r="442" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A442" s="44" t="s">
         <v>32</v>
       </c>
@@ -29906,7 +29906,7 @@
       <c r="T442" s="6"/>
       <c r="U442" s="6"/>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" s="44" t="s">
         <v>32</v>
       </c>
@@ -29949,7 +29949,7 @@
       <c r="T443" s="6"/>
       <c r="U443" s="6"/>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" s="44" t="s">
         <v>32</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" s="44" t="s">
         <v>32</v>
       </c>
@@ -30035,7 +30035,7 @@
       <c r="T445" s="6"/>
       <c r="U445" s="6"/>
     </row>
-    <row r="446" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" s="44" t="s">
         <v>32</v>
       </c>
@@ -30078,7 +30078,7 @@
       <c r="T446" s="6"/>
       <c r="U446" s="6"/>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" s="44" t="s">
         <v>32</v>
       </c>
@@ -30121,7 +30121,7 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" s="44" t="s">
         <v>32</v>
       </c>
@@ -30164,7 +30164,7 @@
       <c r="T448" s="6"/>
       <c r="U448" s="6"/>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" s="44" t="s">
         <v>32</v>
       </c>
@@ -30207,7 +30207,7 @@
       <c r="T449" s="6"/>
       <c r="U449" s="6"/>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" s="44" t="s">
         <v>32</v>
       </c>
@@ -30250,7 +30250,7 @@
       <c r="T450" s="6"/>
       <c r="U450" s="6"/>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451" s="44" t="s">
         <v>32</v>
       </c>
@@ -30293,7 +30293,7 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" s="44" t="s">
         <v>32</v>
       </c>
@@ -30336,7 +30336,7 @@
       <c r="T452" s="6"/>
       <c r="U452" s="6"/>
     </row>
-    <row r="453" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A453" s="44" t="s">
         <v>32</v>
       </c>
@@ -30381,7 +30381,7 @@
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" s="44" t="s">
         <v>32</v>
       </c>
@@ -30424,7 +30424,7 @@
       <c r="T454" s="6"/>
       <c r="U454" s="6"/>
     </row>
-    <row r="455" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="44" t="s">
         <v>32</v>
       </c>
@@ -30467,7 +30467,7 @@
       <c r="T455" s="6"/>
       <c r="U455" s="6"/>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" s="6" t="s">
         <v>32</v>
       </c>
@@ -30510,7 +30510,7 @@
       <c r="T456" s="6"/>
       <c r="U456" s="6"/>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>32</v>
       </c>
@@ -30549,7 +30549,7 @@
       <c r="T457" s="6"/>
       <c r="U457" s="6"/>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" s="6" t="s">
         <v>32</v>
       </c>
@@ -30592,7 +30592,7 @@
       <c r="T458" s="6"/>
       <c r="U458" s="6"/>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" s="6" t="s">
         <v>32</v>
       </c>
@@ -30635,7 +30635,7 @@
       <c r="T459" s="6"/>
       <c r="U459" s="6"/>
     </row>
-    <row r="460" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
         <v>32</v>
       </c>
@@ -30680,7 +30680,7 @@
       <c r="T460" s="6"/>
       <c r="U460" s="6"/>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>32</v>
       </c>
@@ -30723,7 +30723,7 @@
       <c r="T461" s="6"/>
       <c r="U461" s="6"/>
     </row>
-    <row r="462" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
         <v>32</v>
       </c>
@@ -30766,7 +30766,7 @@
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" s="6" t="s">
         <v>32</v>
       </c>
@@ -30809,7 +30809,7 @@
       <c r="T463" s="6"/>
       <c r="U463" s="6"/>
     </row>
-    <row r="464" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A464" s="6" t="s">
         <v>32</v>
       </c>
@@ -30854,7 +30854,7 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" s="6" t="s">
         <v>32</v>
       </c>
@@ -30895,7 +30895,7 @@
       <c r="T465" s="6"/>
       <c r="U465" s="6"/>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" s="6" t="s">
         <v>32</v>
       </c>
@@ -30938,7 +30938,7 @@
       <c r="T466" s="6"/>
       <c r="U466" s="6"/>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" s="6" t="s">
         <v>32</v>
       </c>
@@ -30981,7 +30981,7 @@
       <c r="T467" s="6"/>
       <c r="U467" s="6"/>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" s="6" t="s">
         <v>32</v>
       </c>
@@ -31020,7 +31020,7 @@
       <c r="T468" s="6"/>
       <c r="U468" s="6"/>
     </row>
-    <row r="469" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A469" s="6" t="s">
         <v>32</v>
       </c>
@@ -31065,7 +31065,7 @@
       <c r="T469" s="6"/>
       <c r="U469" s="6"/>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" s="6" t="s">
         <v>32</v>
       </c>
@@ -31108,7 +31108,7 @@
       <c r="T470" s="6"/>
       <c r="U470" s="6"/>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" s="6" t="s">
         <v>32</v>
       </c>
@@ -31151,7 +31151,7 @@
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" s="6" t="s">
         <v>32</v>
       </c>
@@ -31194,7 +31194,7 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" s="6" t="s">
         <v>32</v>
       </c>
@@ -31237,7 +31237,7 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" s="6" t="s">
         <v>32</v>
       </c>
@@ -31280,7 +31280,7 @@
       <c r="T474" s="6"/>
       <c r="U474" s="6"/>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" s="6" t="s">
         <v>32</v>
       </c>
@@ -31323,7 +31323,7 @@
       <c r="T475" s="6"/>
       <c r="U475" s="6"/>
     </row>
-    <row r="476" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A476" s="6" t="s">
         <v>32</v>
       </c>
@@ -31366,7 +31366,7 @@
       <c r="T476" s="6"/>
       <c r="U476" s="6"/>
     </row>
-    <row r="477" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A477" s="6" t="s">
         <v>32</v>
       </c>
@@ -31409,7 +31409,7 @@
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
     </row>
-    <row r="478" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A478" s="6" t="s">
         <v>32</v>
       </c>
@@ -31450,7 +31450,7 @@
       <c r="T478" s="6"/>
       <c r="U478" s="6"/>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" s="6" t="s">
         <v>32</v>
       </c>
@@ -31493,7 +31493,7 @@
       <c r="T479" s="6"/>
       <c r="U479" s="6"/>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" s="6" t="s">
         <v>32</v>
       </c>
@@ -31536,7 +31536,7 @@
       <c r="T480" s="6"/>
       <c r="U480" s="6"/>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481" s="6" t="s">
         <v>32</v>
       </c>
@@ -31577,7 +31577,7 @@
       <c r="T481" s="6"/>
       <c r="U481" s="6"/>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A482" s="6" t="s">
         <v>32</v>
       </c>
@@ -31620,7 +31620,7 @@
       <c r="T482" s="6"/>
       <c r="U482" s="6"/>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A483" s="6" t="s">
         <v>32</v>
       </c>
@@ -31663,7 +31663,7 @@
       <c r="T483" s="6"/>
       <c r="U483" s="6"/>
     </row>
-    <row r="484" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" s="6" t="s">
         <v>32</v>
       </c>
@@ -31706,7 +31706,7 @@
       <c r="T484" s="6"/>
       <c r="U484" s="6"/>
     </row>
-    <row r="485" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="6" t="s">
         <v>32</v>
       </c>
@@ -31749,7 +31749,7 @@
       <c r="T485" s="6"/>
       <c r="U485" s="6"/>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A486" s="6" t="s">
         <v>32</v>
       </c>
@@ -31790,7 +31790,7 @@
       <c r="T486" s="6"/>
       <c r="U486" s="6"/>
     </row>
-    <row r="487" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A487" s="6" t="s">
         <v>32</v>
       </c>
@@ -31833,7 +31833,7 @@
       <c r="T487" s="6"/>
       <c r="U487" s="6"/>
     </row>
-    <row r="488" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A488" s="6" t="s">
         <v>32</v>
       </c>
@@ -31876,7 +31876,7 @@
       <c r="T488" s="6"/>
       <c r="U488" s="6"/>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A489" s="6" t="s">
         <v>32</v>
       </c>
@@ -31919,7 +31919,7 @@
       <c r="T489" s="6"/>
       <c r="U489" s="6"/>
     </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A490" s="6" t="s">
         <v>32</v>
       </c>
@@ -31962,7 +31962,7 @@
       <c r="T490" s="6"/>
       <c r="U490" s="6"/>
     </row>
-    <row r="491" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A491" s="6" t="s">
         <v>32</v>
       </c>
@@ -32005,7 +32005,7 @@
       <c r="T491" s="6"/>
       <c r="U491" s="6"/>
     </row>
-    <row r="492" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A492" s="6" t="s">
         <v>32</v>
       </c>
@@ -32048,7 +32048,7 @@
       <c r="T492" s="6"/>
       <c r="U492" s="6"/>
     </row>
-    <row r="493" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A493" s="6" t="s">
         <v>32</v>
       </c>
@@ -32091,7 +32091,7 @@
       <c r="T493" s="6"/>
       <c r="U493" s="6"/>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A494" s="6" t="s">
         <v>32</v>
       </c>
@@ -32134,7 +32134,7 @@
       <c r="T494" s="6"/>
       <c r="U494" s="6"/>
     </row>
-    <row r="495" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A495" s="6" t="s">
         <v>32</v>
       </c>
@@ -32177,7 +32177,7 @@
       <c r="T495" s="6"/>
       <c r="U495" s="6"/>
     </row>
-    <row r="496" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A496" s="6" t="s">
         <v>32</v>
       </c>
@@ -32222,7 +32222,7 @@
       <c r="T496" s="6"/>
       <c r="U496" s="6"/>
     </row>
-    <row r="497" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A497" s="6" t="s">
         <v>32</v>
       </c>
@@ -32267,7 +32267,7 @@
       <c r="T497" s="6"/>
       <c r="U497" s="6"/>
     </row>
-    <row r="498" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A498" s="6" t="s">
         <v>32</v>
       </c>
@@ -32312,7 +32312,7 @@
       <c r="T498" s="6"/>
       <c r="U498" s="6"/>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499" s="6" t="s">
         <v>32</v>
       </c>
@@ -32357,7 +32357,7 @@
       <c r="T499" s="6"/>
       <c r="U499" s="6"/>
     </row>
-    <row r="500" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A500" s="6" t="s">
         <v>32</v>
       </c>
@@ -32404,7 +32404,7 @@
       <c r="T500" s="6"/>
       <c r="U500" s="6"/>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501" s="6" t="s">
         <v>32</v>
       </c>
@@ -32449,7 +32449,7 @@
       <c r="T501" s="6"/>
       <c r="U501" s="6"/>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502" s="6" t="s">
         <v>32</v>
       </c>
@@ -32494,7 +32494,7 @@
       <c r="T502" s="6"/>
       <c r="U502" s="6"/>
     </row>
-    <row r="503" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A503" s="6" t="s">
         <v>32</v>
       </c>
@@ -32539,7 +32539,7 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504" s="6" t="s">
         <v>32</v>
       </c>
@@ -32584,7 +32584,7 @@
       <c r="T504" s="6"/>
       <c r="U504" s="6"/>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505" s="6" t="s">
         <v>32</v>
       </c>
@@ -32629,7 +32629,7 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506" s="6" t="s">
         <v>32</v>
       </c>
@@ -32674,7 +32674,7 @@
       <c r="T506" s="6"/>
       <c r="U506" s="6"/>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507" s="6" t="s">
         <v>32</v>
       </c>
@@ -32719,7 +32719,7 @@
       <c r="T507" s="6"/>
       <c r="U507" s="6"/>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508" s="6" t="s">
         <v>32</v>
       </c>
@@ -32764,7 +32764,7 @@
       <c r="T508" s="6"/>
       <c r="U508" s="6"/>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509" s="6" t="s">
         <v>32</v>
       </c>
@@ -32809,7 +32809,7 @@
       <c r="T509" s="6"/>
       <c r="U509" s="6"/>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510" s="6" t="s">
         <v>32</v>
       </c>
@@ -32854,7 +32854,7 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
     </row>
-    <row r="511" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A511" s="6" t="s">
         <v>32</v>
       </c>
@@ -32899,7 +32899,7 @@
       <c r="T511" s="6"/>
       <c r="U511" s="6"/>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512" s="6" t="s">
         <v>32</v>
       </c>
@@ -32944,7 +32944,7 @@
       <c r="T512" s="6"/>
       <c r="U512" s="6"/>
     </row>
-    <row r="513" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A513" s="6" t="s">
         <v>32</v>
       </c>
@@ -32987,7 +32987,7 @@
       <c r="T513" s="6"/>
       <c r="U513" s="6"/>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514" s="6" t="s">
         <v>32</v>
       </c>
@@ -33030,7 +33030,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A515" s="6" t="s">
         <v>32</v>
       </c>
@@ -33073,7 +33073,7 @@
       <c r="T515" s="6"/>
       <c r="U515" s="6"/>
     </row>
-    <row r="516" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A516" s="6" t="s">
         <v>32</v>
       </c>
@@ -33118,7 +33118,7 @@
       <c r="T516" s="6"/>
       <c r="U516" s="6"/>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517" s="6" t="s">
         <v>32</v>
       </c>
@@ -33161,7 +33161,7 @@
       <c r="T517" s="6"/>
       <c r="U517" s="6"/>
     </row>
-    <row r="518" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A518" s="6" t="s">
         <v>32</v>
       </c>
@@ -33208,7 +33208,7 @@
       <c r="T518" s="6"/>
       <c r="U518" s="6"/>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519" s="6" t="s">
         <v>32</v>
       </c>
@@ -33253,7 +33253,7 @@
       <c r="T519" s="6"/>
       <c r="U519" s="6"/>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520" s="6" t="s">
         <v>32</v>
       </c>
@@ -33296,7 +33296,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521" s="6" t="s">
         <v>32</v>
       </c>
@@ -33335,7 +33335,7 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522" s="6" t="s">
         <v>32</v>
       </c>
@@ -33380,7 +33380,7 @@
       <c r="T522" s="6"/>
       <c r="U522" s="6"/>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523" s="6" t="s">
         <v>32</v>
       </c>
@@ -33425,7 +33425,7 @@
       <c r="T523" s="6"/>
       <c r="U523" s="6"/>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524" s="6" t="s">
         <v>32</v>
       </c>
@@ -33468,7 +33468,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
     </row>
-    <row r="525" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A525" s="6" t="s">
         <v>32</v>
       </c>
@@ -33511,7 +33511,7 @@
       <c r="T525" s="6"/>
       <c r="U525" s="6"/>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526" s="6" t="s">
         <v>32</v>
       </c>
@@ -33554,7 +33554,7 @@
       <c r="T526" s="6"/>
       <c r="U526" s="6"/>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527" s="6" t="s">
         <v>32</v>
       </c>
@@ -33597,7 +33597,7 @@
       <c r="T527" s="6"/>
       <c r="U527" s="6"/>
     </row>
-    <row r="528" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A528" s="6" t="s">
         <v>32</v>
       </c>
@@ -33642,7 +33642,7 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529" s="6" t="s">
         <v>32</v>
       </c>
@@ -33687,7 +33687,7 @@
       <c r="T529" s="6"/>
       <c r="U529" s="6"/>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530" s="6" t="s">
         <v>32</v>
       </c>
@@ -33732,7 +33732,7 @@
       <c r="T530" s="6"/>
       <c r="U530" s="6"/>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531" s="6" t="s">
         <v>32</v>
       </c>
@@ -33775,7 +33775,7 @@
       <c r="T531" s="6"/>
       <c r="U531" s="6"/>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532" s="6" t="s">
         <v>32</v>
       </c>
@@ -33818,7 +33818,7 @@
       <c r="T532" s="6"/>
       <c r="U532" s="6"/>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533" s="6" t="s">
         <v>32</v>
       </c>
@@ -33863,7 +33863,7 @@
       <c r="T533" s="6"/>
       <c r="U533" s="6"/>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534" s="6" t="s">
         <v>32</v>
       </c>
@@ -33906,7 +33906,7 @@
       <c r="T534" s="6"/>
       <c r="U534" s="6"/>
     </row>
-    <row r="535" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A535" s="6" t="s">
         <v>32</v>
       </c>
@@ -33951,7 +33951,7 @@
       <c r="T535" s="6"/>
       <c r="U535" s="6"/>
     </row>
-    <row r="536" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A536" s="6" t="s">
         <v>32</v>
       </c>
@@ -33996,7 +33996,7 @@
       <c r="T536" s="6"/>
       <c r="U536" s="6"/>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537" s="6" t="s">
         <v>32</v>
       </c>
@@ -34039,7 +34039,7 @@
       <c r="T537" s="6"/>
       <c r="U537" s="6"/>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538" s="6" t="s">
         <v>32</v>
       </c>
@@ -34082,7 +34082,7 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
     </row>
-    <row r="539" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A539" s="6" t="s">
         <v>32</v>
       </c>
@@ -34127,7 +34127,7 @@
       <c r="T539" s="6"/>
       <c r="U539" s="6"/>
     </row>
-    <row r="540" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A540" s="6" t="s">
         <v>32</v>
       </c>
@@ -34172,7 +34172,7 @@
       <c r="T540" s="6"/>
       <c r="U540" s="6"/>
     </row>
-    <row r="541" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A541" s="6" t="s">
         <v>32</v>
       </c>
@@ -34215,7 +34215,7 @@
       <c r="T541" s="6"/>
       <c r="U541" s="6"/>
     </row>
-    <row r="542" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A542" s="6" t="s">
         <v>32</v>
       </c>
@@ -34260,7 +34260,7 @@
       <c r="T542" s="6"/>
       <c r="U542" s="6"/>
     </row>
-    <row r="543" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A543" s="6" t="s">
         <v>32</v>
       </c>
@@ -34305,7 +34305,7 @@
       <c r="T543" s="6"/>
       <c r="U543" s="6"/>
     </row>
-    <row r="544" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A544" s="6" t="s">
         <v>32</v>
       </c>
@@ -34350,7 +34350,7 @@
       <c r="T544" s="6"/>
       <c r="U544" s="6"/>
     </row>
-    <row r="545" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A545" s="6" t="s">
         <v>32</v>
       </c>
@@ -34395,7 +34395,7 @@
       <c r="T545" s="6"/>
       <c r="U545" s="6"/>
     </row>
-    <row r="546" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A546" s="6" t="s">
         <v>32</v>
       </c>
@@ -34438,7 +34438,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547" s="6" t="s">
         <v>32</v>
       </c>
@@ -34481,7 +34481,7 @@
       <c r="T547" s="6"/>
       <c r="U547" s="6"/>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548" s="6" t="s">
         <v>32</v>
       </c>
@@ -34524,7 +34524,7 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
     </row>
-    <row r="549" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A549" s="6" t="s">
         <v>32</v>
       </c>
@@ -34567,7 +34567,7 @@
       <c r="T549" s="6"/>
       <c r="U549" s="6"/>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A550" s="6" t="s">
         <v>32</v>
       </c>
@@ -34610,7 +34610,7 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A551" s="6" t="s">
         <v>32</v>
       </c>
@@ -34653,7 +34653,7 @@
       <c r="T551" s="6"/>
       <c r="U551" s="6"/>
     </row>
-    <row r="552" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A552" s="6" t="s">
         <v>32</v>
       </c>
@@ -34698,7 +34698,7 @@
       <c r="T552" s="6"/>
       <c r="U552" s="6"/>
     </row>
-    <row r="553" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A553" s="6" t="s">
         <v>32</v>
       </c>
@@ -34741,7 +34741,7 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
     </row>
-    <row r="554" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A554" s="6" t="s">
         <v>32</v>
       </c>
@@ -34784,7 +34784,7 @@
       <c r="T554" s="6"/>
       <c r="U554" s="6"/>
     </row>
-    <row r="555" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A555" s="6" t="s">
         <v>32</v>
       </c>
@@ -34827,7 +34827,7 @@
       <c r="T555" s="6"/>
       <c r="U555" s="6"/>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A556" s="6" t="s">
         <v>32</v>
       </c>
@@ -34870,7 +34870,7 @@
       <c r="T556" s="6"/>
       <c r="U556" s="6"/>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A557" s="6" t="s">
         <v>32</v>
       </c>
@@ -34913,7 +34913,7 @@
       <c r="T557" s="6"/>
       <c r="U557" s="6"/>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A558" s="6" t="s">
         <v>32</v>
       </c>
@@ -34956,7 +34956,7 @@
       <c r="T558" s="6"/>
       <c r="U558" s="6"/>
     </row>
-    <row r="559" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A559" s="6" t="s">
         <v>32</v>
       </c>
@@ -34999,7 +34999,7 @@
       <c r="T559" s="6"/>
       <c r="U559" s="6"/>
     </row>
-    <row r="560" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A560" s="6" t="s">
         <v>32</v>
       </c>
@@ -35042,7 +35042,7 @@
       <c r="T560" s="6"/>
       <c r="U560" s="6"/>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A561" s="6" t="s">
         <v>32</v>
       </c>
@@ -35085,7 +35085,7 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
     </row>
-    <row r="562" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A562" s="6" t="s">
         <v>32</v>
       </c>
@@ -35128,7 +35128,7 @@
       <c r="T562" s="6"/>
       <c r="U562" s="6"/>
     </row>
-    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A563" s="6" t="s">
         <v>32</v>
       </c>
@@ -35171,7 +35171,7 @@
       <c r="T563" s="6"/>
       <c r="U563" s="6"/>
     </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A564" s="6" t="s">
         <v>32</v>
       </c>
@@ -35216,7 +35216,7 @@
       <c r="T564" s="6"/>
       <c r="U564" s="6"/>
     </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A565" s="6" t="s">
         <v>32</v>
       </c>
@@ -35259,7 +35259,7 @@
       <c r="T565" s="6"/>
       <c r="U565" s="6"/>
     </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A566" s="6" t="s">
         <v>32</v>
       </c>
@@ -35302,7 +35302,7 @@
       <c r="T566" s="6"/>
       <c r="U566" s="6"/>
     </row>
-    <row r="567" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A567" s="6" t="s">
         <v>32</v>
       </c>
@@ -35347,7 +35347,7 @@
       <c r="T567" s="6"/>
       <c r="U567" s="6"/>
     </row>
-    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A568" s="6" t="s">
         <v>32</v>
       </c>
@@ -35390,7 +35390,7 @@
       <c r="T568" s="6"/>
       <c r="U568" s="6"/>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A569" s="6" t="s">
         <v>32</v>
       </c>
@@ -35433,7 +35433,7 @@
       <c r="T569" s="6"/>
       <c r="U569" s="6"/>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A570" s="6" t="s">
         <v>32</v>
       </c>
@@ -35478,7 +35478,7 @@
       <c r="T570" s="6"/>
       <c r="U570" s="6"/>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A571" s="6" t="s">
         <v>32</v>
       </c>
@@ -35521,7 +35521,7 @@
       <c r="T571" s="6"/>
       <c r="U571" s="6"/>
     </row>
-    <row r="572" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A572" s="6" t="s">
         <v>32</v>
       </c>
@@ -35564,7 +35564,7 @@
       <c r="T572" s="6"/>
       <c r="U572" s="6"/>
     </row>
-    <row r="573" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A573" s="6" t="s">
         <v>32</v>
       </c>
@@ -35609,7 +35609,7 @@
       <c r="T573" s="6"/>
       <c r="U573" s="6"/>
     </row>
-    <row r="574" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A574" s="6" t="s">
         <v>32</v>
       </c>
@@ -35656,7 +35656,7 @@
       <c r="T574" s="6"/>
       <c r="U574" s="6"/>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A575" s="6" t="s">
         <v>32</v>
       </c>
@@ -35701,7 +35701,7 @@
       <c r="T575" s="6"/>
       <c r="U575" s="6"/>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A576" s="6" t="s">
         <v>32</v>
       </c>
@@ -35744,7 +35744,7 @@
       <c r="T576" s="6"/>
       <c r="U576" s="6"/>
     </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A577" s="6" t="s">
         <v>32</v>
       </c>
@@ -35789,7 +35789,7 @@
       <c r="T577" s="6"/>
       <c r="U577" s="6"/>
     </row>
-    <row r="578" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A578" s="6" t="s">
         <v>32</v>
       </c>
@@ -35832,7 +35832,7 @@
       <c r="T578" s="6"/>
       <c r="U578" s="6"/>
     </row>
-    <row r="579" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A579" s="6" t="s">
         <v>32</v>
       </c>
@@ -35877,7 +35877,7 @@
       <c r="T579" s="6"/>
       <c r="U579" s="6"/>
     </row>
-    <row r="580" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A580" s="6" t="s">
         <v>32</v>
       </c>
@@ -35922,7 +35922,7 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A581" s="6" t="s">
         <v>32</v>
       </c>
@@ -35965,7 +35965,7 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
     </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A582" s="6" t="s">
         <v>32</v>
       </c>
@@ -36008,7 +36008,7 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
     </row>
-    <row r="583" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A583" s="6" t="s">
         <v>32</v>
       </c>
@@ -36051,7 +36051,7 @@
       <c r="T583" s="6"/>
       <c r="U583" s="6"/>
     </row>
-    <row r="584" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A584" s="6" t="s">
         <v>32</v>
       </c>
@@ -36094,7 +36094,7 @@
       <c r="T584" s="6"/>
       <c r="U584" s="6"/>
     </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A585" s="6" t="s">
         <v>32</v>
       </c>
@@ -36137,7 +36137,7 @@
       <c r="T585" s="6"/>
       <c r="U585" s="6"/>
     </row>
-    <row r="586" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A586" s="6" t="s">
         <v>32</v>
       </c>
@@ -36180,7 +36180,7 @@
       <c r="T586" s="6"/>
       <c r="U586" s="6"/>
     </row>
-    <row r="587" spans="1:21" s="15" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:21" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A587" s="6" t="s">
         <v>32</v>
       </c>
@@ -36223,7 +36223,7 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
     </row>
-    <row r="588" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A588" s="6" t="s">
         <v>32</v>
       </c>
@@ -36266,7 +36266,7 @@
       <c r="T588" s="6"/>
       <c r="U588" s="6"/>
     </row>
-    <row r="589" spans="1:21" s="15" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:21" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A589" s="6" t="s">
         <v>32</v>
       </c>
@@ -36309,7 +36309,7 @@
       <c r="T589" s="6"/>
       <c r="U589" s="6"/>
     </row>
-    <row r="590" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A590" s="6" t="s">
         <v>32</v>
       </c>
@@ -36352,7 +36352,7 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
     </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A591" s="6" t="s">
         <v>32</v>
       </c>
@@ -36395,7 +36395,7 @@
       <c r="T591" s="6"/>
       <c r="U591" s="6"/>
     </row>
-    <row r="592" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A592" s="6" t="s">
         <v>32</v>
       </c>
@@ -36438,7 +36438,7 @@
       <c r="T592" s="6"/>
       <c r="U592" s="6"/>
     </row>
-    <row r="593" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A593" s="6" t="s">
         <v>32</v>
       </c>
@@ -36481,7 +36481,7 @@
       <c r="T593" s="6"/>
       <c r="U593" s="6"/>
     </row>
-    <row r="594" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A594" s="6" t="s">
         <v>32</v>
       </c>
@@ -36524,7 +36524,7 @@
       <c r="T594" s="6"/>
       <c r="U594" s="6"/>
     </row>
-    <row r="595" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A595" s="6" t="s">
         <v>32</v>
       </c>
@@ -36567,7 +36567,7 @@
       <c r="T595" s="6"/>
       <c r="U595" s="6"/>
     </row>
-    <row r="596" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A596" s="6" t="s">
         <v>32</v>
       </c>
@@ -36610,7 +36610,7 @@
       <c r="T596" s="6"/>
       <c r="U596" s="6"/>
     </row>
-    <row r="597" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A597" s="6" t="s">
         <v>32</v>
       </c>
@@ -36653,7 +36653,7 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
     </row>
-    <row r="598" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A598" s="6" t="s">
         <v>32</v>
       </c>
@@ -36696,7 +36696,7 @@
       <c r="T598" s="6"/>
       <c r="U598" s="6"/>
     </row>
-    <row r="599" spans="1:21" s="15" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:21" s="15" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="6" t="s">
         <v>32</v>
       </c>
@@ -36737,7 +36737,7 @@
       <c r="T599" s="6"/>
       <c r="U599" s="6"/>
     </row>
-    <row r="600" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A600" s="6" t="s">
         <v>32</v>
       </c>
@@ -36780,7 +36780,7 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
     </row>
-    <row r="601" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A601" s="6" t="s">
         <v>32</v>
       </c>
@@ -36821,7 +36821,7 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
     </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A602" s="6" t="s">
         <v>32</v>
       </c>
@@ -36864,7 +36864,7 @@
       <c r="T602" s="6"/>
       <c r="U602" s="6"/>
     </row>
-    <row r="603" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A603" s="6" t="s">
         <v>32</v>
       </c>
@@ -36909,7 +36909,7 @@
       <c r="T603" s="6"/>
       <c r="U603" s="6"/>
     </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A604" s="6" t="s">
         <v>32</v>
       </c>
@@ -36950,7 +36950,7 @@
       <c r="T604" s="6"/>
       <c r="U604" s="6"/>
     </row>
-    <row r="605" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A605" s="6" t="s">
         <v>32</v>
       </c>
@@ -36993,7 +36993,7 @@
       <c r="T605" s="6"/>
       <c r="U605" s="6"/>
     </row>
-    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A606" s="6" t="s">
         <v>32</v>
       </c>
@@ -37036,7 +37036,7 @@
       <c r="T606" s="6"/>
       <c r="U606" s="6"/>
     </row>
-    <row r="607" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A607" s="6" t="s">
         <v>32</v>
       </c>
@@ -37077,7 +37077,7 @@
       <c r="T607" s="6"/>
       <c r="U607" s="6"/>
     </row>
-    <row r="608" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A608" s="6" t="s">
         <v>32</v>
       </c>
@@ -37118,7 +37118,7 @@
       <c r="T608" s="6"/>
       <c r="U608" s="6"/>
     </row>
-    <row r="609" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A609" s="6" t="s">
         <v>32</v>
       </c>
@@ -37159,7 +37159,7 @@
       <c r="T609" s="6"/>
       <c r="U609" s="6"/>
     </row>
-    <row r="610" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A610" s="6" t="s">
         <v>32</v>
       </c>
@@ -37202,7 +37202,7 @@
       <c r="T610" s="6"/>
       <c r="U610" s="6"/>
     </row>
-    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A611" s="6" t="s">
         <v>32</v>
       </c>
@@ -37245,7 +37245,7 @@
       <c r="T611" s="6"/>
       <c r="U611" s="6"/>
     </row>
-    <row r="612" spans="1:21" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:21" s="15" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="6" t="s">
         <v>32</v>
       </c>
@@ -37284,7 +37284,7 @@
       <c r="T612" s="6"/>
       <c r="U612" s="6"/>
     </row>
-    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A613" s="6" t="s">
         <v>32</v>
       </c>
@@ -37327,7 +37327,7 @@
       <c r="T613" s="6"/>
       <c r="U613" s="6"/>
     </row>
-    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A614" s="6" t="s">
         <v>32</v>
       </c>
@@ -37370,7 +37370,7 @@
       <c r="T614" s="6"/>
       <c r="U614" s="6"/>
     </row>
-    <row r="615" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A615" s="6" t="s">
         <v>32</v>
       </c>
@@ -37411,7 +37411,7 @@
       <c r="T615" s="6"/>
       <c r="U615" s="6"/>
     </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A616" s="6" t="s">
         <v>32</v>
       </c>
@@ -37452,7 +37452,7 @@
       <c r="T616" s="6"/>
       <c r="U616" s="6"/>
     </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A617" s="6" t="s">
         <v>32</v>
       </c>
@@ -37495,7 +37495,7 @@
       <c r="T617" s="6"/>
       <c r="U617" s="6"/>
     </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A618" s="6" t="s">
         <v>32</v>
       </c>
@@ -37538,7 +37538,7 @@
       <c r="T618" s="6"/>
       <c r="U618" s="6"/>
     </row>
-    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A619" s="6" t="s">
         <v>32</v>
       </c>
@@ -37581,7 +37581,7 @@
       <c r="T619" s="6"/>
       <c r="U619" s="6"/>
     </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A620" s="6" t="s">
         <v>32</v>
       </c>
@@ -37624,7 +37624,7 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
     </row>
-    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A621" s="6" t="s">
         <v>32</v>
       </c>
@@ -37667,7 +37667,7 @@
       <c r="T621" s="6"/>
       <c r="U621" s="6"/>
     </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A622" s="6" t="s">
         <v>32</v>
       </c>
@@ -37710,7 +37710,7 @@
       <c r="T622" s="6"/>
       <c r="U622" s="6"/>
     </row>
-    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A623" s="6" t="s">
         <v>32</v>
       </c>
@@ -37753,7 +37753,7 @@
       <c r="T623" s="6"/>
       <c r="U623" s="6"/>
     </row>
-    <row r="624" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A624" s="6" t="s">
         <v>32</v>
       </c>
@@ -37796,7 +37796,7 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
     </row>
-    <row r="625" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A625" s="6" t="s">
         <v>32</v>
       </c>
@@ -37837,7 +37837,7 @@
       <c r="T625" s="6"/>
       <c r="U625" s="6"/>
     </row>
-    <row r="626" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A626" s="6" t="s">
         <v>32</v>
       </c>
@@ -37880,7 +37880,7 @@
       <c r="T626" s="6"/>
       <c r="U626" s="6"/>
     </row>
-    <row r="627" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A627" s="6" t="s">
         <v>32</v>
       </c>
@@ -37923,7 +37923,7 @@
       <c r="T627" s="6"/>
       <c r="U627" s="6"/>
     </row>
-    <row r="628" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A628" s="6" t="s">
         <v>32</v>
       </c>
@@ -37966,7 +37966,7 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
     </row>
-    <row r="629" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A629" s="6" t="s">
         <v>32</v>
       </c>
@@ -38009,7 +38009,7 @@
       <c r="T629" s="6"/>
       <c r="U629" s="6"/>
     </row>
-    <row r="630" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A630" s="6" t="s">
         <v>32</v>
       </c>
@@ -38052,7 +38052,7 @@
       <c r="T630" s="6"/>
       <c r="U630" s="6"/>
     </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A631" s="6" t="s">
         <v>32</v>
       </c>
@@ -38093,7 +38093,7 @@
       <c r="T631" s="6"/>
       <c r="U631" s="6"/>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A632" s="6" t="s">
         <v>32</v>
       </c>
@@ -38136,7 +38136,7 @@
       <c r="T632" s="6"/>
       <c r="U632" s="6"/>
     </row>
-    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A633" s="6" t="s">
         <v>32</v>
       </c>
@@ -38177,7 +38177,7 @@
       <c r="T633" s="6"/>
       <c r="U633" s="6"/>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A634" s="6" t="s">
         <v>32</v>
       </c>
@@ -38218,7 +38218,7 @@
       <c r="T634" s="6"/>
       <c r="U634" s="6"/>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A635" s="6" t="s">
         <v>32</v>
       </c>
@@ -38261,7 +38261,7 @@
       <c r="T635" s="6"/>
       <c r="U635" s="6"/>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A636" s="6" t="s">
         <v>32</v>
       </c>
@@ -38304,7 +38304,7 @@
       <c r="T636" s="6"/>
       <c r="U636" s="6"/>
     </row>
-    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A637" s="6" t="s">
         <v>32</v>
       </c>
@@ -38347,7 +38347,7 @@
       <c r="T637" s="6"/>
       <c r="U637" s="6"/>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A638" s="6" t="s">
         <v>32</v>
       </c>
@@ -38392,7 +38392,7 @@
       <c r="T638" s="6"/>
       <c r="U638" s="6"/>
     </row>
-    <row r="639" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A639" s="6" t="s">
         <v>32</v>
       </c>
@@ -38433,7 +38433,7 @@
       <c r="T639" s="6"/>
       <c r="U639" s="6"/>
     </row>
-    <row r="640" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A640" s="6" t="s">
         <v>32</v>
       </c>
@@ -38474,7 +38474,7 @@
       <c r="T640" s="6"/>
       <c r="U640" s="6"/>
     </row>
-    <row r="641" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A641" s="6" t="s">
         <v>32</v>
       </c>
@@ -38515,7 +38515,7 @@
       <c r="T641" s="6"/>
       <c r="U641" s="6"/>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A642" s="6" t="s">
         <v>32</v>
       </c>
@@ -38556,7 +38556,7 @@
       <c r="T642" s="6"/>
       <c r="U642" s="6"/>
     </row>
-    <row r="643" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A643" s="6" t="s">
         <v>32</v>
       </c>
@@ -38597,7 +38597,7 @@
       <c r="T643" s="6"/>
       <c r="U643" s="6"/>
     </row>
-    <row r="644" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A644" s="6" t="s">
         <v>32</v>
       </c>
@@ -38638,7 +38638,7 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A645" s="6" t="s">
         <v>32</v>
       </c>
@@ -38679,7 +38679,7 @@
       <c r="T645" s="6"/>
       <c r="U645" s="6"/>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A646" s="6" t="s">
         <v>32</v>
       </c>
@@ -38720,7 +38720,7 @@
       <c r="T646" s="6"/>
       <c r="U646" s="6"/>
     </row>
-    <row r="647" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A647" s="6" t="s">
         <v>32</v>
       </c>
@@ -38761,7 +38761,7 @@
       <c r="T647" s="6"/>
       <c r="U647" s="6"/>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A648" s="6" t="s">
         <v>32</v>
       </c>
@@ -38802,7 +38802,7 @@
       <c r="T648" s="6"/>
       <c r="U648" s="6"/>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A649" s="6" t="s">
         <v>32</v>
       </c>
@@ -38843,7 +38843,7 @@
       <c r="T649" s="6"/>
       <c r="U649" s="6"/>
     </row>
-    <row r="650" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A650" s="6" t="s">
         <v>32</v>
       </c>
@@ -38884,7 +38884,7 @@
       <c r="T650" s="6"/>
       <c r="U650" s="6"/>
     </row>
-    <row r="651" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A651" s="6" t="s">
         <v>32</v>
       </c>
@@ -38925,7 +38925,7 @@
       <c r="T651" s="6"/>
       <c r="U651" s="6"/>
     </row>
-    <row r="652" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A652" s="6" t="s">
         <v>32</v>
       </c>
@@ -38966,7 +38966,7 @@
       <c r="T652" s="6"/>
       <c r="U652" s="6"/>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A653" s="6" t="s">
         <v>32</v>
       </c>
@@ -39007,7 +39007,7 @@
       <c r="T653" s="6"/>
       <c r="U653" s="6"/>
     </row>
-    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A654" s="6" t="s">
         <v>32</v>
       </c>
@@ -39363,7 +39363,7 @@
       <c r="T663" s="6"/>
       <c r="U663" s="6"/>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A664" s="6" t="s">
         <v>32</v>
       </c>
@@ -39406,7 +39406,7 @@
       <c r="T664" s="6"/>
       <c r="U664" s="6"/>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A665" s="6" t="s">
         <v>32</v>
       </c>
@@ -39449,7 +39449,7 @@
       <c r="T665" s="6"/>
       <c r="U665" s="6"/>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A666" s="6" t="s">
         <v>32</v>
       </c>
@@ -39492,7 +39492,7 @@
       <c r="T666" s="6"/>
       <c r="U666" s="6"/>
     </row>
-    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A667" s="6" t="s">
         <v>32</v>
       </c>
@@ -39535,7 +39535,7 @@
       <c r="T667" s="6"/>
       <c r="U667" s="6"/>
     </row>
-    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A668" s="6" t="s">
         <v>32</v>
       </c>
@@ -39578,7 +39578,7 @@
       <c r="T668" s="6"/>
       <c r="U668" s="6"/>
     </row>
-    <row r="669" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A669" s="6" t="s">
         <v>32</v>
       </c>
@@ -39621,7 +39621,7 @@
       <c r="T669" s="6"/>
       <c r="U669" s="6"/>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A670" s="6" t="s">
         <v>32</v>
       </c>
@@ -39664,7 +39664,7 @@
       <c r="T670" s="6"/>
       <c r="U670" s="6"/>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A671" s="6" t="s">
         <v>32</v>
       </c>
@@ -39707,7 +39707,7 @@
       <c r="T671" s="6"/>
       <c r="U671" s="6"/>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A672" s="6" t="s">
         <v>32</v>
       </c>
@@ -39750,7 +39750,7 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
     </row>
-    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A673" s="6" t="s">
         <v>32</v>
       </c>
@@ -39793,7 +39793,7 @@
       <c r="T673" s="6"/>
       <c r="U673" s="6"/>
     </row>
-    <row r="674" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A674" s="6" t="s">
         <v>32</v>
       </c>
@@ -39836,7 +39836,7 @@
       <c r="T674" s="6"/>
       <c r="U674" s="6"/>
     </row>
-    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A675" s="6" t="s">
         <v>32</v>
       </c>
@@ -39879,7 +39879,7 @@
       <c r="T675" s="6"/>
       <c r="U675" s="6"/>
     </row>
-    <row r="676" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A676" s="6" t="s">
         <v>32</v>
       </c>
@@ -39922,7 +39922,7 @@
       <c r="T676" s="6"/>
       <c r="U676" s="6"/>
     </row>
-    <row r="677" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A677" s="6" t="s">
         <v>32</v>
       </c>
@@ -39963,7 +39963,7 @@
       <c r="T677" s="6"/>
       <c r="U677" s="6"/>
     </row>
-    <row r="678" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A678" s="6" t="s">
         <v>32</v>
       </c>
@@ -40004,7 +40004,7 @@
       <c r="T678" s="6"/>
       <c r="U678" s="6"/>
     </row>
-    <row r="679" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A679" s="6" t="s">
         <v>32</v>
       </c>
@@ -40045,7 +40045,7 @@
       <c r="T679" s="6"/>
       <c r="U679" s="6"/>
     </row>
-    <row r="680" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A680" s="6" t="s">
         <v>32</v>
       </c>
@@ -40086,7 +40086,7 @@
       <c r="T680" s="6"/>
       <c r="U680" s="6"/>
     </row>
-    <row r="681" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A681" s="6" t="s">
         <v>32</v>
       </c>
@@ -40127,7 +40127,7 @@
       <c r="T681" s="6"/>
       <c r="U681" s="6"/>
     </row>
-    <row r="682" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A682" s="6" t="s">
         <v>32</v>
       </c>
@@ -40168,7 +40168,7 @@
       <c r="T682" s="6"/>
       <c r="U682" s="6"/>
     </row>
-    <row r="683" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A683" s="6" t="s">
         <v>32</v>
       </c>
@@ -40209,7 +40209,7 @@
       <c r="T683" s="6"/>
       <c r="U683" s="6"/>
     </row>
-    <row r="684" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A684" s="6" t="s">
         <v>32</v>
       </c>
@@ -40250,7 +40250,7 @@
       <c r="T684" s="6"/>
       <c r="U684" s="6"/>
     </row>
-    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A685" s="6" t="s">
         <v>32</v>
       </c>
@@ -40291,7 +40291,7 @@
       <c r="T685" s="6"/>
       <c r="U685" s="6"/>
     </row>
-    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A686" s="6" t="s">
         <v>32</v>
       </c>
@@ -40332,7 +40332,7 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
     </row>
-    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A687" s="6" t="s">
         <v>32</v>
       </c>
@@ -40373,7 +40373,7 @@
       <c r="T687" s="6"/>
       <c r="U687" s="6"/>
     </row>
-    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A688" s="6" t="s">
         <v>32</v>
       </c>
@@ -40414,7 +40414,7 @@
       <c r="T688" s="6"/>
       <c r="U688" s="6"/>
     </row>
-    <row r="689" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A689" s="6" t="s">
         <v>32</v>
       </c>
@@ -40455,7 +40455,7 @@
       <c r="T689" s="6"/>
       <c r="U689" s="6"/>
     </row>
-    <row r="690" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A690" s="6" t="s">
         <v>32</v>
       </c>
@@ -40496,7 +40496,7 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
     </row>
-    <row r="691" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A691" s="6" t="s">
         <v>32</v>
       </c>
@@ -40537,7 +40537,7 @@
       <c r="T691" s="6"/>
       <c r="U691" s="6"/>
     </row>
-    <row r="692" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A692" s="6" t="s">
         <v>32</v>
       </c>
@@ -40578,7 +40578,7 @@
       <c r="T692" s="6"/>
       <c r="U692" s="6"/>
     </row>
-    <row r="693" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A693" s="6" t="s">
         <v>32</v>
       </c>
@@ -40619,7 +40619,7 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
     </row>
-    <row r="694" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A694" s="6" t="s">
         <v>32</v>
       </c>
@@ -40660,7 +40660,7 @@
       <c r="T694" s="6"/>
       <c r="U694" s="6"/>
     </row>
-    <row r="695" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A695" s="6" t="s">
         <v>32</v>
       </c>
@@ -40703,7 +40703,7 @@
       <c r="T695" s="6"/>
       <c r="U695" s="6"/>
     </row>
-    <row r="696" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A696" s="6" t="s">
         <v>32</v>
       </c>
@@ -40744,7 +40744,7 @@
       <c r="T696" s="6"/>
       <c r="U696" s="6"/>
     </row>
-    <row r="697" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A697" s="6" t="s">
         <v>32</v>
       </c>
@@ -40785,7 +40785,7 @@
       <c r="T697" s="6"/>
       <c r="U697" s="6"/>
     </row>
-    <row r="698" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A698" s="6" t="s">
         <v>32</v>
       </c>
@@ -40826,7 +40826,7 @@
       <c r="T698" s="6"/>
       <c r="U698" s="6"/>
     </row>
-    <row r="699" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A699" s="6" t="s">
         <v>32</v>
       </c>
@@ -40867,7 +40867,7 @@
       <c r="T699" s="6"/>
       <c r="U699" s="6"/>
     </row>
-    <row r="700" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A700" s="6" t="s">
         <v>32</v>
       </c>
@@ -40908,7 +40908,7 @@
       <c r="T700" s="6"/>
       <c r="U700" s="6"/>
     </row>
-    <row r="701" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A701" s="6" t="s">
         <v>32</v>
       </c>
@@ -40949,7 +40949,7 @@
       <c r="T701" s="6"/>
       <c r="U701" s="6"/>
     </row>
-    <row r="702" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A702" s="6" t="s">
         <v>32</v>
       </c>
@@ -40990,7 +40990,7 @@
       <c r="T702" s="6"/>
       <c r="U702" s="6"/>
     </row>
-    <row r="703" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A703" s="6" t="s">
         <v>32</v>
       </c>
@@ -41031,7 +41031,7 @@
       <c r="T703" s="6"/>
       <c r="U703" s="6"/>
     </row>
-    <row r="704" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A704" s="6" t="s">
         <v>32</v>
       </c>
@@ -41072,7 +41072,7 @@
       <c r="T704" s="6"/>
       <c r="U704" s="6"/>
     </row>
-    <row r="705" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A705" s="6" t="s">
         <v>32</v>
       </c>
@@ -41113,7 +41113,7 @@
       <c r="T705" s="6"/>
       <c r="U705" s="6"/>
     </row>
-    <row r="706" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A706" s="6" t="s">
         <v>32</v>
       </c>
@@ -41154,7 +41154,7 @@
       <c r="T706" s="6"/>
       <c r="U706" s="6"/>
     </row>
-    <row r="707" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A707" s="6" t="s">
         <v>32</v>
       </c>
@@ -41199,7 +41199,7 @@
       <c r="T707" s="6"/>
       <c r="U707" s="6"/>
     </row>
-    <row r="708" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A708" s="6" t="s">
         <v>32</v>
       </c>
@@ -41242,7 +41242,7 @@
       <c r="T708" s="6"/>
       <c r="U708" s="6"/>
     </row>
-    <row r="709" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A709" s="6" t="s">
         <v>32</v>
       </c>
@@ -41285,7 +41285,7 @@
       <c r="T709" s="6"/>
       <c r="U709" s="6"/>
     </row>
-    <row r="710" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A710" s="6" t="s">
         <v>32</v>
       </c>
@@ -41328,7 +41328,7 @@
       <c r="T710" s="6"/>
       <c r="U710" s="6"/>
     </row>
-    <row r="711" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A711" s="6" t="s">
         <v>32</v>
       </c>
@@ -41369,7 +41369,7 @@
       <c r="T711" s="6"/>
       <c r="U711" s="6"/>
     </row>
-    <row r="712" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A712" s="6" t="s">
         <v>32</v>
       </c>
@@ -41410,7 +41410,7 @@
       <c r="T712" s="6"/>
       <c r="U712" s="6"/>
     </row>
-    <row r="713" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A713" s="6" t="s">
         <v>32</v>
       </c>
@@ -41451,7 +41451,7 @@
       <c r="T713" s="6"/>
       <c r="U713" s="6"/>
     </row>
-    <row r="714" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A714" s="6" t="s">
         <v>32</v>
       </c>
@@ -41494,7 +41494,7 @@
       <c r="T714" s="6"/>
       <c r="U714" s="6"/>
     </row>
-    <row r="715" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6" t="s">
         <v>32</v>
       </c>
@@ -41537,7 +41537,7 @@
       <c r="T715" s="6"/>
       <c r="U715" s="6"/>
     </row>
-    <row r="716" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A716" s="6" t="s">
         <v>32</v>
       </c>
@@ -41578,7 +41578,7 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
     </row>
-    <row r="717" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A717" s="6" t="s">
         <v>32</v>
       </c>
@@ -41621,7 +41621,7 @@
       <c r="T717" s="6"/>
       <c r="U717" s="6"/>
     </row>
-    <row r="718" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A718" s="6" t="s">
         <v>32</v>
       </c>
@@ -41664,7 +41664,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
     </row>
-    <row r="719" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A719" s="6" t="s">
         <v>32</v>
       </c>
@@ -41707,7 +41707,7 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
     </row>
-    <row r="720" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A720" s="6" t="s">
         <v>32</v>
       </c>
@@ -41750,7 +41750,7 @@
       <c r="T720" s="6"/>
       <c r="U720" s="6"/>
     </row>
-    <row r="721" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A721" s="6" t="s">
         <v>32</v>
       </c>
@@ -41793,7 +41793,7 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
     </row>
-    <row r="722" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A722" s="6" t="s">
         <v>32</v>
       </c>
@@ -41834,7 +41834,7 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
     </row>
-    <row r="723" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6" t="s">
         <v>32</v>
       </c>
@@ -41875,7 +41875,7 @@
       <c r="T723" s="6"/>
       <c r="U723" s="6"/>
     </row>
-    <row r="724" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A724" s="6" t="s">
         <v>32</v>
       </c>
@@ -41916,7 +41916,7 @@
       <c r="T724" s="6"/>
       <c r="U724" s="6"/>
     </row>
-    <row r="725" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A725" s="6" t="s">
         <v>32</v>
       </c>
@@ -41957,7 +41957,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
     </row>
-    <row r="726" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A726" s="6" t="s">
         <v>32</v>
       </c>
@@ -42000,7 +42000,7 @@
       <c r="T726" s="6"/>
       <c r="U726" s="6"/>
     </row>
-    <row r="727" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A727" s="6" t="s">
         <v>32</v>
       </c>
@@ -42043,7 +42043,7 @@
       <c r="T727" s="6"/>
       <c r="U727" s="6"/>
     </row>
-    <row r="728" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A728" s="6" t="s">
         <v>32</v>
       </c>
@@ -42086,7 +42086,7 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
     </row>
-    <row r="729" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A729" s="6" t="s">
         <v>32</v>
       </c>
@@ -42129,7 +42129,7 @@
       <c r="T729" s="6"/>
       <c r="U729" s="6"/>
     </row>
-    <row r="730" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A730" s="6" t="s">
         <v>32</v>
       </c>
@@ -42172,7 +42172,7 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
     </row>
-    <row r="731" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A731" s="6" t="s">
         <v>32</v>
       </c>
@@ -42215,7 +42215,7 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
     </row>
-    <row r="732" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A732" s="6" t="s">
         <v>32</v>
       </c>
@@ -42256,7 +42256,7 @@
       <c r="T732" s="6"/>
       <c r="U732" s="6"/>
     </row>
-    <row r="733" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A733" s="6" t="s">
         <v>32</v>
       </c>
@@ -42297,7 +42297,7 @@
       <c r="T733" s="6"/>
       <c r="U733" s="6"/>
     </row>
-    <row r="734" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A734" s="6" t="s">
         <v>32</v>
       </c>
@@ -42338,7 +42338,7 @@
       <c r="T734" s="6"/>
       <c r="U734" s="6"/>
     </row>
-    <row r="735" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A735" s="6" t="s">
         <v>32</v>
       </c>
@@ -42379,7 +42379,7 @@
       <c r="T735" s="6"/>
       <c r="U735" s="6"/>
     </row>
-    <row r="736" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A736" s="6" t="s">
         <v>32</v>
       </c>
@@ -42420,7 +42420,7 @@
       <c r="T736" s="6"/>
       <c r="U736" s="6"/>
     </row>
-    <row r="737" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A737" s="6" t="s">
         <v>32</v>
       </c>
@@ -42461,7 +42461,7 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
     </row>
-    <row r="738" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A738" s="6" t="s">
         <v>32</v>
       </c>
@@ -42502,7 +42502,7 @@
       <c r="T738" s="6"/>
       <c r="U738" s="6"/>
     </row>
-    <row r="739" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A739" s="6" t="s">
         <v>32</v>
       </c>
@@ -42545,7 +42545,7 @@
       <c r="T739" s="6"/>
       <c r="U739" s="6"/>
     </row>
-    <row r="740" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A740" s="6" t="s">
         <v>32</v>
       </c>
@@ -42586,7 +42586,7 @@
       <c r="T740" s="6"/>
       <c r="U740" s="6"/>
     </row>
-    <row r="741" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A741" s="6" t="s">
         <v>32</v>
       </c>
@@ -42627,7 +42627,7 @@
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
     </row>
-    <row r="742" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A742" s="6" t="s">
         <v>32</v>
       </c>
@@ -42668,7 +42668,7 @@
       <c r="T742" s="6"/>
       <c r="U742" s="6"/>
     </row>
-    <row r="743" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A743" s="6" t="s">
         <v>32</v>
       </c>
@@ -42709,7 +42709,7 @@
       <c r="T743" s="6"/>
       <c r="U743" s="6"/>
     </row>
-    <row r="744" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A744" s="6" t="s">
         <v>32</v>
       </c>
@@ -42750,7 +42750,7 @@
       <c r="T744" s="6"/>
       <c r="U744" s="6"/>
     </row>
-    <row r="745" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A745" s="6" t="s">
         <v>32</v>
       </c>
@@ -42791,7 +42791,7 @@
       <c r="T745" s="6"/>
       <c r="U745" s="6"/>
     </row>
-    <row r="746" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A746" s="6" t="s">
         <v>32</v>
       </c>
@@ -42832,7 +42832,7 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
     </row>
-    <row r="747" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A747" s="6" t="s">
         <v>32</v>
       </c>
@@ -42869,7 +42869,7 @@
       <c r="T747" s="6"/>
       <c r="U747" s="6"/>
     </row>
-    <row r="748" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A748" s="6" t="s">
         <v>32</v>
       </c>
@@ -42910,7 +42910,7 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
     </row>
-    <row r="749" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A749" s="6" t="s">
         <v>32</v>
       </c>
@@ -42951,7 +42951,7 @@
       <c r="T749" s="6"/>
       <c r="U749" s="6"/>
     </row>
-    <row r="750" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A750" s="6" t="s">
         <v>32</v>
       </c>
@@ -42992,7 +42992,7 @@
       <c r="T750" s="6"/>
       <c r="U750" s="6"/>
     </row>
-    <row r="751" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A751" s="6" t="s">
         <v>32</v>
       </c>
@@ -43033,7 +43033,7 @@
       <c r="T751" s="6"/>
       <c r="U751" s="6"/>
     </row>
-    <row r="752" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A752" s="6" t="s">
         <v>32</v>
       </c>
@@ -43063,18 +43063,14 @@
       </c>
       <c r="N752" s="6"/>
       <c r="O752" s="6"/>
-      <c r="P752" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="Q752" s="6" t="s">
-        <v>871</v>
-      </c>
+      <c r="P752" s="6"/>
+      <c r="Q752" s="6"/>
       <c r="R752" s="6"/>
       <c r="S752" s="6"/>
       <c r="T752" s="6"/>
       <c r="U752" s="6"/>
     </row>
-    <row r="753" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A753" s="6" t="s">
         <v>32</v>
       </c>
@@ -43115,7 +43111,7 @@
       <c r="T753" s="6"/>
       <c r="U753" s="6"/>
     </row>
-    <row r="754" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A754" s="6" t="s">
         <v>32</v>
       </c>
@@ -43156,7 +43152,7 @@
       <c r="T754" s="6"/>
       <c r="U754" s="6"/>
     </row>
-    <row r="755" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A755" s="6" t="s">
         <v>32</v>
       </c>
@@ -43197,7 +43193,7 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
     </row>
-    <row r="756" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A756" s="6" t="s">
         <v>32</v>
       </c>
@@ -43238,7 +43234,7 @@
       <c r="T756" s="6"/>
       <c r="U756" s="6"/>
     </row>
-    <row r="757" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A757" s="6" t="s">
         <v>32</v>
       </c>
@@ -43279,7 +43275,7 @@
       <c r="T757" s="6"/>
       <c r="U757" s="6"/>
     </row>
-    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A758" s="6" t="s">
         <v>32</v>
       </c>
@@ -43320,7 +43316,7 @@
       <c r="T758" s="6"/>
       <c r="U758" s="6"/>
     </row>
-    <row r="759" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A759" s="6" t="s">
         <v>32</v>
       </c>
@@ -43361,7 +43357,7 @@
       <c r="T759" s="6"/>
       <c r="U759" s="6"/>
     </row>
-    <row r="760" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A760" s="6" t="s">
         <v>32</v>
       </c>
@@ -43402,7 +43398,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
     </row>
-    <row r="761" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A761" s="6" t="s">
         <v>32</v>
       </c>
@@ -43443,7 +43439,7 @@
       <c r="T761" s="6"/>
       <c r="U761" s="6"/>
     </row>
-    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A762" s="6" t="s">
         <v>32</v>
       </c>
@@ -43484,7 +43480,7 @@
       <c r="T762" s="6"/>
       <c r="U762" s="6"/>
     </row>
-    <row r="763" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A763" s="6" t="s">
         <v>32</v>
       </c>
@@ -43525,7 +43521,7 @@
       <c r="T763" s="6"/>
       <c r="U763" s="6"/>
     </row>
-    <row r="764" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A764" s="6" t="s">
         <v>32</v>
       </c>
@@ -43566,7 +43562,7 @@
       <c r="T764" s="6"/>
       <c r="U764" s="6"/>
     </row>
-    <row r="765" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A765" s="6" t="s">
         <v>32</v>
       </c>
@@ -43607,7 +43603,7 @@
       <c r="T765" s="6"/>
       <c r="U765" s="6"/>
     </row>
-    <row r="766" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A766" s="6" t="s">
         <v>32</v>
       </c>
@@ -43650,7 +43646,7 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
     </row>
-    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A767" s="6" t="s">
         <v>32</v>
       </c>
@@ -43693,7 +43689,7 @@
       <c r="T767" s="6"/>
       <c r="U767" s="6"/>
     </row>
-    <row r="768" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A768" s="6" t="s">
         <v>32</v>
       </c>
@@ -43736,7 +43732,7 @@
       <c r="T768" s="6"/>
       <c r="U768" s="6"/>
     </row>
-    <row r="769" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A769" s="6" t="s">
         <v>32</v>
       </c>
@@ -43779,7 +43775,7 @@
       <c r="T769" s="6"/>
       <c r="U769" s="6"/>
     </row>
-    <row r="770" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A770" s="6" t="s">
         <v>32</v>
       </c>
@@ -43822,7 +43818,7 @@
       <c r="T770" s="6"/>
       <c r="U770" s="6"/>
     </row>
-    <row r="771" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A771" s="6" t="s">
         <v>32</v>
       </c>
@@ -43865,7 +43861,7 @@
       <c r="T771" s="6"/>
       <c r="U771" s="6"/>
     </row>
-    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A772" s="6" t="s">
         <v>32</v>
       </c>
@@ -43908,7 +43904,7 @@
       <c r="T772" s="6"/>
       <c r="U772" s="6"/>
     </row>
-    <row r="773" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A773" s="6" t="s">
         <v>32</v>
       </c>
@@ -43951,7 +43947,7 @@
       <c r="T773" s="6"/>
       <c r="U773" s="6"/>
     </row>
-    <row r="774" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A774" s="6" t="s">
         <v>32</v>
       </c>
@@ -43994,7 +43990,7 @@
       <c r="T774" s="6"/>
       <c r="U774" s="6"/>
     </row>
-    <row r="775" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A775" s="6" t="s">
         <v>32</v>
       </c>
@@ -44039,7 +44035,7 @@
       <c r="T775" s="6"/>
       <c r="U775" s="6"/>
     </row>
-    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A776" s="6" t="s">
         <v>32</v>
       </c>
@@ -44084,7 +44080,7 @@
       <c r="T776" s="6"/>
       <c r="U776" s="6"/>
     </row>
-    <row r="777" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A777" s="6" t="s">
         <v>32</v>
       </c>
@@ -44127,7 +44123,7 @@
       <c r="T777" s="6"/>
       <c r="U777" s="6"/>
     </row>
-    <row r="778" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A778" s="6" t="s">
         <v>32</v>
       </c>
@@ -44170,7 +44166,7 @@
       <c r="T778" s="6"/>
       <c r="U778" s="6"/>
     </row>
-    <row r="779" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A779" s="6" t="s">
         <v>32</v>
       </c>
@@ -44213,7 +44209,7 @@
       <c r="T779" s="6"/>
       <c r="U779" s="6"/>
     </row>
-    <row r="780" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A780" s="6" t="s">
         <v>32</v>
       </c>
@@ -44258,7 +44254,7 @@
       <c r="T780" s="6"/>
       <c r="U780" s="6"/>
     </row>
-    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A781" s="6" t="s">
         <v>32</v>
       </c>
@@ -44303,7 +44299,7 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
     </row>
-    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A782" s="6" t="s">
         <v>32</v>
       </c>
@@ -44346,7 +44342,7 @@
       <c r="T782" s="6"/>
       <c r="U782" s="6"/>
     </row>
-    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A783" s="6" t="s">
         <v>32</v>
       </c>
@@ -44391,7 +44387,7 @@
       <c r="T783" s="6"/>
       <c r="U783" s="6"/>
     </row>
-    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A784" s="6" t="s">
         <v>32</v>
       </c>
@@ -44434,7 +44430,7 @@
       <c r="T784" s="6"/>
       <c r="U784" s="6"/>
     </row>
-    <row r="785" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A785" s="6" t="s">
         <v>32</v>
       </c>
@@ -44477,7 +44473,7 @@
       <c r="T785" s="6"/>
       <c r="U785" s="6"/>
     </row>
-    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A786" s="6" t="s">
         <v>32</v>
       </c>
@@ -44520,7 +44516,7 @@
       <c r="T786" s="6"/>
       <c r="U786" s="6"/>
     </row>
-    <row r="787" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A787" s="6" t="s">
         <v>32</v>
       </c>
@@ -44563,7 +44559,7 @@
       <c r="T787" s="6"/>
       <c r="U787" s="6"/>
     </row>
-    <row r="788" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A788" s="6" t="s">
         <v>32</v>
       </c>
@@ -44608,7 +44604,7 @@
       <c r="T788" s="6"/>
       <c r="U788" s="6"/>
     </row>
-    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A789" s="6" t="s">
         <v>32</v>
       </c>
@@ -44653,7 +44649,7 @@
       <c r="T789" s="6"/>
       <c r="U789" s="6"/>
     </row>
-    <row r="790" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A790" s="6" t="s">
         <v>32</v>
       </c>
@@ -44696,7 +44692,7 @@
       <c r="T790" s="6"/>
       <c r="U790" s="6"/>
     </row>
-    <row r="791" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A791" s="6" t="s">
         <v>32</v>
       </c>
@@ -44739,7 +44735,7 @@
       <c r="T791" s="6"/>
       <c r="U791" s="6"/>
     </row>
-    <row r="792" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A792" s="6" t="s">
         <v>32</v>
       </c>
@@ -44782,7 +44778,7 @@
       <c r="T792" s="6"/>
       <c r="U792" s="6"/>
     </row>
-    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A793" s="6" t="s">
         <v>32</v>
       </c>
@@ -44825,7 +44821,7 @@
       <c r="T793" s="6"/>
       <c r="U793" s="6"/>
     </row>
-    <row r="794" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A794" s="6" t="s">
         <v>32</v>
       </c>
@@ -44868,7 +44864,7 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
     </row>
-    <row r="795" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A795" s="6" t="s">
         <v>32</v>
       </c>
@@ -44911,7 +44907,7 @@
       <c r="T795" s="6"/>
       <c r="U795" s="6"/>
     </row>
-    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A796" s="6" t="s">
         <v>32</v>
       </c>
@@ -44956,7 +44952,7 @@
       <c r="T796" s="6"/>
       <c r="U796" s="6"/>
     </row>
-    <row r="797" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A797" s="6" t="s">
         <v>32</v>
       </c>
@@ -45001,7 +44997,7 @@
       <c r="T797" s="6"/>
       <c r="U797" s="6"/>
     </row>
-    <row r="798" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A798" s="6" t="s">
         <v>32</v>
       </c>
@@ -45044,7 +45040,7 @@
       <c r="T798" s="6"/>
       <c r="U798" s="6"/>
     </row>
-    <row r="799" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A799" s="6" t="s">
         <v>32</v>
       </c>
@@ -45089,7 +45085,7 @@
       <c r="T799" s="6"/>
       <c r="U799" s="6"/>
     </row>
-    <row r="800" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A800" s="6" t="s">
         <v>32</v>
       </c>
@@ -45130,7 +45126,7 @@
       <c r="T800" s="6"/>
       <c r="U800" s="6"/>
     </row>
-    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A801" s="6" t="s">
         <v>32</v>
       </c>
@@ -45175,7 +45171,7 @@
       <c r="T801" s="6"/>
       <c r="U801" s="6"/>
     </row>
-    <row r="802" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A802" s="6" t="s">
         <v>32</v>
       </c>
@@ -45220,7 +45216,7 @@
       <c r="T802" s="6"/>
       <c r="U802" s="6"/>
     </row>
-    <row r="803" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A803" s="6" t="s">
         <v>32</v>
       </c>
@@ -45265,7 +45261,7 @@
       <c r="T803" s="6"/>
       <c r="U803" s="6"/>
     </row>
-    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A804" s="6" t="s">
         <v>32</v>
       </c>
@@ -45306,7 +45302,7 @@
       <c r="T804" s="6"/>
       <c r="U804" s="6"/>
     </row>
-    <row r="805" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A805" s="6" t="s">
         <v>32</v>
       </c>
@@ -45347,7 +45343,7 @@
       <c r="T805" s="6"/>
       <c r="U805" s="6"/>
     </row>
-    <row r="806" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A806" s="6" t="s">
         <v>32</v>
       </c>
@@ -45388,7 +45384,7 @@
       <c r="T806" s="6"/>
       <c r="U806" s="6"/>
     </row>
-    <row r="807" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A807" s="6" t="s">
         <v>32</v>
       </c>
@@ -45433,7 +45429,7 @@
   <autoFilter ref="A1:U807" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Labo"/>
+        <filter val="Contact"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Data/FairCarboN_RNSR_copie.xlsx
+++ b/Data/FairCarboN_RNSR_copie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutroncj\Documents\Outils\FairCarboN_datas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB86EE63-A6D0-4E41-A15C-7E38436FFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFDB0E-FC47-45B2-ADE1-C03E10FDDE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8227,9 +8227,6 @@
     <t>ELOUHICHI</t>
   </si>
   <si>
-    <t>Karim</t>
-  </si>
-  <si>
     <t>Kamel.elouhichi@inrae.fr</t>
   </si>
   <si>
@@ -8254,9 +8251,6 @@
     <t>Claudia</t>
   </si>
   <si>
-    <t>Karim Louhichi</t>
-  </si>
-  <si>
     <t>BAMIERE</t>
   </si>
   <si>
@@ -8734,9 +8728,6 @@
     <t>Eric Justes</t>
   </si>
   <si>
-    <t>Benoit Marie</t>
-  </si>
-  <si>
     <t>CESCHIA</t>
   </si>
   <si>
@@ -9200,17 +9191,33 @@
   </si>
   <si>
     <t>Oleg Pokrovsky</t>
+  </si>
+  <si>
+    <t>Benoit Marie "ISEM"</t>
+  </si>
+  <si>
+    <t>Kamel</t>
+  </si>
+  <si>
+    <t>Kamel Louhichi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9537,16 +9544,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9564,16 +9571,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9582,29 +9589,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9613,105 +9626,102 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9719,43 +9729,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10085,10 +10095,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R4" sqref="R4"/>
-      <selection pane="bottomLeft" activeCell="N760" sqref="N760"/>
+      <selection pane="bottomLeft" activeCell="E821" sqref="E821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11093,7 +11103,7 @@
         <v>163</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>164</v>
@@ -12965,7 +12975,7 @@
         <v>163</v>
       </c>
       <c r="M52" s="47" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="N52" s="6" t="s">
         <v>164</v>
@@ -26982,7 +26992,7 @@
       <c r="T376" s="6"/>
       <c r="U376" s="6"/>
     </row>
-    <row r="377" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>32</v>
       </c>
@@ -27027,7 +27037,7 @@
       <c r="T377" s="6"/>
       <c r="U377" s="6"/>
     </row>
-    <row r="378" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>32</v>
       </c>
@@ -27072,7 +27082,7 @@
       <c r="T378" s="6"/>
       <c r="U378" s="6"/>
     </row>
-    <row r="379" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>32</v>
       </c>
@@ -27117,7 +27127,7 @@
       <c r="T379" s="6"/>
       <c r="U379" s="6"/>
     </row>
-    <row r="380" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>32</v>
       </c>
@@ -27162,7 +27172,7 @@
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
     </row>
-    <row r="381" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>32</v>
       </c>
@@ -27207,7 +27217,7 @@
       <c r="T381" s="6"/>
       <c r="U381" s="6"/>
     </row>
-    <row r="382" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>32</v>
       </c>
@@ -27252,7 +27262,7 @@
       <c r="T382" s="6"/>
       <c r="U382" s="6"/>
     </row>
-    <row r="383" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>32</v>
       </c>
@@ -27297,7 +27307,7 @@
       <c r="T383" s="6"/>
       <c r="U383" s="6"/>
     </row>
-    <row r="384" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>32</v>
       </c>
@@ -27342,7 +27352,7 @@
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
     </row>
-    <row r="385" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>32</v>
       </c>
@@ -27387,7 +27397,7 @@
       <c r="T385" s="6"/>
       <c r="U385" s="6"/>
     </row>
-    <row r="386" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>32</v>
       </c>
@@ -27432,7 +27442,7 @@
       <c r="T386" s="6"/>
       <c r="U386" s="6"/>
     </row>
-    <row r="387" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>32</v>
       </c>
@@ -27477,7 +27487,7 @@
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
     </row>
-    <row r="388" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>32</v>
       </c>
@@ -27522,7 +27532,7 @@
       <c r="T388" s="6"/>
       <c r="U388" s="6"/>
     </row>
-    <row r="389" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>32</v>
       </c>
@@ -27567,7 +27577,7 @@
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
     </row>
-    <row r="390" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>32</v>
       </c>
@@ -27612,7 +27622,7 @@
       <c r="T390" s="6"/>
       <c r="U390" s="6"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>32</v>
       </c>
@@ -27657,7 +27667,7 @@
       <c r="T391" s="6"/>
       <c r="U391" s="6"/>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>32</v>
       </c>
@@ -27702,7 +27712,7 @@
       <c r="T392" s="6"/>
       <c r="U392" s="6"/>
     </row>
-    <row r="393" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>32</v>
       </c>
@@ -27747,7 +27757,7 @@
       <c r="T393" s="6"/>
       <c r="U393" s="6"/>
     </row>
-    <row r="394" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>32</v>
       </c>
@@ -27792,7 +27802,7 @@
       <c r="T394" s="6"/>
       <c r="U394" s="6"/>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>32</v>
       </c>
@@ -27837,7 +27847,7 @@
       <c r="T395" s="6"/>
       <c r="U395" s="6"/>
     </row>
-    <row r="396" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>32</v>
       </c>
@@ -27882,7 +27892,7 @@
       <c r="T396" s="6"/>
       <c r="U396" s="6"/>
     </row>
-    <row r="397" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>32</v>
       </c>
@@ -27927,7 +27937,7 @@
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
     </row>
-    <row r="398" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>32</v>
       </c>
@@ -27972,7 +27982,7 @@
       <c r="T398" s="6"/>
       <c r="U398" s="6"/>
     </row>
-    <row r="399" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>32</v>
       </c>
@@ -28017,7 +28027,7 @@
       <c r="T399" s="6"/>
       <c r="U399" s="6"/>
     </row>
-    <row r="400" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>32</v>
       </c>
@@ -28062,7 +28072,7 @@
       <c r="T400" s="6"/>
       <c r="U400" s="6"/>
     </row>
-    <row r="401" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>32</v>
       </c>
@@ -28107,7 +28117,7 @@
       <c r="T401" s="6"/>
       <c r="U401" s="6"/>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>32</v>
       </c>
@@ -28152,7 +28162,7 @@
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>32</v>
       </c>
@@ -28197,7 +28207,7 @@
       <c r="T403" s="6"/>
       <c r="U403" s="6"/>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>32</v>
       </c>
@@ -28242,7 +28252,7 @@
       <c r="T404" s="6"/>
       <c r="U404" s="6"/>
     </row>
-    <row r="405" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>32</v>
       </c>
@@ -28287,7 +28297,7 @@
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
     </row>
-    <row r="406" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>32</v>
       </c>
@@ -28332,7 +28342,7 @@
       <c r="T406" s="6"/>
       <c r="U406" s="6"/>
     </row>
-    <row r="407" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>32</v>
       </c>
@@ -28377,7 +28387,7 @@
       <c r="T407" s="6"/>
       <c r="U407" s="6"/>
     </row>
-    <row r="408" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>32</v>
       </c>
@@ -28422,7 +28432,7 @@
       <c r="T408" s="6"/>
       <c r="U408" s="6"/>
     </row>
-    <row r="409" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>32</v>
       </c>
@@ -28467,7 +28477,7 @@
       <c r="T409" s="6"/>
       <c r="U409" s="6"/>
     </row>
-    <row r="410" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>32</v>
       </c>
@@ -28512,7 +28522,7 @@
       <c r="T410" s="6"/>
       <c r="U410" s="6"/>
     </row>
-    <row r="411" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>32</v>
       </c>
@@ -28557,7 +28567,7 @@
       <c r="T411" s="6"/>
       <c r="U411" s="6"/>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>32</v>
       </c>
@@ -28602,7 +28612,7 @@
       <c r="T412" s="6"/>
       <c r="U412" s="6"/>
     </row>
-    <row r="413" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>32</v>
       </c>
@@ -28647,7 +28657,7 @@
       <c r="T413" s="6"/>
       <c r="U413" s="6"/>
     </row>
-    <row r="414" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>32</v>
       </c>
@@ -28692,7 +28702,7 @@
       <c r="T414" s="6"/>
       <c r="U414" s="6"/>
     </row>
-    <row r="415" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>32</v>
       </c>
@@ -28737,7 +28747,7 @@
       <c r="T415" s="6"/>
       <c r="U415" s="6"/>
     </row>
-    <row r="416" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>32</v>
       </c>
@@ -28782,7 +28792,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
     </row>
-    <row r="417" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>32</v>
       </c>
@@ -28827,7 +28837,7 @@
       <c r="T417" s="6"/>
       <c r="U417" s="6"/>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>32</v>
       </c>
@@ -28870,7 +28880,7 @@
       <c r="T418" s="6"/>
       <c r="U418" s="6"/>
     </row>
-    <row r="419" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>32</v>
       </c>
@@ -28915,7 +28925,7 @@
       <c r="T419" s="6"/>
       <c r="U419" s="6"/>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="44" t="s">
         <v>32</v>
       </c>
@@ -28958,7 +28968,7 @@
       <c r="T420" s="6"/>
       <c r="U420" s="6"/>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="44" t="s">
         <v>32</v>
       </c>
@@ -29001,7 +29011,7 @@
       <c r="T421" s="6"/>
       <c r="U421" s="6"/>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="44" t="s">
         <v>32</v>
       </c>
@@ -29044,7 +29054,7 @@
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="44" t="s">
         <v>32</v>
       </c>
@@ -29087,7 +29097,7 @@
       <c r="T423" s="6"/>
       <c r="U423" s="6"/>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="44" t="s">
         <v>32</v>
       </c>
@@ -29130,7 +29140,7 @@
       <c r="T424" s="6"/>
       <c r="U424" s="6"/>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="44" t="s">
         <v>32</v>
       </c>
@@ -29173,7 +29183,7 @@
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="44" t="s">
         <v>32</v>
       </c>
@@ -29216,7 +29226,7 @@
       <c r="T426" s="6"/>
       <c r="U426" s="6"/>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="44" t="s">
         <v>32</v>
       </c>
@@ -29259,7 +29269,7 @@
       <c r="T427" s="6"/>
       <c r="U427" s="6"/>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="44" t="s">
         <v>32</v>
       </c>
@@ -29302,7 +29312,7 @@
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
     </row>
-    <row r="429" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="44" t="s">
         <v>32</v>
       </c>
@@ -29345,7 +29355,7 @@
       <c r="T429" s="6"/>
       <c r="U429" s="6"/>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="44" t="s">
         <v>32</v>
       </c>
@@ -29388,7 +29398,7 @@
       <c r="T430" s="6"/>
       <c r="U430" s="6"/>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="44" t="s">
         <v>32</v>
       </c>
@@ -29431,7 +29441,7 @@
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="44" t="s">
         <v>32</v>
       </c>
@@ -29474,7 +29484,7 @@
       <c r="T432" s="6"/>
       <c r="U432" s="6"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="44" t="s">
         <v>32</v>
       </c>
@@ -29517,7 +29527,7 @@
       <c r="T433" s="6"/>
       <c r="U433" s="6"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="44" t="s">
         <v>32</v>
       </c>
@@ -29560,7 +29570,7 @@
       <c r="T434" s="6"/>
       <c r="U434" s="6"/>
     </row>
-    <row r="435" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="44" t="s">
         <v>32</v>
       </c>
@@ -29603,7 +29613,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="44" t="s">
         <v>32</v>
       </c>
@@ -29646,7 +29656,7 @@
       <c r="T436" s="6"/>
       <c r="U436" s="6"/>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="44" t="s">
         <v>32</v>
       </c>
@@ -29689,7 +29699,7 @@
       <c r="T437" s="6"/>
       <c r="U437" s="6"/>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="44" t="s">
         <v>32</v>
       </c>
@@ -29732,7 +29742,7 @@
       <c r="T438" s="6"/>
       <c r="U438" s="6"/>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="44" t="s">
         <v>32</v>
       </c>
@@ -29775,7 +29785,7 @@
       <c r="T439" s="6"/>
       <c r="U439" s="6"/>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="44" t="s">
         <v>32</v>
       </c>
@@ -29818,7 +29828,7 @@
       <c r="T440" s="6"/>
       <c r="U440" s="6"/>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="44" t="s">
         <v>32</v>
       </c>
@@ -29861,7 +29871,7 @@
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
     </row>
-    <row r="442" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="44" t="s">
         <v>32</v>
       </c>
@@ -29895,18 +29905,14 @@
       </c>
       <c r="N442" s="6"/>
       <c r="O442" s="6"/>
-      <c r="P442" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q442" s="6" t="s">
-        <v>613</v>
-      </c>
+      <c r="P442" s="6"/>
+      <c r="Q442" s="6"/>
       <c r="R442" s="6"/>
       <c r="S442" s="6"/>
       <c r="T442" s="6"/>
       <c r="U442" s="6"/>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="44" t="s">
         <v>32</v>
       </c>
@@ -29949,7 +29955,7 @@
       <c r="T443" s="6"/>
       <c r="U443" s="6"/>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="44" t="s">
         <v>32</v>
       </c>
@@ -29992,7 +29998,7 @@
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="44" t="s">
         <v>32</v>
       </c>
@@ -30035,7 +30041,7 @@
       <c r="T445" s="6"/>
       <c r="U445" s="6"/>
     </row>
-    <row r="446" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="44" t="s">
         <v>32</v>
       </c>
@@ -30078,7 +30084,7 @@
       <c r="T446" s="6"/>
       <c r="U446" s="6"/>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="44" t="s">
         <v>32</v>
       </c>
@@ -30121,7 +30127,7 @@
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="44" t="s">
         <v>32</v>
       </c>
@@ -30164,7 +30170,7 @@
       <c r="T448" s="6"/>
       <c r="U448" s="6"/>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="44" t="s">
         <v>32</v>
       </c>
@@ -30207,7 +30213,7 @@
       <c r="T449" s="6"/>
       <c r="U449" s="6"/>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="44" t="s">
         <v>32</v>
       </c>
@@ -30250,7 +30256,7 @@
       <c r="T450" s="6"/>
       <c r="U450" s="6"/>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="44" t="s">
         <v>32</v>
       </c>
@@ -30293,7 +30299,7 @@
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="44" t="s">
         <v>32</v>
       </c>
@@ -30336,7 +30342,7 @@
       <c r="T452" s="6"/>
       <c r="U452" s="6"/>
     </row>
-    <row r="453" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="44" t="s">
         <v>32</v>
       </c>
@@ -30381,7 +30387,7 @@
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="44" t="s">
         <v>32</v>
       </c>
@@ -30424,7 +30430,7 @@
       <c r="T454" s="6"/>
       <c r="U454" s="6"/>
     </row>
-    <row r="455" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="44" t="s">
         <v>32</v>
       </c>
@@ -30467,7 +30473,7 @@
       <c r="T455" s="6"/>
       <c r="U455" s="6"/>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="6" t="s">
         <v>32</v>
       </c>
@@ -30510,7 +30516,7 @@
       <c r="T456" s="6"/>
       <c r="U456" s="6"/>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>32</v>
       </c>
@@ -30549,7 +30555,7 @@
       <c r="T457" s="6"/>
       <c r="U457" s="6"/>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6" t="s">
         <v>32</v>
       </c>
@@ -30592,7 +30598,7 @@
       <c r="T458" s="6"/>
       <c r="U458" s="6"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6" t="s">
         <v>32</v>
       </c>
@@ -30635,7 +30641,7 @@
       <c r="T459" s="6"/>
       <c r="U459" s="6"/>
     </row>
-    <row r="460" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
         <v>32</v>
       </c>
@@ -30680,7 +30686,7 @@
       <c r="T460" s="6"/>
       <c r="U460" s="6"/>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>32</v>
       </c>
@@ -30723,7 +30729,7 @@
       <c r="T461" s="6"/>
       <c r="U461" s="6"/>
     </row>
-    <row r="462" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
         <v>32</v>
       </c>
@@ -30766,7 +30772,7 @@
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="6" t="s">
         <v>32</v>
       </c>
@@ -30809,7 +30815,7 @@
       <c r="T463" s="6"/>
       <c r="U463" s="6"/>
     </row>
-    <row r="464" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="6" t="s">
         <v>32</v>
       </c>
@@ -30854,7 +30860,7 @@
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="6" t="s">
         <v>32</v>
       </c>
@@ -30895,7 +30901,7 @@
       <c r="T465" s="6"/>
       <c r="U465" s="6"/>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="6" t="s">
         <v>32</v>
       </c>
@@ -30938,7 +30944,7 @@
       <c r="T466" s="6"/>
       <c r="U466" s="6"/>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="6" t="s">
         <v>32</v>
       </c>
@@ -30981,7 +30987,7 @@
       <c r="T467" s="6"/>
       <c r="U467" s="6"/>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="6" t="s">
         <v>32</v>
       </c>
@@ -31020,7 +31026,7 @@
       <c r="T468" s="6"/>
       <c r="U468" s="6"/>
     </row>
-    <row r="469" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="6" t="s">
         <v>32</v>
       </c>
@@ -31065,7 +31071,7 @@
       <c r="T469" s="6"/>
       <c r="U469" s="6"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="6" t="s">
         <v>32</v>
       </c>
@@ -31108,7 +31114,7 @@
       <c r="T470" s="6"/>
       <c r="U470" s="6"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="6" t="s">
         <v>32</v>
       </c>
@@ -31151,7 +31157,7 @@
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="6" t="s">
         <v>32</v>
       </c>
@@ -31194,7 +31200,7 @@
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6" t="s">
         <v>32</v>
       </c>
@@ -31237,7 +31243,7 @@
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="6" t="s">
         <v>32</v>
       </c>
@@ -31280,7 +31286,7 @@
       <c r="T474" s="6"/>
       <c r="U474" s="6"/>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="6" t="s">
         <v>32</v>
       </c>
@@ -31323,7 +31329,7 @@
       <c r="T475" s="6"/>
       <c r="U475" s="6"/>
     </row>
-    <row r="476" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6" t="s">
         <v>32</v>
       </c>
@@ -31366,7 +31372,7 @@
       <c r="T476" s="6"/>
       <c r="U476" s="6"/>
     </row>
-    <row r="477" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="6" t="s">
         <v>32</v>
       </c>
@@ -31409,7 +31415,7 @@
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
     </row>
-    <row r="478" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="6" t="s">
         <v>32</v>
       </c>
@@ -31450,7 +31456,7 @@
       <c r="T478" s="6"/>
       <c r="U478" s="6"/>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="6" t="s">
         <v>32</v>
       </c>
@@ -31493,7 +31499,7 @@
       <c r="T479" s="6"/>
       <c r="U479" s="6"/>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="6" t="s">
         <v>32</v>
       </c>
@@ -31536,7 +31542,7 @@
       <c r="T480" s="6"/>
       <c r="U480" s="6"/>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="6" t="s">
         <v>32</v>
       </c>
@@ -31577,7 +31583,7 @@
       <c r="T481" s="6"/>
       <c r="U481" s="6"/>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="6" t="s">
         <v>32</v>
       </c>
@@ -31620,7 +31626,7 @@
       <c r="T482" s="6"/>
       <c r="U482" s="6"/>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="6" t="s">
         <v>32</v>
       </c>
@@ -31663,7 +31669,7 @@
       <c r="T483" s="6"/>
       <c r="U483" s="6"/>
     </row>
-    <row r="484" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6" t="s">
         <v>32</v>
       </c>
@@ -31706,7 +31712,7 @@
       <c r="T484" s="6"/>
       <c r="U484" s="6"/>
     </row>
-    <row r="485" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6" t="s">
         <v>32</v>
       </c>
@@ -31749,7 +31755,7 @@
       <c r="T485" s="6"/>
       <c r="U485" s="6"/>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="6" t="s">
         <v>32</v>
       </c>
@@ -31790,7 +31796,7 @@
       <c r="T486" s="6"/>
       <c r="U486" s="6"/>
     </row>
-    <row r="487" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="6" t="s">
         <v>32</v>
       </c>
@@ -31833,7 +31839,7 @@
       <c r="T487" s="6"/>
       <c r="U487" s="6"/>
     </row>
-    <row r="488" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="6" t="s">
         <v>32</v>
       </c>
@@ -31876,7 +31882,7 @@
       <c r="T488" s="6"/>
       <c r="U488" s="6"/>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="6" t="s">
         <v>32</v>
       </c>
@@ -31919,7 +31925,7 @@
       <c r="T489" s="6"/>
       <c r="U489" s="6"/>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="6" t="s">
         <v>32</v>
       </c>
@@ -31962,7 +31968,7 @@
       <c r="T490" s="6"/>
       <c r="U490" s="6"/>
     </row>
-    <row r="491" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="6" t="s">
         <v>32</v>
       </c>
@@ -32005,7 +32011,7 @@
       <c r="T491" s="6"/>
       <c r="U491" s="6"/>
     </row>
-    <row r="492" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="6" t="s">
         <v>32</v>
       </c>
@@ -32048,7 +32054,7 @@
       <c r="T492" s="6"/>
       <c r="U492" s="6"/>
     </row>
-    <row r="493" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="6" t="s">
         <v>32</v>
       </c>
@@ -32091,7 +32097,7 @@
       <c r="T493" s="6"/>
       <c r="U493" s="6"/>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="6" t="s">
         <v>32</v>
       </c>
@@ -32134,7 +32140,7 @@
       <c r="T494" s="6"/>
       <c r="U494" s="6"/>
     </row>
-    <row r="495" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6" t="s">
         <v>32</v>
       </c>
@@ -32177,7 +32183,7 @@
       <c r="T495" s="6"/>
       <c r="U495" s="6"/>
     </row>
-    <row r="496" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="6" t="s">
         <v>32</v>
       </c>
@@ -32222,7 +32228,7 @@
       <c r="T496" s="6"/>
       <c r="U496" s="6"/>
     </row>
-    <row r="497" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="6" t="s">
         <v>32</v>
       </c>
@@ -32267,7 +32273,7 @@
       <c r="T497" s="6"/>
       <c r="U497" s="6"/>
     </row>
-    <row r="498" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="6" t="s">
         <v>32</v>
       </c>
@@ -32312,7 +32318,7 @@
       <c r="T498" s="6"/>
       <c r="U498" s="6"/>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="6" t="s">
         <v>32</v>
       </c>
@@ -32357,7 +32363,7 @@
       <c r="T499" s="6"/>
       <c r="U499" s="6"/>
     </row>
-    <row r="500" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="6" t="s">
         <v>32</v>
       </c>
@@ -32389,7 +32395,7 @@
         <v>163</v>
       </c>
       <c r="M500" s="47" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="N500" s="6"/>
       <c r="O500" s="6"/>
@@ -32404,7 +32410,7 @@
       <c r="T500" s="6"/>
       <c r="U500" s="6"/>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="6" t="s">
         <v>32</v>
       </c>
@@ -32449,7 +32455,7 @@
       <c r="T501" s="6"/>
       <c r="U501" s="6"/>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="6" t="s">
         <v>32</v>
       </c>
@@ -32494,7 +32500,7 @@
       <c r="T502" s="6"/>
       <c r="U502" s="6"/>
     </row>
-    <row r="503" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="6" t="s">
         <v>32</v>
       </c>
@@ -32539,7 +32545,7 @@
       <c r="T503" s="6"/>
       <c r="U503" s="6"/>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="6" t="s">
         <v>32</v>
       </c>
@@ -32584,7 +32590,7 @@
       <c r="T504" s="6"/>
       <c r="U504" s="6"/>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="6" t="s">
         <v>32</v>
       </c>
@@ -32629,7 +32635,7 @@
       <c r="T505" s="6"/>
       <c r="U505" s="6"/>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="6" t="s">
         <v>32</v>
       </c>
@@ -32674,7 +32680,7 @@
       <c r="T506" s="6"/>
       <c r="U506" s="6"/>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="6" t="s">
         <v>32</v>
       </c>
@@ -32719,7 +32725,7 @@
       <c r="T507" s="6"/>
       <c r="U507" s="6"/>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="6" t="s">
         <v>32</v>
       </c>
@@ -32764,7 +32770,7 @@
       <c r="T508" s="6"/>
       <c r="U508" s="6"/>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="6" t="s">
         <v>32</v>
       </c>
@@ -32809,7 +32815,7 @@
       <c r="T509" s="6"/>
       <c r="U509" s="6"/>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="6" t="s">
         <v>32</v>
       </c>
@@ -32854,7 +32860,7 @@
       <c r="T510" s="6"/>
       <c r="U510" s="6"/>
     </row>
-    <row r="511" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="6" t="s">
         <v>32</v>
       </c>
@@ -32899,7 +32905,7 @@
       <c r="T511" s="6"/>
       <c r="U511" s="6"/>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="6" t="s">
         <v>32</v>
       </c>
@@ -32944,7 +32950,7 @@
       <c r="T512" s="6"/>
       <c r="U512" s="6"/>
     </row>
-    <row r="513" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="6" t="s">
         <v>32</v>
       </c>
@@ -32987,7 +32993,7 @@
       <c r="T513" s="6"/>
       <c r="U513" s="6"/>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="6" t="s">
         <v>32</v>
       </c>
@@ -33030,7 +33036,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="6" t="s">
         <v>32</v>
       </c>
@@ -33073,7 +33079,7 @@
       <c r="T515" s="6"/>
       <c r="U515" s="6"/>
     </row>
-    <row r="516" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="6" t="s">
         <v>32</v>
       </c>
@@ -33118,7 +33124,7 @@
       <c r="T516" s="6"/>
       <c r="U516" s="6"/>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6" t="s">
         <v>32</v>
       </c>
@@ -33161,7 +33167,7 @@
       <c r="T517" s="6"/>
       <c r="U517" s="6"/>
     </row>
-    <row r="518" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6" t="s">
         <v>32</v>
       </c>
@@ -33208,7 +33214,7 @@
       <c r="T518" s="6"/>
       <c r="U518" s="6"/>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="6" t="s">
         <v>32</v>
       </c>
@@ -33253,7 +33259,7 @@
       <c r="T519" s="6"/>
       <c r="U519" s="6"/>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="6" t="s">
         <v>32</v>
       </c>
@@ -33296,7 +33302,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="6" t="s">
         <v>32</v>
       </c>
@@ -33335,7 +33341,7 @@
       <c r="T521" s="6"/>
       <c r="U521" s="6"/>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="6" t="s">
         <v>32</v>
       </c>
@@ -33380,7 +33386,7 @@
       <c r="T522" s="6"/>
       <c r="U522" s="6"/>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="6" t="s">
         <v>32</v>
       </c>
@@ -33425,7 +33431,7 @@
       <c r="T523" s="6"/>
       <c r="U523" s="6"/>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="6" t="s">
         <v>32</v>
       </c>
@@ -33468,7 +33474,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
     </row>
-    <row r="525" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="6" t="s">
         <v>32</v>
       </c>
@@ -33511,7 +33517,7 @@
       <c r="T525" s="6"/>
       <c r="U525" s="6"/>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="6" t="s">
         <v>32</v>
       </c>
@@ -33554,7 +33560,7 @@
       <c r="T526" s="6"/>
       <c r="U526" s="6"/>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="6" t="s">
         <v>32</v>
       </c>
@@ -33597,7 +33603,7 @@
       <c r="T527" s="6"/>
       <c r="U527" s="6"/>
     </row>
-    <row r="528" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="6" t="s">
         <v>32</v>
       </c>
@@ -33642,7 +33648,7 @@
       <c r="T528" s="6"/>
       <c r="U528" s="6"/>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="6" t="s">
         <v>32</v>
       </c>
@@ -33687,7 +33693,7 @@
       <c r="T529" s="6"/>
       <c r="U529" s="6"/>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="6" t="s">
         <v>32</v>
       </c>
@@ -33732,7 +33738,7 @@
       <c r="T530" s="6"/>
       <c r="U530" s="6"/>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="6" t="s">
         <v>32</v>
       </c>
@@ -33775,7 +33781,7 @@
       <c r="T531" s="6"/>
       <c r="U531" s="6"/>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="6" t="s">
         <v>32</v>
       </c>
@@ -33818,7 +33824,7 @@
       <c r="T532" s="6"/>
       <c r="U532" s="6"/>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="6" t="s">
         <v>32</v>
       </c>
@@ -33863,7 +33869,7 @@
       <c r="T533" s="6"/>
       <c r="U533" s="6"/>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="6" t="s">
         <v>32</v>
       </c>
@@ -33906,7 +33912,7 @@
       <c r="T534" s="6"/>
       <c r="U534" s="6"/>
     </row>
-    <row r="535" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="6" t="s">
         <v>32</v>
       </c>
@@ -33951,7 +33957,7 @@
       <c r="T535" s="6"/>
       <c r="U535" s="6"/>
     </row>
-    <row r="536" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="6" t="s">
         <v>32</v>
       </c>
@@ -33996,7 +34002,7 @@
       <c r="T536" s="6"/>
       <c r="U536" s="6"/>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="6" t="s">
         <v>32</v>
       </c>
@@ -34039,7 +34045,7 @@
       <c r="T537" s="6"/>
       <c r="U537" s="6"/>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="6" t="s">
         <v>32</v>
       </c>
@@ -34082,7 +34088,7 @@
       <c r="T538" s="6"/>
       <c r="U538" s="6"/>
     </row>
-    <row r="539" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6" t="s">
         <v>32</v>
       </c>
@@ -34127,7 +34133,7 @@
       <c r="T539" s="6"/>
       <c r="U539" s="6"/>
     </row>
-    <row r="540" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="6" t="s">
         <v>32</v>
       </c>
@@ -34172,7 +34178,7 @@
       <c r="T540" s="6"/>
       <c r="U540" s="6"/>
     </row>
-    <row r="541" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="6" t="s">
         <v>32</v>
       </c>
@@ -34215,7 +34221,7 @@
       <c r="T541" s="6"/>
       <c r="U541" s="6"/>
     </row>
-    <row r="542" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="6" t="s">
         <v>32</v>
       </c>
@@ -34260,7 +34266,7 @@
       <c r="T542" s="6"/>
       <c r="U542" s="6"/>
     </row>
-    <row r="543" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="6" t="s">
         <v>32</v>
       </c>
@@ -34305,7 +34311,7 @@
       <c r="T543" s="6"/>
       <c r="U543" s="6"/>
     </row>
-    <row r="544" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="6" t="s">
         <v>32</v>
       </c>
@@ -34350,7 +34356,7 @@
       <c r="T544" s="6"/>
       <c r="U544" s="6"/>
     </row>
-    <row r="545" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="6" t="s">
         <v>32</v>
       </c>
@@ -34395,7 +34401,7 @@
       <c r="T545" s="6"/>
       <c r="U545" s="6"/>
     </row>
-    <row r="546" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="6" t="s">
         <v>32</v>
       </c>
@@ -34438,7 +34444,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="6" t="s">
         <v>32</v>
       </c>
@@ -34481,7 +34487,7 @@
       <c r="T547" s="6"/>
       <c r="U547" s="6"/>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="6" t="s">
         <v>32</v>
       </c>
@@ -34524,7 +34530,7 @@
       <c r="T548" s="6"/>
       <c r="U548" s="6"/>
     </row>
-    <row r="549" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="6" t="s">
         <v>32</v>
       </c>
@@ -34567,7 +34573,7 @@
       <c r="T549" s="6"/>
       <c r="U549" s="6"/>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="6" t="s">
         <v>32</v>
       </c>
@@ -34610,7 +34616,7 @@
       <c r="T550" s="6"/>
       <c r="U550" s="6"/>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="6" t="s">
         <v>32</v>
       </c>
@@ -34653,7 +34659,7 @@
       <c r="T551" s="6"/>
       <c r="U551" s="6"/>
     </row>
-    <row r="552" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="6" t="s">
         <v>32</v>
       </c>
@@ -34698,7 +34704,7 @@
       <c r="T552" s="6"/>
       <c r="U552" s="6"/>
     </row>
-    <row r="553" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="6" t="s">
         <v>32</v>
       </c>
@@ -34741,7 +34747,7 @@
       <c r="T553" s="6"/>
       <c r="U553" s="6"/>
     </row>
-    <row r="554" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="6" t="s">
         <v>32</v>
       </c>
@@ -34784,7 +34790,7 @@
       <c r="T554" s="6"/>
       <c r="U554" s="6"/>
     </row>
-    <row r="555" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="6" t="s">
         <v>32</v>
       </c>
@@ -34827,7 +34833,7 @@
       <c r="T555" s="6"/>
       <c r="U555" s="6"/>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="6" t="s">
         <v>32</v>
       </c>
@@ -34870,7 +34876,7 @@
       <c r="T556" s="6"/>
       <c r="U556" s="6"/>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="6" t="s">
         <v>32</v>
       </c>
@@ -34913,7 +34919,7 @@
       <c r="T557" s="6"/>
       <c r="U557" s="6"/>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="6" t="s">
         <v>32</v>
       </c>
@@ -34956,7 +34962,7 @@
       <c r="T558" s="6"/>
       <c r="U558" s="6"/>
     </row>
-    <row r="559" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="6" t="s">
         <v>32</v>
       </c>
@@ -34999,7 +35005,7 @@
       <c r="T559" s="6"/>
       <c r="U559" s="6"/>
     </row>
-    <row r="560" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="6" t="s">
         <v>32</v>
       </c>
@@ -35042,7 +35048,7 @@
       <c r="T560" s="6"/>
       <c r="U560" s="6"/>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6" t="s">
         <v>32</v>
       </c>
@@ -35085,7 +35091,7 @@
       <c r="T561" s="6"/>
       <c r="U561" s="6"/>
     </row>
-    <row r="562" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="6" t="s">
         <v>32</v>
       </c>
@@ -35128,7 +35134,7 @@
       <c r="T562" s="6"/>
       <c r="U562" s="6"/>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="6" t="s">
         <v>32</v>
       </c>
@@ -35171,7 +35177,7 @@
       <c r="T563" s="6"/>
       <c r="U563" s="6"/>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="6" t="s">
         <v>32</v>
       </c>
@@ -35216,7 +35222,7 @@
       <c r="T564" s="6"/>
       <c r="U564" s="6"/>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="6" t="s">
         <v>32</v>
       </c>
@@ -35259,7 +35265,7 @@
       <c r="T565" s="6"/>
       <c r="U565" s="6"/>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="6" t="s">
         <v>32</v>
       </c>
@@ -35302,7 +35308,7 @@
       <c r="T566" s="6"/>
       <c r="U566" s="6"/>
     </row>
-    <row r="567" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="6" t="s">
         <v>32</v>
       </c>
@@ -35347,7 +35353,7 @@
       <c r="T567" s="6"/>
       <c r="U567" s="6"/>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="6" t="s">
         <v>32</v>
       </c>
@@ -35390,7 +35396,7 @@
       <c r="T568" s="6"/>
       <c r="U568" s="6"/>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="6" t="s">
         <v>32</v>
       </c>
@@ -35433,7 +35439,7 @@
       <c r="T569" s="6"/>
       <c r="U569" s="6"/>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="6" t="s">
         <v>32</v>
       </c>
@@ -35478,7 +35484,7 @@
       <c r="T570" s="6"/>
       <c r="U570" s="6"/>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="6" t="s">
         <v>32</v>
       </c>
@@ -35521,7 +35527,7 @@
       <c r="T571" s="6"/>
       <c r="U571" s="6"/>
     </row>
-    <row r="572" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="6" t="s">
         <v>32</v>
       </c>
@@ -35564,7 +35570,7 @@
       <c r="T572" s="6"/>
       <c r="U572" s="6"/>
     </row>
-    <row r="573" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="6" t="s">
         <v>32</v>
       </c>
@@ -35609,7 +35615,7 @@
       <c r="T573" s="6"/>
       <c r="U573" s="6"/>
     </row>
-    <row r="574" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="6" t="s">
         <v>32</v>
       </c>
@@ -35656,7 +35662,7 @@
       <c r="T574" s="6"/>
       <c r="U574" s="6"/>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="6" t="s">
         <v>32</v>
       </c>
@@ -35701,7 +35707,7 @@
       <c r="T575" s="6"/>
       <c r="U575" s="6"/>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="6" t="s">
         <v>32</v>
       </c>
@@ -35744,7 +35750,7 @@
       <c r="T576" s="6"/>
       <c r="U576" s="6"/>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="6" t="s">
         <v>32</v>
       </c>
@@ -35789,7 +35795,7 @@
       <c r="T577" s="6"/>
       <c r="U577" s="6"/>
     </row>
-    <row r="578" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="6" t="s">
         <v>32</v>
       </c>
@@ -35832,7 +35838,7 @@
       <c r="T578" s="6"/>
       <c r="U578" s="6"/>
     </row>
-    <row r="579" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="6" t="s">
         <v>32</v>
       </c>
@@ -35877,7 +35883,7 @@
       <c r="T579" s="6"/>
       <c r="U579" s="6"/>
     </row>
-    <row r="580" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="6" t="s">
         <v>32</v>
       </c>
@@ -35922,7 +35928,7 @@
       <c r="T580" s="6"/>
       <c r="U580" s="6"/>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="6" t="s">
         <v>32</v>
       </c>
@@ -35965,7 +35971,7 @@
       <c r="T581" s="6"/>
       <c r="U581" s="6"/>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="6" t="s">
         <v>32</v>
       </c>
@@ -36008,7 +36014,7 @@
       <c r="T582" s="6"/>
       <c r="U582" s="6"/>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6" t="s">
         <v>32</v>
       </c>
@@ -36051,7 +36057,7 @@
       <c r="T583" s="6"/>
       <c r="U583" s="6"/>
     </row>
-    <row r="584" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="6" t="s">
         <v>32</v>
       </c>
@@ -36094,7 +36100,7 @@
       <c r="T584" s="6"/>
       <c r="U584" s="6"/>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="6" t="s">
         <v>32</v>
       </c>
@@ -36137,7 +36143,7 @@
       <c r="T585" s="6"/>
       <c r="U585" s="6"/>
     </row>
-    <row r="586" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="6" t="s">
         <v>32</v>
       </c>
@@ -36180,7 +36186,7 @@
       <c r="T586" s="6"/>
       <c r="U586" s="6"/>
     </row>
-    <row r="587" spans="1:21" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:21" s="15" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="6" t="s">
         <v>32</v>
       </c>
@@ -36223,7 +36229,7 @@
       <c r="T587" s="6"/>
       <c r="U587" s="6"/>
     </row>
-    <row r="588" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="6" t="s">
         <v>32</v>
       </c>
@@ -36266,7 +36272,7 @@
       <c r="T588" s="6"/>
       <c r="U588" s="6"/>
     </row>
-    <row r="589" spans="1:21" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:21" s="15" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="6" t="s">
         <v>32</v>
       </c>
@@ -36309,7 +36315,7 @@
       <c r="T589" s="6"/>
       <c r="U589" s="6"/>
     </row>
-    <row r="590" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="6" t="s">
         <v>32</v>
       </c>
@@ -36352,7 +36358,7 @@
       <c r="T590" s="6"/>
       <c r="U590" s="6"/>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="6" t="s">
         <v>32</v>
       </c>
@@ -36395,7 +36401,7 @@
       <c r="T591" s="6"/>
       <c r="U591" s="6"/>
     </row>
-    <row r="592" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="6" t="s">
         <v>32</v>
       </c>
@@ -36438,7 +36444,7 @@
       <c r="T592" s="6"/>
       <c r="U592" s="6"/>
     </row>
-    <row r="593" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="6" t="s">
         <v>32</v>
       </c>
@@ -36481,7 +36487,7 @@
       <c r="T593" s="6"/>
       <c r="U593" s="6"/>
     </row>
-    <row r="594" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="6" t="s">
         <v>32</v>
       </c>
@@ -36524,7 +36530,7 @@
       <c r="T594" s="6"/>
       <c r="U594" s="6"/>
     </row>
-    <row r="595" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="6" t="s">
         <v>32</v>
       </c>
@@ -36567,7 +36573,7 @@
       <c r="T595" s="6"/>
       <c r="U595" s="6"/>
     </row>
-    <row r="596" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="6" t="s">
         <v>32</v>
       </c>
@@ -36610,7 +36616,7 @@
       <c r="T596" s="6"/>
       <c r="U596" s="6"/>
     </row>
-    <row r="597" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="6" t="s">
         <v>32</v>
       </c>
@@ -36653,7 +36659,7 @@
       <c r="T597" s="6"/>
       <c r="U597" s="6"/>
     </row>
-    <row r="598" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:21" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="6" t="s">
         <v>32</v>
       </c>
@@ -36737,7 +36743,7 @@
       <c r="T599" s="6"/>
       <c r="U599" s="6"/>
     </row>
-    <row r="600" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="6" t="s">
         <v>32</v>
       </c>
@@ -36780,7 +36786,7 @@
       <c r="T600" s="6"/>
       <c r="U600" s="6"/>
     </row>
-    <row r="601" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="6" t="s">
         <v>32</v>
       </c>
@@ -36821,7 +36827,7 @@
       <c r="T601" s="6"/>
       <c r="U601" s="6"/>
     </row>
-    <row r="602" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="6" t="s">
         <v>32</v>
       </c>
@@ -36864,7 +36870,7 @@
       <c r="T602" s="6"/>
       <c r="U602" s="6"/>
     </row>
-    <row r="603" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="6" t="s">
         <v>32</v>
       </c>
@@ -36909,7 +36915,7 @@
       <c r="T603" s="6"/>
       <c r="U603" s="6"/>
     </row>
-    <row r="604" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="6" t="s">
         <v>32</v>
       </c>
@@ -36950,7 +36956,7 @@
       <c r="T604" s="6"/>
       <c r="U604" s="6"/>
     </row>
-    <row r="605" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6" t="s">
         <v>32</v>
       </c>
@@ -36993,7 +36999,7 @@
       <c r="T605" s="6"/>
       <c r="U605" s="6"/>
     </row>
-    <row r="606" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="6" t="s">
         <v>32</v>
       </c>
@@ -37036,7 +37042,7 @@
       <c r="T606" s="6"/>
       <c r="U606" s="6"/>
     </row>
-    <row r="607" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="6" t="s">
         <v>32</v>
       </c>
@@ -37077,7 +37083,7 @@
       <c r="T607" s="6"/>
       <c r="U607" s="6"/>
     </row>
-    <row r="608" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="6" t="s">
         <v>32</v>
       </c>
@@ -37118,7 +37124,7 @@
       <c r="T608" s="6"/>
       <c r="U608" s="6"/>
     </row>
-    <row r="609" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="6" t="s">
         <v>32</v>
       </c>
@@ -37159,7 +37165,7 @@
       <c r="T609" s="6"/>
       <c r="U609" s="6"/>
     </row>
-    <row r="610" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="6" t="s">
         <v>32</v>
       </c>
@@ -37202,7 +37208,7 @@
       <c r="T610" s="6"/>
       <c r="U610" s="6"/>
     </row>
-    <row r="611" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="6" t="s">
         <v>32</v>
       </c>
@@ -37284,7 +37290,7 @@
       <c r="T612" s="6"/>
       <c r="U612" s="6"/>
     </row>
-    <row r="613" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="6" t="s">
         <v>32</v>
       </c>
@@ -37327,7 +37333,7 @@
       <c r="T613" s="6"/>
       <c r="U613" s="6"/>
     </row>
-    <row r="614" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="6" t="s">
         <v>32</v>
       </c>
@@ -37370,7 +37376,7 @@
       <c r="T614" s="6"/>
       <c r="U614" s="6"/>
     </row>
-    <row r="615" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="6" t="s">
         <v>32</v>
       </c>
@@ -37411,7 +37417,7 @@
       <c r="T615" s="6"/>
       <c r="U615" s="6"/>
     </row>
-    <row r="616" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="6" t="s">
         <v>32</v>
       </c>
@@ -37452,7 +37458,7 @@
       <c r="T616" s="6"/>
       <c r="U616" s="6"/>
     </row>
-    <row r="617" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="6" t="s">
         <v>32</v>
       </c>
@@ -37495,7 +37501,7 @@
       <c r="T617" s="6"/>
       <c r="U617" s="6"/>
     </row>
-    <row r="618" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="6" t="s">
         <v>32</v>
       </c>
@@ -37538,7 +37544,7 @@
       <c r="T618" s="6"/>
       <c r="U618" s="6"/>
     </row>
-    <row r="619" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="6" t="s">
         <v>32</v>
       </c>
@@ -37581,7 +37587,7 @@
       <c r="T619" s="6"/>
       <c r="U619" s="6"/>
     </row>
-    <row r="620" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="6" t="s">
         <v>32</v>
       </c>
@@ -37624,7 +37630,7 @@
       <c r="T620" s="6"/>
       <c r="U620" s="6"/>
     </row>
-    <row r="621" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="6" t="s">
         <v>32</v>
       </c>
@@ -37667,7 +37673,7 @@
       <c r="T621" s="6"/>
       <c r="U621" s="6"/>
     </row>
-    <row r="622" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="6" t="s">
         <v>32</v>
       </c>
@@ -37710,7 +37716,7 @@
       <c r="T622" s="6"/>
       <c r="U622" s="6"/>
     </row>
-    <row r="623" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="6" t="s">
         <v>32</v>
       </c>
@@ -37753,7 +37759,7 @@
       <c r="T623" s="6"/>
       <c r="U623" s="6"/>
     </row>
-    <row r="624" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="6" t="s">
         <v>32</v>
       </c>
@@ -37796,7 +37802,7 @@
       <c r="T624" s="6"/>
       <c r="U624" s="6"/>
     </row>
-    <row r="625" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="6" t="s">
         <v>32</v>
       </c>
@@ -37837,7 +37843,7 @@
       <c r="T625" s="6"/>
       <c r="U625" s="6"/>
     </row>
-    <row r="626" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="6" t="s">
         <v>32</v>
       </c>
@@ -37880,7 +37886,7 @@
       <c r="T626" s="6"/>
       <c r="U626" s="6"/>
     </row>
-    <row r="627" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6" t="s">
         <v>32</v>
       </c>
@@ -37923,7 +37929,7 @@
       <c r="T627" s="6"/>
       <c r="U627" s="6"/>
     </row>
-    <row r="628" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="6" t="s">
         <v>32</v>
       </c>
@@ -37966,7 +37972,7 @@
       <c r="T628" s="6"/>
       <c r="U628" s="6"/>
     </row>
-    <row r="629" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="6" t="s">
         <v>32</v>
       </c>
@@ -38009,7 +38015,7 @@
       <c r="T629" s="6"/>
       <c r="U629" s="6"/>
     </row>
-    <row r="630" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="6" t="s">
         <v>32</v>
       </c>
@@ -38052,7 +38058,7 @@
       <c r="T630" s="6"/>
       <c r="U630" s="6"/>
     </row>
-    <row r="631" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="6" t="s">
         <v>32</v>
       </c>
@@ -38093,7 +38099,7 @@
       <c r="T631" s="6"/>
       <c r="U631" s="6"/>
     </row>
-    <row r="632" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="6" t="s">
         <v>32</v>
       </c>
@@ -38136,7 +38142,7 @@
       <c r="T632" s="6"/>
       <c r="U632" s="6"/>
     </row>
-    <row r="633" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="6" t="s">
         <v>32</v>
       </c>
@@ -38177,7 +38183,7 @@
       <c r="T633" s="6"/>
       <c r="U633" s="6"/>
     </row>
-    <row r="634" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="6" t="s">
         <v>32</v>
       </c>
@@ -38218,7 +38224,7 @@
       <c r="T634" s="6"/>
       <c r="U634" s="6"/>
     </row>
-    <row r="635" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="6" t="s">
         <v>32</v>
       </c>
@@ -38261,7 +38267,7 @@
       <c r="T635" s="6"/>
       <c r="U635" s="6"/>
     </row>
-    <row r="636" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="6" t="s">
         <v>32</v>
       </c>
@@ -38304,7 +38310,7 @@
       <c r="T636" s="6"/>
       <c r="U636" s="6"/>
     </row>
-    <row r="637" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="6" t="s">
         <v>32</v>
       </c>
@@ -38347,7 +38353,7 @@
       <c r="T637" s="6"/>
       <c r="U637" s="6"/>
     </row>
-    <row r="638" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="6" t="s">
         <v>32</v>
       </c>
@@ -38392,7 +38398,7 @@
       <c r="T638" s="6"/>
       <c r="U638" s="6"/>
     </row>
-    <row r="639" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="6" t="s">
         <v>32</v>
       </c>
@@ -38433,7 +38439,7 @@
       <c r="T639" s="6"/>
       <c r="U639" s="6"/>
     </row>
-    <row r="640" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="6" t="s">
         <v>32</v>
       </c>
@@ -38474,7 +38480,7 @@
       <c r="T640" s="6"/>
       <c r="U640" s="6"/>
     </row>
-    <row r="641" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="6" t="s">
         <v>32</v>
       </c>
@@ -38515,7 +38521,7 @@
       <c r="T641" s="6"/>
       <c r="U641" s="6"/>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="6" t="s">
         <v>32</v>
       </c>
@@ -38556,7 +38562,7 @@
       <c r="T642" s="6"/>
       <c r="U642" s="6"/>
     </row>
-    <row r="643" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="6" t="s">
         <v>32</v>
       </c>
@@ -38597,7 +38603,7 @@
       <c r="T643" s="6"/>
       <c r="U643" s="6"/>
     </row>
-    <row r="644" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="6" t="s">
         <v>32</v>
       </c>
@@ -38638,7 +38644,7 @@
       <c r="T644" s="6"/>
       <c r="U644" s="6"/>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="6" t="s">
         <v>32</v>
       </c>
@@ -38679,7 +38685,7 @@
       <c r="T645" s="6"/>
       <c r="U645" s="6"/>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="6" t="s">
         <v>32</v>
       </c>
@@ -38720,7 +38726,7 @@
       <c r="T646" s="6"/>
       <c r="U646" s="6"/>
     </row>
-    <row r="647" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="6" t="s">
         <v>32</v>
       </c>
@@ -38761,7 +38767,7 @@
       <c r="T647" s="6"/>
       <c r="U647" s="6"/>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="6" t="s">
         <v>32</v>
       </c>
@@ -38802,7 +38808,7 @@
       <c r="T648" s="6"/>
       <c r="U648" s="6"/>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6" t="s">
         <v>32</v>
       </c>
@@ -38843,7 +38849,7 @@
       <c r="T649" s="6"/>
       <c r="U649" s="6"/>
     </row>
-    <row r="650" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="6" t="s">
         <v>32</v>
       </c>
@@ -38884,7 +38890,7 @@
       <c r="T650" s="6"/>
       <c r="U650" s="6"/>
     </row>
-    <row r="651" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="6" t="s">
         <v>32</v>
       </c>
@@ -38925,7 +38931,7 @@
       <c r="T651" s="6"/>
       <c r="U651" s="6"/>
     </row>
-    <row r="652" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="6" t="s">
         <v>32</v>
       </c>
@@ -38966,7 +38972,7 @@
       <c r="T652" s="6"/>
       <c r="U652" s="6"/>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="6" t="s">
         <v>32</v>
       </c>
@@ -39007,7 +39013,7 @@
       <c r="T653" s="6"/>
       <c r="U653" s="6"/>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="6" t="s">
         <v>32</v>
       </c>
@@ -39363,7 +39369,7 @@
       <c r="T663" s="6"/>
       <c r="U663" s="6"/>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="6" t="s">
         <v>32</v>
       </c>
@@ -39406,7 +39412,7 @@
       <c r="T664" s="6"/>
       <c r="U664" s="6"/>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="6" t="s">
         <v>32</v>
       </c>
@@ -39449,7 +39455,7 @@
       <c r="T665" s="6"/>
       <c r="U665" s="6"/>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="6" t="s">
         <v>32</v>
       </c>
@@ -39492,7 +39498,7 @@
       <c r="T666" s="6"/>
       <c r="U666" s="6"/>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="6" t="s">
         <v>32</v>
       </c>
@@ -39535,7 +39541,7 @@
       <c r="T667" s="6"/>
       <c r="U667" s="6"/>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="6" t="s">
         <v>32</v>
       </c>
@@ -39578,7 +39584,7 @@
       <c r="T668" s="6"/>
       <c r="U668" s="6"/>
     </row>
-    <row r="669" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="6" t="s">
         <v>32</v>
       </c>
@@ -39621,7 +39627,7 @@
       <c r="T669" s="6"/>
       <c r="U669" s="6"/>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="6" t="s">
         <v>32</v>
       </c>
@@ -39664,7 +39670,7 @@
       <c r="T670" s="6"/>
       <c r="U670" s="6"/>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6" t="s">
         <v>32</v>
       </c>
@@ -39707,7 +39713,7 @@
       <c r="T671" s="6"/>
       <c r="U671" s="6"/>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="6" t="s">
         <v>32</v>
       </c>
@@ -39750,7 +39756,7 @@
       <c r="T672" s="6"/>
       <c r="U672" s="6"/>
     </row>
-    <row r="673" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="6" t="s">
         <v>32</v>
       </c>
@@ -39793,7 +39799,7 @@
       <c r="T673" s="6"/>
       <c r="U673" s="6"/>
     </row>
-    <row r="674" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="6" t="s">
         <v>32</v>
       </c>
@@ -39836,7 +39842,7 @@
       <c r="T674" s="6"/>
       <c r="U674" s="6"/>
     </row>
-    <row r="675" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="6" t="s">
         <v>32</v>
       </c>
@@ -39887,19 +39893,19 @@
         <v>852</v>
       </c>
       <c r="C676" s="47" t="s">
-        <v>2610</v>
+        <v>2925</v>
       </c>
       <c r="D676" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E676" s="57" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="F676" s="62" t="s">
         <v>2600</v>
       </c>
-      <c r="G676" s="62" t="s">
-        <v>2601</v>
+      <c r="G676" s="77" t="s">
+        <v>2924</v>
       </c>
       <c r="H676" s="6"/>
       <c r="I676" s="6"/>
@@ -39922,7 +39928,7 @@
       <c r="T676" s="6"/>
       <c r="U676" s="6"/>
     </row>
-    <row r="677" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="6" t="s">
         <v>32</v>
       </c>
@@ -39963,7 +39969,7 @@
       <c r="T677" s="6"/>
       <c r="U677" s="6"/>
     </row>
-    <row r="678" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="6" t="s">
         <v>32</v>
       </c>
@@ -39971,17 +39977,17 @@
         <v>852</v>
       </c>
       <c r="C678" s="47" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D678" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E678" s="57"/>
       <c r="F678" s="62" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G678" s="62" t="s">
         <v>2603</v>
-      </c>
-      <c r="G678" s="62" t="s">
-        <v>2604</v>
       </c>
       <c r="H678" s="6"/>
       <c r="I678" s="6"/>
@@ -40004,7 +40010,7 @@
       <c r="T678" s="6"/>
       <c r="U678" s="6"/>
     </row>
-    <row r="679" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="6" t="s">
         <v>32</v>
       </c>
@@ -40012,14 +40018,14 @@
         <v>852</v>
       </c>
       <c r="C679" s="47" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D679" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E679" s="57"/>
       <c r="F679" s="62" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="G679" s="62" t="s">
         <v>2459</v>
@@ -40045,7 +40051,7 @@
       <c r="T679" s="6"/>
       <c r="U679" s="6"/>
     </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="6" t="s">
         <v>32</v>
       </c>
@@ -40053,17 +40059,17 @@
         <v>852</v>
       </c>
       <c r="C680" s="47" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D680" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E680" s="57"/>
       <c r="F680" s="62" t="s">
+        <v>2605</v>
+      </c>
+      <c r="G680" s="62" t="s">
         <v>2606</v>
-      </c>
-      <c r="G680" s="62" t="s">
-        <v>2607</v>
       </c>
       <c r="H680" s="6"/>
       <c r="I680" s="6"/>
@@ -40086,7 +40092,7 @@
       <c r="T680" s="6"/>
       <c r="U680" s="6"/>
     </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="6" t="s">
         <v>32</v>
       </c>
@@ -40094,17 +40100,17 @@
         <v>852</v>
       </c>
       <c r="C681" s="47" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="D681" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E681" s="57"/>
       <c r="F681" s="62" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G681" s="62" t="s">
         <v>2608</v>
-      </c>
-      <c r="G681" s="62" t="s">
-        <v>2609</v>
       </c>
       <c r="H681" s="6"/>
       <c r="I681" s="6"/>
@@ -40127,7 +40133,7 @@
       <c r="T681" s="6"/>
       <c r="U681" s="6"/>
     </row>
-    <row r="682" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="6" t="s">
         <v>32</v>
       </c>
@@ -40135,14 +40141,14 @@
         <v>852</v>
       </c>
       <c r="C682" s="47" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="D682" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E682" s="57"/>
       <c r="F682" s="62" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="G682" s="62" t="s">
         <v>1931</v>
@@ -40168,7 +40174,7 @@
       <c r="T682" s="6"/>
       <c r="U682" s="6"/>
     </row>
-    <row r="683" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="6" t="s">
         <v>32</v>
       </c>
@@ -40176,17 +40182,17 @@
         <v>852</v>
       </c>
       <c r="C683" s="47" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="D683" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E683" s="57"/>
       <c r="F683" s="62" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="G683" s="62" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="H683" s="6"/>
       <c r="I683" s="6"/>
@@ -40209,7 +40215,7 @@
       <c r="T683" s="6"/>
       <c r="U683" s="6"/>
     </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="6" t="s">
         <v>32</v>
       </c>
@@ -40217,17 +40223,17 @@
         <v>852</v>
       </c>
       <c r="C684" s="47" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="D684" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E684" s="57"/>
       <c r="F684" s="62" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="G684" s="62" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="H684" s="6"/>
       <c r="I684" s="6"/>
@@ -40250,7 +40256,7 @@
       <c r="T684" s="6"/>
       <c r="U684" s="6"/>
     </row>
-    <row r="685" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="6" t="s">
         <v>32</v>
       </c>
@@ -40258,17 +40264,17 @@
         <v>852</v>
       </c>
       <c r="C685" s="47" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D685" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E685" s="57"/>
       <c r="F685" s="62" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="G685" s="62" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="H685" s="6"/>
       <c r="I685" s="6"/>
@@ -40291,7 +40297,7 @@
       <c r="T685" s="6"/>
       <c r="U685" s="6"/>
     </row>
-    <row r="686" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="6" t="s">
         <v>32</v>
       </c>
@@ -40299,17 +40305,17 @@
         <v>852</v>
       </c>
       <c r="C686" s="47" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D686" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E686" s="57"/>
       <c r="F686" s="62" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="G686" s="62" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="H686" s="6"/>
       <c r="I686" s="6"/>
@@ -40332,7 +40338,7 @@
       <c r="T686" s="6"/>
       <c r="U686" s="6"/>
     </row>
-    <row r="687" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="6" t="s">
         <v>32</v>
       </c>
@@ -40340,14 +40346,14 @@
         <v>852</v>
       </c>
       <c r="C687" s="47" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="D687" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E687" s="57"/>
       <c r="F687" s="62" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="G687" s="62" t="s">
         <v>2333</v>
@@ -40373,7 +40379,7 @@
       <c r="T687" s="6"/>
       <c r="U687" s="6"/>
     </row>
-    <row r="688" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="6" t="s">
         <v>32</v>
       </c>
@@ -40381,17 +40387,17 @@
         <v>852</v>
       </c>
       <c r="C688" s="47" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="D688" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E688" s="57"/>
       <c r="F688" s="62" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="G688" s="62" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="H688" s="6"/>
       <c r="I688" s="6"/>
@@ -40414,7 +40420,7 @@
       <c r="T688" s="6"/>
       <c r="U688" s="6"/>
     </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="6" t="s">
         <v>32</v>
       </c>
@@ -40422,17 +40428,17 @@
         <v>852</v>
       </c>
       <c r="C689" s="47" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="D689" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E689" s="57"/>
       <c r="F689" s="62" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="G689" s="62" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="H689" s="6"/>
       <c r="I689" s="6"/>
@@ -40455,7 +40461,7 @@
       <c r="T689" s="6"/>
       <c r="U689" s="6"/>
     </row>
-    <row r="690" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="6" t="s">
         <v>32</v>
       </c>
@@ -40463,17 +40469,17 @@
         <v>852</v>
       </c>
       <c r="C690" s="47" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="D690" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E690" s="57"/>
       <c r="F690" s="62" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="G690" s="62" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="H690" s="6"/>
       <c r="I690" s="6"/>
@@ -40496,7 +40502,7 @@
       <c r="T690" s="6"/>
       <c r="U690" s="6"/>
     </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="6" t="s">
         <v>32</v>
       </c>
@@ -40504,17 +40510,17 @@
         <v>852</v>
       </c>
       <c r="C691" s="47" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="D691" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E691" s="57"/>
       <c r="F691" s="62" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="G691" s="62" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="H691" s="6"/>
       <c r="I691" s="6"/>
@@ -40537,7 +40543,7 @@
       <c r="T691" s="6"/>
       <c r="U691" s="6"/>
     </row>
-    <row r="692" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="6" t="s">
         <v>32</v>
       </c>
@@ -40545,14 +40551,14 @@
         <v>852</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="D692" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E692" s="57"/>
       <c r="F692" s="62" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="G692" s="62" t="s">
         <v>2331</v>
@@ -40578,7 +40584,7 @@
       <c r="T692" s="6"/>
       <c r="U692" s="6"/>
     </row>
-    <row r="693" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6" t="s">
         <v>32</v>
       </c>
@@ -40586,17 +40592,17 @@
         <v>852</v>
       </c>
       <c r="C693" s="47" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="D693" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E693" s="57"/>
       <c r="F693" s="62" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="G693" s="62" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="H693" s="6"/>
       <c r="I693" s="6"/>
@@ -40619,7 +40625,7 @@
       <c r="T693" s="6"/>
       <c r="U693" s="6"/>
     </row>
-    <row r="694" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="6" t="s">
         <v>32</v>
       </c>
@@ -40627,17 +40633,17 @@
         <v>852</v>
       </c>
       <c r="C694" s="47" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="D694" s="72" t="s">
         <v>1579</v>
       </c>
       <c r="E694" s="57"/>
       <c r="F694" s="62" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="G694" s="62" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="H694" s="6"/>
       <c r="I694" s="6"/>
@@ -40660,7 +40666,7 @@
       <c r="T694" s="6"/>
       <c r="U694" s="6"/>
     </row>
-    <row r="695" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="6" t="s">
         <v>32</v>
       </c>
@@ -40668,16 +40674,16 @@
         <v>919</v>
       </c>
       <c r="C695" s="47" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D695" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E695" s="37" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="F695" s="63" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="G695" s="63" t="s">
         <v>1662</v>
@@ -40703,7 +40709,7 @@
       <c r="T695" s="6"/>
       <c r="U695" s="6"/>
     </row>
-    <row r="696" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="6" t="s">
         <v>32</v>
       </c>
@@ -40711,17 +40717,17 @@
         <v>919</v>
       </c>
       <c r="C696" s="47" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="D696" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E696" s="57"/>
       <c r="F696" s="63" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="G696" s="63" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="H696" s="6"/>
       <c r="I696" s="6"/>
@@ -40744,7 +40750,7 @@
       <c r="T696" s="6"/>
       <c r="U696" s="6"/>
     </row>
-    <row r="697" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="6" t="s">
         <v>32</v>
       </c>
@@ -40752,17 +40758,17 @@
         <v>919</v>
       </c>
       <c r="C697" s="47" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="D697" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E697" s="57"/>
       <c r="F697" s="63" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="G697" s="63" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="H697" s="6"/>
       <c r="I697" s="6"/>
@@ -40785,7 +40791,7 @@
       <c r="T697" s="6"/>
       <c r="U697" s="6"/>
     </row>
-    <row r="698" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="6" t="s">
         <v>32</v>
       </c>
@@ -40793,17 +40799,17 @@
         <v>919</v>
       </c>
       <c r="C698" s="47" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="D698" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E698" s="57"/>
       <c r="F698" s="63" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="G698" s="63" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="H698" s="6"/>
       <c r="I698" s="6"/>
@@ -40826,7 +40832,7 @@
       <c r="T698" s="6"/>
       <c r="U698" s="6"/>
     </row>
-    <row r="699" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="6" t="s">
         <v>32</v>
       </c>
@@ -40834,14 +40840,14 @@
         <v>919</v>
       </c>
       <c r="C699" s="47" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="D699" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E699" s="57"/>
       <c r="F699" s="63" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="G699" s="63" t="s">
         <v>2455</v>
@@ -40867,7 +40873,7 @@
       <c r="T699" s="6"/>
       <c r="U699" s="6"/>
     </row>
-    <row r="700" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="6" t="s">
         <v>32</v>
       </c>
@@ -40875,14 +40881,14 @@
         <v>919</v>
       </c>
       <c r="C700" s="47" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="D700" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E700" s="57"/>
       <c r="F700" s="63" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="G700" s="63" t="s">
         <v>2086</v>
@@ -40908,7 +40914,7 @@
       <c r="T700" s="6"/>
       <c r="U700" s="6"/>
     </row>
-    <row r="701" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="6" t="s">
         <v>32</v>
       </c>
@@ -40916,17 +40922,17 @@
         <v>919</v>
       </c>
       <c r="C701" s="47" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="D701" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E701" s="57"/>
       <c r="F701" s="63" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="G701" s="63" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="H701" s="6"/>
       <c r="I701" s="6"/>
@@ -40949,7 +40955,7 @@
       <c r="T701" s="6"/>
       <c r="U701" s="6"/>
     </row>
-    <row r="702" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="6" t="s">
         <v>32</v>
       </c>
@@ -40957,14 +40963,14 @@
         <v>919</v>
       </c>
       <c r="C702" s="47" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="D702" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E702" s="57"/>
       <c r="F702" s="63" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="G702" s="63" t="s">
         <v>1604</v>
@@ -40990,7 +40996,7 @@
       <c r="T702" s="6"/>
       <c r="U702" s="6"/>
     </row>
-    <row r="703" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="6" t="s">
         <v>32</v>
       </c>
@@ -40998,14 +41004,14 @@
         <v>919</v>
       </c>
       <c r="C703" s="47" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="D703" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E703" s="57"/>
       <c r="F703" s="63" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="G703" s="63" t="s">
         <v>2234</v>
@@ -41031,7 +41037,7 @@
       <c r="T703" s="6"/>
       <c r="U703" s="6"/>
     </row>
-    <row r="704" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="6" t="s">
         <v>32</v>
       </c>
@@ -41039,14 +41045,14 @@
         <v>919</v>
       </c>
       <c r="C704" s="47" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="D704" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E704" s="57"/>
       <c r="F704" s="63" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="G704" s="63" t="s">
         <v>1972</v>
@@ -41072,7 +41078,7 @@
       <c r="T704" s="6"/>
       <c r="U704" s="6"/>
     </row>
-    <row r="705" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="6" t="s">
         <v>32</v>
       </c>
@@ -41080,17 +41086,17 @@
         <v>919</v>
       </c>
       <c r="C705" s="47" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="D705" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E705" s="57"/>
       <c r="F705" s="63" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="G705" s="63" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="H705" s="6"/>
       <c r="I705" s="6"/>
@@ -41113,7 +41119,7 @@
       <c r="T705" s="6"/>
       <c r="U705" s="6"/>
     </row>
-    <row r="706" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="6" t="s">
         <v>32</v>
       </c>
@@ -41128,7 +41134,7 @@
       </c>
       <c r="E706" s="57"/>
       <c r="F706" s="63" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="G706" s="63" t="s">
         <v>1666</v>
@@ -41154,7 +41160,7 @@
       <c r="T706" s="6"/>
       <c r="U706" s="6"/>
     </row>
-    <row r="707" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="6" t="s">
         <v>32</v>
       </c>
@@ -41162,16 +41168,16 @@
         <v>536</v>
       </c>
       <c r="C707" s="47" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="D707" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E707" s="57" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="F707" s="64" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="G707" s="64" t="s">
         <v>1989</v>
@@ -41199,7 +41205,7 @@
       <c r="T707" s="6"/>
       <c r="U707" s="6"/>
     </row>
-    <row r="708" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="6" t="s">
         <v>32</v>
       </c>
@@ -41207,14 +41213,14 @@
         <v>536</v>
       </c>
       <c r="C708" s="47" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="D708" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E708" s="57"/>
       <c r="F708" s="64" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="G708" s="64" t="s">
         <v>1989</v>
@@ -41242,7 +41248,7 @@
       <c r="T708" s="6"/>
       <c r="U708" s="6"/>
     </row>
-    <row r="709" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="6" t="s">
         <v>32</v>
       </c>
@@ -41250,14 +41256,14 @@
         <v>536</v>
       </c>
       <c r="C709" s="47" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="D709" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E709" s="57"/>
       <c r="F709" s="64" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="G709" s="64" t="s">
         <v>2186</v>
@@ -41285,7 +41291,7 @@
       <c r="T709" s="6"/>
       <c r="U709" s="6"/>
     </row>
-    <row r="710" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="6" t="s">
         <v>32</v>
       </c>
@@ -41293,14 +41299,14 @@
         <v>536</v>
       </c>
       <c r="C710" s="47" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="D710" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E710" s="57"/>
       <c r="F710" s="64" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="G710" s="64" t="s">
         <v>1790</v>
@@ -41328,7 +41334,7 @@
       <c r="T710" s="6"/>
       <c r="U710" s="6"/>
     </row>
-    <row r="711" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="6" t="s">
         <v>32</v>
       </c>
@@ -41336,17 +41342,17 @@
         <v>536</v>
       </c>
       <c r="C711" s="47" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="D711" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E711" s="57"/>
       <c r="F711" s="64" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="G711" s="64" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
@@ -41369,7 +41375,7 @@
       <c r="T711" s="6"/>
       <c r="U711" s="6"/>
     </row>
-    <row r="712" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="6" t="s">
         <v>32</v>
       </c>
@@ -41410,7 +41416,7 @@
       <c r="T712" s="6"/>
       <c r="U712" s="6"/>
     </row>
-    <row r="713" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="6" t="s">
         <v>32</v>
       </c>
@@ -41418,14 +41424,14 @@
         <v>536</v>
       </c>
       <c r="C713" s="47" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="D713" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E713" s="57"/>
       <c r="F713" s="64" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="G713" s="64" t="s">
         <v>2090</v>
@@ -41451,7 +41457,7 @@
       <c r="T713" s="6"/>
       <c r="U713" s="6"/>
     </row>
-    <row r="714" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="6" t="s">
         <v>32</v>
       </c>
@@ -41459,14 +41465,14 @@
         <v>536</v>
       </c>
       <c r="C714" s="47" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="D714" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E714" s="57"/>
       <c r="F714" s="64" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="G714" s="64" t="s">
         <v>1598</v>
@@ -41494,7 +41500,7 @@
       <c r="T714" s="6"/>
       <c r="U714" s="6"/>
     </row>
-    <row r="715" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6" t="s">
         <v>32</v>
       </c>
@@ -41502,14 +41508,14 @@
         <v>536</v>
       </c>
       <c r="C715" s="47" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="D715" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E715" s="57"/>
       <c r="F715" s="64" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="G715" s="64" t="s">
         <v>2088</v>
@@ -41537,7 +41543,7 @@
       <c r="T715" s="6"/>
       <c r="U715" s="6"/>
     </row>
-    <row r="716" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="6" t="s">
         <v>32</v>
       </c>
@@ -41545,17 +41551,17 @@
         <v>536</v>
       </c>
       <c r="C716" s="47" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="D716" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E716" s="57"/>
       <c r="F716" s="64" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="G716" s="64" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
@@ -41578,7 +41584,7 @@
       <c r="T716" s="6"/>
       <c r="U716" s="6"/>
     </row>
-    <row r="717" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="6" t="s">
         <v>32</v>
       </c>
@@ -41586,14 +41592,14 @@
         <v>536</v>
       </c>
       <c r="C717" s="47" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="D717" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E717" s="57"/>
       <c r="F717" s="64" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="G717" s="64" t="s">
         <v>1795</v>
@@ -41621,7 +41627,7 @@
       <c r="T717" s="6"/>
       <c r="U717" s="6"/>
     </row>
-    <row r="718" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="6" t="s">
         <v>32</v>
       </c>
@@ -41629,17 +41635,17 @@
         <v>536</v>
       </c>
       <c r="C718" s="47" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="D718" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E718" s="57"/>
       <c r="F718" s="64" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="G718" s="64" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="H718" s="6" t="s">
         <v>2079</v>
@@ -41664,7 +41670,7 @@
       <c r="T718" s="6"/>
       <c r="U718" s="6"/>
     </row>
-    <row r="719" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="6" t="s">
         <v>32</v>
       </c>
@@ -41672,17 +41678,17 @@
         <v>536</v>
       </c>
       <c r="C719" s="47" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="D719" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E719" s="57"/>
       <c r="F719" s="64" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="G719" s="64" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="H719" s="6" t="s">
         <v>2080</v>
@@ -41707,7 +41713,7 @@
       <c r="T719" s="6"/>
       <c r="U719" s="6"/>
     </row>
-    <row r="720" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="6" t="s">
         <v>32</v>
       </c>
@@ -41715,17 +41721,17 @@
         <v>536</v>
       </c>
       <c r="C720" s="47" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="D720" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E720" s="57"/>
       <c r="F720" s="64" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="G720" s="64" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="H720" s="6" t="s">
         <v>2077</v>
@@ -41750,7 +41756,7 @@
       <c r="T720" s="6"/>
       <c r="U720" s="6"/>
     </row>
-    <row r="721" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="6" t="s">
         <v>32</v>
       </c>
@@ -41758,14 +41764,14 @@
         <v>536</v>
       </c>
       <c r="C721" s="47" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="D721" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E721" s="57"/>
       <c r="F721" s="64" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="G721" s="64" t="s">
         <v>2118</v>
@@ -41793,7 +41799,7 @@
       <c r="T721" s="6"/>
       <c r="U721" s="6"/>
     </row>
-    <row r="722" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="6" t="s">
         <v>32</v>
       </c>
@@ -41801,17 +41807,17 @@
         <v>536</v>
       </c>
       <c r="C722" s="47" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="D722" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E722" s="57"/>
       <c r="F722" s="64" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="G722" s="64" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="H722" s="6"/>
       <c r="I722" s="6"/>
@@ -41834,7 +41840,7 @@
       <c r="T722" s="6"/>
       <c r="U722" s="6"/>
     </row>
-    <row r="723" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:21" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6" t="s">
         <v>32</v>
       </c>
@@ -41842,17 +41848,17 @@
         <v>536</v>
       </c>
       <c r="C723" s="47" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="D723" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E723" s="57"/>
       <c r="F723" s="64" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="G723" s="64" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="H723" s="6"/>
       <c r="I723" s="6"/>
@@ -41875,7 +41881,7 @@
       <c r="T723" s="6"/>
       <c r="U723" s="6"/>
     </row>
-    <row r="724" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="6" t="s">
         <v>32</v>
       </c>
@@ -41883,14 +41889,14 @@
         <v>536</v>
       </c>
       <c r="C724" s="47" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="D724" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E724" s="57"/>
       <c r="F724" s="64" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="G724" s="64" t="s">
         <v>2082</v>
@@ -41916,7 +41922,7 @@
       <c r="T724" s="6"/>
       <c r="U724" s="6"/>
     </row>
-    <row r="725" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="6" t="s">
         <v>32</v>
       </c>
@@ -41957,7 +41963,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
     </row>
-    <row r="726" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="6" t="s">
         <v>32</v>
       </c>
@@ -41965,14 +41971,14 @@
         <v>536</v>
       </c>
       <c r="C726" s="47" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="D726" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E726" s="57"/>
       <c r="F726" s="64" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="G726" s="64" t="s">
         <v>2318</v>
@@ -42000,7 +42006,7 @@
       <c r="T726" s="6"/>
       <c r="U726" s="6"/>
     </row>
-    <row r="727" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="6" t="s">
         <v>32</v>
       </c>
@@ -42008,14 +42014,14 @@
         <v>536</v>
       </c>
       <c r="C727" s="47" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="D727" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E727" s="57"/>
       <c r="F727" s="64" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="G727" s="64" t="s">
         <v>2455</v>
@@ -42043,7 +42049,7 @@
       <c r="T727" s="6"/>
       <c r="U727" s="6"/>
     </row>
-    <row r="728" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="6" t="s">
         <v>32</v>
       </c>
@@ -42086,7 +42092,7 @@
       <c r="T728" s="6"/>
       <c r="U728" s="6"/>
     </row>
-    <row r="729" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="6" t="s">
         <v>32</v>
       </c>
@@ -42129,7 +42135,7 @@
       <c r="T729" s="6"/>
       <c r="U729" s="6"/>
     </row>
-    <row r="730" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="6" t="s">
         <v>32</v>
       </c>
@@ -42137,17 +42143,17 @@
         <v>536</v>
       </c>
       <c r="C730" s="47" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D730" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E730" s="57"/>
       <c r="F730" s="64" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="G730" s="64" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="H730" s="6" t="s">
         <v>2187</v>
@@ -42172,7 +42178,7 @@
       <c r="T730" s="6"/>
       <c r="U730" s="6"/>
     </row>
-    <row r="731" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="6" t="s">
         <v>32</v>
       </c>
@@ -42180,7 +42186,7 @@
         <v>536</v>
       </c>
       <c r="C731" s="47" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="D731" s="47" t="s">
         <v>1579</v>
@@ -42190,7 +42196,7 @@
         <v>2238</v>
       </c>
       <c r="G731" s="64" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="H731" s="6" t="s">
         <v>2080</v>
@@ -42215,7 +42221,7 @@
       <c r="T731" s="6"/>
       <c r="U731" s="6"/>
     </row>
-    <row r="732" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="6" t="s">
         <v>32</v>
       </c>
@@ -42256,7 +42262,7 @@
       <c r="T732" s="6"/>
       <c r="U732" s="6"/>
     </row>
-    <row r="733" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="6" t="s">
         <v>32</v>
       </c>
@@ -42264,17 +42270,17 @@
         <v>536</v>
       </c>
       <c r="C733" s="47" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="D733" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E733" s="57"/>
       <c r="F733" s="64" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="G733" s="64" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
@@ -42297,7 +42303,7 @@
       <c r="T733" s="6"/>
       <c r="U733" s="6"/>
     </row>
-    <row r="734" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="6" t="s">
         <v>32</v>
       </c>
@@ -42305,17 +42311,17 @@
         <v>536</v>
       </c>
       <c r="C734" s="47" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="D734" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E734" s="57"/>
       <c r="F734" s="64" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="G734" s="64" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="H734" s="6"/>
       <c r="I734" s="6"/>
@@ -42338,7 +42344,7 @@
       <c r="T734" s="6"/>
       <c r="U734" s="6"/>
     </row>
-    <row r="735" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="6" t="s">
         <v>32</v>
       </c>
@@ -42346,14 +42352,14 @@
         <v>536</v>
       </c>
       <c r="C735" s="47" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="D735" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E735" s="57"/>
       <c r="F735" s="64" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="G735" s="64" t="s">
         <v>2570</v>
@@ -42379,7 +42385,7 @@
       <c r="T735" s="6"/>
       <c r="U735" s="6"/>
     </row>
-    <row r="736" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="6" t="s">
         <v>32</v>
       </c>
@@ -42387,14 +42393,14 @@
         <v>536</v>
       </c>
       <c r="C736" s="47" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="D736" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E736" s="57"/>
       <c r="F736" s="64" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="G736" s="64" t="s">
         <v>2455</v>
@@ -42420,7 +42426,7 @@
       <c r="T736" s="6"/>
       <c r="U736" s="6"/>
     </row>
-    <row r="737" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6" t="s">
         <v>32</v>
       </c>
@@ -42428,17 +42434,17 @@
         <v>536</v>
       </c>
       <c r="C737" s="47" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="D737" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E737" s="57"/>
       <c r="F737" s="64" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="G737" s="64" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="H737" s="6"/>
       <c r="I737" s="6"/>
@@ -42461,7 +42467,7 @@
       <c r="T737" s="6"/>
       <c r="U737" s="6"/>
     </row>
-    <row r="738" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="6" t="s">
         <v>32</v>
       </c>
@@ -42469,17 +42475,17 @@
         <v>536</v>
       </c>
       <c r="C738" s="47" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="D738" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E738" s="57"/>
       <c r="F738" s="64" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="G738" s="64" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="H738" s="6"/>
       <c r="I738" s="6"/>
@@ -42502,7 +42508,7 @@
       <c r="T738" s="6"/>
       <c r="U738" s="6"/>
     </row>
-    <row r="739" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="6" t="s">
         <v>32</v>
       </c>
@@ -42510,14 +42516,14 @@
         <v>536</v>
       </c>
       <c r="C739" s="47" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="D739" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E739" s="57"/>
       <c r="F739" s="64" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="G739" s="64" t="s">
         <v>1813</v>
@@ -42545,7 +42551,7 @@
       <c r="T739" s="6"/>
       <c r="U739" s="6"/>
     </row>
-    <row r="740" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="6" t="s">
         <v>32</v>
       </c>
@@ -42586,7 +42592,7 @@
       <c r="T740" s="6"/>
       <c r="U740" s="6"/>
     </row>
-    <row r="741" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="6" t="s">
         <v>32</v>
       </c>
@@ -42594,14 +42600,14 @@
         <v>499</v>
       </c>
       <c r="C741" s="47" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="D741" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E741" s="57"/>
       <c r="F741" s="67" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="G741" s="67" t="s">
         <v>1594</v>
@@ -42627,7 +42633,7 @@
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
     </row>
-    <row r="742" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="6" t="s">
         <v>32</v>
       </c>
@@ -42635,14 +42641,14 @@
         <v>499</v>
       </c>
       <c r="C742" s="47" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="D742" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E742" s="57"/>
       <c r="F742" s="67" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="G742" s="67" t="s">
         <v>2130</v>
@@ -42668,7 +42674,7 @@
       <c r="T742" s="6"/>
       <c r="U742" s="6"/>
     </row>
-    <row r="743" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="6" t="s">
         <v>32</v>
       </c>
@@ -42676,17 +42682,17 @@
         <v>499</v>
       </c>
       <c r="C743" s="47" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="D743" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E743" s="57"/>
       <c r="F743" s="67" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="G743" s="67" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="H743" s="6"/>
       <c r="I743" s="6"/>
@@ -42709,7 +42715,7 @@
       <c r="T743" s="6"/>
       <c r="U743" s="6"/>
     </row>
-    <row r="744" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="6" t="s">
         <v>32</v>
       </c>
@@ -42717,14 +42723,14 @@
         <v>499</v>
       </c>
       <c r="C744" s="47" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D744" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E744" s="57"/>
       <c r="F744" s="67" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="G744" s="67" t="s">
         <v>2369</v>
@@ -42750,7 +42756,7 @@
       <c r="T744" s="6"/>
       <c r="U744" s="6"/>
     </row>
-    <row r="745" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="6" t="s">
         <v>32</v>
       </c>
@@ -42758,14 +42764,14 @@
         <v>499</v>
       </c>
       <c r="C745" s="47" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="D745" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E745" s="57"/>
       <c r="F745" s="67" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="G745" s="67" t="s">
         <v>1790</v>
@@ -42791,7 +42797,7 @@
       <c r="T745" s="6"/>
       <c r="U745" s="6"/>
     </row>
-    <row r="746" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="6" t="s">
         <v>32</v>
       </c>
@@ -42832,7 +42838,7 @@
       <c r="T746" s="6"/>
       <c r="U746" s="6"/>
     </row>
-    <row r="747" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="6" t="s">
         <v>32</v>
       </c>
@@ -42840,17 +42846,17 @@
         <v>499</v>
       </c>
       <c r="C747" s="47" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="D747" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E747" s="57"/>
       <c r="F747" s="67" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="G747" s="67" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="H747" s="6"/>
       <c r="I747" s="6"/>
@@ -42869,7 +42875,7 @@
       <c r="T747" s="6"/>
       <c r="U747" s="6"/>
     </row>
-    <row r="748" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="6" t="s">
         <v>32</v>
       </c>
@@ -42877,17 +42883,17 @@
         <v>499</v>
       </c>
       <c r="C748" s="47" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="D748" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E748" s="57"/>
       <c r="F748" s="67" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="G748" s="67" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="H748" s="6"/>
       <c r="I748" s="6"/>
@@ -42910,7 +42916,7 @@
       <c r="T748" s="6"/>
       <c r="U748" s="6"/>
     </row>
-    <row r="749" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="6" t="s">
         <v>32</v>
       </c>
@@ -42918,17 +42924,17 @@
         <v>499</v>
       </c>
       <c r="C749" s="47" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="D749" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E749" s="57"/>
       <c r="F749" s="67" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="G749" s="67" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="H749" s="6"/>
       <c r="I749" s="6"/>
@@ -42951,7 +42957,7 @@
       <c r="T749" s="6"/>
       <c r="U749" s="6"/>
     </row>
-    <row r="750" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="6" t="s">
         <v>32</v>
       </c>
@@ -42992,7 +42998,7 @@
       <c r="T750" s="6"/>
       <c r="U750" s="6"/>
     </row>
-    <row r="751" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="6" t="s">
         <v>32</v>
       </c>
@@ -43000,14 +43006,14 @@
         <v>499</v>
       </c>
       <c r="C751" s="47" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="D751" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E751" s="57"/>
       <c r="F751" s="67" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="G751" s="67" t="s">
         <v>2453</v>
@@ -43033,7 +43039,7 @@
       <c r="T751" s="6"/>
       <c r="U751" s="6"/>
     </row>
-    <row r="752" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="6" t="s">
         <v>32</v>
       </c>
@@ -43041,14 +43047,14 @@
         <v>499</v>
       </c>
       <c r="C752" s="47" t="s">
-        <v>2770</v>
+        <v>2923</v>
       </c>
       <c r="D752" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E752" s="57"/>
       <c r="F752" s="67" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="G752" s="67" t="s">
         <v>2568</v>
@@ -43063,14 +43069,18 @@
       </c>
       <c r="N752" s="6"/>
       <c r="O752" s="6"/>
-      <c r="P752" s="6"/>
-      <c r="Q752" s="6"/>
+      <c r="P752" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q752" s="6" t="s">
+        <v>871</v>
+      </c>
       <c r="R752" s="6"/>
       <c r="S752" s="6"/>
       <c r="T752" s="6"/>
       <c r="U752" s="6"/>
     </row>
-    <row r="753" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="6" t="s">
         <v>32</v>
       </c>
@@ -43078,14 +43088,14 @@
         <v>33</v>
       </c>
       <c r="C753" s="47" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="D753" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E753" s="57"/>
       <c r="F753" s="47" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="G753" s="47" t="s">
         <v>2453</v>
@@ -43111,7 +43121,7 @@
       <c r="T753" s="6"/>
       <c r="U753" s="6"/>
     </row>
-    <row r="754" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="6" t="s">
         <v>32</v>
       </c>
@@ -43119,14 +43129,14 @@
         <v>33</v>
       </c>
       <c r="C754" s="47" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="D754" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E754" s="57"/>
       <c r="F754" s="47" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="G754" s="47" t="s">
         <v>2234</v>
@@ -43152,7 +43162,7 @@
       <c r="T754" s="6"/>
       <c r="U754" s="6"/>
     </row>
-    <row r="755" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="6" t="s">
         <v>32</v>
       </c>
@@ -43160,14 +43170,14 @@
         <v>33</v>
       </c>
       <c r="C755" s="47" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="D755" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E755" s="57"/>
       <c r="F755" s="47" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="G755" s="47" t="s">
         <v>1790</v>
@@ -43193,7 +43203,7 @@
       <c r="T755" s="6"/>
       <c r="U755" s="6"/>
     </row>
-    <row r="756" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="6" t="s">
         <v>32</v>
       </c>
@@ -43234,7 +43244,7 @@
       <c r="T756" s="6"/>
       <c r="U756" s="6"/>
     </row>
-    <row r="757" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="6" t="s">
         <v>32</v>
       </c>
@@ -43242,14 +43252,14 @@
         <v>33</v>
       </c>
       <c r="C757" s="47" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="D757" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E757" s="57"/>
       <c r="F757" s="47" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="G757" s="47" t="s">
         <v>2084</v>
@@ -43275,7 +43285,7 @@
       <c r="T757" s="6"/>
       <c r="U757" s="6"/>
     </row>
-    <row r="758" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="6" t="s">
         <v>32</v>
       </c>
@@ -43283,7 +43293,7 @@
         <v>33</v>
       </c>
       <c r="C758" s="47" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="D758" s="47" t="s">
         <v>1579</v>
@@ -43293,7 +43303,7 @@
         <v>2396</v>
       </c>
       <c r="G758" s="47" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="H758" s="6"/>
       <c r="I758" s="6"/>
@@ -43316,7 +43326,7 @@
       <c r="T758" s="6"/>
       <c r="U758" s="6"/>
     </row>
-    <row r="759" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6" t="s">
         <v>32</v>
       </c>
@@ -43324,17 +43334,17 @@
         <v>33</v>
       </c>
       <c r="C759" s="47" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="D759" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E759" s="57"/>
       <c r="F759" s="47" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="G759" s="47" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="H759" s="6"/>
       <c r="I759" s="6"/>
@@ -43357,7 +43367,7 @@
       <c r="T759" s="6"/>
       <c r="U759" s="6"/>
     </row>
-    <row r="760" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="6" t="s">
         <v>32</v>
       </c>
@@ -43365,17 +43375,17 @@
         <v>33</v>
       </c>
       <c r="C760" s="47" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="D760" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E760" s="57"/>
       <c r="F760" s="47" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="G760" s="47" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="H760" s="6"/>
       <c r="I760" s="6"/>
@@ -43398,7 +43408,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
     </row>
-    <row r="761" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="6" t="s">
         <v>32</v>
       </c>
@@ -43424,7 +43434,7 @@
       <c r="K761" s="6"/>
       <c r="L761" s="6"/>
       <c r="M761" s="47" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="N761" s="6"/>
       <c r="O761" s="6"/>
@@ -43439,7 +43449,7 @@
       <c r="T761" s="6"/>
       <c r="U761" s="6"/>
     </row>
-    <row r="762" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="6" t="s">
         <v>32</v>
       </c>
@@ -43447,17 +43457,17 @@
         <v>33</v>
       </c>
       <c r="C762" s="47" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="D762" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E762" s="57"/>
       <c r="F762" s="47" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="G762" s="47" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="H762" s="6"/>
       <c r="I762" s="6"/>
@@ -43480,7 +43490,7 @@
       <c r="T762" s="6"/>
       <c r="U762" s="6"/>
     </row>
-    <row r="763" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="6" t="s">
         <v>32</v>
       </c>
@@ -43488,17 +43498,17 @@
         <v>33</v>
       </c>
       <c r="C763" s="47" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D763" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E763" s="57"/>
       <c r="F763" s="47" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="G763" s="47" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="H763" s="6"/>
       <c r="I763" s="6"/>
@@ -43521,7 +43531,7 @@
       <c r="T763" s="6"/>
       <c r="U763" s="6"/>
     </row>
-    <row r="764" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="6" t="s">
         <v>32</v>
       </c>
@@ -43529,17 +43539,17 @@
         <v>33</v>
       </c>
       <c r="C764" s="47" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="D764" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E764" s="57"/>
       <c r="F764" s="47" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="G764" s="47" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="H764" s="6"/>
       <c r="I764" s="6"/>
@@ -43562,7 +43572,7 @@
       <c r="T764" s="6"/>
       <c r="U764" s="6"/>
     </row>
-    <row r="765" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="6" t="s">
         <v>32</v>
       </c>
@@ -43570,17 +43580,17 @@
         <v>33</v>
       </c>
       <c r="C765" s="47" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="D765" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E765" s="57"/>
       <c r="F765" s="47" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="G765" s="47" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="H765" s="6"/>
       <c r="I765" s="6"/>
@@ -43603,7 +43613,7 @@
       <c r="T765" s="6"/>
       <c r="U765" s="6"/>
     </row>
-    <row r="766" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="6" t="s">
         <v>32</v>
       </c>
@@ -43611,16 +43621,16 @@
         <v>265</v>
       </c>
       <c r="C766" s="47" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="D766" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E766" s="43" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="F766" s="74" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="G766" s="74" t="s">
         <v>2234</v>
@@ -43646,7 +43656,7 @@
       <c r="T766" s="6"/>
       <c r="U766" s="6"/>
     </row>
-    <row r="767" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="6" t="s">
         <v>32</v>
       </c>
@@ -43654,19 +43664,19 @@
         <v>393</v>
       </c>
       <c r="C767" s="47" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="D767" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E767" s="43" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="F767" s="74" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="G767" s="74" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="H767" s="39"/>
       <c r="I767" s="6"/>
@@ -43689,7 +43699,7 @@
       <c r="T767" s="6"/>
       <c r="U767" s="6"/>
     </row>
-    <row r="768" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="6" t="s">
         <v>32</v>
       </c>
@@ -43697,16 +43707,16 @@
         <v>393</v>
       </c>
       <c r="C768" s="47" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D768" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E768" s="43" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="F768" s="74" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="G768" s="74" t="s">
         <v>1792</v>
@@ -43732,7 +43742,7 @@
       <c r="T768" s="6"/>
       <c r="U768" s="6"/>
     </row>
-    <row r="769" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="6" t="s">
         <v>32</v>
       </c>
@@ -43746,7 +43756,7 @@
         <v>1579</v>
       </c>
       <c r="E769" s="43" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="F769" s="74" t="s">
         <v>2506</v>
@@ -43775,7 +43785,7 @@
       <c r="T769" s="6"/>
       <c r="U769" s="6"/>
     </row>
-    <row r="770" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="6" t="s">
         <v>32</v>
       </c>
@@ -43783,19 +43793,19 @@
         <v>393</v>
       </c>
       <c r="C770" s="47" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="D770" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E770" s="43" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="F770" s="74" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="G770" s="74" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="H770" s="39"/>
       <c r="I770" s="6"/>
@@ -43818,7 +43828,7 @@
       <c r="T770" s="6"/>
       <c r="U770" s="6"/>
     </row>
-    <row r="771" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="6" t="s">
         <v>32</v>
       </c>
@@ -43826,13 +43836,13 @@
         <v>393</v>
       </c>
       <c r="C771" s="47" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D771" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E771" s="43" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="F771" s="74" t="s">
         <v>2494</v>
@@ -43861,7 +43871,7 @@
       <c r="T771" s="6"/>
       <c r="U771" s="6"/>
     </row>
-    <row r="772" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="6" t="s">
         <v>32</v>
       </c>
@@ -43869,19 +43879,19 @@
         <v>393</v>
       </c>
       <c r="C772" s="47" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="D772" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E772" s="43" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="F772" s="74" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="G772" s="74" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="H772" s="39"/>
       <c r="I772" s="6"/>
@@ -43904,7 +43914,7 @@
       <c r="T772" s="6"/>
       <c r="U772" s="6"/>
     </row>
-    <row r="773" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="6" t="s">
         <v>32</v>
       </c>
@@ -43912,19 +43922,19 @@
         <v>393</v>
       </c>
       <c r="C773" s="47" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="D773" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E773" s="43" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="F773" s="74" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="G773" s="74" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="H773" s="39"/>
       <c r="I773" s="6"/>
@@ -43947,7 +43957,7 @@
       <c r="T773" s="6"/>
       <c r="U773" s="6"/>
     </row>
-    <row r="774" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="6" t="s">
         <v>32</v>
       </c>
@@ -43955,19 +43965,19 @@
         <v>393</v>
       </c>
       <c r="C774" s="47" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="D774" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E774" s="43" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="F774" s="74" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="G774" s="74" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="H774" s="39"/>
       <c r="I774" s="6"/>
@@ -43990,7 +44000,7 @@
       <c r="T774" s="6"/>
       <c r="U774" s="6"/>
     </row>
-    <row r="775" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="6" t="s">
         <v>32</v>
       </c>
@@ -43998,22 +44008,22 @@
         <v>393</v>
       </c>
       <c r="C775" s="47" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="D775" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E775" s="43" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="F775" s="74" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="G775" s="74" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="H775" s="75" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="I775" s="6"/>
       <c r="J775" s="6"/>
@@ -44035,7 +44045,7 @@
       <c r="T775" s="6"/>
       <c r="U775" s="6"/>
     </row>
-    <row r="776" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="6" t="s">
         <v>32</v>
       </c>
@@ -44049,7 +44059,7 @@
         <v>1579</v>
       </c>
       <c r="E776" s="43" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="F776" s="74" t="s">
         <v>1930</v>
@@ -44080,7 +44090,7 @@
       <c r="T776" s="6"/>
       <c r="U776" s="6"/>
     </row>
-    <row r="777" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="6" t="s">
         <v>32</v>
       </c>
@@ -44088,19 +44098,19 @@
         <v>393</v>
       </c>
       <c r="C777" s="47" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="D777" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E777" s="43" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="F777" s="74" t="s">
         <v>1990</v>
       </c>
       <c r="G777" s="74" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="H777" s="39"/>
       <c r="I777" s="6"/>
@@ -44123,7 +44133,7 @@
       <c r="T777" s="6"/>
       <c r="U777" s="6"/>
     </row>
-    <row r="778" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="6" t="s">
         <v>32</v>
       </c>
@@ -44131,19 +44141,19 @@
         <v>393</v>
       </c>
       <c r="C778" s="47" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="D778" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E778" s="43" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="F778" s="74" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="G778" s="74" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="H778" s="39"/>
       <c r="I778" s="6"/>
@@ -44166,7 +44176,7 @@
       <c r="T778" s="6"/>
       <c r="U778" s="6"/>
     </row>
-    <row r="779" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="6" t="s">
         <v>32</v>
       </c>
@@ -44174,19 +44184,19 @@
         <v>393</v>
       </c>
       <c r="C779" s="47" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="D779" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E779" s="43" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="F779" s="74" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="G779" s="74" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="H779" s="39"/>
       <c r="I779" s="6"/>
@@ -44194,7 +44204,7 @@
       <c r="K779" s="6"/>
       <c r="L779" s="6"/>
       <c r="M779" s="42" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="N779" s="6"/>
       <c r="O779" s="6"/>
@@ -44209,7 +44219,7 @@
       <c r="T779" s="6"/>
       <c r="U779" s="6"/>
     </row>
-    <row r="780" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="6" t="s">
         <v>32</v>
       </c>
@@ -44217,29 +44227,29 @@
         <v>393</v>
       </c>
       <c r="C780" s="47" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="D780" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E780" s="43" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="F780" s="74" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="G780" s="74" t="s">
         <v>2331</v>
       </c>
       <c r="H780" s="42" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="I780" s="6"/>
       <c r="J780" s="6"/>
       <c r="K780" s="6"/>
       <c r="L780" s="6"/>
       <c r="M780" s="42" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="N780" s="6"/>
       <c r="O780" s="6"/>
@@ -44254,7 +44264,7 @@
       <c r="T780" s="6"/>
       <c r="U780" s="6"/>
     </row>
-    <row r="781" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6" t="s">
         <v>32</v>
       </c>
@@ -44277,7 +44287,7 @@
         <v>1773</v>
       </c>
       <c r="H781" s="42" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="I781" s="6"/>
       <c r="J781" s="6"/>
@@ -44299,7 +44309,7 @@
       <c r="T781" s="6"/>
       <c r="U781" s="6"/>
     </row>
-    <row r="782" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="6" t="s">
         <v>32</v>
       </c>
@@ -44307,16 +44317,16 @@
         <v>393</v>
       </c>
       <c r="C782" s="47" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="D782" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E782" s="43" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="F782" s="74" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="G782" s="74" t="s">
         <v>1634</v>
@@ -44342,7 +44352,7 @@
       <c r="T782" s="6"/>
       <c r="U782" s="6"/>
     </row>
-    <row r="783" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="6" t="s">
         <v>32</v>
       </c>
@@ -44365,7 +44375,7 @@
         <v>1769</v>
       </c>
       <c r="H783" s="42" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="I783" s="6"/>
       <c r="J783" s="6"/>
@@ -44387,7 +44397,7 @@
       <c r="T783" s="6"/>
       <c r="U783" s="6"/>
     </row>
-    <row r="784" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="6" t="s">
         <v>32</v>
       </c>
@@ -44395,19 +44405,19 @@
         <v>393</v>
       </c>
       <c r="C784" s="47" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="D784" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E784" s="43" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="F784" s="74" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="G784" s="74" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="H784" s="39"/>
       <c r="I784" s="6"/>
@@ -44430,7 +44440,7 @@
       <c r="T784" s="6"/>
       <c r="U784" s="6"/>
     </row>
-    <row r="785" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="6" t="s">
         <v>32</v>
       </c>
@@ -44438,16 +44448,16 @@
         <v>393</v>
       </c>
       <c r="C785" s="47" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="D785" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E785" s="43" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="F785" s="74" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="G785" s="74" t="s">
         <v>1951</v>
@@ -44458,22 +44468,22 @@
       <c r="K785" s="6"/>
       <c r="L785" s="6"/>
       <c r="M785" s="42" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N785" s="6"/>
       <c r="O785" s="6"/>
       <c r="P785" s="6" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="Q785" s="6" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="R785" s="6"/>
       <c r="S785" s="6"/>
       <c r="T785" s="6"/>
       <c r="U785" s="6"/>
     </row>
-    <row r="786" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="6" t="s">
         <v>32</v>
       </c>
@@ -44487,7 +44497,7 @@
         <v>1579</v>
       </c>
       <c r="E786" s="43" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="F786" s="6" t="s">
         <v>2450</v>
@@ -44516,7 +44526,7 @@
       <c r="T786" s="6"/>
       <c r="U786" s="6"/>
     </row>
-    <row r="787" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="6" t="s">
         <v>32</v>
       </c>
@@ -44524,19 +44534,19 @@
         <v>393</v>
       </c>
       <c r="C787" s="47" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="D787" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E787" s="43" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="F787" s="74" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="G787" s="74" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="H787" s="39"/>
       <c r="I787" s="6"/>
@@ -44559,7 +44569,7 @@
       <c r="T787" s="6"/>
       <c r="U787" s="6"/>
     </row>
-    <row r="788" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="6" t="s">
         <v>32</v>
       </c>
@@ -44573,7 +44583,7 @@
         <v>1579</v>
       </c>
       <c r="E788" s="43" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="F788" s="74" t="s">
         <v>2445</v>
@@ -44582,7 +44592,7 @@
         <v>1792</v>
       </c>
       <c r="H788" s="42" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="I788" s="6"/>
       <c r="J788" s="6"/>
@@ -44604,7 +44614,7 @@
       <c r="T788" s="6"/>
       <c r="U788" s="6"/>
     </row>
-    <row r="789" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="6" t="s">
         <v>32</v>
       </c>
@@ -44612,44 +44622,44 @@
         <v>393</v>
       </c>
       <c r="C789" s="47" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="D789" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E789" s="43" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F789" s="74" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="G789" s="74" t="s">
         <v>1626</v>
       </c>
       <c r="H789" s="42" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="I789" s="6"/>
       <c r="J789" s="6"/>
       <c r="K789" s="6"/>
       <c r="L789" s="6"/>
       <c r="M789" s="42" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N789" s="6"/>
       <c r="O789" s="6"/>
       <c r="P789" s="6" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="Q789" s="6" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="R789" s="6"/>
       <c r="S789" s="6"/>
       <c r="T789" s="6"/>
       <c r="U789" s="6"/>
     </row>
-    <row r="790" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="6" t="s">
         <v>32</v>
       </c>
@@ -44657,19 +44667,19 @@
         <v>393</v>
       </c>
       <c r="C790" s="47" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="D790" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E790" s="43" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="F790" s="74" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="G790" s="74" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="H790" s="39"/>
       <c r="I790" s="6"/>
@@ -44692,7 +44702,7 @@
       <c r="T790" s="6"/>
       <c r="U790" s="6"/>
     </row>
-    <row r="791" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="6" t="s">
         <v>32</v>
       </c>
@@ -44700,16 +44710,16 @@
         <v>393</v>
       </c>
       <c r="C791" s="47" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D791" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E791" s="43" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F791" s="74" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="G791" s="74" t="s">
         <v>1672</v>
@@ -44720,7 +44730,7 @@
       <c r="K791" s="6"/>
       <c r="L791" s="6"/>
       <c r="M791" s="42" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="N791" s="6"/>
       <c r="O791" s="6"/>
@@ -44735,7 +44745,7 @@
       <c r="T791" s="6"/>
       <c r="U791" s="6"/>
     </row>
-    <row r="792" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="6" t="s">
         <v>32</v>
       </c>
@@ -44743,16 +44753,16 @@
         <v>393</v>
       </c>
       <c r="C792" s="47" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="D792" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E792" s="43" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F792" s="74" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="G792" s="74" t="s">
         <v>2088</v>
@@ -44778,7 +44788,7 @@
       <c r="T792" s="6"/>
       <c r="U792" s="6"/>
     </row>
-    <row r="793" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="6" t="s">
         <v>32</v>
       </c>
@@ -44786,16 +44796,16 @@
         <v>393</v>
       </c>
       <c r="C793" s="47" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="D793" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E793" s="43" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="F793" s="74" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="G793" s="74" t="s">
         <v>1602</v>
@@ -44821,7 +44831,7 @@
       <c r="T793" s="6"/>
       <c r="U793" s="6"/>
     </row>
-    <row r="794" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="6" t="s">
         <v>32</v>
       </c>
@@ -44829,16 +44839,16 @@
         <v>393</v>
       </c>
       <c r="C794" s="47" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="D794" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E794" s="43" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F794" s="74" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="G794" s="74" t="s">
         <v>2089</v>
@@ -44864,7 +44874,7 @@
       <c r="T794" s="6"/>
       <c r="U794" s="6"/>
     </row>
-    <row r="795" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="6" t="s">
         <v>32</v>
       </c>
@@ -44872,16 +44882,16 @@
         <v>393</v>
       </c>
       <c r="C795" s="47" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="D795" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E795" s="43" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="F795" s="74" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="G795" s="74" t="s">
         <v>1642</v>
@@ -44907,7 +44917,7 @@
       <c r="T795" s="6"/>
       <c r="U795" s="6"/>
     </row>
-    <row r="796" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="6" t="s">
         <v>32</v>
       </c>
@@ -44915,22 +44925,22 @@
         <v>393</v>
       </c>
       <c r="C796" s="47" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D796" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E796" s="39" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F796" s="38" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="G796" s="38" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="H796" s="42" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="I796" s="6"/>
       <c r="J796" s="6"/>
@@ -44942,17 +44952,17 @@
       <c r="N796" s="6"/>
       <c r="O796" s="6"/>
       <c r="P796" s="6" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="Q796" s="6" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="R796" s="6"/>
       <c r="S796" s="6"/>
       <c r="T796" s="6"/>
       <c r="U796" s="6"/>
     </row>
-    <row r="797" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="6" t="s">
         <v>32</v>
       </c>
@@ -44960,7 +44970,7 @@
         <v>393</v>
       </c>
       <c r="C797" s="47" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="D797" s="47" t="s">
         <v>1579</v>
@@ -44975,7 +44985,7 @@
         <v>1756</v>
       </c>
       <c r="H797" s="42" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="I797" s="6"/>
       <c r="J797" s="6"/>
@@ -44997,7 +45007,7 @@
       <c r="T797" s="6"/>
       <c r="U797" s="6"/>
     </row>
-    <row r="798" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="6" t="s">
         <v>32</v>
       </c>
@@ -45040,7 +45050,7 @@
       <c r="T798" s="6"/>
       <c r="U798" s="6"/>
     </row>
-    <row r="799" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="6" t="s">
         <v>32</v>
       </c>
@@ -45063,7 +45073,7 @@
         <v>1775</v>
       </c>
       <c r="H799" s="42" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="I799" s="6"/>
       <c r="J799" s="6"/>
@@ -45085,7 +45095,7 @@
       <c r="T799" s="6"/>
       <c r="U799" s="6"/>
     </row>
-    <row r="800" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="6" t="s">
         <v>32</v>
       </c>
@@ -45093,13 +45103,13 @@
         <v>393</v>
       </c>
       <c r="C800" s="47" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="D800" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E800" s="39" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F800" s="38" t="s">
         <v>2488</v>
@@ -45108,14 +45118,14 @@
         <v>2489</v>
       </c>
       <c r="H800" s="42" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="I800" s="6"/>
       <c r="J800" s="6"/>
       <c r="K800" s="6"/>
       <c r="L800" s="6"/>
       <c r="M800" s="42" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="N800" s="6"/>
       <c r="O800" s="6"/>
@@ -45126,7 +45136,7 @@
       <c r="T800" s="6"/>
       <c r="U800" s="6"/>
     </row>
-    <row r="801" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="6" t="s">
         <v>32</v>
       </c>
@@ -45171,7 +45181,7 @@
       <c r="T801" s="6"/>
       <c r="U801" s="6"/>
     </row>
-    <row r="802" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="6" t="s">
         <v>32</v>
       </c>
@@ -45179,22 +45189,22 @@
         <v>393</v>
       </c>
       <c r="C802" s="47" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="D802" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E802" s="39" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="F802" s="38" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="G802" s="38" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="H802" s="42" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="I802" s="6"/>
       <c r="J802" s="6"/>
@@ -45216,7 +45226,7 @@
       <c r="T802" s="6"/>
       <c r="U802" s="6"/>
     </row>
-    <row r="803" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6" t="s">
         <v>32</v>
       </c>
@@ -45224,29 +45234,29 @@
         <v>393</v>
       </c>
       <c r="C803" s="47" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="D803" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E803" s="39" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="F803" s="38" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="G803" s="38" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="H803" s="42" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="I803" s="6"/>
       <c r="J803" s="6"/>
       <c r="K803" s="6"/>
       <c r="L803" s="6"/>
       <c r="M803" s="42" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="N803" s="6"/>
       <c r="O803" s="6"/>
@@ -45261,7 +45271,7 @@
       <c r="T803" s="6"/>
       <c r="U803" s="6"/>
     </row>
-    <row r="804" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="6" t="s">
         <v>32</v>
       </c>
@@ -45269,14 +45279,14 @@
         <v>536</v>
       </c>
       <c r="C804" s="47" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D804" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E804" s="57"/>
       <c r="F804" s="47" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="G804" s="47" t="s">
         <v>2325</v>
@@ -45302,7 +45312,7 @@
       <c r="T804" s="6"/>
       <c r="U804" s="6"/>
     </row>
-    <row r="805" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="6" t="s">
         <v>32</v>
       </c>
@@ -45310,14 +45320,14 @@
         <v>33</v>
       </c>
       <c r="C805" s="47" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="D805" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E805" s="57"/>
       <c r="F805" s="47" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="G805" s="47" t="s">
         <v>1598</v>
@@ -45343,7 +45353,7 @@
       <c r="T805" s="6"/>
       <c r="U805" s="6"/>
     </row>
-    <row r="806" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="6" t="s">
         <v>32</v>
       </c>
@@ -45351,17 +45361,17 @@
         <v>33</v>
       </c>
       <c r="C806" s="47" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="D806" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E806" s="57"/>
       <c r="F806" s="47" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="G806" s="47" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="H806" s="6"/>
       <c r="I806" s="6"/>
@@ -45384,7 +45394,7 @@
       <c r="T806" s="6"/>
       <c r="U806" s="6"/>
     </row>
-    <row r="807" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:21" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="6" t="s">
         <v>32</v>
       </c>
@@ -45392,17 +45402,17 @@
         <v>562</v>
       </c>
       <c r="C807" s="47" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="D807" s="47" t="s">
         <v>1579</v>
       </c>
       <c r="E807" s="57"/>
       <c r="F807" s="47" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="G807" s="47" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="H807" s="6"/>
       <c r="I807" s="6"/>
@@ -45432,8 +45442,13 @@
         <filter val="Contact"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ELOUHICHI"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R169" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="R171" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
